--- a/test__1__2col.xlsx
+++ b/test__1__2col.xlsx
@@ -458,7 +458,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>can qurtaran olmaq istəyirdim indi bu ölkədən canımı qurtarmaq istəyirəm</t>
+          <t>can qurtaran olmaq istəyirdim indi bu ölkədən canımı qurtarmaq istə</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -528,7 +528,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>oktavian oturub birdən beyni çönüb ala xeyir ola yuli sezar birinci o ay tərtib edir gəl oktyabr ayında mənə həsr olunsun</t>
+          <t>oktavian oturub birdən beyni çönüb ala xeyir ola yuli sezar birinci o ay tərtib et gəl oktyabr ayında mənə həsr olunsun</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -618,7 +618,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>müqayisə üçün deyək ki azərbaycanla əksinə münasibətlər ancaq inkişaf edir</t>
+          <t>müqayisə üçün deyək ki azərbaycanla əksinə münasibətlər ancaq inkişaf et</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -658,7 +658,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>şəkilə baxanda adamın tükləri biz biz olur</t>
+          <t>şəkilə baxanda adamın tükləri biz biz ol</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -738,7 +738,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>tamamilə razıyam bizim tərəfə o qədər zəif gəlir ki çənə su getmir</t>
+          <t>tamamilə razıyam bizim tərəfə o qədər zəif gəl ki çənə su getmir</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -788,7 +788,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>mover dən çox məmnunam digər kargo şirkətlərinə baxanda mallar vaxtı vaxtında gəlir istədiyim suala cavab ala bilirəm</t>
+          <t>mover dən çox məmnunam digər kargo şirkətlərinə baxanda mallar vaxtı vaxtında gəl istədiyim suala cavab ala bilirəm</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -848,7 +848,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>bakcell də unutmayaq ayaqqabını bağlamağa əyilirsən internet gedir</t>
+          <t>bakcell də unutmayaq ayaqqabını bağlamağa əyilirsən internet get</t>
         </is>
       </c>
       <c r="B42" t="n">
@@ -888,7 +888,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>əladır ama azpulmat da gəlsə bank xidmətlərinə lap əla olar</t>
+          <t>əla ama azpulmat da gəlsə bank xidmətlərinə lap əla olar</t>
         </is>
       </c>
       <c r="B46" t="n">
@@ -1048,7 +1048,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>yaxşı etdi saxta proflar zad azalacaq ümumiyyətlə fərqli bir twitter olacağına inanıram karvansara yox</t>
+          <t>yaxşı et saxta proflar zad azalacaq ümumiyyətlə fərqli bir twitter olacağına inanıram karvansara yox</t>
         </is>
       </c>
       <c r="B62" t="n">
@@ -1058,7 +1058,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>fransanın əlinə verdilər dünya kubokunu</t>
+          <t>fransanın əlinə ver dünya kubokunu</t>
         </is>
       </c>
       <c r="B63" t="n">
@@ -1238,7 +1238,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>türkiyede tikilən binalar və evlər nəsə çox keyfiyyetsizdir hər zəlzələdə dağıntı çox olur allah ölenlere rehmet yaralılara şəfa versin</t>
+          <t>türkiyede tikilən binalar və evlər nəsə çox keyfiyyetsizdir hər zəlzələdə dağıntı çox ol allah ölenlere rehmet yaralılara şəfa versin</t>
         </is>
       </c>
       <c r="B81" t="n">
@@ -1328,7 +1328,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>yaxşıdı trendyolda endirimlə hələ &lt;NUM&gt; azndi kargo</t>
+          <t>yaxşı trendyolda endirimlə hələ &lt;NUM&gt; azndi kargo</t>
         </is>
       </c>
       <c r="B90" t="n">
@@ -1348,7 +1348,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>mən müəllim işləyəndə bizim bir direktorumuz vardı ramazan müəllim deyirdi ki pis şagird yoxdur pis_NEG müəllim_NEG var_NEG sözün düzu əvvəllər bu fikir mənə qəribə gəlirdi amma sonra gördüm ki düz deyir allah ona rəhmət eləsin</t>
+          <t>mən müəllim işləyəndə bizim bir direktorumuz vardı ramazan müəllim deyirdi ki pis şagird yoxdur pis_NEG müəllim_NEG var_NEG sözün düzu əvvəllər bu fikir mənə qəribə gəlirdi amma sonra gör ki düz de allah ona rəhmət eləsin</t>
         </is>
       </c>
       <c r="B92" t="n">
@@ -1528,7 +1528,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>görünür çox adam tənqidi yanaşır gedin biraz araşdırın xaiş o ətlərin keyfiyyəti normal toyuq ətinin keyfiyyətindən daha çoxdur hətta toyuq ətinin yaratdığı bəzi əks təsirlər o ətlərdə yoxdur dünyaya_NEG hansı_NEG gözlə_NEG baxırıq bilmirəm elm texnologiya gün gündən inkişaf edir biz yatırıq ayıbdır vallah labaratoriya şəraitində bal süd balıq əti və də hazırlanır yəqin heç bundan_NEG da_NEG xəbəriniz_NEG yoxdur</t>
+          <t>görünür çox adam tənqidi yanaşır gedin biraz araşdırın xaiş o ətlərin keyfiyyəti normal toyuq ətinin keyfiyyətindən daha çoxdur hətta toyuq ətinin yaratdığı bəzi əks təsirlər o ətlərdə yoxdur dünyaya_NEG hansı_NEG gözlə_NEG baxırıq bilmirəm elm texnologiya gün gündən inkişaf et biz yatırıq ayıbdır vallah labaratoriya şəraitində bal süd balıq əti və də hazırlanır yəqin heç bundan_NEG da_NEG xəbəriniz_NEG yoxdur</t>
         </is>
       </c>
       <c r="B110" t="n">
@@ -1648,7 +1648,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>admin messinin yığma ilə &lt;NUM&gt; titulu var gənclərlə dünya çempionluğu &lt;NUM&gt; olimpiada &lt;NUM&gt; kopa ametika &lt;NUM&gt; finalissima &lt;NUM&gt; və dünya çempionluğu &lt;NUM&gt; argentina azarkeşi olaraq bu oyunlara baxmaq və argentinanı çempion görmək adamı xoşbəxt edir kaş messi yığma ilə digər &lt;NUM&gt; finalda uduzmaya idi</t>
+          <t>admin messinin yığma ilə &lt;NUM&gt; titulu var gənclərlə dünya çempionluğu &lt;NUM&gt; olimpiada &lt;NUM&gt; kopa ametika &lt;NUM&gt; finalissima &lt;NUM&gt; və dünya çempionluğu &lt;NUM&gt; argentina azarkeşi olaraq bu oyunlara baxmaq və argentinanı çempion görmək adamı xoşbəxt et kaş messi yığma ilə digər &lt;NUM&gt; finalda uduzmaya idi</t>
         </is>
       </c>
       <c r="B122" t="n">
@@ -1788,7 +1788,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>həqiqətən messinin qalib gəlməsini görmək xoş oldu argentina laiq idi çempionluğa maradonnanın da ruhu şad olsun elə deyirsizki hər kəsin bir ömür payı var da</t>
+          <t>həqiqətən messinin qalib gəlməsini görmək xoş ol argentina laiq idi çempionluğa maradonnanın da ruhu şad olsun elə deyirsizki hər kəsin bir ömür payı var da</t>
         </is>
       </c>
       <c r="B136" t="n">
@@ -1818,7 +1818,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>bizimkiləri qoyasan ancaq ya hüseyn ya hüseyin qışqıralar bədbəxt millətdidə camaat kosmosda ev tikir elm texnikanı inkişaf etdirir bizimkilərdə belə şeylərə lağ edir</t>
+          <t>bizimkiləri qoyasan ancaq ya hüseyn ya hüseyin qışqıralar bədbəxt millətdidə camaat kosmosda ev tikir elm texnikanı inkişaf etdirir bizimkilərdə belə şeylərə lağ et</t>
         </is>
       </c>
       <c r="B139" t="n">
@@ -1848,7 +1848,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>tamam deyib özüm bakıdan türkiyəyə zənglər cəhd etdim hər dəfə də növbə o qədər uzun oldu ki konturlar çatmadı sağ olsun digər qruplarda bir xanım tapmağa kömək etdi bağlamanın tr izləmə kodu ilə baxdıq göstərdi ki postacı gətirib və kango əməkdaşı götürməyib mən bunu mənimlə birinci bağlama gələndə əlaqə saxlayan əməkadşa bildirdim dedilər ola bilməz iş saatları olmadığına görə sabahsı call center zəng etdim gözlətdilər soruşdular dedilər ola bilməzki bizdən kimsə götürməsin ptt dən postacı gətirməyib vpda danışdığım əməkdaş dedi ki deyin yenidən postacı gətirsin ptt üeb chat ın da yazdıqda belə xidmət olmadığını hökmən zəng edilməli olduğun bildirdilər kango əməkdaşına xahiş falan alınmadı özüm zəng etdim ordakı əməkdaş da illa deyirki gətirmişik götürməmisiz yenidən gətirilmə yoxdur özüvüz_NEG gəlməlisiz_NEG mən_NEG də bildirirəm ki mən azərbaycandan türkiyəyə bir bağlamaya görə gələ bilmərəm bu sözü dedikdə üzümə &lt;NUM&gt; &lt;NUM&gt; dəfə adboy verdi hər dəfəsində konturlar uçur bu arada sabahsı gün səhər yenə web çat deyir müraciət yaradın müraciət yazıb qeyd etdimki postacı bunu gətirməyib yenidən gətirsin falan filan artıq mailə rəsmi cavab gəldi ki gətirilib və siz olmamısız falan filan mən də getdim kango nun ofisinə bağlama götürməyə problemi bildirdim qapıda problemi şöbə ilə həll edən xanım yaxınlaşdı gəldi dedi ola bilməz yenə ola bilməz götürməyək falan filan maili göstərirəm deyir yalan deyirlər getdi maraqlandı gəldi yenə dedi ki onlar yalan deyir mən də onların sözü ilə gəldim evə satıcıya şikayət yazdım ki bəs pul geri qayıtsın çünki poçtalyon gətirmir amma yuxarıda qeyd etdiyim kimi beynəlxalq ilə göstərir ki poçtalyon bunu gətirib amma götürülməyib satıcı və aliexpress çatdakı əməkdaş deyir ki bu gəlibdir buna görə müraciətim ləğv edildi pulun geri gəlməyi ləğv olundu artıq &lt;NUM&gt; &lt;NUM&gt; gün türkiyəyə zəng etməkdən yoruldum yenə şikayət yazdım aliexp çünki artıq kango vpdakı əməkdaşın dediyinə görə ptt yalan deyir gətirməyiblər dedi biz xah</t>
+          <t>tamam deyib özüm bakıdan türkiyəyə zənglər cəhd etdim hər dəfə də növbə o qədər uzun ol ki konturlar çatmadı sağ olsun digər qruplarda bir xanım tapmağa kömək et bağlamanın tr izləmə kodu ilə baxdıq göstərdi ki postacı gətirib və kango əməkdaşı götürməyib mən bunu mənimlə birinci bağlama gələndə əlaqə saxlayan əməkadşa bildirdim dedilər ola bilməz iş saatları olmadığına görə sabahsı call center zəng etdim gözlətdilər soruşdular dedilər ola bilməzki bizdən kimsə götürməsin ptt dən postacı gətirməyib vpda danışdığım əməkdaş dedi ki deyin yenidən postacı gətirsin ptt üeb chat ın da yazdıqda belə xidmət olmadığını hökmən zəng edilməli olduğun bildirdilər kango əməkdaşına xahiş falan alınmadı özüm zəng etdim ordakı əməkdaş da illa deyirki gətirmişik götürməmisiz yenidən gətirilmə yoxdur özüvüz_NEG gəlməlisiz_NEG mən_NEG də bildirirəm ki mən azərbaycandan türkiyəyə bir bağlamaya görə gələ bilmərəm bu sözü dedikdə üzümə &lt;NUM&gt; &lt;NUM&gt; dəfə adboy verdi hər dəfəsində konturlar uçur bu arada sabahsı gün səhər yenə web çat de müraciət yaradın müraciət yazıb qeyd etdimki postacı bunu gətirməyib yenidən gətirsin falan filan artıq mailə rəsmi cavab gəl ki gətirilib və siz olmamısız falan filan mən də getdim kango nun ofisinə bağlama götürməyə problemi bildirdim qapıda problemi şöbə ilə həll edən xanım yaxınlaşdı gəl dedi ola bilməz yenə ola bilməz götürməyək falan filan maili göstərirəm de yalan deyirlər get maraqlandı gəl yenə dedi ki onlar yalan de mən də onların sözü ilə gəldim evə satıcıya şikayət yazdım ki bəs pul geri qayıtsın çünki poçtalyon gətirmir amma yuxarıda qeyd etdiyim kimi beynəlxalq ilə göstərir ki poçtalyon bunu gətirib amma götürülməyib satıcı və aliexpress çatdakı əməkdaş de ki bu gəlibdir buna görə müraciətim ləğv edildi pulun geri gəlməyi ləğv olundu artıq &lt;NUM&gt; &lt;NUM&gt; gün türkiyəyə zəng etməkdən yoruldum yenə şikayət yazdım aliexp çünki artıq kango vpdakı əməkdaşın dediyinə görə ptt yalan de gətirməyiblər dedi biz xah</t>
         </is>
       </c>
       <c r="B142" t="n">
@@ -2138,7 +2138,7 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>spider man'dakı dr octopus gerçək olur deyəsən</t>
+          <t>spider man'dakı dr octopus gerçək ol deyəsən</t>
         </is>
       </c>
       <c r="B171" t="n">
@@ -2148,7 +2148,7 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>şotçiki &lt;NUM&gt; aydı dəyişiblər dekabr &lt;NUM&gt; dan &lt;NUM&gt; manat gəlib şotçik pülüyür &lt;NUM&gt; kub əvəzinə &lt;NUM&gt; kub yazır baxan yoxdu şikayət etmişəm deyir bizlik deyil dağ_NEG rayonudur_NEG dəlixanadır_NEG heç bir_NEG güzəşt_NEG də_NEG yoxdu &lt;NUM&gt; ün limiti bitib artığ ölkə relsdən çıxıb socar da soxa soxa gedir yiyəsi yoxdu</t>
+          <t>şotçiki &lt;NUM&gt; aydı dəyişiblər dekabr &lt;NUM&gt; dan &lt;NUM&gt; manat gəlib şotçik pülüyür &lt;NUM&gt; kub əvəzinə &lt;NUM&gt; kub yazır baxan yoxdu şikayət etmişəm de bizlik deyil dağ_NEG rayonudur_NEG dəlixanadır_NEG heç bir_NEG güzəşt_NEG də_NEG yoxdu &lt;NUM&gt; ün limiti bitib artığ ölkə relsdən çıxıb socar da soxa soxa get yiyəsi yoxdu</t>
         </is>
       </c>
       <c r="B172" t="n">
@@ -2178,7 +2178,7 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>hələ bir növbəti dəfə aya insan göndərə bilin ondan sonra danışın heç olmazsa_NEG inanın_NEG ki_NEG &lt;NUM&gt; cu ilə qədər bu dediklərini edə bilməyəcəklər bunun mümkün olmadığını özləri yaxşı bilir amma yenə də boş boş danışırlar</t>
+          <t>hələ bir növbəti dəfə aya insan göndərə bilin ondan sonra danışın heç olmazsa_NEG inanın_NEG ki_NEG &lt;NUM&gt; cu ilə qədər bu dediklərini edə bilməyəcəklər bunun mümkün olmadığını özləri yaxşı bil amma yenə də boş boş danışırlar</t>
         </is>
       </c>
       <c r="B175" t="n">
@@ -2198,7 +2198,7 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>bizde blackfriday de &lt;NUM&gt; man nagd alişa &lt;NUM&gt; man endirim olur</t>
+          <t>bizde blackfriday de &lt;NUM&gt; man nagd alişa &lt;NUM&gt; man endirim ol</t>
         </is>
       </c>
       <c r="B177" t="n">
@@ -2208,7 +2208,7 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>messi qol vursun deyə hərşeyə əl atacaqlar futboldan anlayışı olan bilir ki o epizod penal deyildi hər oyun saysız sayda olur belə epizodlar</t>
+          <t>messi qol vursun deyə hərşeyə əl atacaqlar futboldan anlayışı olan bil ki o epizod penal deyildi hər oyun saysız sayda ol belə epizodlar</t>
         </is>
       </c>
       <c r="B178" t="n">
@@ -2238,7 +2238,7 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>elə geni dəyişmiş məhsullar bəs edir o həbə ehtiyac yoxdur d_NEG</t>
+          <t>elə geni dəyişmiş məhsullar bəs et o həbə ehtiyac yoxdur d_NEG</t>
         </is>
       </c>
       <c r="B181" t="n">
@@ -2358,7 +2358,7 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>bu kastro bizim adət ənənəni hardan bilir</t>
+          <t>bu kastro bizim adət ənənəni hardan bil</t>
         </is>
       </c>
       <c r="B193" t="n">
@@ -2438,7 +2438,7 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>bayer qarabağın onu udması üçün hər şey etdi qarabağaə da bayerin onu udması üçün çox şey etdi</t>
+          <t>bayer qarabağın onu udması üçün hər şey et qarabağaə da bayerin onu udması üçün çox şey et</t>
         </is>
       </c>
       <c r="B201" t="n">
@@ -2498,7 +2498,7 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>azerbaycana birbaşa sifariş verdim &lt;NUM&gt; gün sonra kargom geldi ve başqasının kargosunu mene gönderibler üstünde menim adım yazılıb zeng edirsen &lt;NUM&gt; e &lt;NUM&gt; ci adamsan gözleyirsen &lt;NUM&gt; manat da konturun gedir telefonu götüren de yardımcı olmur getdim genclik filialına müşteri xidmetlerine yaxınlaşdım xanım oturub telefonla oynayır deyirem ona ki şikayet burdan edirler deyir xanım işim var başqa müşteri de olmadığı halda bu işçinin telefonda ne işi var ay starex iişini &lt;NUM&gt; deqiqe gözledim xanim mene yene baxmadı axırı ay xanım bura müşteri xidmetleri deil dedim sonra da sert bir şekilde danışdı yardımcı da olmadı kime müraciet etmeliyem ki kargom qarışıb bilmirem instagramda reyleri bağlamaqla deil starex bacarmırsız bu işi etmeyin</t>
+          <t>azerbaycana birbaşa sifariş verdim &lt;NUM&gt; gün sonra kargom geldi ve başqasının kargosunu mene gönderibler üstünde menim adım yazılıb zeng edirsen &lt;NUM&gt; e &lt;NUM&gt; ci adamsan gözleyirsen &lt;NUM&gt; manat da konturun get telefonu götüren de yardımcı olmur getdim genclik filialına müşteri xidmetlerine yaxınlaşdım xanım oturub telefonla oynayır deyirem ona ki şikayet burdan edirler de xanım işim var başqa müşteri de olmadığı halda bu işçinin telefonda ne işi var ay starex iişini &lt;NUM&gt; deqiqe gözledim xanim mene yene baxmadı axırı ay xanım bura müşteri xidmetleri deil dedim sonra da sert bir şekilde danışdı yardımcı da olmadı kime müraciet etmeliyem ki kargom qarışıb bilmirem instagramda reyleri bağlamaqla deil starex bacarmırsız bu işi etmeyin</t>
         </is>
       </c>
       <c r="B207" t="n">
@@ -2548,7 +2548,7 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>günah ərəbdə deyil ki_NEG fıfa_NEG bilir_NEG ki ölkə islam dövlətidir və belə qayda qanunlar ola bilər qabagcadan düşünüb vermiye bilərdi qatara</t>
+          <t>günah ərəbdə deyil ki_NEG fıfa_NEG bil_NEG ki ölkə islam dövlətidir və belə qayda qanunlar ola bilər qabagcadan düşünüb vermiye bilərdi qatara</t>
         </is>
       </c>
       <c r="B212" t="n">
@@ -2598,7 +2598,7 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>o boyda kardasihanı var hollwooda ne ki uzdən iraqlar varsa hamsı yardim edeckler tezdenden silahlanmaqna rusun ozu pedarazlar bu yaxinda silah aparmaq isdeyirdiler bizimkiler qoymadi iranan keçirdiler yeni o boş sohbetdi &lt;NUM&gt; ilə yiğmaqi butun avropa və başqa olkələr erməniyə birbaşa dəsdək olur bizik bizə türkdən başqa yardım edən yoxdu duzdu onlarında qazancı var nə qədərdə olsa biz turk qoluna mənsub millətik yendə pis yaxşı yanimzdadılar hələ erməni başimza çox oyun açacaq &lt;NUM&gt; əsrə yaxındı edib bunan sonrada edəcək hər zaman tətikdə olmaq lazımdır</t>
+          <t>o boyda kardasihanı var hollwooda ne ki uzdən iraqlar varsa hamsı yardim edeckler tezdenden silahlanmaqna rusun ozu pedarazlar bu yaxinda silah aparmaq isdeyirdiler bizimkiler qoymadi iranan keçirdiler yeni o boş sohbetdi &lt;NUM&gt; ilə yiğmaqi butun avropa və başqa olkələr erməniyə birbaşa dəsdək ol bizik bizə türkdən başqa yardım edən yoxdu duzdu onlarında qazancı var nə qədərdə olsa biz turk qoluna mənsub millətik yendə pis yaxşı yanimzdadılar hələ erməni başimza çox oyun açacaq &lt;NUM&gt; əsrə yaxındı edib bunan sonrada edəcək hər zaman tətikdə olmaq lazımdır</t>
         </is>
       </c>
       <c r="B217" t="n">
@@ -2628,7 +2628,7 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>deyəsən sıfırlar bir az çox oldu</t>
+          <t>deyəsən sıfırlar bir az çox ol</t>
         </is>
       </c>
       <c r="B220" t="n">
@@ -2648,7 +2648,7 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>xidməti çox bəyəndim işini bilən və məsləhət görən əməkdaşlar çıxdı qarşımıza inşaatçılar filialında baku electronics da gördüyüm tv ni burda daha baha gördük fərq böyük deyil idi_NEG və_NEG söz_NEG verdikləri kimi &lt;NUM&gt; fərqlə məbləği dəyişdirlər və hədiyyə kranşteyn verdilər xüsusi təşəkkürümü maksim bəyə etmək istəyirəm sağ olsun çox kömək oldu bütün sualları cavabladı &lt;NUM&gt; ulduz verərdim amma &lt;NUM&gt; verirəm çünki çatdırılma və quraşdırılma problemdi biraz stock da yox idi_NEG tv_NEG səhəri_NEG günə söz verdilər nəticədə &lt;NUM&gt; gün sonra gəldi tv və quraşdırılması növbəti gün gəlməli idi amma xəbər çıxmadı özüm müraciət etdikdən sonra əlaqə saxladılar və adam gəlib quraşdırdı bu tərəfini necəsə təkminləşdirə bilsələr o zaman &lt;NUM&gt; ulduz alacaqlar</t>
+          <t>xidməti çox bəyən işini bilən və məsləhət görən əməkdaşlar çıxdı qarşımıza inşaatçılar filialında baku electronics da gördüyüm tv ni burda daha baha gördük fərq böyük deyil idi_NEG və_NEG söz_NEG verdikləri kimi &lt;NUM&gt; fərqlə məbləği dəyişdirlər və hədiyyə kranşteyn ver xüsusi təşəkkürümü maksim bəyə etmək istə sağ olsun çox kömək ol bütün sualları cavabladı &lt;NUM&gt; ulduz verərdim amma &lt;NUM&gt; verirəm çünki çatdırılma və quraşdırılma problemdi biraz stock da yox idi_NEG tv_NEG səhəri_NEG günə söz ver nəticədə &lt;NUM&gt; gün sonra gəl tv və quraşdırılması növbəti gün gəlməli idi amma xəbər çıxmadı özüm müraciət etdikdən sonra əlaqə saxladılar və adam gəlib quraşdırdı bu tərəfini necəsə təkminləşdirə bilsələr o zaman &lt;NUM&gt; ulduz alacaqlar</t>
         </is>
       </c>
       <c r="B222" t="n">
@@ -3038,7 +3038,7 @@
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>kfc dan sifariş verdim və xəta baş verdi ödəniş zamanı pul çıxıldı sifariş təsdiqlənmədi dəstək xəttinə &lt;NUM&gt; gündü yazıram amma nərmin adlı xanım hər dəfəsində baxılır deyir nə şikayətimə baxılır nə də ki cavab yazıb məlumat verən var kfc zakaz verdiyim fliallada danışdım onlarda sifariş olmadığını bildirdilər &lt;NUM&gt; gündürki əsəb keçirdirəm heç kəs_NEG pulu_NEG yerdən_NEG tapmayıb lazım gələrsə adiyyatı qrumlara da müraciət edəcəm bu cür məhsuliyyətsizlik və vecsizlik olmaz</t>
+          <t>kfc dan sifariş verdim və xəta baş verdi ödəniş zamanı pul çıxıldı sifariş təsdiqlənmədi dəstək xəttinə &lt;NUM&gt; gündü yazıram amma nərmin adlı xanım hər dəfəsində baxılır de nə şikayətimə baxılır nə də ki cavab yazıb məlumat verən var kfc zakaz verdiyim fliallada danışdım onlarda sifariş olmadığını bildirdilər &lt;NUM&gt; gündürki əsəb keçirdirəm heç kəs_NEG pulu_NEG yerdən_NEG tapmayıb lazım gələrsə adiyyatı qrumlara da müraciət edəcəm bu cür məhsuliyyətsizlik və vecsizlik olmaz</t>
         </is>
       </c>
       <c r="B261" t="n">
@@ -3138,7 +3138,7 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>yeməkləri dadlı deyil xüsusən_NEG toyuq_NEG supu_NEG &lt;NUM&gt; dəfə sifariş vermişəm boltla birtəhər qoxu gəlir yemək olmur bolt vasitəsilə adi şaurma sifariş verdim onu da &lt;NUM&gt; saat ərzində hazırlayıb kuryerə vermədilər madam kuryerlə işləmirsiz niyə sifariş qəbul edirsi</t>
+          <t>yeməkləri dadlı deyil xüsusən_NEG toyuq_NEG supu_NEG &lt;NUM&gt; dəfə sifariş vermişəm boltla birtəhər qoxu gəl yemək olmur bolt vasitəsilə adi şaurma sifariş verdim onu da &lt;NUM&gt; saat ərzində hazırlayıb kuryerə vermədilər madam kuryerlə işləmirsiz niyə sifariş qəbul edirsi</t>
         </is>
       </c>
       <c r="B271" t="n">
@@ -3148,7 +3148,7 @@
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>azerbaycan manapoliyadir ona gore eliyevler hakimiyyeti &lt;NUM&gt; den bu terefe xalqa zulm edir bunu her kes gorur ve bilir</t>
+          <t>azerbaycan manapoliyadir ona gore eliyevler hakimiyyeti &lt;NUM&gt; den bu terefe xalqa zulm et bunu her kes gorur ve bil</t>
         </is>
       </c>
       <c r="B272" t="n">
@@ -3168,7 +3168,7 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>zor deyir ee deyir yeye yeye acixiram</t>
+          <t>zor de ee de yeye yeye acixiram</t>
         </is>
       </c>
       <c r="B274" t="n">
@@ -3308,7 +3308,7 @@
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>dırnag söbəti ugursuz müqayisə oldu amma yeri var</t>
+          <t>dırnag söbəti ugursuz müqayisə ol amma yeri var</t>
         </is>
       </c>
       <c r="B288" t="n">
@@ -3618,7 +3618,7 @@
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>ele bildim ufolar sumgayiti ishgal edir</t>
+          <t>ele bildim ufolar sumgayiti ishgal et</t>
         </is>
       </c>
       <c r="B319" t="n">
@@ -3664,7 +3664,7 @@
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>&lt;RATING_NEG&gt; işləmor yaxşı girirəm açılmır yükləmə gedir</t>
+          <t>&lt;RATING_NEG&gt; işləmor yaxşı girirəm açılmır yükləmə get</t>
         </is>
       </c>
       <c r="B324" t="n">
@@ -3674,7 +3674,7 @@
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>hansi isi gorursen gor medeni ol insan ol memurlar baxa belke utana çox seviyyeli medeni ve savadli insandi görünür amma &lt;NUM&gt; &lt;NUM&gt; gün evvelbir idarede bir eşşek kimi anqiran memur gördüm vezifeli özüde dedim nə anqiririsan dədənin idaresidi baxdi gördü bata bilməyəcək soxdu içinə özünə də dedim ki senin əlinə dəstə dəstə güllər verəcəm darixma az dayan görecen</t>
+          <t>hansi isi gorursen gor medeni ol insan ol memurlar baxa belke utana çox seviyyeli medeni ve savadli insandi görünür amma &lt;NUM&gt; &lt;NUM&gt; gün evvelbir idarede bir eşşek kimi anqiran memur gör vezifeli özüde dedim nə anqiririsan dədənin idaresidi baxdi gördü bata bilməyəcək soxdu içinə özünə də dedim ki senin əlinə dəstə dəstə güllər verəcəm darixma az dayan görecen</t>
         </is>
       </c>
       <c r="B325" t="n">
@@ -3764,7 +3764,7 @@
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>yersiz gülüş ancaq yaltaqlıq və sünilik dir guya bəzi yerlərdə gülümsəmək lazımdır gülümsəyib insan hörmətsiz ynaşılacaqsa nəyə lazımdır axı bir restorana gedirsən məsələn üzünə gülür sifariş gəlir qsaata</t>
+          <t>yersiz gülüş ancaq yaltaqlıq və sünilik dir guya bəzi yerlərdə gülümsəmək lazımdır gülümsəyib insan hörmətsiz ynaşılacaqsa nəyə lazımdır axı bir restorana gedirsən məsələn üzünə gülür sifariş gəl qsaata</t>
         </is>
       </c>
       <c r="B334" t="n">
@@ -3934,7 +3934,7 @@
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>hə doğrudu yadıma gəlir o vaxtlar</t>
+          <t>hə doğrudu yadıma gəl o vaxtlar</t>
         </is>
       </c>
       <c r="B351" t="n">
@@ -3984,7 +3984,7 @@
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>atası onu qəbul etmir onu qarğıyır o da ölüb gedir knyaz da bundan son dərəcə sevinir</t>
+          <t>atası onu qəbul etmir onu qarğıyır o da ölüb get knyaz da bundan son dərəcə sevinir</t>
         </is>
       </c>
       <c r="B356" t="n">
@@ -4004,7 +4004,7 @@
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>məhşur le monde musiqisi bu filmdə imiş qorxu janrını xoşlamasam da baxdım filmə bəyəndim çox sağ olun</t>
+          <t>məhşur le monde musiqisi bu filmdə imiş qorxu janrını xoşlamasam da baxdım filmə bəyən çox sağ olun</t>
         </is>
       </c>
       <c r="B358" t="n">
@@ -4114,7 +4114,7 @@
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>matrix gerçək olur yavaş yavaş</t>
+          <t>matrix gerçək ol yavaş yavaş</t>
         </is>
       </c>
       <c r="B369" t="n">
@@ -4484,7 +4484,7 @@
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>yaponlar ağıllıdır düzünü onlar bilir</t>
+          <t>yaponlar ağıllıdır düzünü onlar bil</t>
         </is>
       </c>
       <c r="B406" t="n">
@@ -4514,7 +4514,7 @@
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>her kesede eyni deyil menim_NEG qanim_NEG goturmur_NEG mutleq iyne vurulmalidi yaxsa cezerem hetda bu yaxinlarda rayonlarin hansindasa bir neferi bir ari vurmusdu oldu</t>
+          <t>her kesede eyni deyil menim_NEG qanim_NEG goturmur_NEG mutleq iyne vurulmalidi yaxsa cezerem hetda bu yaxinlarda rayonlarin hansindasa bir neferi bir ari vurmusdu ol</t>
         </is>
       </c>
       <c r="B409" t="n">
@@ -4524,7 +4524,7 @@
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>bir aydir qoşulmuşam çox peşman oldum internet bir gündən bir işləmir zəng vuranda da deyirlər texniki işlər gedir</t>
+          <t>bir aydir qoşulmuşam çox peşman oldum internet bir gündən bir işləmir zəng vuranda da deyirlər texniki işlər get</t>
         </is>
       </c>
       <c r="B410" t="n">
@@ -4544,7 +4544,7 @@
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>xüsusilə bilsinlər ki siz necə gözəl evdar qadınsınız əlinizdən necə iş gəlir</t>
+          <t>xüsusilə bilsinlər ki siz necə gözəl evdar qadınsınız əlinizdən necə iş gəl</t>
         </is>
       </c>
       <c r="B412" t="n">
@@ -4744,7 +4744,7 @@
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>onlarda hele yaxshidir sankt peterburqda guneshli &lt;NUM&gt; saat olur ilde ve dogrudan da guneshimiz catmir</t>
+          <t>onlarda hele yaxshidir sankt peterburqda guneshli &lt;NUM&gt; saat ol ilde ve dogrudan da guneshimiz catmir</t>
         </is>
       </c>
       <c r="B432" t="n">
@@ -4864,7 +4864,7 @@
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>noldu bu hər şey elə abş da olur</t>
+          <t>noldu bu hər şey elə abş da ol</t>
         </is>
       </c>
       <c r="B444" t="n">
@@ -4874,7 +4874,7 @@
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>belə baxıram ki rəy yazanların çoxu dünyaya öz dar çərçivəsindən baxır və internet saytlarının uydurmalarından eşitdiklərindən bəhrələnərək özlərini aparıb quyunun dibinə atırlar boş boş bu qərbi nə qədər tərifləyəcəksiniz nə qədər ki öz millətinə dövlətinə yuxarıdan aşağı baxıb başqalarını tərifləyəcəksiniz elə geri də qalacaqsınız bilmədiyinizi ya danışmayın ya da heç olmasa_NEG həqiqəti_NEG danışın_NEG söhbət rəngli televizordan başlandı gəldi ssri ni bizi soymağına çıxdı televizordan söhbət düşmüşkən televiziya yayımı ilk dəfə ll dünya müharibəsindən sonra başlayıb bəyənməyib lağ etdiyiniz azərbaycanda isə &lt;NUM&gt; vı ildə canlı tv yayımı fəaliyyətə başlayıb hansı həmin dövrdə indi təriflədiyiniz avropa ölkələrinin çoxu hələ televizorun adını da eşitməmişdi indi deyirsiniz ki nə bilim haradasa dünyada ilk dəfə rəngli tv yayımına başlanıb heç aparıcının_NEG da_NEG bundan_NEG xəbəri olmayıb bu nağıla yalnız radioelektronika haqqında heç bir_NEG məlumatı_NEG olmayan_NEG xəyalpərəstlər inanar az çox bu sahədə tədəvvürü olanlar bilir ki o dövrün texnologiyasına görə ağ qara sistemdən rəngli sistemə keçid etmək üçün bütün qurğular dəyişməli idi o zamanı müasir rəqəmsal texnologiya ilə müqayisə etməyin bəli indiki cihazlarda bu iş çox sadədir bir düymə ilə dəyişir zaman isə yox sonrası_NEG da_NEG nə_NEG böyük iş olub ki onlar &lt;NUM&gt; də rəngli televiziyaya sevinəndə azərbaycanda &lt;NUM&gt; cı ildə bu yayıma keçirmişdi &lt;NUM&gt; ci illərin əvvəlində isə artıq bütün respublikada rəngli tv yayımı gedirdi indi kimdəsə rəngli televizor olmayıb bu başqa söhbətdir bir şeyi də unutmayın bizdə inkişafı &lt;NUM&gt; də əvvəl tam dondurdular sonra isə yıxıntı başlandı bəli indi &lt;NUM&gt; dən də pis vəziyyətə düşmüşük çünki elmi texniki inkişaf sınmış saat kimi tam dayanıb hər şeyi alırıq heç bilirsinizmi_NEG &lt;NUM&gt;_NEG vi_NEG ildə ssri yıxılanda azərbaycandan qonşu irana türkiyəyə nə daşıyırdılar ən çox elektrik malları lampalar ütülər elektrik alətləri hətta dam örtükləri niyə çünki bu ölkələrin kəndlərinin &lt;NUM&gt; elektriki &lt;NUM&gt; cı illərdən sonra tanıyıb halbuki bizdə ən ucqar kəndlər belə &lt;NUM&gt; ci ildən başlayaraq tam elektrikləşdirilmişdi niyə etiraf etmirsiniz ki biz hələ söydüyünüz sosializmdən qalma yollardan elektrik qaz su xətlərindən istifadə edirik yoxsa sizin başqa müsəlman ölkələrindən hansı üstünlüyünüz olardı ki indi bu gün özünüzü avropa ilə müqayisə etmək fikrinə düşəydiniz bizdən dəfələrlə böyük müsəlman ölkələri var paytaxt və bir iki böyük şəhərlərindən başqa kəndlərinin əksərində heç bir_NEG şərait_NEG yoxdur siz_NEG rəngli_NEG televizordan_NEG lüks maşından danışırsınız dünyanın çoxu elektrik üzünə həsrətdir ssri sizi soyurdu deyirsiniz ancaq bilirsinizmi ki o dövrdə bütün rayon mərkəzləri kəndlərin yarıdan çoxu qazlaşdırılmışdı və heç bir_NEG sayğaz_NEG qoymadan_NEG adaçbaşına ayda &lt;NUM&gt; qəpik qaz pulu alınırdı nə qədər yandırırsan yandır halbuki heç azərbaycanda_NEG qaz_NEG çıxarılmırdı_NEG aaz bizə türkmənistan xəzərin altı ilə çəkilmiş boru ilə gəlirdi indi isə &lt;NUM&gt; milyard kub metr qaz çıxarılır hələ heç ssri_NEG dövründə_NEG qazlaşdırılmış_NEG &lt;NUM&gt; cı illərdə isə kəsilmiş kəndlərin hamısında qazın verilişi bərpa edilməmişdir verilən qaz da yarısı hava yarısı bilmirəm nə qiyməti isə ceyran belində hə indi deyin o zaman soyulurduq yoxsa indi soyuluruq elə tutuquşiu kimi bir söz əzbərləmisiniz sovetlər bizi soğan kimi soyurdu əksinə indi lap kələm kimi axıracan soyuluruq heç səsimiz_NEG də_NEG çıxmır_NEG</t>
+          <t>belə baxıram ki rəy yazanların çoxu dünyaya öz dar çərçivəsindən baxır və internet saytlarının uydurmalarından eşitdiklərindən bəhrələnərək özlərini aparıb quyunun dibinə atırlar boş boş bu qərbi nə qədər tərifləyəcəksiniz nə qədər ki öz millətinə dövlətinə yuxarıdan aşağı baxıb başqalarını tərifləyəcəksiniz elə geri də qalacaqsınız bilmədiyinizi ya danışmayın ya da heç olmasa_NEG həqiqəti_NEG danışın_NEG söhbət rəngli televizordan başlandı gəl ssri ni bizi soymağına çıxdı televizordan söhbət düşmüşkən televiziya yayımı ilk dəfə ll dünya müharibəsindən sonra başlayıb bəyənməyib lağ etdiyiniz azərbaycanda isə &lt;NUM&gt; vı ildə canlı tv yayımı fəaliyyətə başlayıb hansı həmin dövrdə indi təriflədiyiniz avropa ölkələrinin çoxu hələ televizorun adını da eşitməmişdi indi deyirsiniz ki nə bilim haradasa dünyada ilk dəfə rəngli tv yayımına başlanıb heç aparıcının_NEG da_NEG bundan_NEG xəbəri olmayıb bu nağıla yalnız radioelektronika haqqında heç bir_NEG məlumatı_NEG olmayan_NEG xəyalpərəstlər inanar az çox bu sahədə tədəvvürü olanlar bil ki o dövrün texnologiyasına görə ağ qara sistemdən rəngli sistemə keçid etmək üçün bütün qurğular dəyişməli idi o zamanı müasir rəqəmsal texnologiya ilə müqayisə etməyin bəli indiki cihazlarda bu iş çox sadədir bir düymə ilə dəyişir zaman isə yox sonrası_NEG da_NEG nə_NEG böyük iş olub ki onlar &lt;NUM&gt; də rəngli televiziyaya sevinəndə azərbaycanda &lt;NUM&gt; cı ildə bu yayıma keçirmişdi &lt;NUM&gt; ci illərin əvvəlində isə artıq bütün respublikada rəngli tv yayımı gedirdi indi kimdəsə rəngli televizor olmayıb bu başqa söhbətdir bir şeyi də unutmayın bizdə inkişafı &lt;NUM&gt; də əvvəl tam dondurdular sonra isə yıxıntı başlandı bəli indi &lt;NUM&gt; dən də pis vəziyyətə düşmüşük çünki elmi texniki inkişaf sınmış saat kimi tam dayanıb hər şeyi alırıq heç bilirsinizmi_NEG &lt;NUM&gt;_NEG vi_NEG ildə ssri yıxılanda azərbaycandan qonşu irana türkiyəyə nə daşıyırdılar ən çox elektrik malları lampalar ütülər elektrik alətləri hətta dam örtükləri niyə çünki bu ölkələrin kəndlərinin &lt;NUM&gt; elektriki &lt;NUM&gt; cı illərdən sonra tanıyıb halbuki bizdə ən ucqar kəndlər belə &lt;NUM&gt; ci ildən başlayaraq tam elektrikləşdirilmişdi niyə etiraf etmirsiniz ki biz hələ söydüyünüz sosializmdən qalma yollardan elektrik qaz su xətlərindən istifadə edirik yoxsa sizin başqa müsəlman ölkələrindən hansı üstünlüyünüz olardı ki indi bu gün özünüzü avropa ilə müqayisə etmək fikrinə düşəydiniz bizdən dəfələrlə böyük müsəlman ölkələri var paytaxt və bir iki böyük şəhərlərindən başqa kəndlərinin əksərində heç bir_NEG şərait_NEG yoxdur siz_NEG rəngli_NEG televizordan_NEG lüks maşından danışırsınız dünyanın çoxu elektrik üzünə həsrətdir ssri sizi soyurdu deyirsiniz ancaq bilirsinizmi ki o dövrdə bütün rayon mərkəzləri kəndlərin yarıdan çoxu qazlaşdırılmışdı və heç bir_NEG sayğaz_NEG qoymadan_NEG adaçbaşına ayda &lt;NUM&gt; qəpik qaz pulu alınırdı nə qədər yandırırsan yandır halbuki heç azərbaycanda_NEG qaz_NEG çıxarılmırdı_NEG aaz bizə türkmənistan xəzərin altı ilə çəkilmiş boru ilə gəlirdi indi isə &lt;NUM&gt; milyard kub metr qaz çıxarılır hələ heç ssri_NEG dövründə_NEG qazlaşdırılmış_NEG &lt;NUM&gt; cı illərdə isə kəsilmiş kəndlərin hamısında qazın verilişi bərpa edilməmişdir verilən qaz da yarısı hava yarısı bilmirəm nə qiyməti isə ceyran belində hə indi deyin o zaman soyulurduq yoxsa indi soyuluruq elə tutuquşiu kimi bir söz əzbərləmisiniz sovetlər bizi soğan kimi soyurdu əksinə indi lap kələm kimi axıracan soyuluruq heç səsimiz_NEG də_NEG çıxmır_NEG</t>
         </is>
       </c>
       <c r="B445" t="n">
@@ -4924,7 +4924,7 @@
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>inkişafdan qalmış bütün ölkələrdə belə olur qətər elə bir zor ölkə deyil ki_NEG geridə_NEG qalmış_NEG ölkədir necə olmalıdır ki</t>
+          <t>inkişafdan qalmış bütün ölkələrdə belə ol qətər elə bir zor ölkə deyil ki_NEG geridə_NEG qalmış_NEG ölkədir necə olmalıdır ki</t>
         </is>
       </c>
       <c r="B450" t="n">
@@ -4964,7 +4964,7 @@
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>rusiyanın ermənistanla siyasi münasibətləri açıq aydın həyəcanverici sürətlə enişə doğru gedir</t>
+          <t>rusiyanın ermənistanla siyasi münasibətləri açıq aydın həyəcanverici sürətlə enişə doğru get</t>
         </is>
       </c>
       <c r="B454" t="n">
@@ -5054,7 +5054,7 @@
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>səbəb insan faktorudur bəli insanlar amansızcasına yeri istismar edirlər avtomobillər zavod və fabriklər su israfı aqrobağlar torpaq və suyun çirklənməsi və daha nələr &lt;NUM&gt; yaşım var &lt;NUM&gt; yaşıma kimi ölkədə heç belə_NEG istilik_NEG görməmişdim_NEG son &lt;NUM&gt; il daha ağır keçir istilərlə insanlar suyu məhv edir meşələri məhv edir hər yer asvalt beton qranit mərmər və daha nələr ismayıllıdan axan təngəaltı çayı qubanın təngə dərəsindən sonra yoxa çıxır çay gedib mənsəbinə çatmır heç nə_NEG vaxtsa_NEG gur_NEG axan afurca şəlaləsi indi olub uşaq işəməyi elə bil kimsə yuxarıdan vedrə ilə su tökür şəlalənin düz üstündən &lt;NUM&gt; dənə qara boru afrurca kəndindəki obyektlərə düşür nədənsə afrika ölkələri susuzluqdan şikayət etmir heç ordakı_NEG ölkələrdə_NEG əkin_NEG biçin su təsərrüfatı normaldır bu qlobal istiləşmə avropaya aiddir</t>
+          <t>səbəb insan faktorudur bəli insanlar amansızcasına yeri istismar edirlər avtomobillər zavod və fabriklər su israfı aqrobağlar torpaq və suyun çirklənməsi və daha nələr &lt;NUM&gt; yaşım var &lt;NUM&gt; yaşıma kimi ölkədə heç belə_NEG istilik_NEG görməmişdim_NEG son &lt;NUM&gt; il daha ağır keçir istilərlə insanlar suyu məhv et meşələri məhv et hər yer asvalt beton qranit mərmər və daha nələr ismayıllıdan axan təngəaltı çayı qubanın təngə dərəsindən sonra yoxa çıxır çay gedib mənsəbinə çatmır heç nə_NEG vaxtsa_NEG gur_NEG axan afurca şəlaləsi indi olub uşaq işəməyi elə bil kimsə yuxarıdan vedrə ilə su tökür şəlalənin düz üstündən &lt;NUM&gt; dənə qara boru afrurca kəndindəki obyektlərə düşür nədənsə afrika ölkələri susuzluqdan şikayət etmir heç ordakı_NEG ölkələrdə_NEG əkin_NEG biçin su təsərrüfatı normaldır bu qlobal istiləşmə avropaya aiddir</t>
         </is>
       </c>
       <c r="B463" t="n">
@@ -5084,7 +5084,7 @@
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>&lt;NUM&gt; rəksi bəyəndim &lt;NUM&gt; ci və &lt;NUM&gt; ci</t>
+          <t>&lt;NUM&gt; rəksi bəyən &lt;NUM&gt; ci və &lt;NUM&gt; ci</t>
         </is>
       </c>
       <c r="B466" t="n">
@@ -5164,7 +5164,7 @@
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>kimə maraqlıdırsa resident alien adlı fantastik komediya serialına baxa bilər bu mövzuda çox gülməli çəkiblər hələ birinci seriyadayam mövzusu yaxşıdır</t>
+          <t>kimə maraqlıdırsa resident alien adlı fantastik komediya serialına baxa bilər bu mövzuda çox gülməli çəkiblər hələ birinci seriyadayam mövzusu yaxşı</t>
         </is>
       </c>
       <c r="B474" t="n">
@@ -5224,7 +5224,7 @@
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>iphon nə zibil tel olub ki bu görmə iş insanlar basılıb od üiymətnə alır sonra adeyir neynirdime buna bu qədər pul verib elə ancaq zəngə və vatsapa işlədirəm məsələ nədi alanların &lt;NUM&gt; faizin pznü göstərməyi guya bu bahalı tel işlədib kimdənsə artıqdı &lt;NUM&gt; &lt;NUM&gt; mlıq xiaomiylə &lt;NUM&gt; lik iphonu işlədənlər eyni funksiyalardan istifadə edir nəartıq nə əskik</t>
+          <t>iphon nə zibil tel olub ki bu görmə iş insanlar basılıb od üiymətnə alır sonra adeyir neynirdime buna bu qədər pul verib elə ancaq zəngə və vatsapa işlədirəm məsələ nədi alanların &lt;NUM&gt; faizin pznü göstərməyi guya bu bahalı tel işlədib kimdənsə artıqdı &lt;NUM&gt; &lt;NUM&gt; mlıq xiaomiylə &lt;NUM&gt; lik iphonu işlədənlər eyni funksiyalardan istifadə et nəartıq nə əskik</t>
         </is>
       </c>
       <c r="B480" t="n">
@@ -5344,7 +5344,7 @@
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>film əladır dublaj lap əla ancaq qiymə əməliyyatı &lt;NUM&gt; cü ildə oldmuşdur və əməliyyatın yaradıcı hakqda filmdə heçbir rol olmadığına da diqqət elədim yenədə marağlıdır ancaq kitabını mütləq oxuyun daha dərinnən anlayassınız filmi</t>
+          <t>film əla dublaj lap əla ancaq qiymə əməliyyatı &lt;NUM&gt; cü ildə oldmuşdur və əməliyyatın yaradıcı hakqda filmdə heçbir rol olmadığına da diqqət elədim yenədə marağlıdır ancaq kitabını mütləq oxuyun daha dərinnən anlayassınız filmi</t>
         </is>
       </c>
       <c r="B492" t="n">
@@ -5464,7 +5464,7 @@
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>shirketden çox raziyam qiymetleri o biri shirketlerden ucuzdur mushteri xidmeti superdir catdirilma da hamsindan tez</t>
+          <t>shirketden çox raziyam qiymetleri o biri shirketlerden ucuz mushteri xidmeti superdir catdirilma da hamsindan tez</t>
         </is>
       </c>
       <c r="B504" t="n">
@@ -5494,7 +5494,7 @@
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>semimi sozunu deyir halal olsun</t>
+          <t>semimi sozunu de halal olsun</t>
         </is>
       </c>
       <c r="B507" t="n">
@@ -5744,7 +5744,7 @@
     <row r="532">
       <c r="A532" t="inlineStr">
         <is>
-          <t>messi və ronaldoya çox çox təşəkkür ki biz belə dahi oyunçuları gördük artıq doğurdanda qocalırıq və bununlada bəlli olur ki messi ronaldo kimi oyunçular çətin olsun</t>
+          <t>messi və ronaldoya çox çox təşəkkür ki biz belə dahi oyunçuları gördük artıq doğurdanda qocalırıq və bununlada bəlli ol ki messi ronaldo kimi oyunçular çətin olsun</t>
         </is>
       </c>
       <c r="B532" t="n">
@@ -5814,7 +5814,7 @@
     <row r="539">
       <c r="A539" t="inlineStr">
         <is>
-          <t>çox heyif ölkənin ağıllı insanları gedir digər ölkələr üçün gözəl gələcək qurur</t>
+          <t>çox heyif ölkənin ağıllı insanları get digər ölkələr üçün gözəl gələcək qurur</t>
         </is>
       </c>
       <c r="B539" t="n">
@@ -5914,7 +5914,7 @@
     <row r="549">
       <c r="A549" t="inlineStr">
         <is>
-          <t>irşad'ın personalı gülərüzlü şəraiti çox gözəldir krediti çox asan olmuşdu iki dəfə kredit götürmüşəm tələbə olduğumdan əvvəllər heç bir_NEG mağaza_NEG kredit_NEG vermirdi amma irşaddan ala bilmişdim həmdə çox rahat</t>
+          <t>irşad'ın personalı gülərüzlü şəraiti çox gözəl krediti çox asan olmuşdu iki dəfə kredit götürmüşəm tələbə olduğumdan əvvəllər heç bir_NEG mağaza_NEG kredit_NEG vermirdi amma irşaddan ala bilmişdim həmdə çox rahat</t>
         </is>
       </c>
       <c r="B549" t="n">
@@ -5994,7 +5994,7 @@
     <row r="557">
       <c r="A557" t="inlineStr">
         <is>
-          <t>keysəriyyə və süni qidayla zatən uşaqlar anadan uzaqlaşırdı buda üstünə duz bibər olacaq layihədir normal doğuş ana südü anaya bağlılığdı bunlar kəç olanda bağlılığda kəm olur birdə eşidirsən övlad ananın başını kəsib çünki bağlılığ yoxdur</t>
+          <t>keysəriyyə və süni qidayla zatən uşaqlar anadan uzaqlaşırdı buda üstünə duz bibər olacaq layihədir normal doğuş ana südü anaya bağlılığdı bunlar kəç olanda bağlılığda kəm ol birdə eşidirsən övlad ananın başını kəsib çünki bağlılığ yoxdur</t>
         </is>
       </c>
       <c r="B557" t="n">
@@ -6014,7 +6014,7 @@
     <row r="559">
       <c r="A559" t="inlineStr">
         <is>
-          <t>belə yaxşıdır əhali də sıx olmur yoxsa bizdəki kimibütün şəhər və rayon camaatı hamısı bakıdadır</t>
+          <t>belə yaxşı əhali də sıx olmur yoxsa bizdəki kimibütün şəhər və rayon camaatı hamısı bakıdadır</t>
         </is>
       </c>
       <c r="B559" t="n">
@@ -6044,7 +6044,7 @@
     <row r="562">
       <c r="A562" t="inlineStr">
         <is>
-          <t>bizim azal &lt;NUM&gt; milyon qənaət edə bilir</t>
+          <t>bizim azal &lt;NUM&gt; milyon qənaət edə bil</t>
         </is>
       </c>
       <c r="B562" t="n">
@@ -6184,7 +6184,7 @@
     <row r="576">
       <c r="A576" t="inlineStr">
         <is>
-          <t>çin elektromobil istehsalında inqilab edir azərbaycan bazarında &lt;NUM&gt; dan çox markası var</t>
+          <t>çin elektromobil istehsalında inqilab et azərbaycan bazarında &lt;NUM&gt; dan çox markası var</t>
         </is>
       </c>
       <c r="B576" t="n">
@@ -6194,7 +6194,7 @@
     <row r="577">
       <c r="A577" t="inlineStr">
         <is>
-          <t>hezi aslanovda tikintisine baslanilan metro &lt;NUM&gt; ildi ki helede davam edir yeqin bu metrodan tikiller</t>
+          <t>hezi aslanovda tikintisine baslanilan metro &lt;NUM&gt; ildi ki helede davam et yeqin bu metrodan tikiller</t>
         </is>
       </c>
       <c r="B577" t="n">
@@ -6254,7 +6254,7 @@
     <row r="583">
       <c r="A583" t="inlineStr">
         <is>
-          <t>deməli zəif birisi özündən daha güclü bir şey yarada bilir yəni qüdrətli tanrı axtarmağa ehtiyac yoxdur</t>
+          <t>deməli zəif birisi özündən daha güclü bir şey yarada bil yəni qüdrətli tanrı axtarmağa ehtiyac yoxdur</t>
         </is>
       </c>
       <c r="B583" t="n">
@@ -6314,7 +6314,7 @@
     <row r="589">
       <c r="A589" t="inlineStr">
         <is>
-          <t>celal şeng deyir ki ıq &lt;NUM&gt; dan az olsa yeni &lt;NUM&gt; olsa gerizekalisan demekdir</t>
+          <t>celal şeng de ki ıq &lt;NUM&gt; dan az olsa yeni &lt;NUM&gt; olsa gerizekalisan demekdir</t>
         </is>
       </c>
       <c r="B589" t="n">
@@ -6384,7 +6384,7 @@
     <row r="596">
       <c r="A596" t="inlineStr">
         <is>
-          <t>bu da milli təhlükəsizliyimizin daha da gücləndirilməsini tələb edir</t>
+          <t>bu da milli təhlükəsizliyimizin daha da gücləndirilməsini tələb et</t>
         </is>
       </c>
       <c r="B596" t="n">
@@ -6404,7 +6404,7 @@
     <row r="598">
       <c r="A598" t="inlineStr">
         <is>
-          <t>millət adicə kütləvi basqınlarda biri birini tapdalayıb öldürənlər də çoxalır kütləvi savadsızlıq da artır biganəlik də artır təbiətə yaşıllıqlara ziyan vuranlar da artır süni qiymət artımı yaradaraq milləti daha da vəhşiləşdirirlər bunlar bir yana qalsın yer planetimizdə torpaq sürüşmələr çatlamalar artan qədər sular yerin dərinliyinə gedir sular azalır oksigen də azalır istilik miqdarı da artmış olur bax əsil faciə bunlardır</t>
+          <t>millət adicə kütləvi basqınlarda biri birini tapdalayıb öldürənlər də çoxalır kütləvi savadsızlıq da artır biganəlik də artır təbiətə yaşıllıqlara ziyan vuranlar da artır süni qiymət artımı yaradaraq milləti daha da vəhşiləşdirirlər bunlar bir yana qalsın yer planetimizdə torpaq sürüşmələr çatlamalar artan qədər sular yerin dərinliyinə get sular azalır oksigen də azalır istilik miqdarı da artmış ol bax əsil faciə bunlardır</t>
         </is>
       </c>
       <c r="B598" t="n">
@@ -6634,7 +6634,7 @@
     <row r="621">
       <c r="A621" t="inlineStr">
         <is>
-          <t>bu millətə içi mən qarışıq haqq olur haqqımızı demedikce belə olacaq</t>
+          <t>bu millətə içi mən qarışıq haqq ol haqqımızı demedikce belə olacaq</t>
         </is>
       </c>
       <c r="B621" t="n">
@@ -6804,7 +6804,7 @@
     <row r="638">
       <c r="A638" t="inlineStr">
         <is>
-          <t>çox bəyənirəm bu restoranı daimi yüksək xidmət və dadlı yeməkləri olur əsas da &lt;NUM&gt; ci mkr da olan filialda oluram fastfood sevən adam kimi deyə bilərəm ən dadlı dönərlərin məkanından biri buradır</t>
+          <t>çox bəyən bu restoranı daimi yüksək xidmət və dadlı yeməkləri ol əsas da &lt;NUM&gt; ci mkr da olan filialda oluram fastfood sevən adam kimi deyə bilərəm ən dadlı dönərlərin məkanından biri buradır</t>
         </is>
       </c>
       <c r="B638" t="n">
@@ -6924,7 +6924,7 @@
     <row r="650">
       <c r="A650" t="inlineStr">
         <is>
-          <t>bu gündən sonra o daha artıq qaşqabaqlı və tutqun oldu mənimlə daha heç danışmadı_NEG</t>
+          <t>bu gündən sonra o daha artıq qaşqabaqlı və tutqun ol mənimlə daha heç danışmadı_NEG</t>
         </is>
       </c>
       <c r="B650" t="n">
@@ -6944,7 +6944,7 @@
     <row r="652">
       <c r="A652" t="inlineStr">
         <is>
-          <t>maraqlıdır yol o qədər uzun oldu ki orda eskalatorda bir qadın oturmuşdu mən orda olmaq isterdim</t>
+          <t>maraqlıdır yol o qədər uzun ol ki orda eskalatorda bir qadın oturmuşdu mən orda olmaq isterdim</t>
         </is>
       </c>
       <c r="B652" t="n">
@@ -7034,7 +7034,7 @@
     <row r="661">
       <c r="A661" t="inlineStr">
         <is>
-          <t>bravo nun express tipli marketlerinde işçi sıxıntısı var nə vaxt gedirik işçi yoxdu natəmizlik var böyük filyalları yaxşıdı</t>
+          <t>bravo nun express tipli marketlerinde işçi sıxıntısı var nə vaxt gedirik işçi yoxdu natəmizlik var böyük filyalları yaxşı</t>
         </is>
       </c>
       <c r="B661" t="n">
@@ -7124,7 +7124,7 @@
     <row r="670">
       <c r="A670" t="inlineStr">
         <is>
-          <t>düzdü pandemiya vaxtı çətinliklər oldu amma indi çox razıyam əlavə olaraq çox şirkətlərin şirvan şəhərində məntəqəsi olmasına baxmayaraq moverin çox rayonlarda məntəqələri mövcuddur elə buna görədə &lt;NUM&gt; ulduza laiqdirlər</t>
+          <t>düzdü pandemiya vaxtı çətinliklər ol amma indi çox razıyam əlavə olaraq çox şirkətlərin şirvan şəhərində məntəqəsi olmasına baxmayaraq moverin çox rayonlarda məntəqələri mövcuddur elə buna görədə &lt;NUM&gt; ulduza laiqdirlər</t>
         </is>
       </c>
       <c r="B670" t="n">
@@ -7154,7 +7154,7 @@
     <row r="673">
       <c r="A673" t="inlineStr">
         <is>
-          <t>bir anlıq elə bildim &lt;NUM&gt; &lt;NUM&gt; &lt;NUM&gt; milyon il sonra deyir dəhşət qorxdum lap cəhənnəm yaxşı qurtardıq yenə də</t>
+          <t>bir anlıq elə bildim &lt;NUM&gt; &lt;NUM&gt; &lt;NUM&gt; milyon il sonra de dəhşət qorxdum lap cəhənnəm yaxşı qurtardıq yenə də</t>
         </is>
       </c>
       <c r="B673" t="n">
@@ -7234,7 +7234,7 @@
     <row r="681">
       <c r="A681" t="inlineStr">
         <is>
-          <t>bir büddən heçnə istəmərəm allahım ola ola hər gün istəyirəm allahımdan şükür</t>
+          <t>bir büddən heçnə istəmərəm allahım ola ola hər gün istə allahımdan şükür</t>
         </is>
       </c>
       <c r="B681" t="n">
@@ -7244,7 +7244,7 @@
     <row r="682">
       <c r="A682" t="inlineStr">
         <is>
-          <t>internet yeni qoşulan günlərdə &lt;RATING_POS&gt; olsada aylar ərzində bu normala indi isə bərbada dönüb adi zoom əlaqəsi belə qurmaqda aciz olan bu internetə çara görməli olduğunu anlayan baktelecom intereti düzəltmək əvəzinə evlərə zəng edib internet paketlərini yüksəltməyi təəklif edir</t>
+          <t>internet yeni qoşulan günlərdə &lt;RATING_POS&gt; olsada aylar ərzində bu normala indi isə bərbada dönüb adi zoom əlaqəsi belə qurmaqda aciz olan bu internetə çara görməli olduğunu anlayan baktelecom intereti düzəltmək əvəzinə evlərə zəng edib internet paketlərini yüksəltməyi təəklif et</t>
         </is>
       </c>
       <c r="B682" t="n">
@@ -7264,7 +7264,7 @@
     <row r="684">
       <c r="A684" t="inlineStr">
         <is>
-          <t>bu dərman şirkətlərində sloqan yazanda qafiyə tutmaq nə adətdir e qaldı ki preparata onsuzda bu iyrənc reklamlar radioda tv də baş beynimizi xarab eləmişdi indi də gəldi çıxdı bura elə bil ölkənin &lt;NUM&gt; faizində prostat problemi var hara baxırsan prostat problemi dərmanlarının reklamı gedir bu səhifəyə bu tipli reklamları yaraşdırmıram</t>
+          <t>bu dərman şirkətlərində sloqan yazanda qafiyə tutmaq nə adətdir e qaldı ki preparata onsuzda bu iyrənc reklamlar radioda tv də baş beynimizi xarab eləmişdi indi də gəl çıxdı bura elə bil ölkənin &lt;NUM&gt; faizində prostat problemi var hara baxırsan prostat problemi dərmanlarının reklamı get bu səhifəyə bu tipli reklamları yaraşdırmıram</t>
         </is>
       </c>
       <c r="B684" t="n">
@@ -7274,7 +7274,7 @@
     <row r="685">
       <c r="A685" t="inlineStr">
         <is>
-          <t>başına gələnlərdən necə cəsarətli olmasından və ən pis anlardan necə məharətlə çıxmasından bəhs etdi</t>
+          <t>başına gələnlərdən necə cəsarətli olmasından və ən pis anlardan necə məharətlə çıxmasından bəhs et</t>
         </is>
       </c>
       <c r="B685" t="n">
@@ -7304,7 +7304,7 @@
     <row r="688">
       <c r="A688" t="inlineStr">
         <is>
-          <t>nə qədər telefon işlətmişəm ama heç biri_NEG ayfon'nun_NEG tozunada_NEG çatmaz marka həqiqətən öz sözünü deyir verdiyim pulu sonuna qədər hak edir</t>
+          <t>nə qədər telefon işlətmişəm ama heç biri_NEG ayfon'nun_NEG tozunada_NEG çatmaz marka həqiqətən öz sözünü de verdiyim pulu sonuna qədər hak et</t>
         </is>
       </c>
       <c r="B688" t="n">
@@ -7334,7 +7334,7 @@
     <row r="691">
       <c r="A691" t="inlineStr">
         <is>
-          <t>bu zaman insan qəfil həyata daha ciddi yanaşmağa həqiqətpərəst olmağa xeyirxahlığa doğru güclü impuls hiss edir</t>
+          <t>bu zaman insan qəfil həyata daha ciddi yanaşmağa həqiqətpərəst olmağa xeyirxahlığa doğru güclü impuls hiss et</t>
         </is>
       </c>
       <c r="B691" t="n">
@@ -7464,7 +7464,7 @@
     <row r="704">
       <c r="A704" t="inlineStr">
         <is>
-          <t>atatürk dünyaya elan edir milli iradəyə əsaslanan hüquqları məhdudlaşdırılmayan müstəqilliyi qeyd şərtsiz qəbul edilən türkiyə qurulmalıdır</t>
+          <t>atatürk dünyaya elan et milli iradəyə əsaslanan hüquqları məhdudlaşdırılmayan müstəqilliyi qeyd şərtsiz qəbul edilən türkiyə qurulmalıdır</t>
         </is>
       </c>
       <c r="B704" t="n">
@@ -7554,7 +7554,7 @@
     <row r="713">
       <c r="A713" t="inlineStr">
         <is>
-          <t>təşəkkürlər sizlərə müəllim &lt;RATING_POS&gt; qəşəng çox bəyəndim</t>
+          <t>təşəkkürlər sizlərə müəllim &lt;RATING_POS&gt; qəşəng çox bəyən</t>
         </is>
       </c>
       <c r="B713" t="n">
@@ -7574,7 +7574,7 @@
     <row r="715">
       <c r="A715" t="inlineStr">
         <is>
-          <t>ehh adam baxır dilxor olur köhnə kadrlara hamının dolanışığı eyniydi hamı xoşbəxtidi hami bayrama &lt;NUM&gt; ay qabaq hazırlaşırdı böyüklü kicikli sevinirdik eyni təbəqədə dolanırdı hətda bir birinə düşmən olan ölkələr mehribanidiler sovet dövründə videodan baxırsan ki insanlar fehleside ziyaliydi danışıq qabiliyyəti mədəniyyət yüksək pik səviyyədə hamının üzü gülür xoşbəxt dolanırdı hamı indi bir qarinagore nə istirahetimiz var nədəki üzümüz gülür allah lənət eləsin soveti dagidanlara</t>
+          <t>ehh adam baxır dilxor ol köhnə kadrlara hamının dolanışığı eyniydi hamı xoşbəxtidi hami bayrama &lt;NUM&gt; ay qabaq hazırlaşırdı böyüklü kicikli sevinirdik eyni təbəqədə dolanırdı hətda bir birinə düşmən olan ölkələr mehribanidiler sovet dövründə videodan baxırsan ki insanlar fehleside ziyaliydi danışıq qabiliyyəti mədəniyyət yüksək pik səviyyədə hamının üzü gülür xoşbəxt dolanırdı hamı indi bir qarinagore nə istirahetimiz var nədəki üzümüz gülür allah lənət eləsin soveti dagidanlara</t>
         </is>
       </c>
       <c r="B715" t="n">
@@ -7604,7 +7604,7 @@
     <row r="718">
       <c r="A718" t="inlineStr">
         <is>
-          <t>ordakı əsgərlərdən biri onun doğranılaraq öldürüldüyünü deyir</t>
+          <t>ordakı əsgərlərdən biri onun doğranılaraq öldürüldüyünü de</t>
         </is>
       </c>
       <c r="B718" t="n">
@@ -7674,7 +7674,7 @@
     <row r="725">
       <c r="A725" t="inlineStr">
         <is>
-          <t>ay admin səndəki olan həvəs marağı istəyirəm ərinmədin bunu hazırlayanda</t>
+          <t>ay admin səndəki olan həvəs marağı istə ərinmədin bunu hazırlayanda</t>
         </is>
       </c>
       <c r="B725" t="n">
@@ -7824,7 +7824,7 @@
     <row r="740">
       <c r="A740" t="inlineStr">
         <is>
-          <t>mən yeganə yerdir ki buranın pizzalarını çox bəyənirəm qiymətləri digər pizza restoranları ilə müqayisədə sərfəlidir bəzən elədikləri kompaniyalar çox yaxşı olur və mən də dəyərləndirməyə çalışıram pizzaların dadı möhtəşəmdi mənə görə telegram adım user</t>
+          <t>mən yeganə yerdir ki buranın pizzalarını çox bəyən qiymətləri digər pizza restoranları ilə müqayisədə sərfəlidir bəzən elədikləri kompaniyalar çox yaxşı ol və mən də dəyərləndirməyə çalışıram pizzaların dadı möhtəşəmdi mənə görə telegram adım user</t>
         </is>
       </c>
       <c r="B740" t="n">
@@ -7844,7 +7844,7 @@
     <row r="742">
       <c r="A742" t="inlineStr">
         <is>
-          <t>mən onun barəsində ancaq səninlə danışmaq istəyirəm sənin barəndə də onunla</t>
+          <t>mən onun barəsində ancaq səninlə danışmaq istə sənin barəndə də onunla</t>
         </is>
       </c>
       <c r="B742" t="n">
@@ -8014,7 +8014,7 @@
     <row r="759">
       <c r="A759" t="inlineStr">
         <is>
-          <t>bu dünyadan köçmək fikrini insanların şüur altına yeridə yeridə dünyamızın içinə sıçmayın var olan bir şeyi qorumaq var olmayan bir şeyi yaratmaqdan daha çətindir öncə öz dünyamızı qorumalıyıq planetimiz günü gündən yaşanmaz hala gəlir</t>
+          <t>bu dünyadan köçmək fikrini insanların şüur altına yeridə yeridə dünyamızın içinə sıçmayın var olan bir şeyi qorumaq var olmayan bir şeyi yaratmaqdan daha çətindir öncə öz dünyamızı qorumalıyıq planetimiz günü gündən yaşanmaz hala gəl</t>
         </is>
       </c>
       <c r="B759" t="n">
@@ -8094,7 +8094,7 @@
     <row r="767">
       <c r="A767" t="inlineStr">
         <is>
-          <t>nə gözəl çox bəyəndim təşəkkür edorok sizə dəyərli müəllim var olun əhsən</t>
+          <t>nə gözəl çox bəyən təşəkkür edorok sizə dəyərli müəllim var olun əhsən</t>
         </is>
       </c>
       <c r="B767" t="n">
@@ -8164,7 +8164,7 @@
     <row r="774">
       <c r="A774" t="inlineStr">
         <is>
-          <t>sürpriz niye olur layiq idilər hemise gözəl oynayib merakes</t>
+          <t>sürpriz niye ol layiq idilər hemise gözəl oynayib merakes</t>
         </is>
       </c>
       <c r="B774" t="n">
@@ -8174,7 +8174,7 @@
     <row r="775">
       <c r="A775" t="inlineStr">
         <is>
-          <t>məhsulun qarantiya vaxtı bitmədiyi halda məhsulu təmir etməkdən boyun qaçırtdılar və müştəridən qaynaqlanmayan səbəblərdən yaranan problemi həll etmək əvəzinə problemi müştərinin üstünə atırlar servis məhsulun ehtiyyat hissəsinin olmadığını mağaza isə təmiri üçün çox məbləğ gətirdiyini deyir maraqlı tərəfi isə budur ki ehtiyyat hissəsi olmayan məhsula necə &lt;NUM&gt; il qarantiya verə bilirlər bu sadəcə müştəri cəlb etmək üçün uydurulan yalandır məhsullar keyfiyyətsizdir xidmətlərini məsləhət görnürəm</t>
+          <t>məhsulun qarantiya vaxtı bitmədiyi halda məhsulu təmir etməkdən boyun qaçırtdılar və müştəridən qaynaqlanmayan səbəblərdən yaranan problemi həll etmək əvəzinə problemi müştərinin üstünə atırlar servis məhsulun ehtiyyat hissəsinin olmadığını mağaza isə təmiri üçün çox məbləğ gətirdiyini de maraqlı tərəfi isə budur ki ehtiyyat hissəsi olmayan məhsula necə &lt;NUM&gt; il qarantiya verə bilirlər bu sadəcə müştəri cəlb etmək üçün uydurulan yalandır məhsullar keyfiyyətsizdir xidmətlərini məsləhət görnürəm</t>
         </is>
       </c>
       <c r="B775" t="n">
@@ -8254,7 +8254,7 @@
     <row r="783">
       <c r="A783" t="inlineStr">
         <is>
-          <t>bu talesizliyimizə baxın ki o böyük dahi çağımızda türk millətinə nəsib oldu</t>
+          <t>bu talesizliyimizə baxın ki o böyük dahi çağımızda türk millətinə nəsib ol</t>
         </is>
       </c>
       <c r="B783" t="n">
@@ -8314,7 +8314,7 @@
     <row r="789">
       <c r="A789" t="inlineStr">
         <is>
-          <t>siz onda getdiniz mən çox fikirləşdim çox götür qoy elədim gördüm ki bu baş tutan iş deyil</t>
+          <t>siz onda getdiniz mən çox fikirləşdim çox götür qoy elədim gör ki bu baş tutan iş deyil</t>
         </is>
       </c>
       <c r="B789" t="n">
@@ -8384,7 +8384,7 @@
     <row r="796">
       <c r="A796" t="inlineStr">
         <is>
-          <t>uzun araşdırmalardan sonra başa düşdüm ki ən əlverişli şərtlər ilə samsung &lt;NUM&gt; ancaq almali az da var sağolsunlar cəmi bir neçə saat ərzində təqdim etdilər telefonu yanımda acıb yoxladılar vacib olan məlumat verdilər hətta məbləğin bir hissəsini umico bonsuları ilə ödədim və ədv geri al ilə &lt;NUM&gt; azn yaxın məbləğdə əldə etdim belə davam edin almalı az çox bəyəndim həm keyfiyyəti həm xidməti</t>
+          <t>uzun araşdırmalardan sonra başa düşdüm ki ən əlverişli şərtlər ilə samsung &lt;NUM&gt; ancaq almali az da var sağolsunlar cəmi bir neçə saat ərzində təqdim etdilər telefonu yanımda acıb yoxladılar vacib olan məlumat ver hətta məbləğin bir hissəsini umico bonsuları ilə ödədim və ədv geri al ilə &lt;NUM&gt; azn yaxın məbləğdə əldə etdim belə davam edin almalı az çox bəyən həm keyfiyyəti həm xidməti</t>
         </is>
       </c>
       <c r="B796" t="n">
@@ -8394,7 +8394,7 @@
     <row r="797">
       <c r="A797" t="inlineStr">
         <is>
-          <t>masloboyev mənə elə gəlir ki sən bu işdən ötrü onun xeyrinə çalışırsan sən mütləq bunu bilmək istəyirsən</t>
+          <t>masloboyev mənə elə gəl ki sən bu işdən ötrü onun xeyrinə çalışırsan sən mütləq bunu bilmək istəyirsən</t>
         </is>
       </c>
       <c r="B797" t="n">
@@ -8424,7 +8424,7 @@
     <row r="800">
       <c r="A800" t="inlineStr">
         <is>
-          <t>evdə &lt;NUM&gt; bacı dolması bişəndə mən &lt;NUM&gt; km məsafədən bilirəm ki bu iy bizdən gəlir</t>
+          <t>evdə &lt;NUM&gt; bacı dolması bişəndə mən &lt;NUM&gt; km məsafədən bilirəm ki bu iy bizdən gəl</t>
         </is>
       </c>
       <c r="B800" t="n">
@@ -8634,7 +8634,7 @@
     <row r="821">
       <c r="A821" t="inlineStr">
         <is>
-          <t>əladı çatdırılma qiymətləri inşallah gələcəkdə &lt;NUM&gt; dollara düşər çünki həqiqətən biraz bahadı bütün karqolarda &lt;NUM&gt; dollar özü bahadı tekstlil təmiz pambiq ağır olur deyə sərf etmir uğurlar arzu edirəm</t>
+          <t>əladı çatdırılma qiymətləri inşallah gələcəkdə &lt;NUM&gt; dollara düşər çünki həqiqətən biraz bahadı bütün karqolarda &lt;NUM&gt; dollar özü bahadı tekstlil təmiz pambiq ağır ol deyə sərf etmir uğurlar arzu edirəm</t>
         </is>
       </c>
       <c r="B821" t="n">
@@ -8924,7 +8924,7 @@
     <row r="850">
       <c r="A850" t="inlineStr">
         <is>
-          <t>türkiyədə çox bəyəndiyim &lt;NUM&gt; youtube kanalı var adı da tasarımcı dayı öz videolarında belə marketinq hilələrini ifşa edir girib baxmağınızı tövsiyə edirəm</t>
+          <t>türkiyədə çox bəyəndiyim &lt;NUM&gt; youtube kanalı var adı da tasarımcı dayı öz videolarında belə marketinq hilələrini ifşa et girib baxmağınızı tövsiyə edirəm</t>
         </is>
       </c>
       <c r="B850" t="n">
@@ -9084,7 +9084,7 @@
     <row r="866">
       <c r="A866" t="inlineStr">
         <is>
-          <t>hələ bu harasıdır bəhruz nuriyev &lt;NUM&gt; ünvanında binanın altına su yığılır boru partlayıb binanın aşma təhlükəsi var az ərsu gəlib deyir ki pul ver düzəldək bunlar insan canını heçə sayırlar cenab prezidentin göstərişlərini saymırlar deyirler burda ağa mənəm mən deyən olacaq</t>
+          <t>hələ bu harasıdır bəhruz nuriyev &lt;NUM&gt; ünvanında binanın altına su yığılır boru partlayıb binanın aşma təhlükəsi var az ərsu gəlib de ki pul ver düzəldək bunlar insan canını heçə sayırlar cenab prezidentin göstərişlərini saymırlar deyirler burda ağa mənəm mən deyən olacaq</t>
         </is>
       </c>
       <c r="B866" t="n">
@@ -9134,7 +9134,7 @@
     <row r="871">
       <c r="A871" t="inlineStr">
         <is>
-          <t>kontakt homedən yataq dəsti aldıq şikayətlərimiz olarsa bildirmək üçün mobil nömrə verdilər &lt;NUM&gt; həftəyə mebeli təslim edəcəklərini desələr də &lt;NUM&gt; həftə sonra gəldi mebel quraşdırıldığında mebelun parça hissələrinin kirli olduğu bəzi detalların əskik olduğunu görüb şikayət etmək üçün zəng etdik ilk telefonu götürən xanım şikayətlərimizi dəyərləndirəcəyini deyib o gün bu gün hələ də gözləyirik artıq &lt;NUM&gt; ildir çox məsuliyyətsiz və demək olar ki qiymətləri çox şişirdilmişdir heç tövsiyyə_NEG etmirəm_NEG azərbaycanda_NEG müştəri qazanmaq deyil itirmək_NEG üçün_NEG əlindən_NEG gələni edən şirkətlər maqazinlər və marketlər çoxdur</t>
+          <t>kontakt homedən yataq dəsti al şikayətlərimiz olarsa bildirmək üçün mobil nömrə ver &lt;NUM&gt; həftəyə mebeli təslim edəcəklərini desələr də &lt;NUM&gt; həftə sonra gəl mebel quraşdırıldığında mebelun parça hissələrinin kirli olduğu bəzi detalların əskik olduğunu görüb şikayət etmək üçün zəng etdik ilk telefonu götürən xanım şikayətlərimizi dəyərləndirəcəyini deyib o gün bu gün hələ də gözləyirik artıq &lt;NUM&gt; ildir çox məsuliyyətsiz və demək olar ki qiymətləri çox şişirdilmişdir heç tövsiyyə_NEG etmirəm_NEG azərbaycanda_NEG müştəri qazanmaq deyil itirmək_NEG üçün_NEG əlindən_NEG gələni edən şirkətlər maqazinlər və marketlər çoxdur</t>
         </is>
       </c>
       <c r="B871" t="n">
@@ -9224,7 +9224,7 @@
     <row r="880">
       <c r="A880" t="inlineStr">
         <is>
-          <t>neymara təklif elə qəbul etdi bəlkə</t>
+          <t>neymara təklif elə qəbul et bəlkə</t>
         </is>
       </c>
       <c r="B880" t="n">
@@ -9264,7 +9264,7 @@
     <row r="884">
       <c r="A884" t="inlineStr">
         <is>
-          <t>ilk dəfə idi bu restoranda oldum çox xoşuma gəldi kassirlərin gülərüzlə qarşılaması xüsusən yeməyi seçməkdə çətinlik çəkdiyim anda kassirin mənə köməklik göstərməsini xüsusi vurğulamaq istərdim</t>
+          <t>ilk dəfə idi bu restoranda oldum çox xoşuma gəl kassirlərin gülərüzlə qarşılaması xüsusən yeməyi seçməkdə çətinlik çəkdiyim anda kassirin mənə köməklik göstərməsini xüsusi vurğulamaq istərdim</t>
         </is>
       </c>
       <c r="B884" t="n">
@@ -9324,7 +9324,7 @@
     <row r="890">
       <c r="A890" t="inlineStr">
         <is>
-          <t>bütün özünden getmelerde bu vatiant edilmelidr adam var heyecannan qorxudan qan azlıgından ve gedir hamsında bucür edilir</t>
+          <t>bütün özünden getmelerde bu vatiant edilmelidr adam var heyecannan qorxudan qan azlıgından ve get hamsında bucür edilir</t>
         </is>
       </c>
       <c r="B890" t="n">
@@ -9544,7 +9544,7 @@
     <row r="912">
       <c r="A912" t="inlineStr">
         <is>
-          <t>nece olur ki azerbaycanda aybasi qanini kisiye icirmek ebedi esq olduguna inanalar parisdeki qifila gulurler</t>
+          <t>nece ol ki azerbaycanda aybasi qanini kisiye icirmek ebedi esq olduguna inanalar parisdeki qifila gulurler</t>
         </is>
       </c>
       <c r="B912" t="n">
@@ -9554,7 +9554,7 @@
     <row r="913">
       <c r="A913" t="inlineStr">
         <is>
-          <t>o yenə də nataşanı əvvəlki kimi sevdiyinə and içirdi katya ilə olan münasibətini odlu odlu izah edir özünü təmizə çıxarmağa çalışırdı</t>
+          <t>o yenə də nataşanı əvvəlki kimi sevdiyinə and içirdi katya ilə olan münasibətini odlu odlu izah et özünü təmizə çıxarmağa çalışırdı</t>
         </is>
       </c>
       <c r="B913" t="n">
@@ -9584,7 +9584,7 @@
     <row r="916">
       <c r="A916" t="inlineStr">
         <is>
-          <t>ixmenev məmurun yanından birbaş mənim yanıma gəldi ovqatı yaman təlxdi gözləri qəzəblə parıldayırdı</t>
+          <t>ixmenev məmurun yanından birbaş mənim yanıma gəl ovqatı yaman təlxdi gözləri qəzəblə parıldayırdı</t>
         </is>
       </c>
       <c r="B916" t="n">
@@ -9644,7 +9644,7 @@
     <row r="922">
       <c r="A922" t="inlineStr">
         <is>
-          <t>covıd &lt;NUM&gt; simptomlari oldugu halda klinika tecili yardimi unvana gondermekden imtina etdi sehiyye sahesine yarashmayan bir hereketdir esasende indi movcud olan karantin dovrunde</t>
+          <t>covıd &lt;NUM&gt; simptomlari oldugu halda klinika tecili yardimi unvana gondermekden imtina et sehiyye sahesine yarashmayan bir hereketdir esasende indi movcud olan karantin dovrunde</t>
         </is>
       </c>
       <c r="B922" t="n">
@@ -9654,7 +9654,7 @@
     <row r="923">
       <c r="A923" t="inlineStr">
         <is>
-          <t>günəş sisteminə hər gün kənardan o qeder astroid komet daxil olur gərək imenni kimse gətirib şüurlu halda atmış olsun</t>
+          <t>günəş sisteminə hər gün kənardan o qeder astroid komet daxil ol gərək imenni kimse gətirib şüurlu halda atmış olsun</t>
         </is>
       </c>
       <c r="B923" t="n">
@@ -9824,7 +9824,7 @@
     <row r="940">
       <c r="A940" t="inlineStr">
         <is>
-          <t>bizimlə burada olduqları üçün qonaqlarımıza bir daha təşəkkürümü bildirmək və bu əlamətdar tədbir münasibətilə hamımızı təbrik etmək istəyirəm</t>
+          <t>bizimlə burada olduqları üçün qonaqlarımıza bir daha təşəkkürümü bildirmək və bu əlamətdar tədbir münasibətilə hamımızı təbrik etmək istə</t>
         </is>
       </c>
       <c r="B940" t="n">
@@ -9934,7 +9934,7 @@
     <row r="951">
       <c r="A951" t="inlineStr">
         <is>
-          <t>xətai neapol &lt;NUM&gt; yə avqustun &lt;NUM&gt; dən &lt;NUM&gt; nə kimi heç su_NEG vermədilər_NEG &lt;NUM&gt;_NEG dən bu günə kimi axşam &lt;NUM&gt; dəq təzyiqsiz su verirlər şikayət edirik deyirlər dözün tənzimləmə gedir</t>
+          <t>xətai neapol &lt;NUM&gt; yə avqustun &lt;NUM&gt; dən &lt;NUM&gt; nə kimi heç su_NEG vermədilər_NEG &lt;NUM&gt;_NEG dən bu günə kimi axşam &lt;NUM&gt; dəq təzyiqsiz su verirlər şikayət edirik deyirlər dözün tənzimləmə get</t>
         </is>
       </c>
       <c r="B951" t="n">
@@ -10034,7 +10034,7 @@
     <row r="961">
       <c r="A961" t="inlineStr">
         <is>
-          <t>ilk dəfə idi bu məkanda olurduq ilk öncə onu bildirim ki serviz və xidmət çox yüksək səviyədə idi sifarişlərimizdən əlavə masaya &lt;NUM&gt; cür məzə salat çiy köftə ikram olundu və yeməkdən sora çay və şirniyyat ikram olaraq gəldi şirniyatın adını bilmirəm ama çoox dadlı idi digər yeməklər isə normal və digər restoranlarda olandan biraz fərqli təqdim olunmuşdu təkrar təkrar gedəcəyim restorana çevrildi</t>
+          <t>ilk dəfə idi bu məkanda olurduq ilk öncə onu bildirim ki serviz və xidmət çox yüksək səviyədə idi sifarişlərimizdən əlavə masaya &lt;NUM&gt; cür məzə salat çiy köftə ikram olundu və yeməkdən sora çay və şirniyyat ikram olaraq gəl şirniyatın adını bilmirəm ama çoox dadlı idi digər yeməklər isə normal və digər restoranlarda olandan biraz fərqli təqdim olunmuşdu təkrar təkrar gedəcəyim restorana çevrildi</t>
         </is>
       </c>
       <c r="B961" t="n">
@@ -10054,7 +10054,7 @@
     <row r="963">
       <c r="A963" t="inlineStr">
         <is>
-          <t>həmişə bəyənərək alıb istifadə etmişik kuryer də vaxtında çatdırıb online sifariş də öz yerində amma sonuncu dəfə suyun dadı mənə fərqli gəldi deyə sifariş vermədim &lt;NUM&gt; ay bu gün yenidən yoxlamaq qərarına gəlsəm də dünən gecədən təsdiq olunan sifarişim həmişə səhər gəlirdi amma hələki gəlməyib görək nə olur</t>
+          <t>həmişə bəyənərək alıb istifadə etmişik kuryer də vaxtında çatdırıb online sifariş də öz yerində amma sonuncu dəfə suyun dadı mənə fərqli gəl deyə sifariş vermədim &lt;NUM&gt; ay bu gün yenidən yoxlamaq qərarına gəlsəm də dünən gecədən təsdiq olunan sifarişim həmişə səhər gəlirdi amma hələki gəlməyib görək nə ol</t>
         </is>
       </c>
       <c r="B963" t="n">
@@ -10104,7 +10104,7 @@
     <row r="968">
       <c r="A968" t="inlineStr">
         <is>
-          <t>&lt;NUM&gt; il &lt;NUM&gt; il &lt;NUM&gt; il &lt;NUM&gt; il belə daha gözəldi</t>
+          <t>&lt;NUM&gt; il &lt;NUM&gt; il &lt;NUM&gt; il &lt;NUM&gt; il belə daha gözəl</t>
         </is>
       </c>
       <c r="B968" t="n">
@@ -10154,7 +10154,7 @@
     <row r="973">
       <c r="A973" t="inlineStr">
         <is>
-          <t>əladı xoşum gəldi beş ulduz</t>
+          <t>əladı xoşum gəl beş ulduz</t>
         </is>
       </c>
       <c r="B973" t="n">
@@ -10174,7 +10174,7 @@
     <row r="975">
       <c r="A975" t="inlineStr">
         <is>
-          <t>o hakimiyyəti ərzində iş adamlarını məhv etdi əhalini qarət etdi</t>
+          <t>o hakimiyyəti ərzində iş adamlarını məhv et əhalini qarət et</t>
         </is>
       </c>
       <c r="B975" t="n">
@@ -10224,7 +10224,7 @@
     <row r="980">
       <c r="A980" t="inlineStr">
         <is>
-          <t>bu çox maraqlı bir məqalədir hər gün pulsuz nəqliyyat xidmətinin sərnişinlər üçün neçəyi olduğunu öyrənmək həyəcanlandırıcıdır bu qatarın təmir olunan su stansiyasının yanında hələ də fəaliyyət göstərməsi maraqlıdır bu nəqliyyat vasitəsi təhsil və iş yerlərində olan insanlar üçün böyük bir imkan təşkil edir çox təşəkkür edirəm bu müəllifin bilməyimizi sağlaması üçün əqliyyat</t>
+          <t>bu çox maraqlı bir məqalədir hər gün pulsuz nəqliyyat xidmətinin sərnişinlər üçün neçəyi olduğunu öyrənmək həyəcanlandırıcıdır bu qatarın təmir olunan su stansiyasının yanında hələ də fəaliyyət göstərməsi maraqlıdır bu nəqliyyat vasitəsi təhsil və iş yerlərində olan insanlar üçün böyük bir imkan təşkil et çox təşəkkür edirəm bu müəllifin bilməyimizi sağlaması üçün əqliyyat</t>
         </is>
       </c>
       <c r="B980" t="n">
@@ -10304,7 +10304,7 @@
     <row r="988">
       <c r="A988" t="inlineStr">
         <is>
-          <t>vaxtında söndürüb yandırmaq məsələsinin patentini alsaydıq indi nasa'nı məhkəməyə vermişdik nasa ee day oldu keçdi</t>
+          <t>vaxtında söndürüb yandırmaq məsələsinin patentini alsaydıq indi nasa'nı məhkəməyə vermişdik nasa ee day ol keçdi</t>
         </is>
       </c>
       <c r="B988" t="n">
@@ -10364,7 +10364,7 @@
     <row r="994">
       <c r="A994" t="inlineStr">
         <is>
-          <t>qəribədi amerikada kimsə edam olunursa ədalətli olur əgər ölüm hökmü ləğv olunarsa humanist ölkə olur</t>
+          <t>qəribədi amerikada kimsə edam olunursa ədalətli ol əgər ölüm hökmü ləğv olunarsa humanist ölkə ol</t>
         </is>
       </c>
       <c r="B994" t="n">
@@ -10414,7 +10414,7 @@
     <row r="999">
       <c r="A999" t="inlineStr">
         <is>
-          <t>unibank azərbaycanda ən güclü bazası olan bankdır istər informasiya texnologiyaları sahəsində istərsə də funksionallıq baxımından amma təəssüf ki bu müştəri münasibətləri sahəsində belə deyil işçilər_NEG çox_NEG rahat_NEG kobud davranır bunun səbəbini də maraqlananda məlum olur ki işçilərdən yalnız əməliyyatların düzgün edilməsi tələb olunur sürətli işçi ilə digəri arasında fərq yaradan bir mexanizim yoxdur</t>
+          <t>unibank azərbaycanda ən güclü bazası olan bankdır istər informasiya texnologiyaları sahəsində istərsə də funksionallıq baxımından amma təəssüf ki bu müştəri münasibətləri sahəsində belə deyil işçilər_NEG çox_NEG rahat_NEG kobud davranır bunun səbəbini də maraqlananda məlum ol ki işçilərdən yalnız əməliyyatların düzgün edilməsi tələb olunur sürətli işçi ilə digəri arasında fərq yaradan bir mexanizim yoxdur</t>
         </is>
       </c>
       <c r="B999" t="n">
@@ -10444,7 +10444,7 @@
     <row r="1002">
       <c r="A1002" t="inlineStr">
         <is>
-          <t>bunu bilmirdim maraqli oldu bes reng haranin istehsali olmalidi</t>
+          <t>bunu bilmirdim maraqli ol bes reng haranin istehsali olmalidi</t>
         </is>
       </c>
       <c r="B1002" t="n">
@@ -10464,7 +10464,7 @@
     <row r="1004">
       <c r="A1004" t="inlineStr">
         <is>
-          <t>elə bizdə də rayondaxili çempionatının oyunları millinin oyunundan marağlı və çoxsaylı azarkeşlərlə olur qubada qusarda rayondaxili çempionatın bəzi oyunlarında phone azarkeşlər olur</t>
+          <t>elə bizdə də rayondaxili çempionatının oyunları millinin oyunundan marağlı və çoxsaylı azarkeşlərlə ol qubada qusarda rayondaxili çempionatın bəzi oyunlarında phone azarkeşlər ol</t>
         </is>
       </c>
       <c r="B1004" t="n">
@@ -10544,7 +10544,7 @@
     <row r="1012">
       <c r="A1012" t="inlineStr">
         <is>
-          <t>mən burdan getmək istəyirəm yaxşısı budur ki onun yanına gedim</t>
+          <t>mən burdan getmək istə yaxşısı budur ki onun yanına gedim</t>
         </is>
       </c>
       <c r="B1012" t="n">
@@ -10574,7 +10574,7 @@
     <row r="1015">
       <c r="A1015" t="inlineStr">
         <is>
-          <t>rasad huseynzada getdi gözəl günlər badə</t>
+          <t>rasad huseynzada get gözəl günlər badə</t>
         </is>
       </c>
       <c r="B1015" t="n">
@@ -10754,7 +10754,7 @@
     <row r="1033">
       <c r="A1033" t="inlineStr">
         <is>
-          <t>bu çox maraqlı bir məqalədir bu qatarın geçmişi ilə bağlı oxumağa sevindim azərbaycanın yaşayış məkanlarını daha yaxşı biraraya gətirən bu nəqliyyat vasitəsinə çox minnətdaram ən vacib olanı isə bu qatarın insanlara pulsuz xidmət göstərməsidir ölkəmizin inkişafına bu kimi layihələr dəstək olur və bizim üçün böyük bir fayda yaradır tezliklə daha bir qaydada qaytarış ümidi ilə ürəkdolusuqataryolculuq</t>
+          <t>bu çox maraqlı bir məqalədir bu qatarın geçmişi ilə bağlı oxumağa sevindim azərbaycanın yaşayış məkanlarını daha yaxşı biraraya gətirən bu nəqliyyat vasitəsinə çox minnətdaram ən vacib olanı isə bu qatarın insanlara pulsuz xidmət göstərməsidir ölkəmizin inkişafına bu kimi layihələr dəstək ol və bizim üçün böyük bir fayda yaradır tezliklə daha bir qaydada qaytarış ümidi ilə ürəkdolusuqataryolculuq</t>
         </is>
       </c>
       <c r="B1033" t="n">
@@ -10834,7 +10834,7 @@
     <row r="1041">
       <c r="A1041" t="inlineStr">
         <is>
-          <t>görəsən yaxşı oxumur filan deyənlər heç ingiliscə_NEG bilir_NEG çox_NEG maraqlıdı belə gic adamlarımız olduğuna görə insan özündən utanır nəsə yazırsınızsa normal pozitiv bir şey yazın içinizin qurdunu tökməyin</t>
+          <t>görəsən yaxşı oxumur filan deyənlər heç ingiliscə_NEG bil_NEG çox_NEG maraqlıdı belə gic adamlarımız olduğuna görə insan özündən utanır nəsə yazırsınızsa normal pozitiv bir şey yazın içinizin qurdunu tökməyin</t>
         </is>
       </c>
       <c r="B1041" t="n">
@@ -10914,7 +10914,7 @@
     <row r="1049">
       <c r="A1049" t="inlineStr">
         <is>
-          <t>argentinaya kim reqib olur hemin komanı tanımayada azerkeşlik edirlerki teki messi aparmasın kuboku inşallah finala argentina fransa qalar ve ermenilerin veteni fransayada balet ederler bəzi xiyar azerkeşler</t>
+          <t>argentinaya kim reqib ol hemin komanı tanımayada azerkeşlik edirlerki teki messi aparmasın kuboku inşallah finala argentina fransa qalar ve ermenilerin veteni fransayada balet ederler bəzi xiyar azerkeşler</t>
         </is>
       </c>
       <c r="B1049" t="n">
@@ -11084,7 +11084,7 @@
     <row r="1066">
       <c r="A1066" t="inlineStr">
         <is>
-          <t>kim nə yazırsa yazsın istər dostumuz olsun istərsədə şmənimiz biz bir atanı bir ananın vladıyıq bunu nya bilir və təsdiq də olunur baxışımız qanımız qəlbimiz ruhumuz da rk bu belədir belə də olacaq var olsun rk mənim</t>
+          <t>kim nə yazırsa yazsın istər dostumuz olsun istərsədə şmənimiz biz bir atanı bir ananın vladıyıq bunu nya bil və təsdiq də olunur baxışımız qanımız qəlbimiz ruhumuz da rk bu belədir belə də olacaq var olsun rk mənim</t>
         </is>
       </c>
       <c r="B1066" t="n">
@@ -11134,7 +11134,7 @@
     <row r="1071">
       <c r="A1071" t="inlineStr">
         <is>
-          <t>mən qaşıqla barmaqla sağ qalan adamlar tanıyıram nəinki yana çevirməklə biri atam biri mən başqa qohum uşaq vardı o məni müalicə edən həkim söz vermişdi ki bu uşaq onda &lt;NUM&gt; yaşım vardı heç vaxt_NEG qıcolma_NEG keçirməyəcək_NEG hələki o heç vaxt_NEG davam_NEG edir_NEG</t>
+          <t>mən qaşıqla barmaqla sağ qalan adamlar tanıyıram nəinki yana çevirməklə biri atam biri mən başqa qohum uşaq vardı o məni müalicə edən həkim söz vermişdi ki bu uşaq onda &lt;NUM&gt; yaşım vardı heç vaxt_NEG qıcolma_NEG keçirməyəcək_NEG hələki o heç vaxt_NEG davam_NEG et_NEG</t>
         </is>
       </c>
       <c r="B1071" t="n">
@@ -11234,7 +11234,7 @@
     <row r="1081">
       <c r="A1081" t="inlineStr">
         <is>
-          <t>mən həmşə deyirəm azərbaycanda problemlərin bir kökü var o da azərbaycan valideyininin uşağına tərbiyə verməməsidi &lt;NUM&gt; belədi ağlı başında adamlar anlayırki uşaq yaşda bir uşaqa tərbiyə vermədinsə apar tulla o uşağı çünkü uşaq &lt;NUM&gt; &lt;NUM&gt; yaş arası nə öyrəndisə o olur onun xarakteri sonradan nə etsəndə dəyişmir</t>
+          <t>mən həmşə deyirəm azərbaycanda problemlərin bir kökü var o da azərbaycan valideyininin uşağına tərbiyə verməməsidi &lt;NUM&gt; belədi ağlı başında adamlar anlayırki uşaq yaşda bir uşaqa tərbiyə vermədinsə apar tulla o uşağı çünkü uşaq &lt;NUM&gt; &lt;NUM&gt; yaş arası nə öyrəndisə o ol onun xarakteri sonradan nə etsəndə dəyişmir</t>
         </is>
       </c>
       <c r="B1081" t="n">
@@ -11364,7 +11364,7 @@
     <row r="1094">
       <c r="A1094" t="inlineStr">
         <is>
-          <t>xoşbəxt olmağın formulu çox sadədir xoşbəxt olmaq üçün sadəcə pul yetərlidir pul güc deməkdir güc isə istədiyin kimi bir həyat yaşamağın anlamına gəlir amerikada yaşamaq istəyirsən get yaşa lamborghini istəyirsən get al aya səyahət etmək istəyirsən elonla danış musiqi dinləmək istəyirsən ən məşhur musiqiçiləri çağır ayağına gəlsin və</t>
+          <t>xoşbəxt olmağın formulu çox sadədir xoşbəxt olmaq üçün sadəcə pul yetərlidir pul güc deməkdir güc isə istədiyin kimi bir həyat yaşamağın anlamına gəl amerikada yaşamaq istəyirsən get yaşa lamborghini istəyirsən get al aya səyahət etmək istəyirsən elonla danış musiqi dinləmək istəyirsən ən məşhur musiqiçiləri çağır ayağına gəlsin və</t>
         </is>
       </c>
       <c r="B1094" t="n">
@@ -11374,7 +11374,7 @@
     <row r="1095">
       <c r="A1095" t="inlineStr">
         <is>
-          <t>ele olurki gun erzinde ancaq seher yediyim yemey olur bide axsam eve gelende acgoz kimi o qeder yeyiremki bu hal tez tez bas verir amma ne kokelmirem nede ki hele olmemisem</t>
+          <t>ele olurki gun erzinde ancaq seher yediyim yemey ol bide axsam eve gelende acgoz kimi o qeder yeyiremki bu hal tez tez bas verir amma ne kokelmirem nede ki hele olmemisem</t>
         </is>
       </c>
       <c r="B1095" t="n">
@@ -11384,7 +11384,7 @@
     <row r="1096">
       <c r="A1096" t="inlineStr">
         <is>
-          <t>bu yaxşıdır ki təsəvvür eləyin dünyadan köçən yaxınlarımızın &lt;NUM&gt; saniyəlik səsini verib kopyalaya bilərik və onlar həmin səslə bizlə danışa bilər bu arada &lt;NUM&gt; istehsalı olan baş rolda al paçinonun çəkildiyi filmi izləməyi tövsiyə edirəm eynən günümüzü və gələcəyi deyir</t>
+          <t>bu yaxşı ki təsəvvür eləyin dünyadan köçən yaxınlarımızın &lt;NUM&gt; saniyəlik səsini verib kopyalaya bilərik və onlar həmin səslə bizlə danışa bilər bu arada &lt;NUM&gt; istehsalı olan baş rolda al paçinonun çəkildiyi filmi izləməyi tövsiyə edirəm eynən günümüzü və gələcəyi de</t>
         </is>
       </c>
       <c r="B1096" t="n">
@@ -11504,7 +11504,7 @@
     <row r="1108">
       <c r="A1108" t="inlineStr">
         <is>
-          <t>indicə qardaşım qızı qaça qaça üstümə gəldi ki bibi piyanşeti düzəlt yutuba baxım sağol dedi getti</t>
+          <t>indicə qardaşım qızı qaça qaça üstümə gəl ki bibi piyanşeti düzəlt yutuba baxım sağol dedi getti</t>
         </is>
       </c>
       <c r="B1108" t="n">
@@ -11514,7 +11514,7 @@
     <row r="1109">
       <c r="A1109" t="inlineStr">
         <is>
-          <t>yalandır elə adam var &lt;NUM&gt; kilo çəkisi var elə o boyda da sabunluq edir</t>
+          <t>yalandır elə adam var &lt;NUM&gt; kilo çəkisi var elə o boyda da sabunluq et</t>
         </is>
       </c>
       <c r="B1109" t="n">
@@ -11524,7 +11524,7 @@
     <row r="1110">
       <c r="A1110" t="inlineStr">
         <is>
-          <t>deyir iş günümü çəkəcəm hanı bəs</t>
+          <t>de iş günümü çəkəcəm hanı bəs</t>
         </is>
       </c>
       <c r="B1110" t="n">
@@ -11614,7 +11614,7 @@
     <row r="1119">
       <c r="A1119" t="inlineStr">
         <is>
-          <t>ən ziyanlı və lazımsız içkilər siyahısında elə brend olaraq ilk başda cola və fanta gəlir</t>
+          <t>ən ziyanlı və lazımsız içkilər siyahısında elə brend olaraq ilk başda cola və fanta gəl</t>
         </is>
       </c>
       <c r="B1119" t="n">
@@ -11664,7 +11664,7 @@
     <row r="1124">
       <c r="A1124" t="inlineStr">
         <is>
-          <t>zaqtaladadi bu kap ama bu iki insana çox az komek olur</t>
+          <t>zaqtaladadi bu kap ama bu iki insana çox az komek ol</t>
         </is>
       </c>
       <c r="B1124" t="n">
@@ -11674,7 +11674,7 @@
     <row r="1125">
       <c r="A1125" t="inlineStr">
         <is>
-          <t>ordan bidene levi turba atirsan mehleye caniva dua edir mehle usaglari</t>
+          <t>ordan bidene levi turba atirsan mehleye caniva dua et mehle usaglari</t>
         </is>
       </c>
       <c r="B1125" t="n">
@@ -11744,7 +11744,7 @@
     <row r="1132">
       <c r="A1132" t="inlineStr">
         <is>
-          <t>çox qorxulu gəlir mənə pramidalar</t>
+          <t>çox qorxulu gəl mənə pramidalar</t>
         </is>
       </c>
       <c r="B1132" t="n">
@@ -11804,7 +11804,7 @@
     <row r="1138">
       <c r="A1138" t="inlineStr">
         <is>
-          <t>bakıda kim hardan ürəyi istəyir ordan gedir</t>
+          <t>bakıda kim hardan ürəyi istəyir ordan get</t>
         </is>
       </c>
       <c r="B1138" t="n">
@@ -11964,7 +11964,7 @@
     <row r="1154">
       <c r="A1154" t="inlineStr">
         <is>
-          <t>bu tip hadisələr illərdi ya abş da olur ya fransada meteoritdə özünə hörmət edir azərbaycana gəlmir</t>
+          <t>bu tip hadisələr illərdi ya abş da ol ya fransada meteoritdə özünə hörmət et azərbaycana gəlmir</t>
         </is>
       </c>
       <c r="B1154" t="n">
@@ -12024,7 +12024,7 @@
     <row r="1160">
       <c r="A1160" t="inlineStr">
         <is>
-          <t>subhan shirinov sən də deyirsən bir il oldu uje sıxılıram</t>
+          <t>subhan shirinov sən də deyirsən bir il ol uje sıxılıram</t>
         </is>
       </c>
       <c r="B1160" t="n">
@@ -12094,7 +12094,7 @@
     <row r="1167">
       <c r="A1167" t="inlineStr">
         <is>
-          <t>iki əsrin birliyi türkiyənin qardaşlığının və tərəfdaşlığının təməlini təşkil edir</t>
+          <t>iki əsrin birliyi türkiyənin qardaşlığının və tərəfdaşlığının təməlini təşkil et</t>
         </is>
       </c>
       <c r="B1167" t="n">
@@ -12214,7 +12214,7 @@
     <row r="1179">
       <c r="A1179" t="inlineStr">
         <is>
-          <t>proqram yaxşıdı amma bakı kart balansı göstərsin</t>
+          <t>proqram yaxşı amma bakı kart balansı göstərsin</t>
         </is>
       </c>
       <c r="B1179" t="n">
@@ -12244,7 +12244,7 @@
     <row r="1182">
       <c r="A1182" t="inlineStr">
         <is>
-          <t>çətənə südü harda olur ki ya yağı</t>
+          <t>çətənə südü harda ol ki ya yağı</t>
         </is>
       </c>
       <c r="B1182" t="n">
@@ -12364,7 +12364,7 @@
     <row r="1194">
       <c r="A1194" t="inlineStr">
         <is>
-          <t>hər şeyə lağ lağa ilə yanaşanda nutellanın da qiyməti &lt;NUM&gt; &lt;NUM&gt; azn olur araz supermarket məsələni araşdırması üçün sənə müraciət edir sən də belə cavab verirsən gələn dəfə &lt;NUM&gt; azn görəndə yenə facebook səhifəndə show göstərərsən gülərik</t>
+          <t>hər şeyə lağ lağa ilə yanaşanda nutellanın da qiyməti &lt;NUM&gt; &lt;NUM&gt; azn ol araz supermarket məsələni araşdırması üçün sənə müraciət et sən də belə cavab verirsən gələn dəfə &lt;NUM&gt; azn görəndə yenə facebook səhifəndə show göstərərsən gülərik</t>
         </is>
       </c>
       <c r="B1194" t="n">
@@ -12444,7 +12444,7 @@
     <row r="1202">
       <c r="A1202" t="inlineStr">
         <is>
-          <t>&lt;NUM&gt; yasimdan eşşey kimi islemeye mecbur qalmaq mugenniler demis bu gunlere gelmeyime komey oldu</t>
+          <t>&lt;NUM&gt; yasimdan eşşey kimi islemeye mecbur qalmaq mugenniler demis bu gunlere gelmeyime komey ol</t>
         </is>
       </c>
       <c r="B1202" t="n">
@@ -12494,7 +12494,7 @@
     <row r="1207">
       <c r="A1207" t="inlineStr">
         <is>
-          <t>mən qeydiyatdan keçmişdim əlada işləyirdi birdə birə sistem atkaz etdi onda sonra daxil ola bilmirəm</t>
+          <t>mən qeydiyatdan keçmişdim əlada işləyirdi birdə birə sistem atkaz et onda sonra daxil ola bilmirəm</t>
         </is>
       </c>
       <c r="B1207" t="n">
@@ -12564,7 +12564,7 @@
     <row r="1214">
       <c r="A1214" t="inlineStr">
         <is>
-          <t>&lt;RATING_NEG&gt; işləyir &lt;NUM&gt; ci aydır &lt;NUM&gt; dəfə zəng vurmuşam çox ayıb ayın sonu mən və bütün qonşular çıxırıq zəng vururam &lt;NUM&gt; və ya &lt;NUM&gt; saat artırırlar yenə olur pis bütün günü fırlanır başımız ağrıyır</t>
+          <t>&lt;RATING_NEG&gt; işləyir &lt;NUM&gt; ci aydır &lt;NUM&gt; dəfə zəng vurmuşam çox ayıb ayın sonu mən və bütün qonşular çıxırıq zəng vururam &lt;NUM&gt; və ya &lt;NUM&gt; saat artırırlar yenə ol pis bütün günü fırlanır başımız ağrıyır</t>
         </is>
       </c>
       <c r="B1214" t="n">
@@ -12684,7 +12684,7 @@
     <row r="1226">
       <c r="A1226" t="inlineStr">
         <is>
-          <t>los angeleess necədər bəyəndim bu çəkilişi</t>
+          <t>los angeleess necədər bəyən bu çəkilişi</t>
         </is>
       </c>
       <c r="B1226" t="n">
@@ -12834,7 +12834,7 @@
     <row r="1241">
       <c r="A1241" t="inlineStr">
         <is>
-          <t>burdan israil aftafalarina demek isteyirem ki eger muselmansinizsa allah deyir onlarla dostluq etmeyin o deyir yrhudiler fesad cixaranlardir yene deyirem muselmansinizsa deyilsinizse oz dininizde size ugurlar arzulayiram şubhesiz ki sizi yaradandan daha ağıllı deyilsiniz</t>
+          <t>burdan israil aftafalarina demek isteyirem ki eger muselmansinizsa allah de onlarla dostluq etmeyin o de yrhudiler fesad cixaranlardir yene deyirem muselmansinizsa deyilsinizse oz dininizde size ugurlar arzulayiram şubhesiz ki sizi yaradandan daha ağıllı deyilsiniz</t>
         </is>
       </c>
       <c r="B1241" t="n">
@@ -12914,7 +12914,7 @@
     <row r="1249">
       <c r="A1249" t="inlineStr">
         <is>
-          <t>mərdan mustafayev bu vuruşmada &lt;NUM&gt; hitlerçini məhv etdi</t>
+          <t>mərdan mustafayev bu vuruşmada &lt;NUM&gt; hitlerçini məhv et</t>
         </is>
       </c>
       <c r="B1249" t="n">
@@ -12964,7 +12964,7 @@
     <row r="1254">
       <c r="A1254" t="inlineStr">
         <is>
-          <t>cəfəngiyyatdı əksinə azalma gedir özünüz son &lt;NUM&gt; ili götürün azərbaycanda doğum sayı &lt;NUM&gt; &lt;NUM&gt; dəfə azalıb bunlar dünya əhalisinin sayını &lt;NUM&gt; milyon olmağını istəyir ona görədə yalan rəqəm verib müharibələrə səsiz qalmağı təmin edirlər xüsusən islam ölkələrində</t>
+          <t>cəfəngiyyatdı əksinə azalma get özünüz son &lt;NUM&gt; ili götürün azərbaycanda doğum sayı &lt;NUM&gt; &lt;NUM&gt; dəfə azalıb bunlar dünya əhalisinin sayını &lt;NUM&gt; milyon olmağını istəyir ona görədə yalan rəqəm verib müharibələrə səsiz qalmağı təmin edirlər xüsusən islam ölkələrində</t>
         </is>
       </c>
       <c r="B1254" t="n">
@@ -12974,7 +12974,7 @@
     <row r="1255">
       <c r="A1255" t="inlineStr">
         <is>
-          <t>məndə pomidoru çox sevirəm mənim seçimim isə belədir təndir çörəyi yumuşaq pendir və pomidor bəh bəh bəh</t>
+          <t>məndə pomidoru çox sev mənim seçimim isə belədir təndir çörəyi yumuşaq pendir və pomidor bəh bəh bəh</t>
         </is>
       </c>
       <c r="B1255" t="n">
@@ -13114,7 +13114,7 @@
     <row r="1269">
       <c r="A1269" t="inlineStr">
         <is>
-          <t>bəzi erməni mediası və ekspertlər hesab edir ki paşinyanın bu siyasəti ermənistana baha başa gələcək</t>
+          <t>bəzi erməni mediası və ekspertlər hesab et ki paşinyanın bu siyasəti ermənistana baha başa gələcək</t>
         </is>
       </c>
       <c r="B1269" t="n">
@@ -13124,7 +13124,7 @@
     <row r="1270">
       <c r="A1270" t="inlineStr">
         <is>
-          <t>qız ha cüdoçu olsun ha karateçi valideyni məcbur ərə verəndə evdəkilərə bedro atacaq yoxsa nə valideyn varki deyir qızın cüdoda karatedə nə işi var həm təkcə ilk ay pulsuzdu tutalım qız bir ay cüdoya pulsuz evdəkilərdən xəbərsiz getdi gəldi digər ayın pulunu nə adla alacaq valideyndən mənasız addımdır inciməyin</t>
+          <t>qız ha cüdoçu olsun ha karateçi valideyni məcbur ərə verəndə evdəkilərə bedro atacaq yoxsa nə valideyn varki de qızın cüdoda karatedə nə işi var həm təkcə ilk ay pulsuzdu tutalım qız bir ay cüdoya pulsuz evdəkilərdən xəbərsiz get gəl digər ayın pulunu nə adla alacaq valideyndən mənasız addımdır inciməyin</t>
         </is>
       </c>
       <c r="B1270" t="n">
@@ -13134,7 +13134,7 @@
     <row r="1271">
       <c r="A1271" t="inlineStr">
         <is>
-          <t>ay millət öz ək dili türk dilindən çox fərqlidir başa düşmək olmur bu bambılı özbək istəyir ki onun dilində danışsınlar əvvəlki sovet məkanında əsasən rusca bilirlər bu özbək ən azı azəri xanıma hörmətsizlik edir</t>
+          <t>ay millət öz ək dili türk dilindən çox fərqlidir başa düşmək olmur bu bambılı özbək istəyir ki onun dilində danışsınlar əvvəlki sovet məkanında əsasən rusca bilirlər bu özbək ən azı azəri xanıma hörmətsizlik et</t>
         </is>
       </c>
       <c r="B1271" t="n">
@@ -13184,7 +13184,7 @@
     <row r="1276">
       <c r="A1276" t="inlineStr">
         <is>
-          <t>sizi kimi zeif provayder bu dünyada yoxdur internet_NEG çox_NEG pisdir_NEG qoşmayın onu &lt;NUM&gt; &lt;NUM&gt; mbps olur niye &lt;NUM&gt; deyil</t>
+          <t>sizi kimi zeif provayder bu dünyada yoxdur internet_NEG çox_NEG pis_NEG qoşmayın onu &lt;NUM&gt; &lt;NUM&gt; mbps ol niye &lt;NUM&gt; deyil</t>
         </is>
       </c>
       <c r="B1276" t="n">
@@ -13204,7 +13204,7 @@
     <row r="1278">
       <c r="A1278" t="inlineStr">
         <is>
-          <t>&lt;NUM&gt; da iphone &lt;NUM&gt; aldım ilk dəfə iphone işlədirdim və &lt;NUM&gt; də ikinco əl iphone &lt;NUM&gt; keçdim hər iko telefonda &lt;NUM&gt; dəfə belə usta üzü görmədim indi qismət olsa &lt;NUM&gt; proya keçməyi düşünürəm</t>
+          <t>&lt;NUM&gt; da iphone &lt;NUM&gt; al ilk dəfə iphone işlədirdim və &lt;NUM&gt; də ikinco əl iphone &lt;NUM&gt; keçdim hər iko telefonda &lt;NUM&gt; dəfə belə usta üzü görmədim indi qismət olsa &lt;NUM&gt; proya keçməyi düşünürəm</t>
         </is>
       </c>
       <c r="B1278" t="n">
@@ -13344,7 +13344,7 @@
     <row r="1292">
       <c r="A1292" t="inlineStr">
         <is>
-          <t>çox gözəl maşındır çox sərfəli mən bilən heç benzində_NEG içmir_NEG dizeldi_NEG nə istəsəzdə yük yığmaq olur hər deyəndədə xarab olmur</t>
+          <t>çox gözəl maşındır çox sərfəli mən bilən heç benzində_NEG içmir_NEG dizeldi_NEG nə istəsəzdə yük yığmaq ol hər deyəndədə xarab olmur</t>
         </is>
       </c>
       <c r="B1292" t="n">
@@ -13404,7 +13404,7 @@
     <row r="1298">
       <c r="A1298" t="inlineStr">
         <is>
-          <t>biletin qiyməti deyir sadəcə &lt;NUM&gt; manatdır sammit get</t>
+          <t>biletin qiyməti de sadəcə &lt;NUM&gt; manatdır sammit get</t>
         </is>
       </c>
       <c r="B1298" t="n">
@@ -13414,7 +13414,7 @@
     <row r="1299">
       <c r="A1299" t="inlineStr">
         <is>
-          <t>niyə bu şeyləri ancaq kafirlər icad edir</t>
+          <t>niyə bu şeyləri ancaq kafirlər icad et</t>
         </is>
       </c>
       <c r="B1299" t="n">
@@ -13474,7 +13474,7 @@
     <row r="1305">
       <c r="A1305" t="inlineStr">
         <is>
-          <t>bele clxlr ki en çox yatan adam daha uzundraz olur sohbetlerdi</t>
+          <t>bele clxlr ki en çox yatan adam daha uzundraz ol sohbetlerdi</t>
         </is>
       </c>
       <c r="B1305" t="n">
@@ -13584,7 +13584,7 @@
     <row r="1316">
       <c r="A1316" t="inlineStr">
         <is>
-          <t>ay xala bildik e sülh istəyirsiz yazıq quş sıxılıb öldü axı bunun harası sülh oldu</t>
+          <t>ay xala bildik e sülh istəyirsiz yazıq quş sıxılıb öldü axı bunun harası sülh ol</t>
         </is>
       </c>
       <c r="B1316" t="n">
@@ -13644,7 +13644,7 @@
     <row r="1322">
       <c r="A1322" t="inlineStr">
         <is>
-          <t>niye lağ edirler bu maşına anlamıram ideal maşındı hem aile üçün hemde biznes ücün vede piknik üçün lap superdi baqaj hissesinde rahatlıqla iki nefer yata bilir çadır evezi sürüş hisside eladı sürmüşem</t>
+          <t>niye lağ edirler bu maşına anlamıram ideal maşındı hem aile üçün hemde biznes ücün vede piknik üçün lap superdi baqaj hissesinde rahatlıqla iki nefer yata bil çadır evezi sürüş hisside eladı sürmüşem</t>
         </is>
       </c>
       <c r="B1322" t="n">
@@ -13674,7 +13674,7 @@
     <row r="1325">
       <c r="A1325" t="inlineStr">
         <is>
-          <t>bolt şirkətindən çox razıyam çox tez gəlir və qiymətlər çox sərfəlidir müştərilərinədə tez tez endirimlər edir</t>
+          <t>bolt şirkətindən çox razıyam çox tez gəl və qiymətlər çox sərfəlidir müştərilərinədə tez tez endirimlər et</t>
         </is>
       </c>
       <c r="B1325" t="n">
@@ -13934,7 +13934,7 @@
     <row r="1351">
       <c r="A1351" t="inlineStr">
         <is>
-          <t>balansımda pul var deyir bloklanib bu nə blokudu niyə bloklanmalidi</t>
+          <t>balansımda pul var de bloklanib bu nə blokudu niyə bloklanmalidi</t>
         </is>
       </c>
       <c r="B1351" t="n">
@@ -13984,7 +13984,7 @@
     <row r="1356">
       <c r="A1356" t="inlineStr">
         <is>
-          <t>salam çox dadlı yeməklər var qulluq superdi canli musiqi mükəmməl hər dəfə tarqovuda olanda getdiyimiz yer ancaq fisincan olur</t>
+          <t>salam çox dadlı yeməklər var qulluq superdi canli musiqi mükəmməl hər dəfə tarqovuda olanda getdiyimiz yer ancaq fisincan ol</t>
         </is>
       </c>
       <c r="B1356" t="n">
@@ -13994,7 +13994,7 @@
     <row r="1357">
       <c r="A1357" t="inlineStr">
         <is>
-          <t>bunu nee deyirsən ki uzağı &lt;NUM&gt; manat pulumuz olur</t>
+          <t>bunu nee deyirsən ki uzağı &lt;NUM&gt; manat pulumuz ol</t>
         </is>
       </c>
       <c r="B1357" t="n">
@@ -14044,7 +14044,7 @@
     <row r="1362">
       <c r="A1362" t="inlineStr">
         <is>
-          <t>seher shey de uzanmish olur biraz</t>
+          <t>seher shey de uzanmish ol biraz</t>
         </is>
       </c>
       <c r="B1362" t="n">
@@ -14224,7 +14224,7 @@
     <row r="1380">
       <c r="A1380" t="inlineStr">
         <is>
-          <t>bu hadisə başımı çox qarışdırdı bu iş içində titrətməm də öz özünə keçib getdi</t>
+          <t>bu hadisə başımı çox qarışdırdı bu iş içində titrətməm də öz özünə keçib get</t>
         </is>
       </c>
       <c r="B1380" t="n">
@@ -14264,7 +14264,7 @@
     <row r="1384">
       <c r="A1384" t="inlineStr">
         <is>
-          <t>hahahaha mahninin orginalinda deyir bu kisi dunyasidi ama qadinlarsiz hecnedi qaqas qadinlar hissesin demir based fiahiafiafs</t>
+          <t>hahahaha mahninin orginalinda de bu kisi dunyasidi ama qadinlarsiz hecnedi qaqas qadinlar hissesin demir based fiahiafiafs</t>
         </is>
       </c>
       <c r="B1384" t="n">
@@ -14294,7 +14294,7 @@
     <row r="1387">
       <c r="A1387" t="inlineStr">
         <is>
-          <t>bugün &lt;NUM&gt; &lt;NUM&gt; və phone nömrələrinə dəfələrdə zəng vurmuşam və saatlarla telefonda gözləyəndən sonra zənglər avtomatik bağlanıb hər dəfə zəng vuranda deyir ki növbədəki sıranız &lt;NUM&gt; dur sonra hər dəqiqə bunu təkrarlayır və sıra dəyişmir bugün iş günüdür və mən iş saatları ərzində zəng vurmuşam adi bir müştəri zəngini vecinə almayan bankdan daha nə xidmət gözləyək</t>
+          <t>bugün &lt;NUM&gt; &lt;NUM&gt; və phone nömrələrinə dəfələrdə zəng vurmuşam və saatlarla telefonda gözləyəndən sonra zənglər avtomatik bağlanıb hər dəfə zəng vuranda de ki növbədəki sıranız &lt;NUM&gt; dur sonra hər dəqiqə bunu təkrarlayır və sıra dəyişmir bugün iş günüdür və mən iş saatları ərzində zəng vurmuşam adi bir müştəri zəngini vecinə almayan bankdan daha nə xidmət gözləyək</t>
         </is>
       </c>
       <c r="B1387" t="n">
@@ -14444,7 +14444,7 @@
     <row r="1402">
       <c r="A1402" t="inlineStr">
         <is>
-          <t>bəli gözəl təşəbbüsdür bizdə uzun illərdən sonra bir araya gəlmişdik lakin həyat aramızdan köçənlərdə vardı getdik onların qəbirlərinidə ziyarət elədik bəli hərə bir yanda yaşayır kimi çətinliklə kimi xoş günlə ağ gün ağardır qara gün qaraldır həyat belədir bir kino var tənha durna uçuşu baş rolda aktyor ötkəm müəllim çəkilib tam da belə bu görüntülərə baxanda onu xatırladım filimdə əminə xanım xalq artistimiz də yer alıb çox maraqlıdır ona baxanda adam istər istəməz dönüb o günlərə gedir filim real həyatdan götürülüb o vaxtlar bizim partalarımız belə deyildi qara idi həm də bu partalardan çox rahat idi</t>
+          <t>bəli gözəl təşəbbüsdür bizdə uzun illərdən sonra bir araya gəlmişdik lakin həyat aramızdan köçənlərdə vardı getdik onların qəbirlərinidə ziyarət elədik bəli hərə bir yanda yaşayır kimi çətinliklə kimi xoş günlə ağ gün ağardır qara gün qaraldır həyat belədir bir kino var tənha durna uçuşu baş rolda aktyor ötkəm müəllim çəkilib tam da belə bu görüntülərə baxanda onu xatırladım filimdə əminə xanım xalq artistimiz də yer alıb çox maraqlıdır ona baxanda adam istər istəməz dönüb o günlərə get filim real həyatdan götürülüb o vaxtlar bizim partalarımız belə deyildi qara idi həm də bu partalardan çox rahat idi</t>
         </is>
       </c>
       <c r="B1402" t="n">
@@ -14474,7 +14474,7 @@
     <row r="1405">
       <c r="A1405" t="inlineStr">
         <is>
-          <t>qapı pusmaq yaxşı şeylər eşitmək istəyirəm indi hamı elə bərk bərk bağlayıb ki qapısını</t>
+          <t>qapı pusmaq yaxşı şeylər eşitmək istə indi hamı elə bərk bərk bağlayıb ki qapısını</t>
         </is>
       </c>
       <c r="B1405" t="n">
@@ -14534,7 +14534,7 @@
     <row r="1411">
       <c r="A1411" t="inlineStr">
         <is>
-          <t>buna da sukur aldigim ancaq kreditə gedir əlavə biznes qurmag istəyirəm</t>
+          <t>buna da sukur aldigim ancaq kreditə get əlavə biznes qurmag istə</t>
         </is>
       </c>
       <c r="B1411" t="n">
@@ -14614,7 +14614,7 @@
     <row r="1419">
       <c r="A1419" t="inlineStr">
         <is>
-          <t>mover az şirkətini bəyənirəm çünki instagram səhvələri ilə bizlərin nədə bilmədiyimiz olarsa yardımcı olurlar bağlamanızı təmiz şəkildə və tez bir zamanda təhvil verirlər</t>
+          <t>mover az şirkətini bəyən çünki instagram səhvələri ilə bizlərin nədə bilmədiyimiz olarsa yardımcı olurlar bağlamanızı təmiz şəkildə və tez bir zamanda təhvil verirlər</t>
         </is>
       </c>
       <c r="B1419" t="n">
@@ -14624,7 +14624,7 @@
     <row r="1420">
       <c r="A1420" t="inlineStr">
         <is>
-          <t>birbankın ədv bölməsi ilə eurosel internet provayderinə ödəniş olunmuşdur ödəniş tarixi &lt;NUM&gt; &lt;NUM&gt; &lt;NUM&gt; ci il bir müddət keçəndən sonra məlum olur ki ödəniş eurosel çatmır və bunun ilə bağlı ödənişin bank tərəfindən yoxlanılmasın xahiş edirlər ilk müraciətim &lt;NUM&gt; &lt;NUM&gt; tarixində olur və &lt;NUM&gt; iş günü gözlədikdən sonra &lt;NUM&gt; &lt;NUM&gt; tarixdə müraciətimə mesaj olaraq müsbət cavab gəlir və ödənişin uğurlu olduğu bildirilir halbuki ödəniş təyinat nöqtəsinə yenədə çatmır eurosel öz növbəsində kapitalbank tərəfindən sorğu açılmasını xahiş edir və buna cavab olaraq kapital bank imtina edir və sorğunu eurosel tərəfindən birinci açılmasını bildirir &lt;NUM&gt; şirkət arasında qalan mən öz üzərimə bunu götürüb işimi asandlaşdırmaq üçün və eyni zamanda bunu mənə kapitalbank tərəfindən operator təklif edir ki biz sizə e mail şəklində ödənişin uğurlu keçməsi haqqında sənəd təqdim edə bilərik buna razılaşaraq yenidən məndən təzə müraciət götürülür və &lt;NUM&gt; iş günü gözləməyimi xahiş edirlər ən maraqlısı bundan sonra başlayır yeni müraciətin tarixi &lt;NUM&gt; &lt;NUM&gt; dan sonra &lt;NUM&gt; iş günü keçməyinə baxmayaraq mənə bank tərəfdən heç bir_NEG cavab_NEG gəlmir_NEG &lt;NUM&gt; &lt;NUM&gt; tarixindən bu günə kimi dəfələrlə yığıb şikayət bildirsəmdə mənə standart cavab verilir sizin sorğu aidiyyəti şöbəyə yönləndirilib sizin sorğuya ancaq aidiyyəti şöbə cavab verə bilər sizin müraciətinizi təcili olaraq qeyd edirik və bu cür cavabları mən çox yaza bilərəm yanvarın əvvəli bir şəxs mənim ilə operatorla bağlı olan problemə görə əlaqə saxlayır ona danışdığım bütün hekayədən sonra mənə bildirirlər ki həmin internet şirkəti ilə bir neçə dəfə bu probmlər yaşanıb ondan yenə mən sənədi xahiş etsəm də mənə göndərərik cavabın deyib yenə mənim ilə heç kəs_NEG əlaqə_NEG saxlamayıb_NEG</t>
+          <t>birbankın ədv bölməsi ilə eurosel internet provayderinə ödəniş olunmuşdur ödəniş tarixi &lt;NUM&gt; &lt;NUM&gt; &lt;NUM&gt; ci il bir müddət keçəndən sonra məlum ol ki ödəniş eurosel çatmır və bunun ilə bağlı ödənişin bank tərəfindən yoxlanılmasın xahiş edirlər ilk müraciətim &lt;NUM&gt; &lt;NUM&gt; tarixində ol və &lt;NUM&gt; iş günü gözlədikdən sonra &lt;NUM&gt; &lt;NUM&gt; tarixdə müraciətimə mesaj olaraq müsbət cavab gəl və ödənişin uğurlu olduğu bildirilir halbuki ödəniş təyinat nöqtəsinə yenədə çatmır eurosel öz növbəsində kapitalbank tərəfindən sorğu açılmasını xahiş et və buna cavab olaraq kapital bank imtina et və sorğunu eurosel tərəfindən birinci açılmasını bildirir &lt;NUM&gt; şirkət arasında qalan mən öz üzərimə bunu götürüb işimi asandlaşdırmaq üçün və eyni zamanda bunu mənə kapitalbank tərəfindən operator təklif et ki biz sizə e mail şəklində ödənişin uğurlu keçməsi haqqında sənəd təqdim edə bilərik buna razılaşaraq yenidən məndən təzə müraciət götürülür və &lt;NUM&gt; iş günü gözləməyimi xahiş edirlər ən maraqlısı bundan sonra başlayır yeni müraciətin tarixi &lt;NUM&gt; &lt;NUM&gt; dan sonra &lt;NUM&gt; iş günü keçməyinə baxmayaraq mənə bank tərəfdən heç bir_NEG cavab_NEG gəlmir_NEG &lt;NUM&gt; &lt;NUM&gt; tarixindən bu günə kimi dəfələrlə yığıb şikayət bildirsəmdə mənə standart cavab verilir sizin sorğu aidiyyəti şöbəyə yönləndirilib sizin sorğuya ancaq aidiyyəti şöbə cavab verə bilər sizin müraciətinizi təcili olaraq qeyd edirik və bu cür cavabları mən çox yaza bilərəm yanvarın əvvəli bir şəxs mənim ilə operatorla bağlı olan problemə görə əlaqə saxlayır ona danışdığım bütün hekayədən sonra mənə bildirirlər ki həmin internet şirkəti ilə bir neçə dəfə bu probmlər yaşanıb ondan yenə mən sənədi xahiş etsəm də mənə göndərərik cavabın deyib yenə mənim ilə heç kəs_NEG əlaqə_NEG saxlamayıb_NEG</t>
         </is>
       </c>
       <c r="B1420" t="n">
@@ -14644,7 +14644,7 @@
     <row r="1422">
       <c r="A1422" t="inlineStr">
         <is>
-          <t>qaloş pirinə nəzirim qəbul oldu</t>
+          <t>qaloş pirinə nəzirim qəbul ol</t>
         </is>
       </c>
       <c r="B1422" t="n">
@@ -14724,7 +14724,7 @@
     <row r="1430">
       <c r="A1430" t="inlineStr">
         <is>
-          <t>deyərdim ki mover heqiqeten &lt;NUM&gt; dasiyici şirkətdir bunu müsabiqə xetrine qetiyen demirəm saysız sayda müsderi yonlendirmisem bunu profilime baxıb da bile bilərsiniz dostumun dostu sayda paketlerini iane də edə bilərem azı toplam &lt;NUM&gt; kq evde paketi var etiraf edək ki hec bir daşıyıcı şirket məhsulun xarici anbara düşdüyü günün səhəri gün məhsulu azerbaycana gondermir moverden başqa bakı karqo terminalda deyərdim sürətli gömrük rəsmiləşdirilməsinde olur həmin gün ve ya seheri gün məhsulu təhvil verən daşıyıcı şirket moverdir sukani belə saxlayın inkişafda davam uğurlarınız bol olsun səni seven illərdir tek çalışdığım daşıyıcı şirket moverdir sene güvenim sonsuz</t>
+          <t>deyərdim ki mover heqiqeten &lt;NUM&gt; dasiyici şirkətdir bunu müsabiqə xetrine qetiyen demirəm saysız sayda müsderi yonlendirmisem bunu profilime baxıb da bile bilərsiniz dostumun dostu sayda paketlerini iane də edə bilərem azı toplam &lt;NUM&gt; kq evde paketi var etiraf edək ki hec bir daşıyıcı şirket məhsulun xarici anbara düşdüyü günün səhəri gün məhsulu azerbaycana gondermir moverden başqa bakı karqo terminalda deyərdim sürətli gömrük rəsmiləşdirilməsinde ol həmin gün ve ya seheri gün məhsulu təhvil verən daşıyıcı şirket moverdir sukani belə saxlayın inkişafda davam uğurlarınız bol olsun səni seven illərdir tek çalışdığım daşıyıcı şirket moverdir sene güvenim sonsuz</t>
         </is>
       </c>
       <c r="B1430" t="n">
@@ -14814,7 +14814,7 @@
     <row r="1439">
       <c r="A1439" t="inlineStr">
         <is>
-          <t>müsəlman və əzmkar qardaşlarımızı təbrik edirəm möhtəşəm və məntiqli oyunu sona kimi göstərib qalib gəldilər hazırda yeganə müsəlman ölkədir möcüzə göstərən ispanlar isə öz qazdıqları quyuya özləri düşdü yaponiyaya qəsdən uduzub almaniyanı evə göndərib mərakeşi udacağına ümid edən ispanlar da belə getdi müsəlman futbol tarixində mərakeş ilkə imza atdı bu gecə möcüzə oldu</t>
+          <t>müsəlman və əzmkar qardaşlarımızı təbrik edirəm möhtəşəm və məntiqli oyunu sona kimi göstərib qalib gəldilər hazırda yeganə müsəlman ölkədir möcüzə göstərən ispanlar isə öz qazdıqları quyuya özləri düşdü yaponiyaya qəsdən uduzub almaniyanı evə göndərib mərakeşi udacağına ümid edən ispanlar da belə get müsəlman futbol tarixində mərakeş ilkə imza atdı bu gecə möcüzə ol</t>
         </is>
       </c>
       <c r="B1439" t="n">
@@ -14934,7 +14934,7 @@
     <row r="1451">
       <c r="A1451" t="inlineStr">
         <is>
-          <t>allah qorusun bütün balaları akademiyada kursantlar o gilizlərdən mənə verib evdədə var oğluma vermişəm içi boş klon şəklində və sadə birdə üzərinə ad soyad yazılmış dəmor lövhə qan qrupu düşüncəsi belə çox ağır gəlir insana birdə onların yaşadıqlarını düşünmək dəhşətlidir</t>
+          <t>allah qorusun bütün balaları akademiyada kursantlar o gilizlərdən mənə verib evdədə var oğluma vermişəm içi boş klon şəklində və sadə birdə üzərinə ad soyad yazılmış dəmor lövhə qan qrupu düşüncəsi belə çox ağır gəl insana birdə onların yaşadıqlarını düşünmək dəhşətlidir</t>
         </is>
       </c>
       <c r="B1451" t="n">
@@ -14964,7 +14964,7 @@
     <row r="1454">
       <c r="A1454" t="inlineStr">
         <is>
-          <t>bu mövzuda əla film tövsiyə edirəm ryan goslingin baş rolda oynadığı first man filmində baş qəhrəman aya uçuşu zamanı xəstə qızının adı yazılan qolbağı ayın səthinə atraq onun xatirəsini əbədiləşdirir film özü çox yaxşıdı bu səhnə isə dəhşət təsirlidi hələ bir soundtreki də var sadəcə möhtəşəmdi the landing justin hurwitz</t>
+          <t>bu mövzuda əla film tövsiyə edirəm ryan goslingin baş rolda oynadığı first man filmində baş qəhrəman aya uçuşu zamanı xəstə qızının adı yazılan qolbağı ayın səthinə atraq onun xatirəsini əbədiləşdirir film özü çox yaxşı bu səhnə isə dəhşət təsirlidi hələ bir soundtreki də var sadəcə möhtəşəmdi the landing justin hurwitz</t>
         </is>
       </c>
       <c r="B1454" t="n">
@@ -15074,7 +15074,7 @@
     <row r="1465">
       <c r="A1465" t="inlineStr">
         <is>
-          <t>salam filmləri telefona yükləmək istəyirəm yukləyə bilmirəm</t>
+          <t>salam filmləri telefona yükləmək istə yukləyə bilmirəm</t>
         </is>
       </c>
       <c r="B1465" t="n">
@@ -15164,7 +15164,7 @@
     <row r="1474">
       <c r="A1474" t="inlineStr">
         <is>
-          <t>bunu kim hesablayib normal insanda iq səviyyəsi &lt;NUM&gt; &lt;NUM&gt; yuksək iq &lt;NUM&gt; &lt;NUM&gt; olur əqli cəhətdən geri qalan daun sindromlu insanlarda iq səviyyəsi &lt;NUM&gt; &lt;NUM&gt; arasi olur mənim iq səviyyəm ölcdurmusəm &lt;NUM&gt; cixib dünyada ən intellektli insanlar olan stiven hoking və eynşteyndə iq &lt;NUM&gt; olub</t>
+          <t>bunu kim hesablayib normal insanda iq səviyyəsi &lt;NUM&gt; &lt;NUM&gt; yuksək iq &lt;NUM&gt; &lt;NUM&gt; ol əqli cəhətdən geri qalan daun sindromlu insanlarda iq səviyyəsi &lt;NUM&gt; &lt;NUM&gt; arasi ol mənim iq səviyyəm ölcdurmusəm &lt;NUM&gt; cixib dünyada ən intellektli insanlar olan stiven hoking və eynşteyndə iq &lt;NUM&gt; olub</t>
         </is>
       </c>
       <c r="B1474" t="n">
@@ -15254,7 +15254,7 @@
     <row r="1483">
       <c r="A1483" t="inlineStr">
         <is>
-          <t>türkiyənin qiymətləri bizdən qat qat yaxşıdı</t>
+          <t>türkiyənin qiymətləri bizdən qat qat yaxşı</t>
         </is>
       </c>
       <c r="B1483" t="n">
@@ -15264,7 +15264,7 @@
     <row r="1484">
       <c r="A1484" t="inlineStr">
         <is>
-          <t>bu bir növ sədaqətdi həm də sonsuza qədər onun ölüsünə sadiq qalacağına da and içmiş olur heç vaxt_NEG həyatında_NEG başqası_NEG olmayacaq</t>
+          <t>bu bir növ sədaqətdi həm də sonsuza qədər onun ölüsünə sadiq qalacağına da and içmiş ol heç vaxt_NEG həyatında_NEG başqası_NEG olmayacaq</t>
         </is>
       </c>
       <c r="B1484" t="n">
@@ -15274,7 +15274,7 @@
     <row r="1485">
       <c r="A1485" t="inlineStr">
         <is>
-          <t>belə baxanda &lt;NUM&gt; ci dil ingilis dili sayılır bunlarda ancaq bunlari görəndə adam lap nifrət edir xarici dillərə</t>
+          <t>belə baxanda &lt;NUM&gt; ci dil ingilis dili sayılır bunlarda ancaq bunlari görəndə adam lap nifrət et xarici dillərə</t>
         </is>
       </c>
       <c r="B1485" t="n">
@@ -15364,7 +15364,7 @@
     <row r="1494">
       <c r="A1494" t="inlineStr">
         <is>
-          <t>çünki endorfinin ifrazı güclənir özünü çox xoşbəxt hiss edir ona görə ürək çox döyünür</t>
+          <t>çünki endorfinin ifrazı güclənir özünü çox xoşbəxt hiss et ona görə ürək çox döyünür</t>
         </is>
       </c>
       <c r="B1494" t="n">
@@ -15634,7 +15634,7 @@
     <row r="1521">
       <c r="A1521" t="inlineStr">
         <is>
-          <t>amm öz aramızdı bu evin proyektini çox xoşuma gəldi suda üzməyi demirəm</t>
+          <t>amm öz aramızdı bu evin proyektini çox xoşuma gəl suda üzməyi demirəm</t>
         </is>
       </c>
       <c r="B1521" t="n">
@@ -15654,7 +15654,7 @@
     <row r="1523">
       <c r="A1523" t="inlineStr">
         <is>
-          <t>çox pisdir silirəm silinmir</t>
+          <t>çox pis silirəm silinmir</t>
         </is>
       </c>
       <c r="B1523" t="n">
@@ -15784,7 +15784,7 @@
     <row r="1536">
       <c r="A1536" t="inlineStr">
         <is>
-          <t>bizimklər hər şeyi israf və görməmişcəsnə istifadə edir</t>
+          <t>bizimklər hər şeyi israf və görməmişcəsnə istifadə et</t>
         </is>
       </c>
       <c r="B1536" t="n">
@@ -15844,7 +15844,7 @@
     <row r="1542">
       <c r="A1542" t="inlineStr">
         <is>
-          <t>salam nar şirkəti hər şeyi yaxşıdı sadece limitsiz &lt;NUM&gt; saatdig azercell kimi paketler yaratsa super olar cunki təlbələrin coxu mb nan girir tələbələrin coxuda nar isdifadəcisidi</t>
+          <t>salam nar şirkəti hər şeyi yaxşı sadece limitsiz &lt;NUM&gt; saatdig azercell kimi paketler yaratsa super olar cunki təlbələrin coxu mb nan girir tələbələrin coxuda nar isdifadəcisidi</t>
         </is>
       </c>
       <c r="B1542" t="n">
@@ -15864,7 +15864,7 @@
     <row r="1544">
       <c r="A1544" t="inlineStr">
         <is>
-          <t>bravo ve umico butun gun reklam edir ki kewbekli mehsullar alin elave gelir elde edin çox raziyam çox da qene edir lakin men girib tez aliw veriw edib cixmaq isteyiremse birde bawdayim wekil cekmeye ki hansi mehsulda kewbek var onu sevim alim bunun ucun gerey axwama kimi marketde kewbekli mehsul axtarasan teklifim odur ki mehsulun qiymeti qeyd olunan kagizda onun kewbekli olub olmadiqida yazilsin muwteriye rahat olsun ındiki zamanade vaxt yoxdu wekil vekib axtariw etmeye</t>
+          <t>bravo ve umico butun gun reklam et ki kewbekli mehsullar alin elave gelir elde edin çox raziyam çox da qene et lakin men girib tez aliw veriw edib cixmaq isteyiremse birde bawdayim wekil cekmeye ki hansi mehsulda kewbek var onu sevim alim bunun ucun gerey axwama kimi marketde kewbekli mehsul axtarasan teklifim odur ki mehsulun qiymeti qeyd olunan kagizda onun kewbekli olub olmadiqida yazilsin muwteriye rahat olsun ındiki zamanade vaxt yoxdu wekil vekib axtariw etmeye</t>
         </is>
       </c>
       <c r="B1544" t="n">
@@ -15954,7 +15954,7 @@
     <row r="1553">
       <c r="A1553" t="inlineStr">
         <is>
-          <t>&lt;NUM&gt; cu ilde oldum o hava limanında dehşet bişey idi bir an ele bildim pilot endirməyi bacarmayıb ona göre magistral yola düşmüşük ölkə o qədər balacadır ki ekstra qənaət ediblər üstəlik ölkənin bir başından o biri başına getmek üçün ayaq ilə &lt;NUM&gt; saat yeterli olur</t>
+          <t>&lt;NUM&gt; cu ilde oldum o hava limanında dehşet bişey idi bir an ele bildim pilot endirməyi bacarmayıb ona göre magistral yola düşmüşük ölkə o qədər balacadır ki ekstra qənaət ediblər üstəlik ölkənin bir başından o biri başına getmek üçün ayaq ilə &lt;NUM&gt; saat yeterli ol</t>
         </is>
       </c>
       <c r="B1553" t="n">
@@ -16134,7 +16134,7 @@
     <row r="1571">
       <c r="A1571" t="inlineStr">
         <is>
-          <t>təsəvvür edək ferrarimiz işıq surəti ilə gedir</t>
+          <t>təsəvvür edək ferrarimiz işıq surəti ilə get</t>
         </is>
       </c>
       <c r="B1571" t="n">
@@ -16144,7 +16144,7 @@
     <row r="1572">
       <c r="A1572" t="inlineStr">
         <is>
-          <t>pis gündədi &lt;NUM&gt; gün əvvəl gəldilərki interneti gücləndirəcik amma betər oldu ondan öncədə belə idi amma indi gedir tez tez gələndədə zülümlə açır hər şeyi</t>
+          <t>pis gündədi &lt;NUM&gt; gün əvvəl gəldilərki interneti gücləndirəcik amma betər ol ondan öncədə belə idi amma indi get tez tez gələndədə zülümlə açır hər şeyi</t>
         </is>
       </c>
       <c r="B1572" t="n">
@@ -16314,7 +16314,7 @@
     <row r="1589">
       <c r="A1589" t="inlineStr">
         <is>
-          <t>görməsəm də elə bilirəm o illərin adamıyam çoox sevirəm o illəri çooxx</t>
+          <t>görməsəm də elə bilirəm o illərin adamıyam çoox sev o illəri çooxx</t>
         </is>
       </c>
       <c r="B1589" t="n">
@@ -16374,7 +16374,7 @@
     <row r="1595">
       <c r="A1595" t="inlineStr">
         <is>
-          <t>şaxta babadan yox allah_NEG dünyadakı_NEG zalim_NEG rejimlərə məmurlara lənət eləsin necə ki edir firon kimiləri lənətə gəlmişlər cəhənnəmdə yanır inşallah azərbaycanda və dünyadakı zalım məmurlara allah lənət eləsin</t>
+          <t>şaxta babadan yox allah_NEG dünyadakı_NEG zalim_NEG rejimlərə məmurlara lənət eləsin necə ki et firon kimiləri lənətə gəlmişlər cəhənnəmdə yanır inşallah azərbaycanda və dünyadakı zalım məmurlara allah lənət eləsin</t>
         </is>
       </c>
       <c r="B1595" t="n">
@@ -16434,7 +16434,7 @@
     <row r="1601">
       <c r="A1601" t="inlineStr">
         <is>
-          <t>fizik olmaq istəyirdim daha sonrada geoloq olmaq istədim nəticədə geofizik oldum</t>
+          <t>fizik olmaq istəyirdim daha sonrada geoloq olmaq istə nəticədə geofizik oldum</t>
         </is>
       </c>
       <c r="B1601" t="n">
@@ -16444,7 +16444,7 @@
     <row r="1602">
       <c r="A1602" t="inlineStr">
         <is>
-          <t>güya nəsə yeni məlumat verdiniz hamı bilir ki filmdə aktyorlar oynayır mafiya babaları deyil bu_NEG bir_NEG incəsənətdir_NEG əgər dediyiniz kimi düşünənlər də varsa demək ki adam peşəkardır bu qədər burda qeyri adi heçnə yoxdur</t>
+          <t>güya nəsə yeni məlumat verdiniz hamı bil ki filmdə aktyorlar oynayır mafiya babaları deyil bu_NEG bir_NEG incəsənətdir_NEG əgər dediyiniz kimi düşünənlər də varsa demək ki adam peşəkardır bu qədər burda qeyri adi heçnə yoxdur</t>
         </is>
       </c>
       <c r="B1602" t="n">
@@ -16454,7 +16454,7 @@
     <row r="1603">
       <c r="A1603" t="inlineStr">
         <is>
-          <t>&lt;NUM&gt; tonluq çənin içinə &lt;NUM&gt; &lt;NUM&gt; litr nanəcövhər tökürlər olur nanəli dəə ay albert xalu bəs sən nə gözlüyürdün içinnən nanə ağamalıyeva çıxası idi ki</t>
+          <t>&lt;NUM&gt; tonluq çənin içinə &lt;NUM&gt; &lt;NUM&gt; litr nanəcövhər tökürlər ol nanəli dəə ay albert xalu bəs sən nə gözlüyürdün içinnən nanə ağamalıyeva çıxası idi ki</t>
         </is>
       </c>
       <c r="B1603" t="n">
@@ -16554,7 +16554,7 @@
     <row r="1613">
       <c r="A1613" t="inlineStr">
         <is>
-          <t>qorxu təkcə fiziki ağrıyıra görə baş verən bir şey deyil qorxu_NEG həmçinin_NEG ruhani_NEG boşluğun ölümün ağrısıdır fiziki ağrısı olmayan biri belə yenə də ölümlə üzləşmək istəmir qorxu heç bir_NEG fiziki_NEG ağrı_NEG olmadan da insanın daxilində baş verə bilir əminsizliyin və natamam insan olmağın bilgisizliyidir məhəbbətin sülhün və sevincin yoxsunluğu çatışmamazlığıdır</t>
+          <t>qorxu təkcə fiziki ağrıyıra görə baş verən bir şey deyil qorxu_NEG həmçinin_NEG ruhani_NEG boşluğun ölümün ağrısıdır fiziki ağrısı olmayan biri belə yenə də ölümlə üzləşmək istəmir qorxu heç bir_NEG fiziki_NEG ağrı_NEG olmadan da insanın daxilində baş verə bil əminsizliyin və natamam insan olmağın bilgisizliyidir məhəbbətin sülhün və sevincin yoxsunluğu çatışmamazlığıdır</t>
         </is>
       </c>
       <c r="B1613" t="n">
@@ -16564,7 +16564,7 @@
     <row r="1614">
       <c r="A1614" t="inlineStr">
         <is>
-          <t>möhtəşəm işlər davam edir valentinlə doğ qazan</t>
+          <t>möhtəşəm işlər davam et valentinlə doğ qazan</t>
         </is>
       </c>
       <c r="B1614" t="n">
@@ -16604,7 +16604,7 @@
     <row r="1618">
       <c r="A1618" t="inlineStr">
         <is>
-          <t>belə daha yaxşıdır bizdə də olsun</t>
+          <t>belə daha yaxşı bizdə də olsun</t>
         </is>
       </c>
       <c r="B1618" t="n">
@@ -16944,7 +16944,7 @@
     <row r="1652">
       <c r="A1652" t="inlineStr">
         <is>
-          <t>rokstarin nesline vurum men bu dahini iwe goturub ve bow cek vermek evezine istediyini verib illaki bize caliw demek evezine iceri basib xyarlar ala buna kondsioner pultu versen gedib pentaqonu sindiracaq beleleri mlrda bir olur beyni ferqli caliwir</t>
+          <t>rokstarin nesline vurum men bu dahini iwe goturub ve bow cek vermek evezine istediyini verib illaki bize caliw demek evezine iceri basib xyarlar ala buna kondsioner pultu versen gedib pentaqonu sindiracaq beleleri mlrda bir ol beyni ferqli caliwir</t>
         </is>
       </c>
       <c r="B1652" t="n">
@@ -16954,7 +16954,7 @@
     <row r="1653">
       <c r="A1653" t="inlineStr">
         <is>
-          <t>qəti acılı yeməklər sevmirəm uşaqlıqdan belə öyrədiblər &lt;NUM&gt; soyuq içki &lt;NUM&gt; acılı qida olmaz odur budur hələ də gedir</t>
+          <t>qəti acılı yeməklər sevmirəm uşaqlıqdan belə öyrədiblər &lt;NUM&gt; soyuq içki &lt;NUM&gt; acılı qida olmaz odur budur hələ də get</t>
         </is>
       </c>
       <c r="B1653" t="n">
@@ -16994,7 +16994,7 @@
     <row r="1657">
       <c r="A1657" t="inlineStr">
         <is>
-          <t>mənim şikayətim bolmart supermarket indəndir bu mağazanın açılışının ilk günündən etibarən mənim orada bonus kartı var idi bu illər ərzində bu kartda çox dayda bonus yığdım bir neçə gün əvvəl bonuslarımın dəqiq miqdarı və onlarla nə alacağımı öyrənmək üçün marketə getdim amma müştəri xidmətlərində mənə kobud şəkildə bütün kartlarının mart ayında bloklandığını deyiblər mən soruşdum niyə heç kim_NEG mənə_NEG məlumat_NEG verməyib müştəri xidmətlərinin işçisi yenə kobud şəkildə mənə deyib ki biz marketin radiosundan məlumat vermişik əgər siz eşitməmisiniz bu bizim problemlərimiz deyil mən_NEG dedim_NEG ki_NEG bu mağazaya çox tez tez gedirəm və heç kim_NEG heç vaxt_NEG kart_NEG haqqında_NEG məlumat verilməyib və sizin radiodan elə məlumat bildirməyiblər müştəri xidmətlərinin işçisi mənimlə kobud bir tonda danışmağa davam etdi və bu anda mənə mağazanın administratoru və mühafizəsi yaxınlaşdı və onlar da mənimlə kobud şəkildə danışmağa davam etdi müştəri xidmətlərinin işçisinə müştər ilə kobud rəftarına görə sizdən şikayət edəcəyimi söylədiyim zaman cavab verdi ki istədiyiniz yerə şikayət edin mən heç kimdən_NEG qorxmuram_NEG mağazanın_NEG administratoruna dedim ki az deyil müştərilərini_NEG aldadırsiniz_NEG eyni_NEG zamanda işçiniz də kobud danışır administrator da dedi ki yaxşı eləyir mən susmadım və supermarketinin saytına yazdım əlagə nömrəmi götürdülər və bu mağazanın direktoru mənimlə əlaqə saxlayıb üzr istədi və tədbir görüldüyünü dedi ondan bir daha bonus kartları barədə soruşdum və mənə cavab verdi ki bilmirəm mağazanın saytına yazın sizə məlumat verəcəklər yenidən sayta yazdım və bonus kartlarının bağlanıb bağlanmadığını soruşdum onlar gün ərzində sizinlə əlaqə saxlayacaqlarını cavablandırıblar üç gün keçdi və mənimlə heç kim_NEG əlaqə_NEG saxlamayıb_NEG bir daha yazdım ki niyə bu günə qədər mənimlə heç kim_NEG əlaqə_NEG saxlamayıb_NEG və heç bir_NEG cavab_NEG almadım_NEG və nəhayət bazar günü saat &lt;NUM&gt; &lt;NUM&gt; da bir operatormənimlə əlaqə saxladı və mən sualımı verdim amma birdən zəng kəsilib və mən yənə neçə dəfə özüm zəng etməyə çalışdim</t>
+          <t>mənim şikayətim bolmart supermarket indəndir bu mağazanın açılışının ilk günündən etibarən mənim orada bonus kartı var idi bu illər ərzində bu kartda çox dayda bonus yığdım bir neçə gün əvvəl bonuslarımın dəqiq miqdarı və onlarla nə alacağımı öyrənmək üçün marketə getdim amma müştəri xidmətlərində mənə kobud şəkildə bütün kartlarının mart ayında bloklandığını deyiblər mən soruşdum niyə heç kim_NEG mənə_NEG məlumat_NEG verməyib müştəri xidmətlərinin işçisi yenə kobud şəkildə mənə deyib ki biz marketin radiosundan məlumat vermişik əgər siz eşitməmisiniz bu bizim problemlərimiz deyil mən_NEG dedim_NEG ki_NEG bu mağazaya çox tez tez gedirəm və heç kim_NEG heç vaxt_NEG kart_NEG haqqında_NEG məlumat verilməyib və sizin radiodan elə məlumat bildirməyiblər müştəri xidmətlərinin işçisi mənimlə kobud bir tonda danışmağa davam et və bu anda mənə mağazanın administratoru və mühafizəsi yaxınlaşdı və onlar da mənimlə kobud şəkildə danışmağa davam et müştəri xidmətlərinin işçisinə müştər ilə kobud rəftarına görə sizdən şikayət edəcəyimi söylədiyim zaman cavab verdi ki istədiyiniz yerə şikayət edin mən heç kimdən_NEG qorxmuram_NEG mağazanın_NEG administratoruna dedim ki az deyil müştərilərini_NEG aldadırsiniz_NEG eyni_NEG zamanda işçiniz də kobud danışır administrator da dedi ki yaxşı eləyir mən susmadım və supermarketinin saytına yazdım əlagə nömrəmi götürdülər və bu mağazanın direktoru mənimlə əlaqə saxlayıb üzr istədi və tədbir görüldüyünü dedi ondan bir daha bonus kartları barədə soruşdum və mənə cavab verdi ki bilmirəm mağazanın saytına yazın sizə məlumat verəcəklər yenidən sayta yazdım və bonus kartlarının bağlanıb bağlanmadığını soruşdum onlar gün ərzində sizinlə əlaqə saxlayacaqlarını cavablandırıblar üç gün keçdi və mənimlə heç kim_NEG əlaqə_NEG saxlamayıb_NEG bir daha yazdım ki niyə bu günə qədər mənimlə heç kim_NEG əlaqə_NEG saxlamayıb_NEG və heç bir_NEG cavab_NEG almadım_NEG və nəhayət bazar günü saat &lt;NUM&gt; &lt;NUM&gt; da bir operatormənimlə əlaqə saxladı və mən sualımı verdim amma birdən zəng kəsilib və mən yənə neçə dəfə özüm zəng etməyə çalışdim</t>
         </is>
       </c>
       <c r="B1657" t="n">
@@ -17054,7 +17054,7 @@
     <row r="1663">
       <c r="A1663" t="inlineStr">
         <is>
-          <t>messi rahat &lt;NUM&gt; dene ballondoru havayı verdiler bunu azdan çoxdan futboldan başı çıxan da bilir</t>
+          <t>messi rahat &lt;NUM&gt; dene ballondoru havayı verdiler bunu azdan çoxdan futboldan başı çıxan da bil</t>
         </is>
       </c>
       <c r="B1663" t="n">
@@ -17064,7 +17064,7 @@
     <row r="1664">
       <c r="A1664" t="inlineStr">
         <is>
-          <t>eynen bizim tiktokerler kimi edir</t>
+          <t>eynen bizim tiktokerler kimi et</t>
         </is>
       </c>
       <c r="B1664" t="n">
@@ -17074,7 +17074,7 @@
     <row r="1665">
       <c r="A1665" t="inlineStr">
         <is>
-          <t>girdim yumurtanı bəyənməmişdim bəyəndim</t>
+          <t>girdim yumurtanı bəyənməmişdim bəyən</t>
         </is>
       </c>
       <c r="B1665" t="n">
@@ -17194,7 +17194,7 @@
     <row r="1677">
       <c r="A1677" t="inlineStr">
         <is>
-          <t>o durağın qulunca nə dəxli məsəli romadan gəlir</t>
+          <t>o durağın qulunca nə dəxli məsəli romadan gəl</t>
         </is>
       </c>
       <c r="B1677" t="n">
@@ -17314,7 +17314,7 @@
     <row r="1689">
       <c r="A1689" t="inlineStr">
         <is>
-          <t>bu proqramda problem var nəgədər daxil oluram deyir parol yanlışdı dəfələrlə yeniləyirəm yenə yanlış zəhmət deyilsə cvb verin</t>
+          <t>bu proqramda problem var nəgədər daxil oluram de parol yanlışdı dəfələrlə yeniləyirəm yenə yanlış zəhmət deyilsə cvb verin</t>
         </is>
       </c>
       <c r="B1689" t="n">
@@ -17324,7 +17324,7 @@
     <row r="1690">
       <c r="A1690" t="inlineStr">
         <is>
-          <t>hər şey çox sürətlə inkişahf edir</t>
+          <t>hər şey çox sürətlə inkişahf et</t>
         </is>
       </c>
       <c r="B1690" t="n">
@@ -17384,7 +17384,7 @@
     <row r="1696">
       <c r="A1696" t="inlineStr">
         <is>
-          <t>qabığının mürəbbəsi də dadlı olur çayla nə gedər pəəh</t>
+          <t>qabığının mürəbbəsi də dadlı ol çayla nə gedər pəəh</t>
         </is>
       </c>
       <c r="B1696" t="n">
@@ -17394,7 +17394,7 @@
     <row r="1697">
       <c r="A1697" t="inlineStr">
         <is>
-          <t>mence bu dosheme prosese yardimci olur</t>
+          <t>mence bu dosheme prosese yardimci ol</t>
         </is>
       </c>
       <c r="B1697" t="n">
@@ -17424,7 +17424,7 @@
     <row r="1700">
       <c r="A1700" t="inlineStr">
         <is>
-          <t>hələki yaxşıdır biraz daha təkmilləşdirilsə əla olar uğurlar</t>
+          <t>hələki yaxşı biraz daha təkmilləşdirilsə əla olar uğurlar</t>
         </is>
       </c>
       <c r="B1700" t="n">
@@ -17624,7 +17624,7 @@
     <row r="1720">
       <c r="A1720" t="inlineStr">
         <is>
-          <t>bəli duz deyir dilimizə hörmər onu hər yerdə gozəl səsləndirməkdir</t>
+          <t>bəli duz de dilimizə hörmər onu hər yerdə gozəl səsləndirməkdir</t>
         </is>
       </c>
       <c r="B1720" t="n">
@@ -17724,7 +17724,7 @@
     <row r="1730">
       <c r="A1730" t="inlineStr">
         <is>
-          <t>vallahi pes söz tapmıram bezen hatay alt üst olub maraş yox antep_NEG yox urfa_NEG yox malatya_NEG yox ətraf_NEG yanı_NEG şəhərlər_NEG dümdüz &lt;NUM&gt; min atom gücündə zəlzələ təkanı oldu &lt;NUM&gt; saat ərzində vallhi pes yani pes birdakı sarsıntıları hiss edən yaşayan biz durub süni sasıntı eləyiblər deyənlər allah eşqinə orta məktəbdə heç fizika_NEG oxumayibsiz_NEG siz_NEG coğrafoyada təbiət hadisəkəri heçmi oxumamısız necə yəni süni zəlzələ &lt;NUM&gt; min atom bombası gücündə sarsıntıyı neçə &lt;NUM&gt; saat ərzində &lt;NUM&gt; dəfədən yaratmaq olur axı bax onica biri mənə başa salsın ya doğru danışın ya susun</t>
+          <t>vallahi pes söz tapmıram bezen hatay alt üst olub maraş yox antep_NEG yox urfa_NEG yox malatya_NEG yox ətraf_NEG yanı_NEG şəhərlər_NEG dümdüz &lt;NUM&gt; min atom gücündə zəlzələ təkanı ol &lt;NUM&gt; saat ərzində vallhi pes yani pes birdakı sarsıntıları hiss edən yaşayan biz durub süni sasıntı eləyiblər deyənlər allah eşqinə orta məktəbdə heç fizika_NEG oxumayibsiz_NEG siz_NEG coğrafoyada təbiət hadisəkəri heçmi oxumamısız necə yəni süni zəlzələ &lt;NUM&gt; min atom bombası gücündə sarsıntıyı neçə &lt;NUM&gt; saat ərzində &lt;NUM&gt; dəfədən yaratmaq ol axı bax onica biri mənə başa salsın ya doğru danışın ya susun</t>
         </is>
       </c>
       <c r="B1730" t="n">
@@ -17824,7 +17824,7 @@
     <row r="1740">
       <c r="A1740" t="inlineStr">
         <is>
-          <t>molladansa bunlar daha yaxşıdır</t>
+          <t>molladansa bunlar daha yaxşı</t>
         </is>
       </c>
       <c r="B1740" t="n">
@@ -17874,7 +17874,7 @@
     <row r="1745">
       <c r="A1745" t="inlineStr">
         <is>
-          <t>bir neçə ay önvə almışdım istifadə etmək istədim işimə yaramadı heç məsləhətli_NEG deyil</t>
+          <t>bir neçə ay önvə almışdım istifadə etmək istə işimə yaramadı heç məsləhətli_NEG deyil</t>
         </is>
       </c>
       <c r="B1745" t="n">
@@ -17894,7 +17894,7 @@
     <row r="1747">
       <c r="A1747" t="inlineStr">
         <is>
-          <t>ne qəşəy qızdı vau gözəllik bizim qızlar kimi yoxsa ne vaxt baxsan kimisə çəkib şikayət edir ya biabır edir ya da söyür kişi söyüşləri ile bunu çəkib paylaşan qızımız ise məlum mesele ki normal bir ailede yetişib ve günümüzde dünyanın ən inkişaf etmiş bir ölkesinden bu videonu paylaşır bax medeniyet deyə buna deyərəm</t>
+          <t>ne qəşəy qızdı vau gözəllik bizim qızlar kimi yoxsa ne vaxt baxsan kimisə çəkib şikayət et ya biabır et ya da söyür kişi söyüşləri ile bunu çəkib paylaşan qızımız ise məlum mesele ki normal bir ailede yetişib ve günümüzde dünyanın ən inkişaf etmiş bir ölkesinden bu videonu paylaşır bax medeniyet deyə buna deyərəm</t>
         </is>
       </c>
       <c r="B1747" t="n">
@@ -18104,7 +18104,7 @@
     <row r="1768">
       <c r="A1768" t="inlineStr">
         <is>
-          <t>görəsən digər ölkələrdə də bu cür dövlət tədbirləri olanda yollar bağlanır filankəs keçir yolu bağla filankəs gəlir yolu bağla nəbilim kimsə asqırır tez yolu bağla bekarçılıqdı yolu bağla</t>
+          <t>görəsən digər ölkələrdə də bu cür dövlət tədbirləri olanda yollar bağlanır filankəs keçir yolu bağla filankəs gəl yolu bağla nəbilim kimsə asqırır tez yolu bağla bekarçılıqdı yolu bağla</t>
         </is>
       </c>
       <c r="B1768" t="n">
@@ -18374,7 +18374,7 @@
     <row r="1795">
       <c r="A1795" t="inlineStr">
         <is>
-          <t>türkiyədə türk telekom işlədirəm davamlı olaraq &lt;NUM&gt; sürət olur üstəgəl əlavə &lt;NUM&gt; kanal cəmi &lt;NUM&gt; manat</t>
+          <t>türkiyədə türk telekom işlədirəm davamlı olaraq &lt;NUM&gt; sürət ol üstəgəl əlavə &lt;NUM&gt; kanal cəmi &lt;NUM&gt; manat</t>
         </is>
       </c>
       <c r="B1795" t="n">
@@ -18404,7 +18404,7 @@
     <row r="1798">
       <c r="A1798" t="inlineStr">
         <is>
-          <t>bu cür müqaisələrdə azərbaycan öz orbitindən kənara çıxır deyir belə şeylər mənlik döyül</t>
+          <t>bu cür müqaisələrdə azərbaycan öz orbitindən kənara çıxır de belə şeylər mənlik döyül</t>
         </is>
       </c>
       <c r="B1798" t="n">
@@ -18424,7 +18424,7 @@
     <row r="1800">
       <c r="A1800" t="inlineStr">
         <is>
-          <t>bu təcrübədə kvant fizikasından istifadə olunub kvant fizikasının alt nəzəriyyəsində quantom sıçrayış deyilən bir hadisə var deməli vakkum şəraitində və yüksək təzyiqdə iki neytronu toqquşdururlar yüksək toqquşmadan çoxlu neytronlar protonlar və izotoplar ayrılır necə ola bilər ki iki neytron toqquşmasından çoxlu yeni neytronlar əmələ gəlir cavab budur ki hər bir neytronun içində sıxılmış və yumaq vəziyyətində çoxlu ilanlar var toqquşmadan sonra bu ilan yumaqları vahid neytrondan ayrılaraq digər yeni neytronların yaranmasına səbəb olur xərçəng hüceyrələri də bu formada təşkil olunub hüceyrələrə yaxın məsafədən yüksək infraqırmızı işıq şüalarında təsir edərək bir hüceyrədə birləşmiş çoxlu hüceyrələri ətrafa yaymadan membranı deşərək daxilində yatmış ilan yumaqların məhv edirlər metastas yayılmanı və yeni ilan yumaqlarının qarşısın alırlar membranı deşilmiş xərçəng yumaqlarına qanda olan və hüceyrələri saniyənin milyonda &lt;NUM&gt; hissəsində hücum edərək ölmüş xərcəng hüceyrələrin halqaya alaraq yeyirlər əslində bu üsul göründüyü kimi sadə deyil mürəkkəb_NEG bir_NEG zaman_NEG periodundan keçirlər amma xərçəngin müalicəsində quantom sıçrayışdan istifadə edib müalicəni aparmaq olar və bu &lt;NUM&gt; effektiv üsuldur həyatda kosmosda və ya kainatda heç nə_NEG itmir_NEG yox olmur_NEG sadəcə_NEG bir_NEG şəkildən digər şəkilə dəyişir hər şey bir biri ilə uzun və gözəgörünməz ilanlar ilə bağlıdır</t>
+          <t>bu təcrübədə kvant fizikasından istifadə olunub kvant fizikasının alt nəzəriyyəsində quantom sıçrayış deyilən bir hadisə var deməli vakkum şəraitində və yüksək təzyiqdə iki neytronu toqquşdururlar yüksək toqquşmadan çoxlu neytronlar protonlar və izotoplar ayrılır necə ola bilər ki iki neytron toqquşmasından çoxlu yeni neytronlar əmələ gəl cavab budur ki hər bir neytronun içində sıxılmış və yumaq vəziyyətində çoxlu ilanlar var toqquşmadan sonra bu ilan yumaqları vahid neytrondan ayrılaraq digər yeni neytronların yaranmasına səbəb ol xərçəng hüceyrələri də bu formada təşkil olunub hüceyrələrə yaxın məsafədən yüksək infraqırmızı işıq şüalarında təsir edərək bir hüceyrədə birləşmiş çoxlu hüceyrələri ətrafa yaymadan membranı deşərək daxilində yatmış ilan yumaqların məhv edirlər metastas yayılmanı və yeni ilan yumaqlarının qarşısın alırlar membranı deşilmiş xərçəng yumaqlarına qanda olan və hüceyrələri saniyənin milyonda &lt;NUM&gt; hissəsində hücum edərək ölmüş xərcəng hüceyrələrin halqaya alaraq yeyirlər əslində bu üsul göründüyü kimi sadə deyil mürəkkəb_NEG bir_NEG zaman_NEG periodundan keçirlər amma xərçəngin müalicəsində quantom sıçrayışdan istifadə edib müalicəni aparmaq olar və bu &lt;NUM&gt; effektiv üsuldur həyatda kosmosda və ya kainatda heç nə_NEG itmir_NEG yox olmur_NEG sadəcə_NEG bir_NEG şəkildən digər şəkilə dəyişir hər şey bir biri ilə uzun və gözəgörünməz ilanlar ilə bağlıdır</t>
         </is>
       </c>
       <c r="B1800" t="n">
@@ -18494,7 +18494,7 @@
     <row r="1807">
       <c r="A1807" t="inlineStr">
         <is>
-          <t>biz millet olaraq danishmagi sevmirik ona görede ölkeni ogrular idare edir professorlar ise hebsxanada cürüyür</t>
+          <t>biz millet olaraq danishmagi sevmirik ona görede ölkeni ogrular idare et professorlar ise hebsxanada cürüyür</t>
         </is>
       </c>
       <c r="B1807" t="n">
@@ -18574,7 +18574,7 @@
     <row r="1815">
       <c r="A1815" t="inlineStr">
         <is>
-          <t>niyə də yox &lt;NUM&gt;_NEG martda_NEG diqqət_NEG gözləyiriksə kişilərdən bir gün də biz onlara diqqət ayıraq nəyi pisdir hər şey qarşılıqlı gözəldir dəyər görmək istəyən öncə özü dəyər verməlidir ki o dəyəri də görsün və belə olanda münasibətlər də isti olur bir bağlılıq yaranır</t>
+          <t>niyə də yox &lt;NUM&gt;_NEG martda_NEG diqqət_NEG gözləyiriksə kişilərdən bir gün də biz onlara diqqət ayıraq nəyi pis hər şey qarşılıqlı gözəl dəyər görmək istəyən öncə özü dəyər verməlidir ki o dəyəri də görsün və belə olanda münasibətlər də isti ol bir bağlılıq yaranır</t>
         </is>
       </c>
       <c r="B1815" t="n">
@@ -18584,7 +18584,7 @@
     <row r="1816">
       <c r="A1816" t="inlineStr">
         <is>
-          <t>inşallah &lt;NUM&gt; ni görmək dünya anormal bir yerə gedir</t>
+          <t>inşallah &lt;NUM&gt; ni görmək dünya anormal bir yerə get</t>
         </is>
       </c>
       <c r="B1816" t="n">
@@ -18714,7 +18714,7 @@
     <row r="1829">
       <c r="A1829" t="inlineStr">
         <is>
-          <t>kartla ödəniş olan sifarişlərə &lt;NUM&gt; faiz hallarda sürücü gəlmir zəng edib imtina etməyimizi xaiş edirlər hayıf deyil uber_NEG bakukartnan_NEG da_NEG sifariş eləsən gəlir</t>
+          <t>kartla ödəniş olan sifarişlərə &lt;NUM&gt; faiz hallarda sürücü gəlmir zəng edib imtina etməyimizi xaiş edirlər hayıf deyil uber_NEG bakukartnan_NEG da_NEG sifariş eləsən gəl</t>
         </is>
       </c>
       <c r="B1829" t="n">
@@ -18814,7 +18814,7 @@
     <row r="1839">
       <c r="A1839" t="inlineStr">
         <is>
-          <t>yenə nə oldu canı çıxır</t>
+          <t>yenə nə ol canı çıxır</t>
         </is>
       </c>
       <c r="B1839" t="n">
@@ -18854,7 +18854,7 @@
     <row r="1843">
       <c r="A1843" t="inlineStr">
         <is>
-          <t>bəyənmitərəm o telefonu samsung daha yaxşıdır</t>
+          <t>bəyənmitərəm o telefonu samsung daha yaxşı</t>
         </is>
       </c>
       <c r="B1843" t="n">
@@ -18894,7 +18894,7 @@
     <row r="1847">
       <c r="A1847" t="inlineStr">
         <is>
-          <t>bu il tanıdığım &lt;NUM&gt; ən yaxın insanı itirmişəm bu lənətə gəlmiş xəstəlikdən bu xəstəliyin müalicəsi var ancaq gizlədib daha çox pul alırlar ya da bilərəkdən göz yumub insanların sayın azaldırlar yemık içməyə fikir vermək lazımdır xərçəngin yaranma səbəbləri və yerləri müxtəlifdir kişilərdə daha çox prostat vəzinin xərçəngi və mədə xərçənginə rast gəlinir qadınlarda isə qalxanabənzər vəzinin xərçəngi döş xərçəngi və bağırsaq xərçənginə rast gəlinir sümük xərçəngi də var qırmızı qurd eşənəyi krasnıi valçav adlanır onun da müalicəsi yalnız almaniyadadır əsəb stress qorxu düzgün qidalanmama yuxusuzluq əsas səbəblərdəndir son vaxtlar mədə xərçəngi çoxalıb qətiyyən palma_NEG yağı_NEG yağ_NEG spredləri aspartam şəkərsiz içkilər almayın çoxlu şəkər istifadə etmək də xərçəng yaradır mədəsində yazva olanlara istiot sarımsaq və soğan yemək məsləhət deyil mədə_NEG xərçingi_NEG mədəaltı_NEG vəzi sıradan çıxanda mədə şirəsi azalanda çox quru qızartma qidalar yeyəndə yaranır əvvəlcə qızartı sonra yazva və daha sonra bədd xassəli şişlər yaranır prostatda xərçəng ən çox soyuqdəymədən və sonsuzluqdan da yaranır nar süd təbii qidalar duru yeməklər semiçka boranı şəkər çüğunduru dərmansız xiyar qarpız meyvələr yaxşı yuxu xoş aura insan ömrün uzadır həftədə bir dəfə sekslə məşgul olmaq da xərçəng riskin azaldır ekstaz və orqazm halları çoxaldıqca hipofiz vəzləri onurğa beyni daha çox maye ixrac edir bədənə çalışın xoşbəxt olun sevişin qucaqlaşın &lt;NUM&gt; saniyəlik öpüş insanı fərahlandırır uşaq ilə vaxt keçirmək də insanı rahatladır xərçəngə tutulmayan heyvanlar fil at kor göstəbəklər yarasalar balinalar və pişiklərdir bu heyvanların orqanizmi elə formalaşıb ki orqanizmə düşən xərçəng hüceyrəsin qan özü yeyir insanda immunitet güclü olanda sağlam qidalananda orqanizmə düşən xərçəng hüceyrəsin qanda olan hüceyrələri dairəyə alaraq yeyirlər hüceyrələri isə orqanizmdən kənarlaşdırır</t>
+          <t>bu il tanıdığım &lt;NUM&gt; ən yaxın insanı itirmişəm bu lənətə gəlmiş xəstəlikdən bu xəstəliyin müalicəsi var ancaq gizlədib daha çox pul alırlar ya da bilərəkdən göz yumub insanların sayın azaldırlar yemık içməyə fikir vermək lazımdır xərçəngin yaranma səbəbləri və yerləri müxtəlifdir kişilərdə daha çox prostat vəzinin xərçəngi və mədə xərçənginə rast gəlinir qadınlarda isə qalxanabənzər vəzinin xərçəngi döş xərçəngi və bağırsaq xərçənginə rast gəlinir sümük xərçəngi də var qırmızı qurd eşənəyi krasnıi valçav adlanır onun da müalicəsi yalnız almaniyadadır əsəb stress qorxu düzgün qidalanmama yuxusuzluq əsas səbəblərdəndir son vaxtlar mədə xərçəngi çoxalıb qətiyyən palma_NEG yağı_NEG yağ_NEG spredləri aspartam şəkərsiz içkilər almayın çoxlu şəkər istifadə etmək də xərçəng yaradır mədəsində yazva olanlara istiot sarımsaq və soğan yemək məsləhət deyil mədə_NEG xərçingi_NEG mədəaltı_NEG vəzi sıradan çıxanda mədə şirəsi azalanda çox quru qızartma qidalar yeyəndə yaranır əvvəlcə qızartı sonra yazva və daha sonra bədd xassəli şişlər yaranır prostatda xərçəng ən çox soyuqdəymədən və sonsuzluqdan da yaranır nar süd təbii qidalar duru yeməklər semiçka boranı şəkər çüğunduru dərmansız xiyar qarpız meyvələr yaxşı yuxu xoş aura insan ömrün uzadır həftədə bir dəfə sekslə məşgul olmaq da xərçəng riskin azaldır ekstaz və orqazm halları çoxaldıqca hipofiz vəzləri onurğa beyni daha çox maye ixrac et bədənə çalışın xoşbəxt olun sevişin qucaqlaşın &lt;NUM&gt; saniyəlik öpüş insanı fərahlandırır uşaq ilə vaxt keçirmək də insanı rahatladır xərçəngə tutulmayan heyvanlar fil at kor göstəbəklər yarasalar balinalar və pişiklərdir bu heyvanların orqanizmi elə formalaşıb ki orqanizmə düşən xərçəng hüceyrəsin qan özü yeyir insanda immunitet güclü olanda sağlam qidalananda orqanizmə düşən xərçəng hüceyrəsin qanda olan hüceyrələri dairəyə alaraq yeyirlər hüceyrələri isə orqanizmdən kənarlaşdırır</t>
         </is>
       </c>
       <c r="B1847" t="n">
@@ -18994,7 +18994,7 @@
     <row r="1857">
       <c r="A1857" t="inlineStr">
         <is>
-          <t>bəs biri o birindən necə ağıllı ola bilir bə'zən passiv bə'zən aktiv elə budur da əgər &lt;NUM&gt; işləyirsə passiv bölgəsi heç vaxt_NEG aktiv_NEG olmur_NEG məncə elə bu paylaşılan məlumat yanlışdır aktiv işləyən bölgə əsas passiv hissəsi isə hesaba alınmır və nəticədə &lt;NUM&gt; olmur</t>
+          <t>bəs biri o birindən necə ağıllı ola bil bə'zən passiv bə'zən aktiv elə budur da əgər &lt;NUM&gt; işləyirsə passiv bölgəsi heç vaxt_NEG aktiv_NEG olmur_NEG məncə elə bu paylaşılan məlumat yanlışdır aktiv işləyən bölgə əsas passiv hissəsi isə hesaba alınmır və nəticədə &lt;NUM&gt; olmur</t>
         </is>
       </c>
       <c r="B1857" t="n">
@@ -19074,7 +19074,7 @@
     <row r="1865">
       <c r="A1865" t="inlineStr">
         <is>
-          <t>forexdə realda bir o qədər pul dövr etmir &lt;NUM&gt; milyon dolları alıb satmaq üçün bir neçə min dollar bəs edir əslində siz bir neçə min dolları risqə qoyub &lt;NUM&gt; milyon dolların çiynini alırsınız guya bankda o pulu öz adınıza rezerv edirsiniz bazar sizin proqnozu doğrultmayanda və pulunuz kurs fərqini örtməyəndə margin call gəlir lüt sıradan çıxırsınız bazar sizin proqnozlaşdırdığız istiqamətdə gedəndə çiyini qazanırsınız vaxtında qazancı götürüb çıxmayanda ya qazanc əldən gedir ya yenə uduzursunuz bir sözlə real alver banklar və fondlar arasında gedir onlayn qoşulmaq akulaların yanında kiçik balıqlar tutmaq kimi bir şeydir bir iki balıq udursunuz axırda akula sizi udur</t>
+          <t>forexdə realda bir o qədər pul dövr etmir &lt;NUM&gt; milyon dolları alıb satmaq üçün bir neçə min dollar bəs et əslində siz bir neçə min dolları risqə qoyub &lt;NUM&gt; milyon dolların çiynini alırsınız guya bankda o pulu öz adınıza rezerv edirsiniz bazar sizin proqnozu doğrultmayanda və pulunuz kurs fərqini örtməyəndə margin call gəl lüt sıradan çıxırsınız bazar sizin proqnozlaşdırdığız istiqamətdə gedəndə çiyini qazanırsınız vaxtında qazancı götürüb çıxmayanda ya qazanc əldən get ya yenə uduzursunuz bir sözlə real alver banklar və fondlar arasında get onlayn qoşulmaq akulaların yanında kiçik balıqlar tutmaq kimi bir şeydir bir iki balıq udursunuz axırda akula sizi udur</t>
         </is>
       </c>
       <c r="B1865" t="n">
@@ -19164,7 +19164,7 @@
     <row r="1874">
       <c r="A1874" t="inlineStr">
         <is>
-          <t>dalbayobdular fənərbağça ağlıma gəlir aziz ilə ali koç yarışanda ali koçu hərkəs istədi sonu daha böyük peşmançılıq oldu mən erdoganı sevmirəm o heç ancaq_NEG kılıçdaroğlunu_NEG heç sevmirəm_NEG</t>
+          <t>dalbayobdular fənərbağça ağlıma gəl aziz ilə ali koç yarışanda ali koçu hərkəs istədi sonu daha böyük peşmançılıq ol mən erdoganı sevmirəm o heç ancaq_NEG kılıçdaroğlunu_NEG heç sevmirəm_NEG</t>
         </is>
       </c>
       <c r="B1874" t="n">
@@ -19194,7 +19194,7 @@
     <row r="1877">
       <c r="A1877" t="inlineStr">
         <is>
-          <t>bu məqalə ilə bağlı böyük bir həyəcan yaşadım səfirə çıxış mövzusu ilə əlaqədar dördün birində olan bu vəziyyət xoşuma gedir bu səyahət nəqliyyatın inkişafını və yenilikləri vurğulayır azərbaycan kimi bir ölkədə bununla fəxr edirəm görünür qatar böyük əhəmiyyətə malikdir və insanlara asanlıqlar yaradır təşəkkürlər albert eynişeydə qatar nenqal bhakra əqliyyat tarix əmiryolu</t>
+          <t>bu məqalə ilə bağlı böyük bir həyəcan yaşadım səfirə çıxış mövzusu ilə əlaqədar dördün birində olan bu vəziyyət xoşuma get bu səyahət nəqliyyatın inkişafını və yenilikləri vurğulayır azərbaycan kimi bir ölkədə bununla fəxr edirəm görünür qatar böyük əhəmiyyətə malikdir və insanlara asanlıqlar yaradır təşəkkürlər albert eynişeydə qatar nenqal bhakra əqliyyat tarix əmiryolu</t>
         </is>
       </c>
       <c r="B1877" t="n">
@@ -19354,7 +19354,7 @@
     <row r="1893">
       <c r="A1893" t="inlineStr">
         <is>
-          <t>bu nağıllara inanan neçə nəfərdi ayın səthinə kim eniş etdi aydakı müxtəlif mədən rezervlərini hansı ekaloq qrupları kəşf etdi uydurulmuş yalanlar cahil düşüncənin oyanmaq istəməyən yuxusudu gələcəyə doğru elim texnalogiya inkişaf edir onunla paralel də cahillər durmadan artır bir sözlə moon is azerbaijan vəssalam şüttamam</t>
+          <t>bu nağıllara inanan neçə nəfərdi ayın səthinə kim eniş et aydakı müxtəlif mədən rezervlərini hansı ekaloq qrupları kəşf et uydurulmuş yalanlar cahil düşüncənin oyanmaq istəməyən yuxusudu gələcəyə doğru elim texnalogiya inkişaf et onunla paralel də cahillər durmadan artır bir sözlə moon is azerbaijan vəssalam şüttamam</t>
         </is>
       </c>
       <c r="B1893" t="n">
@@ -19524,7 +19524,7 @@
     <row r="1910">
       <c r="A1910" t="inlineStr">
         <is>
-          <t>dəli deyir fəli inanır indi kimsə desə ki filankəs çürüməyib olduğu kimi qalıb həmən ona yobaz deyəcəklər amma buna mütləq şəkildə inanırlar həqiqətən də təkəbbür ağlın önündəki böyük bir səddir</t>
+          <t>dəli de fəli inanır indi kimsə desə ki filankəs çürüməyib olduğu kimi qalıb həmən ona yobaz deyəcəklər amma buna mütləq şəkildə inanırlar həqiqətən də təkəbbür ağlın önündəki böyük bir səddir</t>
         </is>
       </c>
       <c r="B1910" t="n">
@@ -19544,7 +19544,7 @@
     <row r="1912">
       <c r="A1912" t="inlineStr">
         <is>
-          <t>&lt;NUM&gt; azna təmiz paroda şotland adı ilə aldığım pişik van kedisi ilə qarışıq çıxdı amma olsun yenə də çox sevirəm onu</t>
+          <t>&lt;NUM&gt; azna təmiz paroda şotland adı ilə aldığım pişik van kedisi ilə qarışıq çıxdı amma olsun yenə də çox sev onu</t>
         </is>
       </c>
       <c r="B1912" t="n">
@@ -19764,7 +19764,7 @@
     <row r="1934">
       <c r="A1934" t="inlineStr">
         <is>
-          <t>qiymətlər münasib yeməkləridə çox dadlıdır çox məmnun qaldım hamıya tövsiyyə edirəm servisleri de yaxşıdır</t>
+          <t>qiymətlər münasib yeməkləridə çox dadlıdır çox məmnun qaldım hamıya tövsiyyə edirəm servisleri de yaxşı</t>
         </is>
       </c>
       <c r="B1934" t="n">
@@ -19814,7 +19814,7 @@
     <row r="1939">
       <c r="A1939" t="inlineStr">
         <is>
-          <t>türk dünyasının ilk kosmonavtı musa manarov olub azərbaycan ssri dönəmində bütün possovet ölkələri içərisində lider olub həm kadr həm də potensiya baxımından alimlərimiz çox çalışıb dünyada ilk dəfə olaraq təyyarə və kosmik gəmilər üçün yanacağı da yusif məmmədəliyev kəşf edib sibirdə ilk nefti tapan da azərbaycanlı fərman salmanov olub surqutda heykəli də var kreml binasın tikən də şamaxılı memar əliş kərəmli olub ölkəmizin durğunluq dövrü son &lt;NUM&gt; ilə təsadüf edir ssri nin vuran ürəyi nefti qazı hamısı azərbaycan olub indi türklərdən də kosmosa çıxan olur bir türk olaraq buna sevinirəm düzü bu kosmik səfər ərdoğanın seçki ərəfəsinə düşsə də mən bunu böyük uğur hesab edirəm ümid edək ki türklər kosmosun fəthinə addımlar atacaq türkiyənin bu barədə potensialı çoxdur ərdoğan buna şərait yaradacaq yaxşı yol uğurlu yollar</t>
+          <t>türk dünyasının ilk kosmonavtı musa manarov olub azərbaycan ssri dönəmində bütün possovet ölkələri içərisində lider olub həm kadr həm də potensiya baxımından alimlərimiz çox çalışıb dünyada ilk dəfə olaraq təyyarə və kosmik gəmilər üçün yanacağı da yusif məmmədəliyev kəşf edib sibirdə ilk nefti tapan da azərbaycanlı fərman salmanov olub surqutda heykəli də var kreml binasın tikən də şamaxılı memar əliş kərəmli olub ölkəmizin durğunluq dövrü son &lt;NUM&gt; ilə təsadüf et ssri nin vuran ürəyi nefti qazı hamısı azərbaycan olub indi türklərdən də kosmosa çıxan ol bir türk olaraq buna sevinirəm düzü bu kosmik səfər ərdoğanın seçki ərəfəsinə düşsə də mən bunu böyük uğur hesab edirəm ümid edək ki türklər kosmosun fəthinə addımlar atacaq türkiyənin bu barədə potensialı çoxdur ərdoğan buna şərait yaradacaq yaxşı yol uğurlu yollar</t>
         </is>
       </c>
       <c r="B1939" t="n">
@@ -19880,7 +19880,7 @@
     <row r="1946">
       <c r="A1946" t="inlineStr">
         <is>
-          <t>alex ferguson vaxtında çıxıb getdi günü gündən zibili çıxan futboldan</t>
+          <t>alex ferguson vaxtında çıxıb get günü gündən zibili çıxan futboldan</t>
         </is>
       </c>
       <c r="B1946" t="n">
@@ -19900,7 +19900,7 @@
     <row r="1948">
       <c r="A1948" t="inlineStr">
         <is>
-          <t>sizinlə başqa cür necə əlaqə qura bilərəm mənim kart hesabından &lt;NUM&gt; azn pul çıxıb guya sizdən nəsə sifariş veribmişəm bu pul hara getdi bəs heçnə sifariş vermədiyim halda mənim kartımdan niyə pul çıxırsizki zəhmət olmasa mənim pulumu geriyə qaytarın phone bu mənim telefonum əgər müraciətimə baxılmasa aidiyyəti orqanlara müraciət etmək məcburiyyətində qalacam</t>
+          <t>sizinlə başqa cür necə əlaqə qura bilərəm mənim kart hesabından &lt;NUM&gt; azn pul çıxıb guya sizdən nəsə sifariş veribmişəm bu pul hara get bəs heçnə sifariş vermədiyim halda mənim kartımdan niyə pul çıxırsizki zəhmət olmasa mənim pulumu geriyə qaytarın phone bu mənim telefonum əgər müraciətimə baxılmasa aidiyyəti orqanlara müraciət etmək məcburiyyətində qalacam</t>
         </is>
       </c>
       <c r="B1948" t="n">
@@ -19910,7 +19910,7 @@
     <row r="1949">
       <c r="A1949" t="inlineStr">
         <is>
-          <t>vovoçka bazarda danışan söyüşkən tutuquşu satır tutuquşu kişi görən kimi oğraş deyir qadın görəndə hbe vovoçka məcbur olub piştaxtanın altında bir qazanda su qaynadır və hər söyüşdən sonra tutuquşunun başını soxur o qazana ki söyüşü tərgitsin beləcə tutuquşu söyüşü tərgidir bu zaman bunlara bir qadın yaxınlaşır və soruşur tutuquşu danışandır bəli söyüş söymür ki xeyr qadın tutuquşuya tərəf dönüb deyir birdən mən evə kişi ilə gəlsəm nə deyəcəksən xoş gəlmisiniz buyurun keçin birdən mən iki kişi ilə gəldim nə deyəcəksən xoş gəlmisiniz buyurun keçin birdən mən üç kişi ilə gəldim nə deyəcəksən bu dəfə tutuquşu vovoçkaya tərəf çönüb deyir şef suyu qaynat bu həqiqətən hb dir</t>
+          <t>vovoçka bazarda danışan söyüşkən tutuquşu satır tutuquşu kişi görən kimi oğraş de qadın görəndə hbe vovoçka məcbur olub piştaxtanın altında bir qazanda su qaynadır və hər söyüşdən sonra tutuquşunun başını soxur o qazana ki söyüşü tərgitsin beləcə tutuquşu söyüşü tərgidir bu zaman bunlara bir qadın yaxınlaşır və soruşur tutuquşu danışandır bəli söyüş söymür ki xeyr qadın tutuquşuya tərəf dönüb de birdən mən evə kişi ilə gəlsəm nə deyəcəksən xoş gəlmisiniz buyurun keçin birdən mən iki kişi ilə gəldim nə deyəcəksən xoş gəlmisiniz buyurun keçin birdən mən üç kişi ilə gəldim nə deyəcəksən bu dəfə tutuquşu vovoçkaya tərəf çönüb de şef suyu qaynat bu həqiqətən hb dir</t>
         </is>
       </c>
       <c r="B1949" t="n">
@@ -19960,7 +19960,7 @@
     <row r="1954">
       <c r="A1954" t="inlineStr">
         <is>
-          <t>güclü və döyüşkən ordunun başında dayanan gənc sərkərdənin romanın yeni yeni müstəmləkələrini ələ keçirəcəyinə əmin olan senat karfagenə müharibə elan etdi</t>
+          <t>güclü və döyüşkən ordunun başında dayanan gənc sərkərdənin romanın yeni yeni müstəmləkələrini ələ keçirəcəyinə əmin olan senat karfagenə müharibə elan et</t>
         </is>
       </c>
       <c r="B1954" t="n">
@@ -19980,7 +19980,7 @@
     <row r="1956">
       <c r="A1956" t="inlineStr">
         <is>
-          <t>bununla da fəxr edir bəzi insancıqlar</t>
+          <t>bununla da fəxr et bəzi insancıqlar</t>
         </is>
       </c>
       <c r="B1956" t="n">
@@ -20000,7 +20000,7 @@
     <row r="1958">
       <c r="A1958" t="inlineStr">
         <is>
-          <t>qurban olaram ölkəmizə ildən ilə də geriyə dedirik belə nailiyyətlər bizi sevinc göz yaşlarına qərq edir</t>
+          <t>qurban olaram ölkəmizə ildən ilə də geriyə dedirik belə nailiyyətlər bizi sevinc göz yaşlarına qərq et</t>
         </is>
       </c>
       <c r="B1958" t="n">
@@ -20090,7 +20090,7 @@
     <row r="1967">
       <c r="A1967" t="inlineStr">
         <is>
-          <t>knyaz iyrənc bir şəkildə dişlərini ağartdı gözlərini qıyaraq sözünə davam etdi</t>
+          <t>knyaz iyrənc bir şəkildə dişlərini ağartdı gözlərini qıyaraq sözünə davam et</t>
         </is>
       </c>
       <c r="B1967" t="n">
@@ -20120,7 +20120,7 @@
     <row r="1970">
       <c r="A1970" t="inlineStr">
         <is>
-          <t>mən də deyirəm borcum var bunları gördüm təsəlli oldum</t>
+          <t>mən də deyirəm borcum var bunları gör təsəlli oldum</t>
         </is>
       </c>
       <c r="B1970" t="n">
@@ -20170,7 +20170,7 @@
     <row r="1975">
       <c r="A1975" t="inlineStr">
         <is>
-          <t>iş yeri olmadığı için insanlar mecbur qalib bu işlere el atillar adam baxib fikirlesende &lt;RATING_NEG&gt; olur açığı goz yummag da olmur çünkü tez tez rastlasirig türkiye'de artig son &lt;NUM&gt; il olarak yasayiram burda parkovshik deiyimiz parklama işi gören yoxdur ona_NEG göre_NEG yox ki_NEG burda_NEG mashin_NEG azdı yox ona_NEG göre_NEG ki_NEG diğer iş yerleri var düzdü belke avropa ve amerika ile muqaisede deyil ama_NEG yerli_NEG ehali_NEG artig &lt;NUM&gt; &lt;NUM&gt; manata bizim azn puluna minimum emek haqqi alır ve ya daha çox besi yerlerde ola bilsin biraz daha az savadi olmayanlara misal ucun ama azerbaycanda helede emek haqqi &lt;NUM&gt; manat minimum hesablanir allah hamiya komek olsun inşallah amin ne deyim vallah polisde yoxdu yollarda deri soyan panteralar şirler alemi</t>
+          <t>iş yeri olmadığı için insanlar mecbur qalib bu işlere el atillar adam baxib fikirlesende &lt;RATING_NEG&gt; ol açığı goz yummag da olmur çünkü tez tez rastlasirig türkiye'de artig son &lt;NUM&gt; il olarak yasayiram burda parkovshik deiyimiz parklama işi gören yoxdur ona_NEG göre_NEG yox ki_NEG burda_NEG mashin_NEG azdı yox ona_NEG göre_NEG ki_NEG diğer iş yerleri var düzdü belke avropa ve amerika ile muqaisede deyil ama_NEG yerli_NEG ehali_NEG artig &lt;NUM&gt; &lt;NUM&gt; manata bizim azn puluna minimum emek haqqi alır ve ya daha çox besi yerlerde ola bilsin biraz daha az savadi olmayanlara misal ucun ama azerbaycanda helede emek haqqi &lt;NUM&gt; manat minimum hesablanir allah hamiya komek olsun inşallah amin ne deyim vallah polisde yoxdu yollarda deri soyan panteralar şirler alemi</t>
         </is>
       </c>
       <c r="B1975" t="n">
@@ -20260,7 +20260,7 @@
     <row r="1984">
       <c r="A1984" t="inlineStr">
         <is>
-          <t>mars &lt;NUM&gt; qəpik idi əvvəl dayım mən uşaq olanda hər dəfə deyərdi ki pulun oldu qaç snikers al ye mən indi də ən çox kalori itirdiyim yorulduğum anlarda snikers alıb yeyirəm balaca olmasına baxmayaraq bir çox qidalardan şokoladlardan çox enerji verir insana snickers</t>
+          <t>mars &lt;NUM&gt; qəpik idi əvvəl dayım mən uşaq olanda hər dəfə deyərdi ki pulun ol qaç snikers al ye mən indi də ən çox kalori itirdiyim yorulduğum anlarda snikers alıb yeyirəm balaca olmasına baxmayaraq bir çox qidalardan şokoladlardan çox enerji verir insana snickers</t>
         </is>
       </c>
       <c r="B1984" t="n">
@@ -20280,7 +20280,7 @@
     <row r="1986">
       <c r="A1986" t="inlineStr">
         <is>
-          <t>biz görürük ki qərb mediası rəsmi irəvanın nümayəndələrinə sözün əsl mənasında necə hücum edir onlardan təxribatçı suallara cavablar alır</t>
+          <t>biz görürük ki qərb mediası rəsmi irəvanın nümayəndələrinə sözün əsl mənasında necə hücum et onlardan təxribatçı suallara cavablar alır</t>
         </is>
       </c>
       <c r="B1986" t="n">
@@ -20460,7 +20460,7 @@
     <row r="2004">
       <c r="A2004" t="inlineStr">
         <is>
-          <t>&lt;NUM&gt; dərsliyə baxsaq niyə &lt;NUM&gt; ci sinif kitabında çin xalq nağılları yuanqxonun həyat hekayələri var &lt;NUM&gt; ci sinif uşağı nə bilir xalq nədir millət nədir dövlət nədir çin nədir ingilis nədir &lt;NUM&gt; biz uzunca illər lissabonun sammit şəhəri iks iks əsr deyən nazirlərin idarə etdiyi bir hökümətdə bacarıqlı qabiliyyətli insan olmağa çalışmışıq &lt;NUM&gt; ölkədə bir kompyuter zavodu vardı kür o da bağlandı məktəblərdə &lt;NUM&gt; ilin kür komputerləridir onlar da nə halda müəllimlərə sual vermədən öncə düzəldiləsi çoox şey var</t>
+          <t>&lt;NUM&gt; dərsliyə baxsaq niyə &lt;NUM&gt; ci sinif kitabında çin xalq nağılları yuanqxonun həyat hekayələri var &lt;NUM&gt; ci sinif uşağı nə bil xalq nədir millət nədir dövlət nədir çin nədir ingilis nədir &lt;NUM&gt; biz uzunca illər lissabonun sammit şəhəri iks iks əsr deyən nazirlərin idarə etdiyi bir hökümətdə bacarıqlı qabiliyyətli insan olmağa çalışmışıq &lt;NUM&gt; ölkədə bir kompyuter zavodu vardı kür o da bağlandı məktəblərdə &lt;NUM&gt; ilin kür komputerləridir onlar da nə halda müəllimlərə sual vermədən öncə düzəldiləsi çoox şey var</t>
         </is>
       </c>
       <c r="B2004" t="n">
@@ -20470,7 +20470,7 @@
     <row r="2005">
       <c r="A2005" t="inlineStr">
         <is>
-          <t>əla filmdi adamda yaxşı hisslər buraxır &lt;RATING_POS&gt; aktyorlar çəkilib conni depp həmişəki kimi əladı kitabını oxumuşam deyə mənə çox maraqlı gəldi məsləhət görürəm ki baxasız</t>
+          <t>əla filmdi adamda yaxşı hisslər buraxır &lt;RATING_POS&gt; aktyorlar çəkilib conni depp həmişəki kimi əladı kitabını oxumuşam deyə mənə çox maraqlı gəl məsləhət görürəm ki baxasız</t>
         </is>
       </c>
       <c r="B2005" t="n">
@@ -20490,7 +20490,7 @@
     <row r="2007">
       <c r="A2007" t="inlineStr">
         <is>
-          <t>təsəvvür elə təyyarə yol ayrıcında sağdan gələn maşına yol vermədiyinə görə pilota cərimə gəlir</t>
+          <t>təsəvvür elə təyyarə yol ayrıcında sağdan gələn maşına yol vermədiyinə görə pilota cərimə gəl</t>
         </is>
       </c>
       <c r="B2007" t="n">
@@ -20550,7 +20550,7 @@
     <row r="2013">
       <c r="A2013" t="inlineStr">
         <is>
-          <t>sıx sıx bir restoran rəhbərlik nümayəndəsi olaraq monopak mağazasından streç film və qablar alıram mağaza nümayəndələrindən və məhsullardan çox razı qalmışam burdan da təşəkkürlər bildir mək istədim</t>
+          <t>sıx sıx bir restoran rəhbərlik nümayəndəsi olaraq monopak mağazasından streç film və qablar alıram mağaza nümayəndələrindən və məhsullardan çox razı qalmışam burdan da təşəkkürlər bildir mək istə</t>
         </is>
       </c>
       <c r="B2013" t="n">
@@ -20650,7 +20650,7 @@
     <row r="2023">
       <c r="A2023" t="inlineStr">
         <is>
-          <t>vallah bu verilişləri görəndə gəhərlənirəm geriyə qayıtmaq istəyirəm &lt;NUM&gt; yaşıma</t>
+          <t>vallah bu verilişləri görəndə gəhərlənirəm geriyə qayıtmaq istə &lt;NUM&gt; yaşıma</t>
         </is>
       </c>
       <c r="B2023" t="n">
@@ -20700,7 +20700,7 @@
     <row r="2028">
       <c r="A2028" t="inlineStr">
         <is>
-          <t>aha başlanacaq panikaçılar bunları insanlar edir hamısının günahı katalizatoru olmayan avtomobil sürənlərdədi zad yəqin dinozavrların da məhv olmasında insan əli varıymış</t>
+          <t>aha başlanacaq panikaçılar bunları insanlar et hamısının günahı katalizatoru olmayan avtomobil sürənlərdədi zad yəqin dinozavrların da məhv olmasında insan əli varıymış</t>
         </is>
       </c>
       <c r="B2028" t="n">
@@ -20710,7 +20710,7 @@
     <row r="2029">
       <c r="A2029" t="inlineStr">
         <is>
-          <t>karandaşin ucunu toz halina cevirib soda ile qarisdirib ustne super kley vuranda mega super kley olur svarka kimi</t>
+          <t>karandaşin ucunu toz halina cevirib soda ile qarisdirib ustne super kley vuranda mega super kley ol svarka kimi</t>
         </is>
       </c>
       <c r="B2029" t="n">
@@ -20760,7 +20760,7 @@
     <row r="2034">
       <c r="A2034" t="inlineStr">
         <is>
-          <t>birdəfə bu müharibə vaxtı twitter acdimki bəs məndə nəyinsə qulpundan yapışım orda ölkəyə dəstək olum nə görsəm yaxşıdı qızın biri status yazıbki boyunuz neçədi eyni boyda olanlar bir biriylə dost olsun nə bilim biri yazıb sevgiliniz mesajiniza &lt;NUM&gt; saniyə gec cavab yazsa neyniyərdiz kankret qeyb olmuş məhəbbət adasına oxşuyurdu ora blokada atıridim gormuyum yenə qurtarmırdı zəlil qalmışlar axrı sildim oranı ən gözəli fb dı burda normal düşünə bilən insan çoxdu</t>
+          <t>birdəfə bu müharibə vaxtı twitter acdimki bəs məndə nəyinsə qulpundan yapışım orda ölkəyə dəstək olum nə görsəm yaxşı qızın biri status yazıbki boyunuz neçədi eyni boyda olanlar bir biriylə dost olsun nə bilim biri yazıb sevgiliniz mesajiniza &lt;NUM&gt; saniyə gec cavab yazsa neyniyərdiz kankret qeyb olmuş məhəbbət adasına oxşuyurdu ora blokada atıridim gormuyum yenə qurtarmırdı zəlil qalmışlar axrı sildim oranı ən gözəli fb dı burda normal düşünə bilən insan çoxdu</t>
         </is>
       </c>
       <c r="B2034" t="n">
@@ -20840,7 +20840,7 @@
     <row r="2042">
       <c r="A2042" t="inlineStr">
         <is>
-          <t>neqativ xəbərlər &lt;NUM&gt; təşkil edir təbii ki elə olacaq insanlara nə verirlər onu da oxuyurlar bu araşdırma korrekt deyil zənnimcə_NEG</t>
+          <t>neqativ xəbərlər &lt;NUM&gt; təşkil et təbii ki elə olacaq insanlara nə verirlər onu da oxuyurlar bu araşdırma korrekt deyil zənnimcə_NEG</t>
         </is>
       </c>
       <c r="B2042" t="n">
@@ -20920,7 +20920,7 @@
     <row r="2050">
       <c r="A2050" t="inlineStr">
         <is>
-          <t>sadece elime deyir durmur qaçıb gedir</t>
+          <t>sadece elime de durmur qaçıb get</t>
         </is>
       </c>
       <c r="B2050" t="n">
@@ -21080,7 +21080,7 @@
     <row r="2066">
       <c r="A2066" t="inlineStr">
         <is>
-          <t>son zamanlar metrolar açılandan bəri bilmirem bu bolt ne niye bu qeder bahalaşıb birden kartla gedişdə əlavə komissiyası çox olur mən şəxsən boltu ləğv eledim uberə keçdim inşaallah bu şirkət də bizi yarı yolda qoymaz bolt çox bərbadsan özünüzə çəki düzən ver</t>
+          <t>son zamanlar metrolar açılandan bəri bilmirem bu bolt ne niye bu qeder bahalaşıb birden kartla gedişdə əlavə komissiyası çox ol mən şəxsən boltu ləğv eledim uberə keçdim inşaallah bu şirkət də bizi yarı yolda qoymaz bolt çox bərbadsan özünüzə çəki düzən ver</t>
         </is>
       </c>
       <c r="B2066" t="n">
@@ -21280,7 +21280,7 @@
     <row r="2086">
       <c r="A2086" t="inlineStr">
         <is>
-          <t>vallah mən təmizlik dərdindən paltarlara vanna otaqlarına əlüzyuyanlara sərf edilən xlor tərkibli maddələrin kislotaların və dərdini çəkirəm hamısı da dövranla özümüzə qayıdır sonra da xərçəng baş alıb gedir təbii şeylərin dərdini çəkməyək heç</t>
+          <t>vallah mən təmizlik dərdindən paltarlara vanna otaqlarına əlüzyuyanlara sərf edilən xlor tərkibli maddələrin kislotaların və dərdini çəkirəm hamısı da dövranla özümüzə qayıdır sonra da xərçəng baş alıb get təbii şeylərin dərdini çəkməyək heç</t>
         </is>
       </c>
       <c r="B2086" t="n">
@@ -21330,7 +21330,7 @@
     <row r="2091">
       <c r="A2091" t="inlineStr">
         <is>
-          <t>salam &lt;NUM&gt; ildən çoxdur ki dynamic express in çatıdırılma xidmətindən faydalanıram hərdən olur ki çatdırılma sürətinə görə şoka düşürəm əlavədəki şəkildən göründüyü kimi &lt;NUM&gt; xarici anbara çatan bağlamam artıq ayın &lt;NUM&gt; bakı ofisində idi təşəkkürlər dynamic express</t>
+          <t>salam &lt;NUM&gt; ildən çoxdur ki dynamic express in çatıdırılma xidmətindən faydalanıram hərdən ol ki çatdırılma sürətinə görə şoka düşürəm əlavədəki şəkildən göründüyü kimi &lt;NUM&gt; xarici anbara çatan bağlamam artıq ayın &lt;NUM&gt; bakı ofisində idi təşəkkürlər dynamic express</t>
         </is>
       </c>
       <c r="B2091" t="n">
@@ -21490,7 +21490,7 @@
     <row r="2107">
       <c r="A2107" t="inlineStr">
         <is>
-          <t>bayaqdan sebirle herkesin yazdigini oxyuram masallah hami her seyi bilir amma hec kim hec ne elemir guruldayan goydur yere dusen palciq esq olsun daldeyde guruldayib one cixmaq lazim olanda susan milletime</t>
+          <t>bayaqdan sebirle herkesin yazdigini oxyuram masallah hami her seyi bil amma hec kim hec ne elemir guruldayan goydur yere dusen palciq esq olsun daldeyde guruldayib one cixmaq lazim olanda susan milletime</t>
         </is>
       </c>
       <c r="B2107" t="n">
@@ -21560,7 +21560,7 @@
     <row r="2114">
       <c r="A2114" t="inlineStr">
         <is>
-          <t>ümümən reklamlarda istifadə edilən obrazlardan görmək olur ki şirkətin brendinq və marketinqində böyük problemlər var lakin son &lt;NUM&gt; mart təbriki tam bir rüsvayçılıqdır hələ utanmadan da buna təbrik adı qoyursunuz belə təbrik olar bu sənət əsərini ərsəyə gətirənlərin dünyagörüşü bir neçə əsr geridə qalıb video nəinki silinməli həm də xanımlardan üzr istənməlidir</t>
+          <t>ümümən reklamlarda istifadə edilən obrazlardan görmək ol ki şirkətin brendinq və marketinqində böyük problemlər var lakin son &lt;NUM&gt; mart təbriki tam bir rüsvayçılıqdır hələ utanmadan da buna təbrik adı qoyursunuz belə təbrik olar bu sənət əsərini ərsəyə gətirənlərin dünyagörüşü bir neçə əsr geridə qalıb video nəinki silinməli həm də xanımlardan üzr istənməlidir</t>
         </is>
       </c>
       <c r="B2114" t="n">
@@ -21610,7 +21610,7 @@
     <row r="2119">
       <c r="A2119" t="inlineStr">
         <is>
-          <t>halal haram məsələsini elə bir faciəvi hala gətiriblər ki söz deməyə də insan ehtiyat edir</t>
+          <t>halal haram məsələsini elə bir faciəvi hala gətiriblər ki söz deməyə də insan ehtiyat et</t>
         </is>
       </c>
       <c r="B2119" t="n">
@@ -22000,7 +22000,7 @@
     <row r="2158">
       <c r="A2158" t="inlineStr">
         <is>
-          <t>teşekkürler öğretmen ve çocuklara ne kadar coşkulu yarışma oldu harikasınız</t>
+          <t>teşekkürler öğretmen ve çocuklara ne kadar coşkulu yarışma ol harikasınız</t>
         </is>
       </c>
       <c r="B2158" t="n">
@@ -22110,7 +22110,7 @@
     <row r="2169">
       <c r="A2169" t="inlineStr">
         <is>
-          <t>pizzaları dadlıdır çatdırılmada dəqiqəsinə qədər saat &lt;NUM&gt; &lt;NUM&gt; üçün sifariş istəmişdim &lt;NUM&gt; saat əvvəl düz &lt;NUM&gt; &lt;NUM&gt; də kuyer zəng elədi ki çatmışam maraqlı kampaniyaları olur hədiyyəli və sərfəli bundan əlavə pizzadan çox mən onların müştəri xidmətlərini qeyd etmək istəyirəm əlaqə mərkəzinin əməkdaşları çox pozitiv və qayğıkeşdirlər bir dəfə sifarişə cola əlavə etdim amma yadlarından çıxdı gətirmək zəng edib narazıçılıq bildirdim rəhbrəlikdən zəng edib növbəti sifarişimdə mənə tiramisu çox dadlıdı hədiyyə edəcəklərini bildirdilər bundan əlavə bir dəfə tiramisu sifariş etmişdim yolda gələndə ərimişdi kuryer dərhal ofislə əlaqə saxladı &lt;NUM&gt; dəqiqə sonra tam yenisini göndərdilər &lt;NUM&gt; mənfi cəhəti qeyd etmək istərdim pizza menyusu artıq uzun müddətdir ki dəyişmir və ulduzum ilə &lt;NUM&gt; &lt;NUM&gt; var idi idni olub &lt;NUM&gt; &lt;NUM&gt; qalan hər şey əla</t>
+          <t>pizzaları dadlıdır çatdırılmada dəqiqəsinə qədər saat &lt;NUM&gt; &lt;NUM&gt; üçün sifariş istəmişdim &lt;NUM&gt; saat əvvəl düz &lt;NUM&gt; &lt;NUM&gt; də kuyer zəng elədi ki çatmışam maraqlı kampaniyaları ol hədiyyəli və sərfəli bundan əlavə pizzadan çox mən onların müştəri xidmətlərini qeyd etmək istə əlaqə mərkəzinin əməkdaşları çox pozitiv və qayğıkeşdirlər bir dəfə sifarişə cola əlavə etdim amma yadlarından çıxdı gətirmək zəng edib narazıçılıq bildirdim rəhbrəlikdən zəng edib növbəti sifarişimdə mənə tiramisu çox dadlıdı hədiyyə edəcəklərini bildirdilər bundan əlavə bir dəfə tiramisu sifariş etmişdim yolda gələndə ərimişdi kuryer dərhal ofislə əlaqə saxladı &lt;NUM&gt; dəqiqə sonra tam yenisini göndərdilər &lt;NUM&gt; mənfi cəhəti qeyd etmək istərdim pizza menyusu artıq uzun müddətdir ki dəyişmir və ulduzum ilə &lt;NUM&gt; &lt;NUM&gt; var idi idni olub &lt;NUM&gt; &lt;NUM&gt; qalan hər şey əla</t>
         </is>
       </c>
       <c r="B2169" t="n">
@@ -22170,7 +22170,7 @@
     <row r="2175">
       <c r="A2175" t="inlineStr">
         <is>
-          <t>təssəffür elə &lt;NUM&gt; ay həps kəsiblər sənə səndə içəri girən kimi &lt;NUM&gt; gün ərzində &lt;NUM&gt; kitab oxuyub azadlığa çıxısan həpisxananın hələ sənə &lt;NUM&gt; gün borcuda olur</t>
+          <t>təssəffür elə &lt;NUM&gt; ay həps kəsiblər sənə səndə içəri girən kimi &lt;NUM&gt; gün ərzində &lt;NUM&gt; kitab oxuyub azadlığa çıxısan həpisxananın hələ sənə &lt;NUM&gt; gün borcuda ol</t>
         </is>
       </c>
       <c r="B2175" t="n">
@@ -22210,7 +22210,7 @@
     <row r="2179">
       <c r="A2179" t="inlineStr">
         <is>
-          <t>ikinci aynadır tərgitmisəm iştah yoxdur çarəsiz_NEG qalıb_NEG elektron_NEG qəlyan aldım bəlkə köməklik göstərə iştah falan aça olmadı amma özümə söz vermişəm çəkməyəcəyəm</t>
+          <t>ikinci aynadır tərgitmisəm iştah yoxdur çarəsiz_NEG qalıb_NEG elektron_NEG qəlyan al bəlkə köməklik göstərə iştah falan aça olmadı amma özümə söz vermişəm çəkməyəcəyəm</t>
         </is>
       </c>
       <c r="B2179" t="n">
@@ -22310,7 +22310,7 @@
     <row r="2189">
       <c r="A2189" t="inlineStr">
         <is>
-          <t>bu görüşlər onun maarifçilik ideyalarına yetərincə müsbət təsir edir</t>
+          <t>bu görüşlər onun maarifçilik ideyalarına yetərincə müsbət təsir et</t>
         </is>
       </c>
       <c r="B2189" t="n">
@@ -22500,7 +22500,7 @@
     <row r="2208">
       <c r="A2208" t="inlineStr">
         <is>
-          <t>ıran edəndə olur cinayet bütün qərb mediasi ırani cinayətkar adlandirir halbuki amerikada edam cezasi daha ağır və ədalətli deyil ama_NEG heç kim_NEG heç bir_NEG soz_NEG demir_NEG</t>
+          <t>ıran edəndə ol cinayet bütün qərb mediasi ırani cinayətkar adlandirir halbuki amerikada edam cezasi daha ağır və ədalətli deyil ama_NEG heç kim_NEG heç bir_NEG soz_NEG demir_NEG</t>
         </is>
       </c>
       <c r="B2208" t="n">
@@ -22520,7 +22520,7 @@
     <row r="2210">
       <c r="A2210" t="inlineStr">
         <is>
-          <t>bilmək olmaz gələn il bəlkə yenə gəldi heçnə bitməyib belə də ki barcada olmasa yaxşıdır bundan sonra yeri yoxdur</t>
+          <t>bilmək olmaz gələn il bəlkə yenə gəl heçnə bitməyib belə də ki barcada olmasa yaxşı bundan sonra yeri yoxdur</t>
         </is>
       </c>
       <c r="B2210" t="n">
@@ -22660,7 +22660,7 @@
     <row r="2224">
       <c r="A2224" t="inlineStr">
         <is>
-          <t>pele maradona ronaldinho cristiano ronaldo vaqif cavadov messi bu əfsanəvi oyunçuların hamısı fikrimcə eyni səviyyədədir və rəqabət olduqda tərəflər də çox olur hansı oyunçunun oyunu hansı insana daha çox zövq verir əsas məsələ odur məsələn mənə futbolu cr &lt;NUM&gt; sevdirib</t>
+          <t>pele maradona ronaldinho cristiano ronaldo vaqif cavadov messi bu əfsanəvi oyunçuların hamısı fikrimcə eyni səviyyədədir və rəqabət olduqda tərəflər də çox ol hansı oyunçunun oyunu hansı insana daha çox zövq verir əsas məsələ odur məsələn mənə futbolu cr &lt;NUM&gt; sevdirib</t>
         </is>
       </c>
       <c r="B2224" t="n">
@@ -22680,7 +22680,7 @@
     <row r="2226">
       <c r="A2226" t="inlineStr">
         <is>
-          <t>indiyənə qədər çox şirkətlə türkiyədən sifariş etmişəm amma çoxu ilə də problem yaşamışam ta ki kango nu tapana kimi ciddən çox sürətli ən önəmlisi isə hər hansı bir səhv etdikdə müştərilərlə münasibətləri çox yaxşıdı səbirlə təmkinlə bir bir izah edib aydınlaşdırırlar çoox təşəkkür edirəm və minnətdaram belə fəaliyyət göstərdikləri üçün</t>
+          <t>indiyənə qədər çox şirkətlə türkiyədən sifariş etmişəm amma çoxu ilə də problem yaşamışam ta ki kango nu tapana kimi ciddən çox sürətli ən önəmlisi isə hər hansı bir səhv etdikdə müştərilərlə münasibətləri çox yaxşı səbirlə təmkinlə bir bir izah edib aydınlaşdırırlar çoox təşəkkür edirəm və minnətdaram belə fəaliyyət göstərdikləri üçün</t>
         </is>
       </c>
       <c r="B2226" t="n">
@@ -22960,7 +22960,7 @@
     <row r="2254">
       <c r="A2254" t="inlineStr">
         <is>
-          <t>dövlətimiz bizi qürurlandırmağa davam edir</t>
+          <t>dövlətimiz bizi qürurlandırmağa davam et</t>
         </is>
       </c>
       <c r="B2254" t="n">
@@ -23020,7 +23020,7 @@
     <row r="2260">
       <c r="A2260" t="inlineStr">
         <is>
-          <t>her zaman bu qardasi dusunmusem soraki taleyi nece oldu deye &lt;NUM&gt; ilde dovlet bir defe bu adam haqda bir is gormedi</t>
+          <t>her zaman bu qardasi dusunmusem soraki taleyi nece ol deye &lt;NUM&gt; ilde dovlet bir defe bu adam haqda bir is gormedi</t>
         </is>
       </c>
       <c r="B2260" t="n">
@@ -23070,7 +23070,7 @@
     <row r="2265">
       <c r="A2265" t="inlineStr">
         <is>
-          <t>adamın üzündə əmələ gələn mənasız bir dəyişikliyi də ona əfv etmirik alyoşanın üzündəki dəyişiklik isə kim bilir nədənmiş</t>
+          <t>adamın üzündə əmələ gələn mənasız bir dəyişikliyi də ona əfv etmirik alyoşanın üzündəki dəyişiklik isə kim bil nədənmiş</t>
         </is>
       </c>
       <c r="B2265" t="n">
@@ -23200,7 +23200,7 @@
     <row r="2278">
       <c r="A2278" t="inlineStr">
         <is>
-          <t>danışığı ləzzət edir aktiyor olsa bizidə güldürər restoran açıb yeyib ziyan eləmə</t>
+          <t>danışığı ləzzət et aktiyor olsa bizidə güldürər restoran açıb yeyib ziyan eləmə</t>
         </is>
       </c>
       <c r="B2278" t="n">
@@ -23240,7 +23240,7 @@
     <row r="2282">
       <c r="A2282" t="inlineStr">
         <is>
-          <t>paylaşın link dodağını şizofrenniklər kimi büzüb poz verən vecsizlərin əvəzinə siz qazanın faydalı postlarınız olur keçən dəfə sizin endirim kodunuzla paylaşdığınız linkdən girib alış veriş etdim</t>
+          <t>paylaşın link dodağını şizofrenniklər kimi büzüb poz verən vecsizlərin əvəzinə siz qazanın faydalı postlarınız ol keçən dəfə sizin endirim kodunuzla paylaşdığınız linkdən girib alış veriş etdim</t>
         </is>
       </c>
       <c r="B2282" t="n">
@@ -23270,7 +23270,7 @@
     <row r="2285">
       <c r="A2285" t="inlineStr">
         <is>
-          <t>mən ayın &lt;NUM&gt; &lt;NUM&gt; &lt;NUM&gt; il &lt;NUM&gt; &lt;NUM&gt; taksi sifariş etdim və sifariş qəbul olundu &lt;NUM&gt; dəqiqə keçməmiş mənə zəng bu nömrədən phone gəldi mənə dedi mən əliyev prospektində asan xidmətin qabağındayam nə o düz gəlməmişdir bir təhər başa saldım başa düşmədi özüm zəng edib danışdım və son nömrəsi &lt;NUM&gt; pp &lt;NUM&gt; olan maşın gəldi əl edib maşını saxlatdım və oturdum sürücü çox gobudcasına mən burda parkovkaya &lt;NUM&gt; azn vermişəm bu nə gediş haqqıdır &lt;NUM&gt; &lt;NUM&gt; qəpik xanım mən sifarişi ləğv etmişəm gedə bilmərəm başqa müştəri götürəcəm mən sifarişin ləğv olunması üçün heç bir_NEG mesaj_NEG gəlməmişdir_NEG maşını saxladı düş &lt;NUM&gt; min manata maşın aımışam &lt;NUM&gt; &lt;NUM&gt; getmirəm dedi mən mənzil başına çatdırmalısan deynə deynə maşını sürdü mən getdiyim ünvana çatdım &lt;NUM&gt; azn verib düşdüm nə isə xahiş edirəm belə sürücüləri şirgətinizlə işləməyə dəvət edəndə onun sağlam olub olmaması ilə əlaqədar sağlamlıq arayışı alın həm sizin imicinizə həmdə müştərinin hissiyatına xələl gəlməsin</t>
+          <t>mən ayın &lt;NUM&gt; &lt;NUM&gt; &lt;NUM&gt; il &lt;NUM&gt; &lt;NUM&gt; taksi sifariş etdim və sifariş qəbul olundu &lt;NUM&gt; dəqiqə keçməmiş mənə zəng bu nömrədən phone gəl mənə dedi mən əliyev prospektində asan xidmətin qabağındayam nə o düz gəlməmişdir bir təhər başa saldım başa düşmədi özüm zəng edib danışdım və son nömrəsi &lt;NUM&gt; pp &lt;NUM&gt; olan maşın gəl əl edib maşını saxlatdım və oturdum sürücü çox gobudcasına mən burda parkovkaya &lt;NUM&gt; azn vermişəm bu nə gediş haqqıdır &lt;NUM&gt; &lt;NUM&gt; qəpik xanım mən sifarişi ləğv etmişəm gedə bilmərəm başqa müştəri götürəcəm mən sifarişin ləğv olunması üçün heç bir_NEG mesaj_NEG gəlməmişdir_NEG maşını saxladı düş &lt;NUM&gt; min manata maşın aımışam &lt;NUM&gt; &lt;NUM&gt; getmirəm dedi mən mənzil başına çatdırmalısan deynə deynə maşını sürdü mən getdiyim ünvana çatdım &lt;NUM&gt; azn verib düşdüm nə isə xahiş edirəm belə sürücüləri şirgətinizlə işləməyə dəvət edəndə onun sağlam olub olmaması ilə əlaqədar sağlamlıq arayışı alın həm sizin imicinizə həmdə müştərinin hissiyatına xələl gəlməsin</t>
         </is>
       </c>
       <c r="B2285" t="n">
@@ -23300,7 +23300,7 @@
     <row r="2288">
       <c r="A2288" t="inlineStr">
         <is>
-          <t>özü də biz içdiyimiz sudan daha təmiz tik tokda bunu etməsələr yaxşıdır</t>
+          <t>özü də biz içdiyimiz sudan daha təmiz tik tokda bunu etməsələr yaxşı</t>
         </is>
       </c>
       <c r="B2288" t="n">
@@ -23370,7 +23370,7 @@
     <row r="2295">
       <c r="A2295" t="inlineStr">
         <is>
-          <t>əladır &lt;NUM&gt; &lt;NUM&gt; günə çatdırır çox əla karqo şirkətidir</t>
+          <t>əla &lt;NUM&gt; &lt;NUM&gt; günə çatdırır çox əla karqo şirkətidir</t>
         </is>
       </c>
       <c r="B2295" t="n">
@@ -23460,7 +23460,7 @@
     <row r="2304">
       <c r="A2304" t="inlineStr">
         <is>
-          <t>altdan podval eləsə daha yaxşıdı</t>
+          <t>altdan podval eləsə daha yaxşı</t>
         </is>
       </c>
       <c r="B2304" t="n">
@@ -23520,7 +23520,7 @@
     <row r="2310">
       <c r="A2310" t="inlineStr">
         <is>
-          <t>kor kora kor deməsə bagri catlar kim kimə nə deyir alcaqlar</t>
+          <t>kor kora kor deməsə bagri catlar kim kimə nə de alcaqlar</t>
         </is>
       </c>
       <c r="B2310" t="n">
@@ -23610,7 +23610,7 @@
     <row r="2319">
       <c r="A2319" t="inlineStr">
         <is>
-          <t>deyir bu qardaşla birge teyyarede uçmuşam ve şahidi olmuşam yemeyinin her zaman döyushleri tv de qarşima chixanda onun teyyarede nece yemeyler sifarish verib yemeyi yadima duşur</t>
+          <t>de bu qardaşla birge teyyarede uçmuşam ve şahidi olmuşam yemeyinin her zaman döyushleri tv de qarşima chixanda onun teyyarede nece yemeyler sifarish verib yemeyi yadima duşur</t>
         </is>
       </c>
       <c r="B2319" t="n">
@@ -23700,7 +23700,7 @@
     <row r="2328">
       <c r="A2328" t="inlineStr">
         <is>
-          <t>oyanıb tiktoka girir və qabağına düşük videolar çıxanda qayıdıb deyir ki təzdən dondur əmoğlu</t>
+          <t>oyanıb tiktoka girir və qabağına düşük videolar çıxanda qayıdıb de ki təzdən dondur əmoğlu</t>
         </is>
       </c>
       <c r="B2328" t="n">
@@ -23810,7 +23810,7 @@
     <row r="2339">
       <c r="A2339" t="inlineStr">
         <is>
-          <t>salam son bir neçə gündür ki hesab koinlə ödəniş etmək istəyirəm yalnız səhv göstərir və ödəniş getmir</t>
+          <t>salam son bir neçə gündür ki hesab koinlə ödəniş etmək istə yalnız səhv göstərir və ödəniş getmir</t>
         </is>
       </c>
       <c r="B2339" t="n">
@@ -23870,7 +23870,7 @@
     <row r="2345">
       <c r="A2345" t="inlineStr">
         <is>
-          <t>dezor dünyanın istənilən tv kanallarına baxmaq olur</t>
+          <t>dezor dünyanın istənilən tv kanallarına baxmaq ol</t>
         </is>
       </c>
       <c r="B2345" t="n">
@@ -23900,7 +23900,7 @@
     <row r="2348">
       <c r="A2348" t="inlineStr">
         <is>
-          <t>nə gözəl su heç vaxt_NEG tükənməyəcək_NEG o_NEG buzlaqlara qlobal istiləşmə də vız gəlir bax altında necə sərmayə qoruyur</t>
+          <t>nə gözəl su heç vaxt_NEG tükənməyəcək_NEG o_NEG buzlaqlara qlobal istiləşmə də vız gəl bax altında necə sərmayə qoruyur</t>
         </is>
       </c>
       <c r="B2348" t="n">
@@ -24040,7 +24040,7 @@
     <row r="2362">
       <c r="A2362" t="inlineStr">
         <is>
-          <t>çox eladı vallah &lt;NUM&gt; gb meni qane edir &lt;NUM&gt; azn götürürem hem serfelidi hemde kefiyyetlidi çox güclüdü</t>
+          <t>çox eladı vallah &lt;NUM&gt; gb meni qane et &lt;NUM&gt; azn götürürem hem serfelidi hemde kefiyyetlidi çox güclüdü</t>
         </is>
       </c>
       <c r="B2362" t="n">
@@ -24060,7 +24060,7 @@
     <row r="2364">
       <c r="A2364" t="inlineStr">
         <is>
-          <t>bu vacib səhiyyə ocağı israil barbarlığının ən son qurbanı oldu</t>
+          <t>bu vacib səhiyyə ocağı israil barbarlığının ən son qurbanı ol</t>
         </is>
       </c>
       <c r="B2364" t="n">
@@ -24180,7 +24180,7 @@
     <row r="2376">
       <c r="A2376" t="inlineStr">
         <is>
-          <t>iynənin ağrısı maksimum &lt;NUM&gt; saniyə olur da nəyindən qorxursuz mənim qolumdan qan götürəndə həkim &lt;NUM&gt; dəfə damarı tuta bilmədi &lt;NUM&gt; cü dəfə soxdu getdi</t>
+          <t>iynənin ağrısı maksimum &lt;NUM&gt; saniyə ol da nəyindən qorxursuz mənim qolumdan qan götürəndə həkim &lt;NUM&gt; dəfə damarı tuta bilmədi &lt;NUM&gt; cü dəfə soxdu get</t>
         </is>
       </c>
       <c r="B2376" t="n">
@@ -24290,7 +24290,7 @@
     <row r="2387">
       <c r="A2387" t="inlineStr">
         <is>
-          <t>deməli qısa konkret deyim ki &lt;NUM&gt; ci ilin dekabrında sifarişlərim olub &lt;NUM&gt; manatdan çox lakin o zaman smart customs dan anlayışım olmamasından saytda qeydiyyatdan keçdiyim nömrə ilə gömrükdən qeydiyyatdan keçdiyim nömrənin eyni olması zəruriyyətindən ötrü yeni nömrə alıb adıma keçirməyim və bir sıra məsələlər səbəbilə mən sifarişlərimi verdikdən &lt;NUM&gt; &lt;NUM&gt; ay sonra bəyan edə bilmə fürsəti tapmışam o qədər dəqiq sistemlə çalışan rəsmi qurumun operatoru mənə nə desə yaxşıdır ıstəsəniz də bəyan edə bilməyəcəksiniz mən başa düşə bilmirəm bu nə deməkdir deyil &lt;NUM&gt;_NEG azn_NEG &lt;NUM&gt;_NEG olsa idi belə mən onunla nə varlı nə də kasıb olan deyiləm sadəcə ayıb olsun ödənişimi etmişəm alınıb statusu yazılıb ama di gəl ki məhsullarımı verməyəcəklər üzərinə düşüb məsələni həll edə biləcəkkən məşğul olacaq vaxtım olmadığından qətiyyət etmirəm əgər halal və haram qavramlarına önəm verən insanlarsınızsa mən halal etmirəm qətiyyən</t>
+          <t>deməli qısa konkret deyim ki &lt;NUM&gt; ci ilin dekabrında sifarişlərim olub &lt;NUM&gt; manatdan çox lakin o zaman smart customs dan anlayışım olmamasından saytda qeydiyyatdan keçdiyim nömrə ilə gömrükdən qeydiyyatdan keçdiyim nömrənin eyni olması zəruriyyətindən ötrü yeni nömrə alıb adıma keçirməyim və bir sıra məsələlər səbəbilə mən sifarişlərimi verdikdən &lt;NUM&gt; &lt;NUM&gt; ay sonra bəyan edə bilmə fürsəti tapmışam o qədər dəqiq sistemlə çalışan rəsmi qurumun operatoru mənə nə desə yaxşı ıstəsəniz də bəyan edə bilməyəcəksiniz mən başa düşə bilmirəm bu nə deməkdir deyil &lt;NUM&gt;_NEG azn_NEG &lt;NUM&gt;_NEG olsa idi belə mən onunla nə varlı nə də kasıb olan deyiləm sadəcə ayıb olsun ödənişimi etmişəm alınıb statusu yazılıb ama di gəl ki məhsullarımı verməyəcəklər üzərinə düşüb məsələni həll edə biləcəkkən məşğul olacaq vaxtım olmadığından qətiyyət etmirəm əgər halal və haram qavramlarına önəm verən insanlarsınızsa mən halal etmirəm qətiyyən</t>
         </is>
       </c>
       <c r="B2387" t="n">
@@ -24310,7 +24310,7 @@
     <row r="2389">
       <c r="A2389" t="inlineStr">
         <is>
-          <t>bakcell ulduzum çox xoshuma gelir endirimler olur ferqli internet paketlerini optimallashdirsalar ela olar</t>
+          <t>bakcell ulduzum çox xoshuma gelir endirimler ol ferqli internet paketlerini optimallashdirsalar ela olar</t>
         </is>
       </c>
       <c r="B2389" t="n">
@@ -24390,7 +24390,7 @@
     <row r="2397">
       <c r="A2397" t="inlineStr">
         <is>
-          <t>ən böyük arzumdan biri argentinanı çempion görmək idi möhtəşəm gün oldu</t>
+          <t>ən böyük arzumdan biri argentinanı çempion görmək idi möhtəşəm gün ol</t>
         </is>
       </c>
       <c r="B2397" t="n">
@@ -24400,7 +24400,7 @@
     <row r="2398">
       <c r="A2398" t="inlineStr">
         <is>
-          <t>apple hər zaman ən yaxşısını edir ilk dəfə apple watch airpods da təqdim ediləndə insanlar tərəddüd edirdi ki görəsən necə olacaq apple watch da airpods da satış rekordları qırdı bu da elə olacaq bu arada macbook da ipad də iphone da öz sinfinin ən yaxşılarıdır</t>
+          <t>apple hər zaman ən yaxşısını et ilk dəfə apple watch airpods da təqdim ediləndə insanlar tərəddüd edirdi ki görəsən necə olacaq apple watch da airpods da satış rekordları qırdı bu da elə olacaq bu arada macbook da ipad də iphone da öz sinfinin ən yaxşılarıdır</t>
         </is>
       </c>
       <c r="B2398" t="n">
@@ -24480,7 +24480,7 @@
     <row r="2406">
       <c r="A2406" t="inlineStr">
         <is>
-          <t>azərbaycanda tibb işçisi &lt;NUM&gt; illik kurs qurtarır o &lt;NUM&gt; illik kursadi yəni heç gedmir_NEG pul_NEG &lt;NUM&gt;_NEG verir gedib xəstəxanada o sertifikatla tibb bacısı işləyir ayda &lt;NUM&gt; &lt;NUM&gt; maaş alır o çobanlar nəinki damar heç şah_NEG damar_NEG nədi_NEG onu bilmirlər hardan gedir yəni ölkədən ölkəyı fərq var tibb unsini yaxşı balla bitirən qalıb kənarda qıntır kimi &lt;NUM&gt; illik kursu qurtaran bütün xəstəxana elədir hamsı kurs qurtarıb gedib işləyir</t>
+          <t>azərbaycanda tibb işçisi &lt;NUM&gt; illik kurs qurtarır o &lt;NUM&gt; illik kursadi yəni heç gedmir_NEG pul_NEG &lt;NUM&gt;_NEG verir gedib xəstəxanada o sertifikatla tibb bacısı işləyir ayda &lt;NUM&gt; &lt;NUM&gt; maaş alır o çobanlar nəinki damar heç şah_NEG damar_NEG nədi_NEG onu bilmirlər hardan get yəni ölkədən ölkəyı fərq var tibb unsini yaxşı balla bitirən qalıb kənarda qıntır kimi &lt;NUM&gt; illik kursu qurtaran bütün xəstəxana elədir hamsı kurs qurtarıb gedib işləyir</t>
         </is>
       </c>
       <c r="B2406" t="n">
@@ -24510,7 +24510,7 @@
     <row r="2409">
       <c r="A2409" t="inlineStr">
         <is>
-          <t>çox razıyam bolt xidmətindən istifadə edirəm daima öz qohumlarıma tanışlarıma da tövsiyə edirəm endirim olanda isə daha da sərfəli olur</t>
+          <t>çox razıyam bolt xidmətindən istifadə edirəm daima öz qohumlarıma tanışlarıma da tövsiyə edirəm endirim olanda isə daha da sərfəli ol</t>
         </is>
       </c>
       <c r="B2409" t="n">
@@ -24570,7 +24570,7 @@
     <row r="2415">
       <c r="A2415" t="inlineStr">
         <is>
-          <t>hem qiymet hemde keyfiyyət eladi qiymeti budceye uygundu keyfiyyetine soz ola bilmez hemde musterilere xidmetide qeyd etmek lazimdir xidmet yaxşı olduqda alicida çox olur</t>
+          <t>hem qiymet hemde keyfiyyət eladi qiymeti budceye uygundu keyfiyyetine soz ola bilmez hemde musterilere xidmetide qeyd etmek lazimdir xidmet yaxşı olduqda alicida çox ol</t>
         </is>
       </c>
       <c r="B2415" t="n">
@@ -24640,7 +24640,7 @@
     <row r="2422">
       <c r="A2422" t="inlineStr">
         <is>
-          <t>amma erebler ozleri gelib bakida alkawlig edir</t>
+          <t>amma erebler ozleri gelib bakida alkawlig et</t>
         </is>
       </c>
       <c r="B2422" t="n">
@@ -24670,7 +24670,7 @@
     <row r="2425">
       <c r="A2425" t="inlineStr">
         <is>
-          <t>gör nə vaxtdır ki mən kinoteatra getmirəm belə bir saytın olmağı əladı həm də öz dilimizdə axır çıxan çox kinoların süjet xətti və aktyorların oyunu məni cəlb eləmir amma bu kinonun süjetini bəyəndim həvəslə izlədim əsas da jen renoya görə baxdım düzdür kinoada az yer alıb amma onun az iştirakı belə kinonu gözəlləşdirir dağların əhatəsində olan kiçik kəndin təbiəti valeh edir musiqi çox zövqlüdü orkestr ləzzət edir bir sözlə baxmağa dəyər</t>
+          <t>gör nə vaxtdır ki mən kinoteatra getmirəm belə bir saytın olmağı əladı həm də öz dilimizdə axır çıxan çox kinoların süjet xətti və aktyorların oyunu məni cəlb eləmir amma bu kinonun süjetini bəyən həvəslə izlədim əsas da jen renoya görə baxdım düzdür kinoada az yer alıb amma onun az iştirakı belə kinonu gözəlləşdirir dağların əhatəsində olan kiçik kəndin təbiəti valeh et musiqi çox zövqlüdü orkestr ləzzət et bir sözlə baxmağa dəyər</t>
         </is>
       </c>
       <c r="B2425" t="n">
@@ -24690,7 +24690,7 @@
     <row r="2427">
       <c r="A2427" t="inlineStr">
         <is>
-          <t>baxdiqca lezet edir super her biri tarixdir</t>
+          <t>baxdiqca lezet et super her biri tarixdir</t>
         </is>
       </c>
       <c r="B2427" t="n">
@@ -24700,7 +24700,7 @@
     <row r="2428">
       <c r="A2428" t="inlineStr">
         <is>
-          <t>braziliya da komandanın heyətində yer aldinsa nazirdən hörmətli şəxs hesab olunursan məncə &lt;NUM&gt; il oldu ki bu yığmanın çempion olmaq vaxtı yetişdi</t>
+          <t>braziliya da komandanın heyətində yer aldinsa nazirdən hörmətli şəxs hesab olunursan məncə &lt;NUM&gt; il ol ki bu yığmanın çempion olmaq vaxtı yetişdi</t>
         </is>
       </c>
       <c r="B2428" t="n">
@@ -24720,7 +24720,7 @@
     <row r="2430">
       <c r="A2430" t="inlineStr">
         <is>
-          <t>bu da bankların uzun müddətli biznes kreditləri verilməsinə mane olur</t>
+          <t>bu da bankların uzun müddətli biznes kreditləri verilməsinə mane ol</t>
         </is>
       </c>
       <c r="B2430" t="n">
@@ -24820,7 +24820,7 @@
     <row r="2440">
       <c r="A2440" t="inlineStr">
         <is>
-          <t>düz deyir inanmırsız sayın qum dənəciklərinin sayını hesablayacaq qədər bekar insanlar yaşayır bu qalaktikada</t>
+          <t>düz de inanmırsız sayın qum dənəciklərinin sayını hesablayacaq qədər bekar insanlar yaşayır bu qalaktikada</t>
         </is>
       </c>
       <c r="B2440" t="n">
@@ -24890,7 +24890,7 @@
     <row r="2447">
       <c r="A2447" t="inlineStr">
         <is>
-          <t>mənim çox xoşum gəlir həm özü həm mahnıları positivdi</t>
+          <t>mənim çox xoşum gəl həm özü həm mahnıları positivdi</t>
         </is>
       </c>
       <c r="B2447" t="n">
@@ -25000,7 +25000,7 @@
     <row r="2458">
       <c r="A2458" t="inlineStr">
         <is>
-          <t>illərlə istifadə etdiyim hesab az illərlə yığdığım təqribən &lt;NUM&gt; olan bonusumu &lt;NUM&gt; cü ilin sonunda sıfırlayacaq müştəriyə aid olan bonuslar müştərinindir bonusların hamısını illərlə ödəniş qarşılığında əldə edib verdikləri bir bonus coin idi onu da belə alacaqlar nəticə budur ki istifadəcilər veclərinə deyil necə_NEG istəyirlər_NEG elə_NEG edirlər verdikləri qərar ancaq özlərinə sərf edir buna görə daha heç vaxt_NEG hesab_NEG az_NEG dan istifadə etmirəm</t>
+          <t>illərlə istifadə etdiyim hesab az illərlə yığdığım təqribən &lt;NUM&gt; olan bonusumu &lt;NUM&gt; cü ilin sonunda sıfırlayacaq müştəriyə aid olan bonuslar müştərinindir bonusların hamısını illərlə ödəniş qarşılığında əldə edib verdikləri bir bonus coin idi onu da belə alacaqlar nəticə budur ki istifadəcilər veclərinə deyil necə_NEG istəyirlər_NEG elə_NEG edirlər verdikləri qərar ancaq özlərinə sərf et buna görə daha heç vaxt_NEG hesab_NEG az_NEG dan istifadə etmirəm</t>
         </is>
       </c>
       <c r="B2458" t="n">
@@ -25060,7 +25060,7 @@
     <row r="2464">
       <c r="A2464" t="inlineStr">
         <is>
-          <t>bu &lt;NUM&gt; ay işləmədən əli bəyin yeyiyirlər bəs pul hardan gəlir</t>
+          <t>bu &lt;NUM&gt; ay işləmədən əli bəyin yeyiyirlər bəs pul hardan gəl</t>
         </is>
       </c>
       <c r="B2464" t="n">
@@ -25100,7 +25100,7 @@
     <row r="2468">
       <c r="A2468" t="inlineStr">
         <is>
-          <t>çox güman ki &lt;NUM&gt; mindən çox ölü olacaq &lt;NUM&gt; bina dağılıb hər binada minimum &lt;NUM&gt; nəfər ölsə &lt;NUM&gt; insan edir &lt;NUM&gt; nəfər ölsə &lt;NUM&gt; itki deməkdir hər keçən saat insanların sağ çıxmaq ehtimalını dahada azaldır artıq &lt;NUM&gt; cü gündür zəlzələ olub hələdə elə yerlər var ki heç bir_NEG kömək_NEG getməyib_NEG nəzərə almaq lazımdır ki dağıntılar altında &lt;NUM&gt; mindən çox insan var hal hazırda allah kömək olsun hamısına</t>
+          <t>çox güman ki &lt;NUM&gt; mindən çox ölü olacaq &lt;NUM&gt; bina dağılıb hər binada minimum &lt;NUM&gt; nəfər ölsə &lt;NUM&gt; insan et &lt;NUM&gt; nəfər ölsə &lt;NUM&gt; itki deməkdir hər keçən saat insanların sağ çıxmaq ehtimalını dahada azaldır artıq &lt;NUM&gt; cü gündür zəlzələ olub hələdə elə yerlər var ki heç bir_NEG kömək_NEG getməyib_NEG nəzərə almaq lazımdır ki dağıntılar altında &lt;NUM&gt; mindən çox insan var hal hazırda allah kömək olsun hamısına</t>
         </is>
       </c>
       <c r="B2468" t="n">
@@ -25330,7 +25330,7 @@
     <row r="2491">
       <c r="A2491" t="inlineStr">
         <is>
-          <t>deyir keçilər əvəz olunandan sonra oyunun izlənmə səviyyəsi &lt;NUM&gt; düşüb</t>
+          <t>de keçilər əvəz olunandan sonra oyunun izlənmə səviyyəsi &lt;NUM&gt; düşüb</t>
         </is>
       </c>
       <c r="B2491" t="n">
@@ -25360,7 +25360,7 @@
     <row r="2494">
       <c r="A2494" t="inlineStr">
         <is>
-          <t>&lt;NUM&gt; qepik kartla tətbiqlə &lt;NUM&gt; qəpik çıxır tətbiq niye artıq məbləğ cixir &lt;NUM&gt; manat da blok edir tetbiq yuklemeyin denislidir</t>
+          <t>&lt;NUM&gt; qepik kartla tətbiqlə &lt;NUM&gt; qəpik çıxır tətbiq niye artıq məbləğ cixir &lt;NUM&gt; manat da blok et tetbiq yuklemeyin denislidir</t>
         </is>
       </c>
       <c r="B2494" t="n">
@@ -25460,7 +25460,7 @@
     <row r="2504">
       <c r="A2504" t="inlineStr">
         <is>
-          <t>yorumlara baxanda görsənir ki elə sizin kimilər bir ömür demokratiya görə bilməsə yaxşıdır bu fikirlə heç vaxt_NEG görməyəcəksiniz_NEG aclıq_NEG olsun kef olsundur sizinki qul kimi yaşamağa öyrəşmisiniz birdə xırda mırda ədv lər çakkıldatmağa</t>
+          <t>yorumlara baxanda görsənir ki elə sizin kimilər bir ömür demokratiya görə bilməsə yaxşı bu fikirlə heç vaxt_NEG görməyəcəksiniz_NEG aclıq_NEG olsun kef olsundur sizinki qul kimi yaşamağa öyrəşmisiniz birdə xırda mırda ədv lər çakkıldatmağa</t>
         </is>
       </c>
       <c r="B2504" t="n">
@@ -25600,7 +25600,7 @@
     <row r="2518">
       <c r="A2518" t="inlineStr">
         <is>
-          <t>indiki gənclik nəyinki yetəri qədər qidalanır heç keyfiyyətli_NEG qida_NEG da_NEG qəbul etmir əksər gənclər səhərlər ümumiyyətlə yemək yemir günorta azmaz yeyir ən çox yeməyi axşam &lt;NUM&gt; dan sonra yeyir hətda gecə &lt;NUM&gt; &lt;NUM&gt; arası restoranlar klublar kafelər dolu olur səhərlər nahar etmək mütləqdir vaxtında və keyfiyyətli qida orqanizmə xeyrlidir az qida gec yemək düşüncələrə psixologiyaya da təsir edir bu aylarda balıq xəngəl xaş və hinduşka yemək məsləhətdir normal qida qəbul etməyən normal yuxu yatmayan insan anormaldır təbii ki bu hər kəsə aid deyil yaponlar_NEG qidaya_NEG önəm_NEG verirlər təbii və dəniz məhsulları yeyirlər yaxşı yuxu yatırlar amma onlarda da çatışmazlıqlar var məsələn yapon oğlanlar seksual cəhətdən bizdən də acdırlar yolda gedərkən tanımadığı qızların şəklin çəkirlər ona görə də yaponiyada satılan telefon və fotoaparatlarda şəkil çəkilərkən çıxan çık çırıkk səsin almaq olmur texniki olaraq bu mümkün deyil dünyada_NEG ən_NEG çox_NEG istifadə olunan sexshop alətləri də yaponlardadır və istehsalçı da onlardır</t>
+          <t>indiki gənclik nəyinki yetəri qədər qidalanır heç keyfiyyətli_NEG qida_NEG da_NEG qəbul etmir əksər gənclər səhərlər ümumiyyətlə yemək yemir günorta azmaz yeyir ən çox yeməyi axşam &lt;NUM&gt; dan sonra yeyir hətda gecə &lt;NUM&gt; &lt;NUM&gt; arası restoranlar klublar kafelər dolu ol səhərlər nahar etmək mütləqdir vaxtında və keyfiyyətli qida orqanizmə xeyrlidir az qida gec yemək düşüncələrə psixologiyaya da təsir et bu aylarda balıq xəngəl xaş və hinduşka yemək məsləhətdir normal qida qəbul etməyən normal yuxu yatmayan insan anormaldır təbii ki bu hər kəsə aid deyil yaponlar_NEG qidaya_NEG önəm_NEG verirlər təbii və dəniz məhsulları yeyirlər yaxşı yuxu yatırlar amma onlarda da çatışmazlıqlar var məsələn yapon oğlanlar seksual cəhətdən bizdən də acdırlar yolda gedərkən tanımadığı qızların şəklin çəkirlər ona görə də yaponiyada satılan telefon və fotoaparatlarda şəkil çəkilərkən çıxan çık çırıkk səsin almaq olmur texniki olaraq bu mümkün deyil dünyada_NEG ən_NEG çox_NEG istifadə olunan sexshop alətləri də yaponlardadır və istehsalçı da onlardır</t>
         </is>
       </c>
       <c r="B2518" t="n">
@@ -25610,7 +25610,7 @@
     <row r="2519">
       <c r="A2519" t="inlineStr">
         <is>
-          <t>elə bizdə də helədir də &lt;NUM&gt; manatla &lt;NUM&gt; dəfə minmək olur</t>
+          <t>elə bizdə də helədir də &lt;NUM&gt; manatla &lt;NUM&gt; dəfə minmək ol</t>
         </is>
       </c>
       <c r="B2519" t="n">
@@ -25650,7 +25650,7 @@
     <row r="2523">
       <c r="A2523" t="inlineStr">
         <is>
-          <t>belə mövzuda filmə baxmamışdım maraqlı gəldi super filmdi</t>
+          <t>belə mövzuda filmə baxmamışdım maraqlı gəl super filmdi</t>
         </is>
       </c>
       <c r="B2523" t="n">
@@ -25690,7 +25690,7 @@
     <row r="2527">
       <c r="A2527" t="inlineStr">
         <is>
-          <t>finlandiyanı səkkiz qadın nazir idarə edir ona görə</t>
+          <t>finlandiyanı səkkiz qadın nazir idarə et ona görə</t>
         </is>
       </c>
       <c r="B2527" t="n">
@@ -25700,7 +25700,7 @@
     <row r="2528">
       <c r="A2528" t="inlineStr">
         <is>
-          <t>knyaz özünü son dərəcə təhqir olunmuş kimi göstərərək nataşanın sözlərini təkrar etdi</t>
+          <t>knyaz özünü son dərəcə təhqir olunmuş kimi göstərərək nataşanın sözlərini təkrar et</t>
         </is>
       </c>
       <c r="B2528" t="n">
@@ -25800,7 +25800,7 @@
     <row r="2538">
       <c r="A2538" t="inlineStr">
         <is>
-          <t>kiççik və orta biznes üçün əla maşındır &lt;NUM&gt; &lt;NUM&gt; litr mühərrik həcmi ilə dizel və benzin yanacaq növləri ilə işləyir görünüşü və portativliyi imkan verir ki həm ailə həm də biznes məqsədləri üçün istifadə etmək olar maksimal sürəti &lt;NUM&gt; km saatdır məhdud sayda avtomat sürətlər qutusu buraxılır standart olaraq mexaniki sürətlər qutusudur çox dözümlü və keyfiyyətli maşındır özbəkistanda və çində istehsal olunur özbəkistan həm də daevonun nexia modelin də istehsal edir azərbaycan amma bir fərli avtomobil modeli ortaya çıxartmayıb götürüb çinin lifan avtomobilinin qabağına naz sözün əlavə etmişik ən böyük uğurumuz budur bu gülənlər mırt tutanlar nə fikirləşir görəsən</t>
+          <t>kiççik və orta biznes üçün əla maşındır &lt;NUM&gt; &lt;NUM&gt; litr mühərrik həcmi ilə dizel və benzin yanacaq növləri ilə işləyir görünüşü və portativliyi imkan verir ki həm ailə həm də biznes məqsədləri üçün istifadə etmək olar maksimal sürəti &lt;NUM&gt; km saatdır məhdud sayda avtomat sürətlər qutusu buraxılır standart olaraq mexaniki sürətlər qutusudur çox dözümlü və keyfiyyətli maşındır özbəkistanda və çində istehsal olunur özbəkistan həm də daevonun nexia modelin də istehsal et azərbaycan amma bir fərli avtomobil modeli ortaya çıxartmayıb götürüb çinin lifan avtomobilinin qabağına naz sözün əlavə etmişik ən böyük uğurumuz budur bu gülənlər mırt tutanlar nə fikirləşir görəsən</t>
         </is>
       </c>
       <c r="B2538" t="n">
@@ -25836,7 +25836,7 @@
     <row r="2542">
       <c r="A2542" t="inlineStr">
         <is>
-          <t>sevgi tək kişi ilə qadının arasında olmur əlbəttə məsələn &lt;NUM&gt; illik sevgim var mənim nə olmasından aslı olmayaraq hər səhvində ən pis dönəmində heç əlini_NEG buraxmadan_NEG bezmədən_NEG sıxılmadan sevirəm onu günümüz mübarək ürəyimin komandası</t>
+          <t>sevgi tək kişi ilə qadının arasında olmur əlbəttə məsələn &lt;NUM&gt; illik sevgim var mənim nə olmasından aslı olmayaraq hər səhvində ən pis dönəmində heç əlini_NEG buraxmadan_NEG bezmədən_NEG sıxılmadan sev onu günümüz mübarək ürəyimin komandası</t>
         </is>
       </c>
       <c r="B2542" t="n">
@@ -25846,7 +25846,7 @@
     <row r="2543">
       <c r="A2543" t="inlineStr">
         <is>
-          <t>camaat &lt;NUM&gt; min km den əməliyyat edir bizim müəllimlerde fond pulu yığır direktor &lt;NUM&gt; manat şapka yığır yaxsilara aid deyil ancaq_NEG mektebde_NEG qaynan_NEG gelinin qiybet ocağı bazar bir tek tehsil tada düşmür</t>
+          <t>camaat &lt;NUM&gt; min km den əməliyyat et bizim müəllimlerde fond pulu yığır direktor &lt;NUM&gt; manat şapka yığır yaxsilara aid deyil ancaq_NEG mektebde_NEG qaynan_NEG gelinin qiybet ocağı bazar bir tek tehsil tada düşmür</t>
         </is>
       </c>
       <c r="B2543" t="n">
@@ -25986,7 +25986,7 @@
     <row r="2557">
       <c r="A2557" t="inlineStr">
         <is>
-          <t>ala yeke oglansan men qadinin altinda bidene olsun ucuz masin gormemisem hemde qadin o maasla hersey ede bilir bes kisi</t>
+          <t>ala yeke oglansan men qadinin altinda bidene olsun ucuz masin gormemisem hemde qadin o maasla hersey ede bil bes kisi</t>
         </is>
       </c>
       <c r="B2557" t="n">
@@ -25996,7 +25996,7 @@
     <row r="2558">
       <c r="A2558" t="inlineStr">
         <is>
-          <t>ölkədə spirtli içkilər və tütün məmulatlarının reklamı qadagan deyildi məyər bu nətər olur ki şəhərin mərkəzində araq butulkasını reklam ücün yerləşdirirlər hec kəsin də vecinə deyil</t>
+          <t>ölkədə spirtli içkilər və tütün məmulatlarının reklamı qadagan deyildi məyər bu nətər ol ki şəhərin mərkəzində araq butulkasını reklam ücün yerləşdirirlər hec kəsin də vecinə deyil</t>
         </is>
       </c>
       <c r="B2558" t="n">
@@ -26166,7 +26166,7 @@
     <row r="2575">
       <c r="A2575" t="inlineStr">
         <is>
-          <t>dükanda malın yanında yazılan kredit qiyməti ilə kassada olan kredit qiymətinin arasında fərq var fərq komissiyadan irəli gəlir əgər komissiya kreditlə alınan malın üzərində mütləq varsa bu başdan malın üzərində yazılmalı ya bildirilməlidir reallıqda isə malın üzərində yalnız &lt;NUM&gt; rəqəm olur nağd və kredit qiyməti nağd kassada olduğu kimi qalsa da kredit qiymətinin üzərinə əlavə komissiya &lt;NUM&gt; &lt;NUM&gt; faiz arasında gəlir bu barədə nə məhsulun üzərində nə də işçilər tərəfindən deyilmir məqsən alıcını kassaya kimi çatdırmaqdır bu yolu keçən adamların böyük hissəsi isə qarşılaşdığı əlavə ödəniş ilə barışmış olur beləliklə dükan alıcını aldatmış olur</t>
+          <t>dükanda malın yanında yazılan kredit qiyməti ilə kassada olan kredit qiymətinin arasında fərq var fərq komissiyadan irəli gəl əgər komissiya kreditlə alınan malın üzərində mütləq varsa bu başdan malın üzərində yazılmalı ya bildirilməlidir reallıqda isə malın üzərində yalnız &lt;NUM&gt; rəqəm ol nağd və kredit qiyməti nağd kassada olduğu kimi qalsa da kredit qiymətinin üzərinə əlavə komissiya &lt;NUM&gt; &lt;NUM&gt; faiz arasında gəl bu barədə nə məhsulun üzərində nə də işçilər tərəfindən deyilmir məqsən alıcını kassaya kimi çatdırmaqdır bu yolu keçən adamların böyük hissəsi isə qarşılaşdığı əlavə ödəniş ilə barışmış ol beləliklə dükan alıcını aldatmış ol</t>
         </is>
       </c>
       <c r="B2575" t="n">
@@ -26216,7 +26216,7 @@
     <row r="2580">
       <c r="A2580" t="inlineStr">
         <is>
-          <t>ilk dəfə eşitdim maraqlıdı məlumat oldu</t>
+          <t>ilk dəfə eşitdim maraqlıdı məlumat ol</t>
         </is>
       </c>
       <c r="B2580" t="n">
@@ -26246,7 +26246,7 @@
     <row r="2583">
       <c r="A2583" t="inlineStr">
         <is>
-          <t>aya gedende bir baxdin kosmik gemini idare eden deyir yupiterde dusen var</t>
+          <t>aya gedende bir baxdin kosmik gemini idare eden de yupiterde dusen var</t>
         </is>
       </c>
       <c r="B2583" t="n">
@@ -26256,7 +26256,7 @@
     <row r="2584">
       <c r="A2584" t="inlineStr">
         <is>
-          <t>düşünün yazıq qar əziyyət çəkib &lt;NUM&gt; saat yol gəlir ki gəlib düşsün aşıq mübarizin başına</t>
+          <t>düşünün yazıq qar əziyyət çəkib &lt;NUM&gt; saat yol gəl ki gəlib düşsün aşıq mübarizin başına</t>
         </is>
       </c>
       <c r="B2584" t="n">
@@ -26276,7 +26276,7 @@
     <row r="2586">
       <c r="A2586" t="inlineStr">
         <is>
-          <t>bizim olkenin bedbextliyi yemekdedi bu olkede qarin qardaşda irelidi meseli boşna deyil zavod_NEG coreyi_NEG et_NEG camat kasibliqi bildrmek ucun nece aydi et yemirem deyir vizyonsuzliqdj bu millete kim oyretdiki ye emele gel yemesen xestelenersen eksine imam eli deyir insana butun xestelik medesinden gelir</t>
+          <t>bizim olkenin bedbextliyi yemekdedi bu olkede qarin qardaşda irelidi meseli boşna deyil zavod_NEG coreyi_NEG et_NEG camat kasibliqi bildrmek ucun nece aydi et yemirem de vizyonsuzliqdj bu millete kim oyretdiki ye emele gel yemesen xestelenersen eksine imam eli de insana butun xestelik medesinden gelir</t>
         </is>
       </c>
       <c r="B2586" t="n">
@@ -26306,7 +26306,7 @@
     <row r="2589">
       <c r="A2589" t="inlineStr">
         <is>
-          <t>çeşidlər boldur tez tez ucuzlaşmalar olur &lt;NUM&gt; manat kampaniyası xoşuma gəlir meyvələrin qablaşdırılması gigiyenik cəhətdən əlverişlidir</t>
+          <t>çeşidlər boldur tez tez ucuzlaşmalar ol &lt;NUM&gt; manat kampaniyası xoşuma gəl meyvələrin qablaşdırılması gigiyenik cəhətdən əlverişlidir</t>
         </is>
       </c>
       <c r="B2589" t="n">
@@ -26336,7 +26336,7 @@
     <row r="2592">
       <c r="A2592" t="inlineStr">
         <is>
-          <t>boş şeydi hədiyyə filan dünən hədiyyəni aldım gecə ayrıldıq yaxşı ki ayrıldım</t>
+          <t>boş şeydi hədiyyə filan dünən hədiyyəni al gecə ayrıldıq yaxşı ki ayrıldım</t>
         </is>
       </c>
       <c r="B2592" t="n">
@@ -26426,7 +26426,7 @@
     <row r="2601">
       <c r="A2601" t="inlineStr">
         <is>
-          <t>azərbaycan kimi gözəl xalq dünyanın heç yerində_NEG yoxdu_NEG bəzi_NEG ağzı əyrilər yazacağımı elədi belə ona demək istəyirəm ki ölkədən çix gör nəvar nəyox dünyada</t>
+          <t>azərbaycan kimi gözəl xalq dünyanın heç yerində_NEG yoxdu_NEG bəzi_NEG ağzı əyrilər yazacağımı elədi belə ona demək istə ki ölkədən çix gör nəvar nəyox dünyada</t>
         </is>
       </c>
       <c r="B2601" t="n">
@@ -26456,7 +26456,7 @@
     <row r="2604">
       <c r="A2604" t="inlineStr">
         <is>
-          <t>daşdan pul çıxartmaq məsəli bu adamnan gəlir yəqin</t>
+          <t>daşdan pul çıxartmaq məsəli bu adamnan gəl yəqin</t>
         </is>
       </c>
       <c r="B2604" t="n">
@@ -26566,7 +26566,7 @@
     <row r="2615">
       <c r="A2615" t="inlineStr">
         <is>
-          <t>gelinliyimi bu shirketden goturdum kobud ve mehsuliyyetsiz reftarlarina gore gelinlere meslehet gormurem beh almaq xetrine paltari istediyinz kimi duzeldecem deye soz verdiler bir gun qabaq ise gelinliyi goturmeye gelende geyinib baxmaq olmaz dediler uzun mubahiseden sonra mudriyyete zeng edib icaze alaraq geyinib baxdim xoshuma gelmedi derzi yoxdur dediler_NEG ozleri_NEG duzeltdi_NEG basqa sechimim yox idi_NEG deye_NEG uzatmadim_NEG uzur bele istemedi xanim bele olmali imish kimi davrandi gelinlik meni butun merasim boyu narahat etdi çox narazi qaldim bu az imish kimi toyun sabah ki gunu mene zeng edib kobud shekilde gelinliyi &lt;NUM&gt; &lt;NUM&gt; kimi getirmeseniz depositiniz &lt;NUM&gt; odenish etmisdim batacaq dediler halbuki bu barede onceden hec bir melumat vermemishdiler hec kese burdan gelinliyini goturmeyi meslehet gormurem xosh gununuzu bele neqativ ve xoshagelmez hallarin korlamagina icaze vermeyin</t>
+          <t>gelinliyimi bu shirketden goturdum kobud ve mehsuliyyetsiz reftarlarina gore gelinlere meslehet gormurem beh almaq xetrine paltari istediyinz kimi duzeldecem deye soz verdiler bir gun qabaq ise gelinliyi goturmeye gelende geyinib baxmaq olmaz dediler uzun mubahiseden sonra mudriyyete zeng edib icaze alaraq geyinib baxdim xoshuma gelmedi derzi yoxdur dediler_NEG ozleri_NEG duzeltdi_NEG basqa sechimim yox idi_NEG deye_NEG uzatmadim_NEG uzur bele istemedi xanim bele olmali imish kimi davrandi gelinlik meni butun merasim boyu narahat et çox narazi qaldim bu az imish kimi toyun sabah ki gunu mene zeng edib kobud shekilde gelinliyi &lt;NUM&gt; &lt;NUM&gt; kimi getirmeseniz depositiniz &lt;NUM&gt; odenish etmisdim batacaq dediler halbuki bu barede onceden hec bir melumat vermemishdiler hec kese burdan gelinliyini goturmeyi meslehet gormurem xosh gununuzu bele neqativ ve xoshagelmez hallarin korlamagina icaze vermeyin</t>
         </is>
       </c>
       <c r="B2615" t="n">
@@ -26636,7 +26636,7 @@
     <row r="2622">
       <c r="A2622" t="inlineStr">
         <is>
-          <t>narahat olmayın bizim alimler de kişilerin gelecekde doğması üçün elinden gelen her şeyi edir</t>
+          <t>narahat olmayın bizim alimler de kişilerin gelecekde doğması üçün elinden gelen her şeyi et</t>
         </is>
       </c>
       <c r="B2622" t="n">
@@ -26696,7 +26696,7 @@
     <row r="2628">
       <c r="A2628" t="inlineStr">
         <is>
-          <t>xanımlar hərzaman gözəldir bə hərzamn ən gözəlinə layiqdir deyə gün məsələsi boş şeydi özünü sevib özünü dəyərləndirdilər sonra hər gün mənimçün bayramdı amma bu qız adı ilə sosial şəbəkədə gəzən qaqaşlar yazıqdı onları ən azından bugun təbrik edirəm bayramınız mübarək</t>
+          <t>xanımlar hərzaman gözəl bə hərzamn ən gözəlinə layiqdir deyə gün məsələsi boş şeydi özünü sevib özünü dəyərləndirdilər sonra hər gün mənimçün bayramdı amma bu qız adı ilə sosial şəbəkədə gəzən qaqaşlar yazıqdı onları ən azından bugun təbrik edirəm bayramınız mübarək</t>
         </is>
       </c>
       <c r="B2628" t="n">
@@ -26716,7 +26716,7 @@
     <row r="2630">
       <c r="A2630" t="inlineStr">
         <is>
-          <t>qan deyir bir kruq vurum gəlləm</t>
+          <t>qan de bir kruq vurum gəlləm</t>
         </is>
       </c>
       <c r="B2630" t="n">
@@ -26736,7 +26736,7 @@
     <row r="2632">
       <c r="A2632" t="inlineStr">
         <is>
-          <t>azərbaycanın daha gözəl rüşvətsiz yaşana bilir avropa ölkələri sırasında olmasını</t>
+          <t>azərbaycanın daha gözəl rüşvətsiz yaşana bil avropa ölkələri sırasında olmasını</t>
         </is>
       </c>
       <c r="B2632" t="n">
@@ -26786,7 +26786,7 @@
     <row r="2637">
       <c r="A2637" t="inlineStr">
         <is>
-          <t>özüm ölüm bundan indiyə kimi bizim məhlədə sona səmayə xala var ən pasledni radar qələt edir səmayə xalanın yanında</t>
+          <t>özüm ölüm bundan indiyə kimi bizim məhlədə sona səmayə xala var ən pasledni radar qələt et səmayə xalanın yanında</t>
         </is>
       </c>
       <c r="B2637" t="n">
@@ -26846,7 +26846,7 @@
     <row r="2643">
       <c r="A2643" t="inlineStr">
         <is>
-          <t>süni qiymət artımı və inhisarçılıq baş alıb gedir və buna qarşı heç bir_NEG tədbir_NEG görülmür_NEG</t>
+          <t>süni qiymət artımı və inhisarçılıq baş alıb get və buna qarşı heç bir_NEG tədbir_NEG görülmür_NEG</t>
         </is>
       </c>
       <c r="B2643" t="n">
@@ -26876,7 +26876,7 @@
     <row r="2646">
       <c r="A2646" t="inlineStr">
         <is>
-          <t>o &lt;NUM&gt; dolları xərcləyib qayıdırsan ölkəyə nəvələrə anlatacaq hekayən olur baban cavanlıqda pulu çəmadanla xərcləyirdi</t>
+          <t>o &lt;NUM&gt; dolları xərcləyib qayıdırsan ölkəyə nəvələrə anlatacaq hekayən ol baban cavanlıqda pulu çəmadanla xərcləyirdi</t>
         </is>
       </c>
       <c r="B2646" t="n">
@@ -26886,7 +26886,7 @@
     <row r="2647">
       <c r="A2647" t="inlineStr">
         <is>
-          <t>qorxunc qəzəbli qoca bir anda xırdaca bir uşaqdan da zəif oldu</t>
+          <t>qorxunc qəzəbli qoca bir anda xırdaca bir uşaqdan da zəif ol</t>
         </is>
       </c>
       <c r="B2647" t="n">
@@ -27076,7 +27076,7 @@
     <row r="2666">
       <c r="A2666" t="inlineStr">
         <is>
-          <t>bu filmdəki dublaj xoş təsir bağışladı emin nəsirlinin yenidən səsin eşitməy çox xoş oldu növbəti filmlərdə vüsal murtuzəliyev'də görməy istiyərdik lazımdırsa aylığı minumum &lt;NUM&gt; manat edin biz ödəyərik ancağ dublajçıların sayın artırın və keyfiyyəti dahada yüksəldin biz tamaşaçılarda əlimizdən gələn köməkliyi edəriy</t>
+          <t>bu filmdəki dublaj xoş təsir bağışladı emin nəsirlinin yenidən səsin eşitməy çox xoş ol növbəti filmlərdə vüsal murtuzəliyev'də görməy istiyərdik lazımdırsa aylığı minumum &lt;NUM&gt; manat edin biz ödəyərik ancağ dublajçıların sayın artırın və keyfiyyəti dahada yüksəldin biz tamaşaçılarda əlimizdən gələn köməkliyi edəriy</t>
         </is>
       </c>
       <c r="B2666" t="n">
@@ -27096,7 +27096,7 @@
     <row r="2668">
       <c r="A2668" t="inlineStr">
         <is>
-          <t>salam mən &lt;NUM&gt; telefonunun abanentiyəm aprelin &lt;NUM&gt; də onlayn qaydada szə &lt;NUM&gt; manat köçürmüşəm bu gün &lt;NUM&gt; də internetimiz işləmədi baxıram ki &lt;NUM&gt; manat borc ats zəng vurdum dedilər ki kapital bankdan öyrənin ola bilsin köçməyib öyrəndim onlar da təsdiq etdilər ki köçüb sizin &lt;NUM&gt; nömrənizlə əkaqə saxlamaq itədim iki telefonumdan &lt;NUM&gt; manata qədər pul getdi növbəm çatmadı ki aperatorla danışım kapitalbank mənə &lt;NUM&gt; manatın köçməsinin təsdiq kodunu da təqdim etdi phone hazırda internetimiz işləmir xahiş edirəm araşdırasınız həll edəsiniz</t>
+          <t>salam mən &lt;NUM&gt; telefonunun abanentiyəm aprelin &lt;NUM&gt; də onlayn qaydada szə &lt;NUM&gt; manat köçürmüşəm bu gün &lt;NUM&gt; də internetimiz işləmədi baxıram ki &lt;NUM&gt; manat borc ats zəng vurdum dedilər ki kapital bankdan öyrənin ola bilsin köçməyib öyrəndim onlar da təsdiq etdilər ki köçüb sizin &lt;NUM&gt; nömrənizlə əkaqə saxlamaq itədim iki telefonumdan &lt;NUM&gt; manata qədər pul get növbəm çatmadı ki aperatorla danışım kapitalbank mənə &lt;NUM&gt; manatın köçməsinin təsdiq kodunu da təqdim et phone hazırda internetimiz işləmir xahiş edirəm araşdırasınız həll edəsiniz</t>
         </is>
       </c>
       <c r="B2668" t="n">
@@ -27136,7 +27136,7 @@
     <row r="2672">
       <c r="A2672" t="inlineStr">
         <is>
-          <t>onu başa düşməli insanların &lt;NUM&gt; faizinin heç içığı_NEG yoxdu_NEG qaldı_NEG ki interneti ola girib bunları öyrənə bunun üçün insanın savadlanması yaşam şəraitinin yüksəlməsi lazımdı afrika asiya ölkələrinin əksərində belə şərait olmadığına görə artım da sürətlə davam edir</t>
+          <t>onu başa düşməli insanların &lt;NUM&gt; faizinin heç içığı_NEG yoxdu_NEG qaldı_NEG ki interneti ola girib bunları öyrənə bunun üçün insanın savadlanması yaşam şəraitinin yüksəlməsi lazımdı afrika asiya ölkələrinin əksərində belə şərait olmadığına görə artım da sürətlə davam et</t>
         </is>
       </c>
       <c r="B2672" t="n">
@@ -27226,7 +27226,7 @@
     <row r="2681">
       <c r="A2681" t="inlineStr">
         <is>
-          <t>yetişdi toy axşamı durun yandırın şamı bəzək vurun araikin əlindəkini dallna gəlir dtx oglanları</t>
+          <t>yetişdi toy axşamı durun yandırın şamı bəzək vurun araikin əlindəkini dallna gəl dtx oglanları</t>
         </is>
       </c>
       <c r="B2681" t="n">
@@ -27286,7 +27286,7 @@
     <row r="2687">
       <c r="A2687" t="inlineStr">
         <is>
-          <t>bakı şəhəri həqiqətən sürətlə genişlənir və yeni tikililər artır yaşamaq üçün ideal olan city garden narimanov kompleksi bunun bir nümunəsidir şəhərin mərkəzinə yaxınlığı geniş həyət və infrastruktur istirahət və oyun mövqeləri bu kompleksi çox cazibəli edir tam təmirli mənzillər və ödəniş planları da təklif olunur ətraflı məlumat almaq üçün nömrəyə zəng edə bilərsiniz</t>
+          <t>bakı şəhəri həqiqətən sürətlə genişlənir və yeni tikililər artır yaşamaq üçün ideal olan city garden narimanov kompleksi bunun bir nümunəsidir şəhərin mərkəzinə yaxınlığı geniş həyət və infrastruktur istirahət və oyun mövqeləri bu kompleksi çox cazibəli et tam təmirli mənzillər və ödəniş planları da təklif olunur ətraflı məlumat almaq üçün nömrəyə zəng edə bilərsiniz</t>
         </is>
       </c>
       <c r="B2687" t="n">
@@ -27356,7 +27356,7 @@
     <row r="2694">
       <c r="A2694" t="inlineStr">
         <is>
-          <t>etdiyim sifarişləri rahat gətirib çatdıran karqodur ünvan olaraq da mənə yaxındır və online çatı vasitəsilə əməkdaşlarının köməyi çox olur</t>
+          <t>etdiyim sifarişləri rahat gətirib çatdıran karqodur ünvan olaraq da mənə yaxındır və online çatı vasitəsilə əməkdaşlarının köməyi çox ol</t>
         </is>
       </c>
       <c r="B2694" t="n">
@@ -27516,7 +27516,7 @@
     <row r="2710">
       <c r="A2710" t="inlineStr">
         <is>
-          <t>sual verənin geyimindən yaxşıdır</t>
+          <t>sual verənin geyimindən yaxşı</t>
         </is>
       </c>
       <c r="B2710" t="n">
@@ -27896,7 +27896,7 @@
     <row r="2748">
       <c r="A2748" t="inlineStr">
         <is>
-          <t>dekabrda sərt karantin başlamadan bir gün əvvəl kostyum bəyəndim hədiyyəlik dedilər kostyumu götürüb pulu ödəyin biz kassaya vurmuruq pulu əgər uyğun olsa deyərsiz vurarıq olmasa da qaytararsız yoxladılar uyğun olmadı səhəri gün zəng elədim dedi bizdə artıq mağaza bağlanır yanvarın &lt;NUM&gt; açılacaq biz sizi çox çətinə salmarıq mağazaya gələndə zəng edərəm gətirərsiz kostyumu dedim okey təbii ki heç bir_NEG zəng_NEG gəlmədi_NEG nömrələrinə də zəng çatmır yanvarın axırı mağaza açılanda apardım qaytardım dedim bəs belə olub boyunlarına almadılar dedilər bu qalsın satılsın pulunu verərik dedim nə qədər vaxta dedi &lt;NUM&gt; həftəyə artıq &lt;NUM&gt; ay keçib lady sharma zəng çatmır bir dəfə getdim yoxlama var idi içəri buraxmadılar hər dəfə getməyə də vaxtım yoxdu bu məsələ tarqovi filialında olub kart hesabımı da alıblar pulu yükləmək üçün dəftərə də qeyd ediblər</t>
+          <t>dekabrda sərt karantin başlamadan bir gün əvvəl kostyum bəyən hədiyyəlik dedilər kostyumu götürüb pulu ödəyin biz kassaya vurmuruq pulu əgər uyğun olsa deyərsiz vurarıq olmasa da qaytararsız yoxladılar uyğun olmadı səhəri gün zəng elədim dedi bizdə artıq mağaza bağlanır yanvarın &lt;NUM&gt; açılacaq biz sizi çox çətinə salmarıq mağazaya gələndə zəng edərəm gətirərsiz kostyumu dedim okey təbii ki heç bir_NEG zəng_NEG gəlmədi_NEG nömrələrinə də zəng çatmır yanvarın axırı mağaza açılanda apardım qaytardım dedim bəs belə olub boyunlarına almadılar dedilər bu qalsın satılsın pulunu verərik dedim nə qədər vaxta dedi &lt;NUM&gt; həftəyə artıq &lt;NUM&gt; ay keçib lady sharma zəng çatmır bir dəfə getdim yoxlama var idi içəri buraxmadılar hər dəfə getməyə də vaxtım yoxdu bu məsələ tarqovi filialında olub kart hesabımı da alıblar pulu yükləmək üçün dəftərə də qeyd ediblər</t>
         </is>
       </c>
       <c r="B2748" t="n">
@@ -28376,7 +28376,7 @@
     <row r="2796">
       <c r="A2796" t="inlineStr">
         <is>
-          <t>baxanda sıxıntı gəldi mənə gedib əyani şəkildə görsəm nələr yaşayaram heç düşünmək_NEG istəmirəm_NEG</t>
+          <t>baxanda sıxıntı gəl mənə gedib əyani şəkildə görsəm nələr yaşayaram heç düşünmək_NEG istəmirəm_NEG</t>
         </is>
       </c>
       <c r="B2796" t="n">
@@ -28406,7 +28406,7 @@
     <row r="2799">
       <c r="A2799" t="inlineStr">
         <is>
-          <t>evveller poziciyada çox postlarda qaz saxliyirdilar çox şuven olur ses kuy tez salirlar herden gece tulku gelib qirirdi oyna gulum onnan sonra basliyirdi</t>
+          <t>evveller poziciyada çox postlarda qaz saxliyirdilar çox şuven ol ses kuy tez salirlar herden gece tulku gelib qirirdi oyna gulum onnan sonra basliyirdi</t>
         </is>
       </c>
       <c r="B2799" t="n">
@@ -28496,7 +28496,7 @@
     <row r="2808">
       <c r="A2808" t="inlineStr">
         <is>
-          <t>yaxşı söyüş yazmaq gəlir içimdən</t>
+          <t>yaxşı söyüş yazmaq gəl içimdən</t>
         </is>
       </c>
       <c r="B2808" t="n">
@@ -28756,7 +28756,7 @@
     <row r="2834">
       <c r="A2834" t="inlineStr">
         <is>
-          <t>guc ve pul agli yerindedi eksine azalmaga dogru gedir</t>
+          <t>guc ve pul agli yerindedi eksine azalmaga dogru get</t>
         </is>
       </c>
       <c r="B2834" t="n">
@@ -28846,7 +28846,7 @@
     <row r="2843">
       <c r="A2843" t="inlineStr">
         <is>
-          <t>ıı dünya müharibəsinin müttəfiqləri hitlerin nəvələri məğlub oldu argentina almaniya uduzdu belə getsə çox süprizlər olacaq bu yaşıma kimi çempionatlarda həmişə italiyanı dəstəkləmişəm bu ilki dünya çempionatı mənə maraqsız gəlir fransanı &lt;NUM&gt; lükdə görürəm</t>
+          <t>ıı dünya müharibəsinin müttəfiqləri hitlerin nəvələri məğlub ol argentina almaniya uduzdu belə getsə çox süprizlər olacaq bu yaşıma kimi çempionatlarda həmişə italiyanı dəstəkləmişəm bu ilki dünya çempionatı mənə maraqsız gəl fransanı &lt;NUM&gt; lükdə görürəm</t>
         </is>
       </c>
       <c r="B2843" t="n">
@@ -28866,7 +28866,7 @@
     <row r="2845">
       <c r="A2845" t="inlineStr">
         <is>
-          <t>çoxu pisdi deyir amma heç bir_NEG nə_NEG nar_NEG nədə cin belə bir konpanya yaratmirki &lt;NUM&gt; azna &lt;NUM&gt; gb vəya hər həfdə carx fırladasan düzdü nntv girib ömrümüzə amma yaşasın azarsell</t>
+          <t>çoxu pis de amma heç bir_NEG nə_NEG nar_NEG nədə cin belə bir konpanya yaratmirki &lt;NUM&gt; azna &lt;NUM&gt; gb vəya hər həfdə carx fırladasan düzdü nntv girib ömrümüzə amma yaşasın azarsell</t>
         </is>
       </c>
       <c r="B2845" t="n">
@@ -28886,7 +28886,7 @@
     <row r="2847">
       <c r="A2847" t="inlineStr">
         <is>
-          <t>admin yeri gəldi gəlmədi inancdır da hörmət edək yazırsız</t>
+          <t>admin yeri gəl gəlmədi inancdır da hörmət edək yazırsız</t>
         </is>
       </c>
       <c r="B2847" t="n">
@@ -28936,7 +28936,7 @@
     <row r="2852">
       <c r="A2852" t="inlineStr">
         <is>
-          <t>bu saytdakı filmləri açmaq olmur köməklik edin hər iki sosial şəbəkədı yazmışam amma baxmamasız mesaja abone olmyşam pulumda boşuna gedir</t>
+          <t>bu saytdakı filmləri açmaq olmur köməklik edin hər iki sosial şəbəkədı yazmışam amma baxmamasız mesaja abone olmyşam pulumda boşuna get</t>
         </is>
       </c>
       <c r="B2852" t="n">
@@ -29016,7 +29016,7 @@
     <row r="2860">
       <c r="A2860" t="inlineStr">
         <is>
-          <t>çox gözəl ifa edirlər zövq aldım</t>
+          <t>çox gözəl ifa edirlər zövq al</t>
         </is>
       </c>
       <c r="B2860" t="n">
@@ -29136,7 +29136,7 @@
     <row r="2872">
       <c r="A2872" t="inlineStr">
         <is>
-          <t>məndə bakınin köhnə illərini sevirəm basqa bir həyat vardı bəlkədə köhnə binalar balaca avtobuslar amma basqa bir füsunkar gözəllk</t>
+          <t>məndə bakınin köhnə illərini sev basqa bir həyat vardı bəlkədə köhnə binalar balaca avtobuslar amma basqa bir füsunkar gözəllk</t>
         </is>
       </c>
       <c r="B2872" t="n">
@@ -29146,7 +29146,7 @@
     <row r="2873">
       <c r="A2873" t="inlineStr">
         <is>
-          <t>nə vaxt girirəm sistemdə işlər gedir nə qədər olar axı bezdirdiz daha bu işi bacarmırsız çıxın rəddolunda</t>
+          <t>nə vaxt girirəm sistemdə işlər get nə qədər olar axı bezdirdiz daha bu işi bacarmırsız çıxın rəddolunda</t>
         </is>
       </c>
       <c r="B2873" t="n">
@@ -29156,7 +29156,7 @@
     <row r="2874">
       <c r="A2874" t="inlineStr">
         <is>
-          <t>salam hər vaxtınız xeyir şikayətim baku electronics in texniki xidmətindəndir &lt;NUM&gt; oktyabr &lt;NUM&gt; tarixində &lt;NUM&gt; illik qarantiya ilə gigaset &lt;NUM&gt; ev telefonu aldım son &lt;NUM&gt; aydır ekrani demək olar işləmir ekrandakı yazıları zülümlə görmək olur istifadə üçün çox narahatdır apardım aldığım əhmədli filialına ordan da texniki xidmətə yönləndirdilər səhəri gün cavab gədli ki bu telefonun içinə su düşüb düzəlməyəcək gəl götür bu gün götürəndə baxıram ekranda ümumiyyətlə görüntü yoxdu təmirə gətirməmişdən qabaq heç olmasa_NEG zəng_NEG edəni_NEG menyunu hərfləri pis də olsa görürdüm indi ümumiyyətlə sıfır vəziyyətindədir texniki xidmətdəki dayı da qayıtdı ki gətirəndə elə belə idi heş zad telefonu da vurdum qoltuğuma suyu süzülə süzülə qayıtdım və özümə söz verdim ki birinci və axırıncı dəfə olsun baku electronicsə ayaq basım nə bilim bəlkə də təmir zamanı ekranın evvəlkindən bərbad olmağı normaldı amma istənilən halda müştəri üçün məmnuniyyətsizlikdir fakt o ki təmirdən öncə telefon gələn zəngi sahibin adını pis də olsa oxuya bilirdim ps boş vaxtlarımı fotodakı qaqaş kimi əlimdə kardon əhmədli metro stansiyası ətrafında keçirməyi düşünürəm</t>
+          <t>salam hər vaxtınız xeyir şikayətim baku electronics in texniki xidmətindəndir &lt;NUM&gt; oktyabr &lt;NUM&gt; tarixində &lt;NUM&gt; illik qarantiya ilə gigaset &lt;NUM&gt; ev telefonu al son &lt;NUM&gt; aydır ekrani demək olar işləmir ekrandakı yazıları zülümlə görmək ol istifadə üçün çox narahatdır apardım aldığım əhmədli filialına ordan da texniki xidmətə yönləndirdilər səhəri gün cavab gədli ki bu telefonun içinə su düşüb düzəlməyəcək gəl götür bu gün götürəndə baxıram ekranda ümumiyyətlə görüntü yoxdu təmirə gətirməmişdən qabaq heç olmasa_NEG zəng_NEG edəni_NEG menyunu hərfləri pis də olsa görürdüm indi ümumiyyətlə sıfır vəziyyətindədir texniki xidmətdəki dayı da qayıtdı ki gətirəndə elə belə idi heş zad telefonu da vurdum qoltuğuma suyu süzülə süzülə qayıtdım və özümə söz verdim ki birinci və axırıncı dəfə olsun baku electronicsə ayaq basım nə bilim bəlkə də təmir zamanı ekranın evvəlkindən bərbad olmağı normaldı amma istənilən halda müştəri üçün məmnuniyyətsizlikdir fakt o ki təmirdən öncə telefon gələn zəngi sahibin adını pis də olsa oxuya bilirdim ps boş vaxtlarımı fotodakı qaqaş kimi əlimdə kardon əhmədli metro stansiyası ətrafında keçirməyi düşünürəm</t>
         </is>
       </c>
       <c r="B2874" t="n">
@@ -29176,7 +29176,7 @@
     <row r="2876">
       <c r="A2876" t="inlineStr">
         <is>
-          <t>uje yavas yavas cin avtomobil sayesinde inqilab edir yaxin illerde cin dunya avtomobil sahesine liderlik edecek</t>
+          <t>uje yavas yavas cin avtomobil sayesinde inqilab et yaxin illerde cin dunya avtomobil sahesine liderlik edecek</t>
         </is>
       </c>
       <c r="B2876" t="n">
@@ -29506,7 +29506,7 @@
     <row r="2909">
       <c r="A2909" t="inlineStr">
         <is>
-          <t>yaxşıki new york'da yaşamıram bizim ştatda hava yaxşıdı şükr</t>
+          <t>yaxşıki new york'da yaşamıram bizim ştatda hava yaxşı şükr</t>
         </is>
       </c>
       <c r="B2909" t="n">
@@ -29556,7 +29556,7 @@
     <row r="2914">
       <c r="A2914" t="inlineStr">
         <is>
-          <t>bugüne kadar yediğim en küçük ve malzemesi en az &lt;NUM&gt; cm pizza bu oldu baska restaurantdan &lt;NUM&gt; cm pizza söylüyorum bundan daha cok malzemeli ve daha büyük bu işde bir terslik var yani begenmedim tavsiye etmem arkadaşlarıma maalesef</t>
+          <t>bugüne kadar yediğim en küçük ve malzemesi en az &lt;NUM&gt; cm pizza bu ol baska restaurantdan &lt;NUM&gt; cm pizza söylüyorum bundan daha cok malzemeli ve daha büyük bu işde bir terslik var yani begenmedim tavsiye etmem arkadaşlarıma maalesef</t>
         </is>
       </c>
       <c r="B2914" t="n">
@@ -29576,7 +29576,7 @@
     <row r="2916">
       <c r="A2916" t="inlineStr">
         <is>
-          <t>&lt;NUM&gt; dən başqa iphone isletmemisem ama ümumi göstəricilərə görə xioami məncə ondan guclu və qiymətlərdə də münasibdir keçən il çindən sifariş verdim poco &lt;NUM&gt; pro &lt;NUM&gt; &lt;NUM&gt; &lt;NUM&gt; azn oldu halbuki o vaxt azərbaycan da &lt;NUM&gt; manat idi almaq istəyənlərə poco &lt;NUM&gt; gt məsləhət görərdim</t>
+          <t>&lt;NUM&gt; dən başqa iphone isletmemisem ama ümumi göstəricilərə görə xioami məncə ondan guclu və qiymətlərdə də münasibdir keçən il çindən sifariş verdim poco &lt;NUM&gt; pro &lt;NUM&gt; &lt;NUM&gt; &lt;NUM&gt; azn ol halbuki o vaxt azərbaycan da &lt;NUM&gt; manat idi almaq istəyənlərə poco &lt;NUM&gt; gt məsləhət görərdim</t>
         </is>
       </c>
       <c r="B2916" t="n">
@@ -29626,7 +29626,7 @@
     <row r="2921">
       <c r="A2921" t="inlineStr">
         <is>
-          <t>nə gözəldi allah hamımıza can sağlığ vetsin inşallah hamıya qismət olar</t>
+          <t>nə gözəl allah hamımıza can sağlığ vetsin inşallah hamıya qismət olar</t>
         </is>
       </c>
       <c r="B2921" t="n">
@@ -29646,7 +29646,7 @@
     <row r="2923">
       <c r="A2923" t="inlineStr">
         <is>
-          <t>hərə öz işi ilə məşğul olsun da maşın şirkəti telefon istehsal edir</t>
+          <t>hərə öz işi ilə məşğul olsun da maşın şirkəti telefon istehsal et</t>
         </is>
       </c>
       <c r="B2923" t="n">
@@ -29676,7 +29676,7 @@
     <row r="2926">
       <c r="A2926" t="inlineStr">
         <is>
-          <t>o şəhərlərdə qazanc yaxşıdı ən azından</t>
+          <t>o şəhərlərdə qazanc yaxşı ən azından</t>
         </is>
       </c>
       <c r="B2926" t="n">
@@ -29706,7 +29706,7 @@
     <row r="2929">
       <c r="A2929" t="inlineStr">
         <is>
-          <t>camahat kosmosa balıq göndərir bizimkilərdə şəhərli rayonlu söhbəti edir</t>
+          <t>camahat kosmosa balıq göndərir bizimkilərdə şəhərli rayonlu söhbəti et</t>
         </is>
       </c>
       <c r="B2929" t="n">
@@ -29796,7 +29796,7 @@
     <row r="2938">
       <c r="A2938" t="inlineStr">
         <is>
-          <t>əvvəl normal işlədi indi çox zəifdi internete girmək kino baxmaq mümkünsuz olur ged gede bilmirem artiq cixmagi dusunurem artiq bu sirketden</t>
+          <t>əvvəl normal işlədi indi çox zəifdi internete girmək kino baxmaq mümkünsuz ol ged gede bilmirem artiq cixmagi dusunurem artiq bu sirketden</t>
         </is>
       </c>
       <c r="B2938" t="n">
@@ -29886,7 +29886,7 @@
     <row r="2947">
       <c r="A2947" t="inlineStr">
         <is>
-          <t>çox derine gedirsize biz insaniqe mikeaskop altinda yawamiriq axi bu seylere fikir verdikce insan psix olur &lt;NUM&gt; dene xestelik tapar</t>
+          <t>çox derine gedirsize biz insaniqe mikeaskop altinda yawamiriq axi bu seylere fikir verdikce insan psix ol &lt;NUM&gt; dene xestelik tapar</t>
         </is>
       </c>
       <c r="B2947" t="n">
@@ -30096,7 +30096,7 @@
     <row r="2968">
       <c r="A2968" t="inlineStr">
         <is>
-          <t>bilir etibarli əllərdədi ona gorə narahat deyil</t>
+          <t>bil etibarli əllərdədi ona gorə narahat deyil</t>
         </is>
       </c>
       <c r="B2968" t="n">
@@ -30126,7 +30126,7 @@
     <row r="2971">
       <c r="A2971" t="inlineStr">
         <is>
-          <t>lap &lt;NUM&gt; cü ildə olaq chat gpt in nə olduğunu ədəbiyyat müəllimi nə etsin bunu informatika müəllimləri bilsə bəs edir şagirdlərə də öyrədəcək qulağa xoş gələn hər şey doğrudur demək deyil</t>
+          <t>lap &lt;NUM&gt; cü ildə olaq chat gpt in nə olduğunu ədəbiyyat müəllimi nə etsin bunu informatika müəllimləri bilsə bəs et şagirdlərə də öyrədəcək qulağa xoş gələn hər şey doğrudur demək deyil</t>
         </is>
       </c>
       <c r="B2971" t="n">
@@ -30156,7 +30156,7 @@
     <row r="2974">
       <c r="A2974" t="inlineStr">
         <is>
-          <t>azərbaycana gələn bütün xarab mallar kontakda gəlir &lt;NUM&gt; dəfə mal almışam sonra tövbə etmişəm</t>
+          <t>azərbaycana gələn bütün xarab mallar kontakda gəl &lt;NUM&gt; dəfə mal almışam sonra tövbə etmişəm</t>
         </is>
       </c>
       <c r="B2974" t="n">
@@ -30166,7 +30166,7 @@
     <row r="2975">
       <c r="A2975" t="inlineStr">
         <is>
-          <t>vitrində olan qiymətlə də kassa da fərq olur həmişə lazım olsa sübutda edə bilərəm</t>
+          <t>vitrində olan qiymətlə də kassa da fərq ol həmişə lazım olsa sübutda edə bilərəm</t>
         </is>
       </c>
       <c r="B2975" t="n">
@@ -30356,7 +30356,7 @@
     <row r="2994">
       <c r="A2994" t="inlineStr">
         <is>
-          <t>ən sağlam arıqlama idmanla mümkündür nə yağ nə piyin var ancaq əzələ kütləsidi kökələndə də yağ piy olmur əzələ kütləsinə gedir bir də əsas bol maye qəbuludur həyatınızdan mayeni əskik etməyin və daim hərəkətdə olun ev işi iş yoxsa idman idman yoxsa yürüyüşə çıxın</t>
+          <t>ən sağlam arıqlama idmanla mümkündür nə yağ nə piyin var ancaq əzələ kütləsidi kökələndə də yağ piy olmur əzələ kütləsinə get bir də əsas bol maye qəbuludur həyatınızdan mayeni əskik etməyin və daim hərəkətdə olun ev işi iş yoxsa idman idman yoxsa yürüyüşə çıxın</t>
         </is>
       </c>
       <c r="B2994" t="n">
@@ -30486,7 +30486,7 @@
     <row r="3007">
       <c r="A3007" t="inlineStr">
         <is>
-          <t>çox super tərcümə con uik &lt;NUM&gt; də olsa zor olar kontinental in axırı necə oldu görəsən</t>
+          <t>çox super tərcümə con uik &lt;NUM&gt; də olsa zor olar kontinental in axırı necə ol görəsən</t>
         </is>
       </c>
       <c r="B3007" t="n">
@@ -30596,7 +30596,7 @@
     <row r="3018">
       <c r="A3018" t="inlineStr">
         <is>
-          <t>ən dəhşətlisi də bunları bildiyimiz halda hələ də yeməyə davam etməyimizdir şəxsən mən həyət toyuğu yeyəndə dadı çox qəribə gəlir bu vərdişi illərlə yeridiblər cəmiyyətlərə</t>
+          <t>ən dəhşətlisi də bunları bildiyimiz halda hələ də yeməyə davam etməyimizdir şəxsən mən həyət toyuğu yeyəndə dadı çox qəribə gəl bu vərdişi illərlə yeridiblər cəmiyyətlərə</t>
         </is>
       </c>
       <c r="B3018" t="n">
@@ -30686,7 +30686,7 @@
     <row r="3027">
       <c r="A3027" t="inlineStr">
         <is>
-          <t>allah min əvəzin versin çox sağ olsunlar bu həssas və ehtiyyaclı gündə dəstək olublar son &lt;NUM&gt; gün ərzində ölkədən &lt;NUM&gt; yaxın tır türkiyəyə dəstək üçün yola düşüblər və ya hazırlaşırlar təkcə tibilisidən bu gün &lt;NUM&gt; tır çıxıb indilərdə &lt;NUM&gt; tır yüklənir əlavə olaraq &lt;NUM&gt; tır da bayırda gözləyir xalqın dəstəyi fasiləsiz olaraq davam edir</t>
+          <t>allah min əvəzin versin çox sağ olsunlar bu həssas və ehtiyyaclı gündə dəstək olublar son &lt;NUM&gt; gün ərzində ölkədən &lt;NUM&gt; yaxın tır türkiyəyə dəstək üçün yola düşüblər və ya hazırlaşırlar təkcə tibilisidən bu gün &lt;NUM&gt; tır çıxıb indilərdə &lt;NUM&gt; tır yüklənir əlavə olaraq &lt;NUM&gt; tır da bayırda gözləyir xalqın dəstəyi fasiləsiz olaraq davam et</t>
         </is>
       </c>
       <c r="B3027" t="n">
@@ -30776,7 +30776,7 @@
     <row r="3036">
       <c r="A3036" t="inlineStr">
         <is>
-          <t>mover çox operativ işləyir istər müştəri ilə münasibətləri istər çatdırılma çox tez həyata keçirilir &lt;NUM&gt; günə şifarişimi çatdırdı mover görə smart customsda heç əziyyət_NEG çəkmirəm_NEG şifarişimin_NEG çatdırılmasının bütün mərhələlərini göstərir bu çox şirkətdə yoxdur hər_NEG müştəri_NEG ilə_NEG özəl olaraq əlaqədar olur</t>
+          <t>mover çox operativ işləyir istər müştəri ilə münasibətləri istər çatdırılma çox tez həyata keçirilir &lt;NUM&gt; günə şifarişimi çatdırdı mover görə smart customsda heç əziyyət_NEG çəkmirəm_NEG şifarişimin_NEG çatdırılmasının bütün mərhələlərini göstərir bu çox şirkətdə yoxdur hər_NEG müştəri_NEG ilə_NEG özəl olaraq əlaqədar ol</t>
         </is>
       </c>
       <c r="B3036" t="n">
@@ -30796,7 +30796,7 @@
     <row r="3038">
       <c r="A3038" t="inlineStr">
         <is>
-          <t>həmişə bəxtim gətirib gətirəcəkdə nəsə düz getməyəndə düşünürəmki yaxşı nəsə gəlir</t>
+          <t>həmişə bəxtim gətirib gətirəcəkdə nəsə düz getməyəndə düşünürəmki yaxşı nəsə gəl</t>
         </is>
       </c>
       <c r="B3038" t="n">
@@ -30836,7 +30836,7 @@
     <row r="3042">
       <c r="A3042" t="inlineStr">
         <is>
-          <t>yaxşıdır tıxac problemi həll olunar</t>
+          <t>yaxşı tıxac problemi həll olunar</t>
         </is>
       </c>
       <c r="B3042" t="n">
@@ -30856,7 +30856,7 @@
     <row r="3044">
       <c r="A3044" t="inlineStr">
         <is>
-          <t>bu deyəsən hələ sumqayıta çatmayıb amerikanı təsvir edir öz bildiyi kimi</t>
+          <t>bu deyəsən hələ sumqayıta çatmayıb amerikanı təsvir et öz bildiyi kimi</t>
         </is>
       </c>
       <c r="B3044" t="n">
@@ -30886,7 +30886,7 @@
     <row r="3047">
       <c r="A3047" t="inlineStr">
         <is>
-          <t>bax görürsünüzmü elə bu bir milyon olsun onlar bu barədə o qədər boşboğazlıq edirlər ki adamın daha lap zəhləsi gedir</t>
+          <t>bax görürsünüzmü elə bu bir milyon olsun onlar bu barədə o qədər boşboğazlıq edirlər ki adamın daha lap zəhləsi get</t>
         </is>
       </c>
       <c r="B3047" t="n">
@@ -30906,7 +30906,7 @@
     <row r="3049">
       <c r="A3049" t="inlineStr">
         <is>
-          <t>çox xoş rolikdi var olun çox qəribədə heyvanın duyumu bəzən fövqəl bəşərin ən ağıllı varlığı insan üçün sirr olaraq qalır mərhəməti duyur anladıq sadiqdi anladıq vaxtı necə bilir ağlasığmaz möcüzə</t>
+          <t>çox xoş rolikdi var olun çox qəribədə heyvanın duyumu bəzən fövqəl bəşərin ən ağıllı varlığı insan üçün sirr olaraq qalır mərhəməti duyur anladıq sadiqdi anladıq vaxtı necə bil ağlasığmaz möcüzə</t>
         </is>
       </c>
       <c r="B3049" t="n">
@@ -30926,7 +30926,7 @@
     <row r="3051">
       <c r="A3051" t="inlineStr">
         <is>
-          <t>&lt;NUM&gt; milyonu &lt;NUM&gt; dollara vurdum bele bir shey cixdi ortaya anlamadim ne oldu ıphone &lt;NUM&gt; nin satishidi</t>
+          <t>&lt;NUM&gt; milyonu &lt;NUM&gt; dollara vurdum bele bir shey cixdi ortaya anlamadim ne ol ıphone &lt;NUM&gt; nin satishidi</t>
         </is>
       </c>
       <c r="B3051" t="n">
@@ -31036,7 +31036,7 @@
     <row r="3062">
       <c r="A3062" t="inlineStr">
         <is>
-          <t>köhnə bulvarda hər gün gəzən adam kimi söyləyə bilərəm ki bu ən gözəl yerdi sodalı çayı &lt;NUM&gt; azn lik depozitnən verən çayxanada oturmaqdansa köhnə tosca nın yerində açılan zazuda oturmaq &lt;NUM&gt; dəfə yaxşıdı personal mega nazəkətli və professional həm çöldə rahat əyləşmək olur həm də içəridə qiymətlər gözləniləndən qat qat aşağı misal üçün &lt;NUM&gt; çaynik çay &lt;NUM&gt; azn ən əsas uşaqlar üçün xüsusi otaq var nəzarət edən xanım var uşağa valideyindən yaxşı baxır bir şey olanda da zəng edir uşaq isə ürəkdən əylənir bir sözlə çox bəyəndim bulvarda gedəcəyim tək bir yer olacaq bundan sonra çox pozitiv təcrübə oldu mənim üçün</t>
+          <t>köhnə bulvarda hər gün gəzən adam kimi söyləyə bilərəm ki bu ən gözəl yerdi sodalı çayı &lt;NUM&gt; azn lik depozitnən verən çayxanada oturmaqdansa köhnə tosca nın yerində açılan zazuda oturmaq &lt;NUM&gt; dəfə yaxşı personal mega nazəkətli və professional həm çöldə rahat əyləşmək ol həm də içəridə qiymətlər gözləniləndən qat qat aşağı misal üçün &lt;NUM&gt; çaynik çay &lt;NUM&gt; azn ən əsas uşaqlar üçün xüsusi otaq var nəzarət edən xanım var uşağa valideyindən yaxşı baxır bir şey olanda da zəng et uşaq isə ürəkdən əylənir bir sözlə çox bəyən bulvarda gedəcəyim tək bir yer olacaq bundan sonra çox pozitiv təcrübə ol mənim üçün</t>
         </is>
       </c>
       <c r="B3062" t="n">
@@ -31066,7 +31066,7 @@
     <row r="3065">
       <c r="A3065" t="inlineStr">
         <is>
-          <t>hər yuxuya inansaydım indi allah bilir hardeydik</t>
+          <t>hər yuxuya inansaydım indi allah bil hardeydik</t>
         </is>
       </c>
       <c r="B3065" t="n">
@@ -31186,7 +31186,7 @@
     <row r="3077">
       <c r="A3077" t="inlineStr">
         <is>
-          <t>elə şey yoxdur bu_NEG adam_NEG qoyduğu_NEG puldan da çoxunu çıxara bilir dünyanın ən böyük youtube kanalından söhbət gedir</t>
+          <t>elə şey yoxdur bu_NEG adam_NEG qoyduğu_NEG puldan da çoxunu çıxara bil dünyanın ən böyük youtube kanalından söhbət get</t>
         </is>
       </c>
       <c r="B3077" t="n">
@@ -31236,7 +31236,7 @@
     <row r="3082">
       <c r="A3082" t="inlineStr">
         <is>
-          <t>həqiqətən &lt;RATING_NEG&gt; şirkətdir mən normalda türkiyədən birbaşa yox məhsulu_NEG türkiyədən_NEG kargoyla_NEG gətirdirəm &lt;NUM&gt; &lt;NUM&gt; &lt;NUM&gt; və &lt;NUM&gt; &lt;NUM&gt; &lt;NUM&gt; tarixlərində guya məhsul çatdırıblar mənə hər ikisi də yalnış məhsuldu maildən yazmışam onlar da problemi həll etmirlər işlədə bilmirlərsə niyə açıblar bu kargo şirkətini arada pulumuz getdi məhsulum düzgün gəlib çıxmayıb utansınlar</t>
+          <t>həqiqətən &lt;RATING_NEG&gt; şirkətdir mən normalda türkiyədən birbaşa yox məhsulu_NEG türkiyədən_NEG kargoyla_NEG gətirdirəm &lt;NUM&gt; &lt;NUM&gt; &lt;NUM&gt; və &lt;NUM&gt; &lt;NUM&gt; &lt;NUM&gt; tarixlərində guya məhsul çatdırıblar mənə hər ikisi də yalnış məhsuldu maildən yazmışam onlar da problemi həll etmirlər işlədə bilmirlərsə niyə açıblar bu kargo şirkətini arada pulumuz get məhsulum düzgün gəlib çıxmayıb utansınlar</t>
         </is>
       </c>
       <c r="B3082" t="n">
@@ -31316,7 +31316,7 @@
     <row r="3090">
       <c r="A3090" t="inlineStr">
         <is>
-          <t>maşallah inkişaf var düşək məmləkətimizə bilən yoxdu azərsu hansı rayonlarda suyu kəskin fasilə ilə verir televizoya deyir yağış az yağdığına görə su yoxdu qərb nano texnologiya tətbiq edir yerli qurumlar axmaq işlərlə məşquldu</t>
+          <t>maşallah inkişaf var düşək məmləkətimizə bilən yoxdu azərsu hansı rayonlarda suyu kəskin fasilə ilə verir televizoya de yağış az yağdığına görə su yoxdu qərb nano texnologiya tətbiq et yerli qurumlar axmaq işlərlə məşquldu</t>
         </is>
       </c>
       <c r="B3090" t="n">
@@ -31356,7 +31356,7 @@
     <row r="3094">
       <c r="A3094" t="inlineStr">
         <is>
-          <t>belə internət olar &lt;NUM&gt; dəqiqə gəlir &lt;NUM&gt; dəqiqə gedir bu sayta girənə kimi ömrümnən ömür getdi sizin kimi bir şirkət istiyir &lt;NUM&gt; il yox &lt;NUM&gt;_NEG ildə_NEG xidmət_NEG göstrərsin heç bir_NEG irələyiş_NEG olmayacaq_NEG işciləriniz isə min betər adamı boğaza yığırlar amma ortada heçnə yoxdur</t>
+          <t>belə internət olar &lt;NUM&gt; dəqiqə gəl &lt;NUM&gt; dəqiqə get bu sayta girənə kimi ömrümnən ömür get sizin kimi bir şirkət istiyir &lt;NUM&gt; il yox &lt;NUM&gt;_NEG ildə_NEG xidmət_NEG göstrərsin heç bir_NEG irələyiş_NEG olmayacaq_NEG işciləriniz isə min betər adamı boğaza yığırlar amma ortada heçnə yoxdur</t>
         </is>
       </c>
       <c r="B3094" t="n">
@@ -31396,7 +31396,7 @@
     <row r="3098">
       <c r="A3098" t="inlineStr">
         <is>
-          <t>men burda hec kimi ya qinamayacam yada ki haq qazandirmayacam ama sizleri çox demirem nenelerimizin zamanina qaytaracam o dovurlerde her kes usaq qiz yada oglan oxutdurmurdu ya senete yoneldirdi yada ere verirdi yasi catanda oglan idisede evlendirirdiler bu &lt;NUM&gt; mesele &lt;NUM&gt; mesele ise o vaxtki azyasli evlenib ere gedenlerden ne bosanan olurdu nede ki o vaxtki dovurlerde fahiselik bu qeder deyildi o vaxtki dovurde dinde yox idi_NEG hec_NEG sacede_NEG camahatda duzgun terbiye ve aile movhumu var idi baxiram yorumlarda hami dini gunahlandirir ozunuze bir sual verin gorum din nedir elm nedir coxunuzda deyeceksizki elm texnika ve texnologiyadir neyse uzatmiyim sadece ovladlarimizi duzgun yetisdirsek calisib herkes gucu yeten qeder yeni imkani olan oxutsun olmayan oxutmasin ama kendde &lt;NUM&gt; dana satib bura qiz yada oglan gonderenler gorsunler bugunku tehsilide oyrendikleri elmi de ve ovladlarinin ne mal oldugunuda universitet qizlarinin ne hoqqalardan cixdigini men gormusem bir sinifde &lt;NUM&gt; telebe olursa onun &lt;NUM&gt; is tapib isleyir oda varli balasi olur qalanlarida ya avaraliq edir yada ki fahiselik son bele olur ona gorede herkes oxutmasin savadli ve imkani olan lar oxutsun geri qalanlar senete yonelsin yada evlendirilib ere verilsin</t>
+          <t>men burda hec kimi ya qinamayacam yada ki haq qazandirmayacam ama sizleri çox demirem nenelerimizin zamanina qaytaracam o dovurlerde her kes usaq qiz yada oglan oxutdurmurdu ya senete yoneldirdi yada ere verirdi yasi catanda oglan idisede evlendirirdiler bu &lt;NUM&gt; mesele &lt;NUM&gt; mesele ise o vaxtki azyasli evlenib ere gedenlerden ne bosanan olurdu nede ki o vaxtki dovurlerde fahiselik bu qeder deyildi o vaxtki dovurde dinde yox idi_NEG hec_NEG sacede_NEG camahatda duzgun terbiye ve aile movhumu var idi baxiram yorumlarda hami dini gunahlandirir ozunuze bir sual verin gorum din nedir elm nedir coxunuzda deyeceksizki elm texnika ve texnologiyadir neyse uzatmiyim sadece ovladlarimizi duzgun yetisdirsek calisib herkes gucu yeten qeder yeni imkani olan oxutsun olmayan oxutmasin ama kendde &lt;NUM&gt; dana satib bura qiz yada oglan gonderenler gorsunler bugunku tehsilide oyrendikleri elmi de ve ovladlarinin ne mal oldugunuda universitet qizlarinin ne hoqqalardan cixdigini men gormusem bir sinifde &lt;NUM&gt; telebe olursa onun &lt;NUM&gt; is tapib isleyir oda varli balasi ol qalanlarida ya avaraliq et yada ki fahiselik son bele ol ona gorede herkes oxutmasin savadli ve imkani olan lar oxutsun geri qalanlar senete yonelsin yada evlendirilib ere verilsin</t>
         </is>
       </c>
       <c r="B3098" t="n">
@@ -31546,7 +31546,7 @@
     <row r="3113">
       <c r="A3113" t="inlineStr">
         <is>
-          <t>kontakt home un daimi müştərisiyəm aldığım mallardan həmişədə razı qalmışam xidmət səviyəsi çox yaxşıdı uğurlar sizlərə</t>
+          <t>kontakt home un daimi müştərisiyəm aldığım mallardan həmişədə razı qalmışam xidmət səviyəsi çox yaxşı uğurlar sizlərə</t>
         </is>
       </c>
       <c r="B3113" t="n">
@@ -31596,7 +31596,7 @@
     <row r="3118">
       <c r="A3118" t="inlineStr">
         <is>
-          <t>insanları asosiallaşdırmaq yox sosiallaşdırmaq_NEG lazım_NEG idi_NEG mark burada səhv etdi</t>
+          <t>insanları asosiallaşdırmaq yox sosiallaşdırmaq_NEG lazım_NEG idi_NEG mark burada səhv et</t>
         </is>
       </c>
       <c r="B3118" t="n">
@@ -31616,7 +31616,7 @@
     <row r="3120">
       <c r="A3120" t="inlineStr">
         <is>
-          <t>nə oldu nə düşdü nə gəldi hamısı abş düşdü</t>
+          <t>nə ol nə düşdü nə gəl hamısı abş düşdü</t>
         </is>
       </c>
       <c r="B3120" t="n">
@@ -31716,7 +31716,7 @@
     <row r="3130">
       <c r="A3130" t="inlineStr">
         <is>
-          <t>bolt taksi şirkəti çox super taksi şirkətidir zəng etdiyin zaman söylədikləri vaxt ərzində yəni &lt;NUM&gt; &lt;NUM&gt; dəqiqəyə taksi məkanda olur ən ucuz və tez bir zamanda lazım olan yerə çatmaq üçün əlverişlidir</t>
+          <t>bolt taksi şirkəti çox super taksi şirkətidir zəng etdiyin zaman söylədikləri vaxt ərzində yəni &lt;NUM&gt; &lt;NUM&gt; dəqiqəyə taksi məkanda ol ən ucuz və tez bir zamanda lazım olan yerə çatmaq üçün əlverişlidir</t>
         </is>
       </c>
       <c r="B3130" t="n">
@@ -31776,7 +31776,7 @@
     <row r="3136">
       <c r="A3136" t="inlineStr">
         <is>
-          <t>lakin elə o saat yenə də mehriban oldu üzü güldü</t>
+          <t>lakin elə o saat yenə də mehriban ol üzü güldü</t>
         </is>
       </c>
       <c r="B3136" t="n">
@@ -31966,7 +31966,7 @@
     <row r="3155">
       <c r="A3155" t="inlineStr">
         <is>
-          <t>xowuma gəldi birdənə borcu göstərsə yaxwı olar</t>
+          <t>xowuma gəl birdənə borcu göstərsə yaxwı olar</t>
         </is>
       </c>
       <c r="B3155" t="n">
@@ -32016,7 +32016,7 @@
     <row r="3160">
       <c r="A3160" t="inlineStr">
         <is>
-          <t>salam internet əladır problem yaranan kimi işçilər gəlib yerində həll edirlər operatorları da hər bir sualıma dolğun məlumat verir internet çağında belə mükəmməl iş gördüyünüz üçün təşəkkürlər</t>
+          <t>salam internet əla problem yaranan kimi işçilər gəlib yerində həll edirlər operatorları da hər bir sualıma dolğun məlumat verir internet çağında belə mükəmməl iş gördüyünüz üçün təşəkkürlər</t>
         </is>
       </c>
       <c r="B3160" t="n">
@@ -32026,7 +32026,7 @@
     <row r="3161">
       <c r="A3161" t="inlineStr">
         <is>
-          <t>mərasimə ruhun bazlığı adı verilsə yaxşıdır</t>
+          <t>mərasimə ruhun bazlığı adı verilsə yaxşı</t>
         </is>
       </c>
       <c r="B3161" t="n">
@@ -32166,7 +32166,7 @@
     <row r="3175">
       <c r="A3175" t="inlineStr">
         <is>
-          <t>bunlarda bizim tv lər yoxdu deyə bizim dili bilmirlər bizdə uşaqlar bizdən yaxşı bilir türk dilini çox gözəl alınıb</t>
+          <t>bunlarda bizim tv lər yoxdu deyə bizim dili bilmirlər bizdə uşaqlar bizdən yaxşı bil türk dilini çox gözəl alınıb</t>
         </is>
       </c>
       <c r="B3175" t="n">
@@ -32176,7 +32176,7 @@
     <row r="3176">
       <c r="A3176" t="inlineStr">
         <is>
-          <t>təşəkkürlər öncədən hər şey yaxşıdır xidmət sahəsi də yüksək səviyyədədir hərşeyə görə təşəkkürümüzü bildiririk</t>
+          <t>təşəkkürlər öncədən hər şey yaxşı xidmət sahəsi də yüksək səviyyədədir hərşeyə görə təşəkkürümüzü bildiririk</t>
         </is>
       </c>
       <c r="B3176" t="n">
@@ -32336,7 +32336,7 @@
     <row r="3192">
       <c r="A3192" t="inlineStr">
         <is>
-          <t>pomidoru ilk önjə hindistanda qəddar bir şah tərəfindən menuya istifadə etməyə və onun kultivasiyasina başlanilib bu haqda tanimiş rusiyanin əməkdər injəsınəər xadimi inakenti smoktunovskinin sil silə verlişləri ensiklopediyadan qötürülüb hazirlanan verlişlərdə əksini tapib beləki həmən şah qulluqçularini hər hansi adi bir şeyə qörə jəzalandirir və bundan həz alirmiş bir aşpazini jana yiqir və həmən aşpazi pomidoru zəhər kimi bilib onunla yemək hazirlayib şaha yedirdir və o andan şah bunu araşdirir ki nədən bu jür ləzətli yemək alinib yaziq aşpaz qorxudan hər şeyi açib danişir nətijədə şah ona ənam və hədiyələr verir pul parasini laziminja ödəyir və onu əvvəljə sui qəsdə qörə yaxşija çirpdirib döydürür sonra isə ona azadliq verir və beləliklədə pomodor hind mətbəxinin şah əsəri olur eynisi ekaterina &lt;NUM&gt; jinin ad qününə bütün dövlətlərdən hədiyələr sandiqlarla pul qizil zinət əşyalari ilə ölkələri təmsil edən elçilər şahzadə xanimi dövlətləri tərəfindən təbrik və hədiyələri təqdim edirlər növbə çatir azərbayjan nümayəndələrinə iki qulluqçu kəniz əllərində qümüş məjməyidə üstü ipəklə örtülmüş hədiyəni ekaterinaya təqdim edirlər bütün nümayəndələr aqizlari açiq heyrətlə sonun qözləyir və örtüyü açirlar ekaterinanin əmri ilə məjməyidə jəmi bir neçə ədəd nar qörürlər amma narlar qeyri adi qözəllikdə ekaterina narin birini kəsdirir narlarin qilələrinin rənqi tünd qöy yapon sapfiri rənqdə dadina baxir və sonda ən qiymətli hədiyəyə qörə bizim nümayəndələrə xüsusi yer və ən bahali atlar hədiyə əvəz olaraq verilir ekaterinanin öz dediyi sözlər tarixə yazilib bu bir əfsanə bir jənnət dadan qeyri adi narlardir bunlarin qörünüşüdə dadida jənnəti oxşadir və əfsuslar olsun o nar növünü qöyçayda qoruyub saxlaya bilməyiblər</t>
+          <t>pomidoru ilk önjə hindistanda qəddar bir şah tərəfindən menuya istifadə etməyə və onun kultivasiyasina başlanilib bu haqda tanimiş rusiyanin əməkdər injəsınəər xadimi inakenti smoktunovskinin sil silə verlişləri ensiklopediyadan qötürülüb hazirlanan verlişlərdə əksini tapib beləki həmən şah qulluqçularini hər hansi adi bir şeyə qörə jəzalandirir və bundan həz alirmiş bir aşpazini jana yiqir və həmən aşpazi pomidoru zəhər kimi bilib onunla yemək hazirlayib şaha yedirdir və o andan şah bunu araşdirir ki nədən bu jür ləzətli yemək alinib yaziq aşpaz qorxudan hər şeyi açib danişir nətijədə şah ona ənam və hədiyələr verir pul parasini laziminja ödəyir və onu əvvəljə sui qəsdə qörə yaxşija çirpdirib döydürür sonra isə ona azadliq verir və beləliklədə pomodor hind mətbəxinin şah əsəri ol eynisi ekaterina &lt;NUM&gt; jinin ad qününə bütün dövlətlərdən hədiyələr sandiqlarla pul qizil zinət əşyalari ilə ölkələri təmsil edən elçilər şahzadə xanimi dövlətləri tərəfindən təbrik və hədiyələri təqdim edirlər növbə çatir azərbayjan nümayəndələrinə iki qulluqçu kəniz əllərində qümüş məjməyidə üstü ipəklə örtülmüş hədiyəni ekaterinaya təqdim edirlər bütün nümayəndələr aqizlari açiq heyrətlə sonun qözləyir və örtüyü açirlar ekaterinanin əmri ilə məjməyidə jəmi bir neçə ədəd nar qörürlər amma narlar qeyri adi qözəllikdə ekaterina narin birini kəsdirir narlarin qilələrinin rənqi tünd qöy yapon sapfiri rənqdə dadina baxir və sonda ən qiymətli hədiyəyə qörə bizim nümayəndələrə xüsusi yer və ən bahali atlar hədiyə əvəz olaraq verilir ekaterinanin öz dediyi sözlər tarixə yazilib bu bir əfsanə bir jənnət dadan qeyri adi narlardir bunlarin qörünüşüdə dadida jənnəti oxşadir və əfsuslar olsun o nar növünü qöyçayda qoruyub saxlaya bilməyiblər</t>
         </is>
       </c>
       <c r="B3192" t="n">
@@ -32386,7 +32386,7 @@
     <row r="3197">
       <c r="A3197" t="inlineStr">
         <is>
-          <t>yaxşı gəlmişdi amma axırı bir az pisdi</t>
+          <t>yaxşı gəlmişdi amma axırı bir az pis</t>
         </is>
       </c>
       <c r="B3197" t="n">
@@ -32426,7 +32426,7 @@
     <row r="3201">
       <c r="A3201" t="inlineStr">
         <is>
-          <t>mənə elə gəldi ki bu şeylərdən o az çox xəbərdardır</t>
+          <t>mənə elə gəl ki bu şeylərdən o az çox xəbərdardır</t>
         </is>
       </c>
       <c r="B3201" t="n">
@@ -32486,7 +32486,7 @@
     <row r="3207">
       <c r="A3207" t="inlineStr">
         <is>
-          <t>mi xarab olur atir tezesini alirsan əlbəttəki bir telefona &lt;NUM&gt; ayliq maasini verəndə nəsə olsa duzəltdirməlisən</t>
+          <t>mi xarab ol atir tezesini alirsan əlbəttəki bir telefona &lt;NUM&gt; ayliq maasini verəndə nəsə olsa duzəltdirməlisən</t>
         </is>
       </c>
       <c r="B3207" t="n">
@@ -32596,7 +32596,7 @@
     <row r="3218">
       <c r="A3218" t="inlineStr">
         <is>
-          <t>hörmətli expressbank mən çox xoşbəxt idim ki sizin kimi gözəl bankın müştərisiyəm ta o zamana kimi ki öyrəndim sizin kartlarda cvv kodun heç bir_NEG önəmi_NEG yoxdur hətta_NEG özüm_NEG də_NEG bunu sınadım online ödəniş zamanı kart üzərindəki &lt;NUM&gt; rəqəmi yazıb cvv kod istədikdə isə ürəyin istəyən &lt;NUM&gt; rəqəmi yazdıqda telefona mesaj gəlir mən bildiyim də budur ki cvv kod &lt;NUM&gt; security'dən daha etibarlıdır indi biz sizin müştəriniz olaraq &lt;NUM&gt; rəqəmi də gizlədək camaatdan kiməsə &lt;NUM&gt; rəqəmi də verməyək ki card to card etmək əvəzinə içindəkiləri çəkə bilər</t>
+          <t>hörmətli expressbank mən çox xoşbəxt idim ki sizin kimi gözəl bankın müştərisiyəm ta o zamana kimi ki öyrəndim sizin kartlarda cvv kodun heç bir_NEG önəmi_NEG yoxdur hətta_NEG özüm_NEG də_NEG bunu sınadım online ödəniş zamanı kart üzərindəki &lt;NUM&gt; rəqəmi yazıb cvv kod istədikdə isə ürəyin istəyən &lt;NUM&gt; rəqəmi yazdıqda telefona mesaj gəl mən bildiyim də budur ki cvv kod &lt;NUM&gt; security'dən daha etibarlıdır indi biz sizin müştəriniz olaraq &lt;NUM&gt; rəqəmi də gizlədək camaatdan kiməsə &lt;NUM&gt; rəqəmi də verməyək ki card to card etmək əvəzinə içindəkiləri çəkə bilər</t>
         </is>
       </c>
       <c r="B3218" t="n">
@@ -32616,7 +32616,7 @@
     <row r="3220">
       <c r="A3220" t="inlineStr">
         <is>
-          <t>o ki sol yerinə sağ ayağın kəsilmədi nə kayfı oldu onda</t>
+          <t>o ki sol yerinə sağ ayağın kəsilmədi nə kayfı ol onda</t>
         </is>
       </c>
       <c r="B3220" t="n">
@@ -32966,7 +32966,7 @@
     <row r="3255">
       <c r="A3255" t="inlineStr">
         <is>
-          <t>elnur məmmədov gedirik də bir orda kol dibi qalib görək başımıza nə gəlir</t>
+          <t>elnur məmmədov gedirik də bir orda kol dibi qalib görək başımıza nə gəl</t>
         </is>
       </c>
       <c r="B3255" t="n">
@@ -33056,7 +33056,7 @@
     <row r="3264">
       <c r="A3264" t="inlineStr">
         <is>
-          <t>bu dünyanın hər yerində olsada azərbaycanda olmayacaq çünki hər bir xəstə onlar üçün gəlir mənbəyi xərçəng isə bir biznesdir bu ölkədə kimlər üçünsə</t>
+          <t>bu dünyanın hər yerində olsada azərbaycanda olmayacaq çünki hər bir xəstə onlar üçün gəl mənbəyi xərçəng isə bir biznesdir bu ölkədə kimlər üçünsə</t>
         </is>
       </c>
       <c r="B3264" t="n">
@@ -33066,7 +33066,7 @@
     <row r="3265">
       <c r="A3265" t="inlineStr">
         <is>
-          <t>necə gözəl kinodu təsirlidi çox sağ olun çox bəyəndim</t>
+          <t>necə gözəl kinodu təsirlidi çox sağ olun çox bəyən</t>
         </is>
       </c>
       <c r="B3265" t="n">
@@ -33096,7 +33096,7 @@
     <row r="3268">
       <c r="A3268" t="inlineStr">
         <is>
-          <t>tehsil agil olmayannan sora neyin olur olsun yene surunmeye mecbursan</t>
+          <t>tehsil agil olmayannan sora neyin ol olsun yene surunmeye mecbursan</t>
         </is>
       </c>
       <c r="B3268" t="n">
@@ -33136,7 +33136,7 @@
     <row r="3272">
       <c r="A3272" t="inlineStr">
         <is>
-          <t>sumqayıtın insanlarıda bir başqa gözəldir</t>
+          <t>sumqayıtın insanlarıda bir başqa gözəl</t>
         </is>
       </c>
       <c r="B3272" t="n">
@@ -33146,7 +33146,7 @@
     <row r="3273">
       <c r="A3273" t="inlineStr">
         <is>
-          <t>nəzərə alsaq ki türkiyədə seçimlər azərbaycanla müqayisədə demokratik keçirilir göstəricilər həm də seçicinin iq yüksəkliyini göstərir göstərici bizimlə müqayisədə çox çox yaxşıdır çünki belə bir hiss var ki bizdə günü bugün demokratik seçkilər keçirilsə iq sü çox yüksək olanların fazi &lt;NUM&gt; çatmaz illər keçməldir yəqin</t>
+          <t>nəzərə alsaq ki türkiyədə seçimlər azərbaycanla müqayisədə demokratik keçirilir göstəricilər həm də seçicinin iq yüksəkliyini göstərir göstərici bizimlə müqayisədə çox çox yaxşı çünki belə bir hiss var ki bizdə günü bugün demokratik seçkilər keçirilsə iq sü çox yüksək olanların fazi &lt;NUM&gt; çatmaz illər keçməldir yəqin</t>
         </is>
       </c>
       <c r="B3273" t="n">
@@ -33196,7 +33196,7 @@
     <row r="3278">
       <c r="A3278" t="inlineStr">
         <is>
-          <t>kim deyir ki oluler hereket elemir veya oluler yerlerini deyise bilmez deyismeyen yegane sumuk qalir</t>
+          <t>kim de ki oluler hereket elemir veya oluler yerlerini deyise bilmez deyismeyen yegane sumuk qalir</t>
         </is>
       </c>
       <c r="B3278" t="n">
@@ -33236,7 +33236,7 @@
     <row r="3282">
       <c r="A3282" t="inlineStr">
         <is>
-          <t>mənim film sıralamamın &lt;NUM&gt; ci yerini neçə illərdi bu film tutur həqiqətən möhtəşəm filmdir bu hadisələrin real həyatda həqiqətən baş verdiyini fikirləşəndəysə insan dəhşətə gəlir xoş izləmələr təşəkkürlər</t>
+          <t>mənim film sıralamamın &lt;NUM&gt; ci yerini neçə illərdi bu film tutur həqiqətən möhtəşəm filmdir bu hadisələrin real həyatda həqiqətən baş verdiyini fikirləşəndəysə insan dəhşətə gəl xoş izləmələr təşəkkürlər</t>
         </is>
       </c>
       <c r="B3282" t="n">
@@ -33466,7 +33466,7 @@
     <row r="3305">
       <c r="A3305" t="inlineStr">
         <is>
-          <t>banklar dünyanın maliyyə və güc mərkəzləridir hətda deyərdim banklara təsir metodu ilə insanlara nəzarət və idarəetmək də olur ilk bank kartları bankomatları və ya banklar peyda olanda indiki kimi siyasət təsir və nəzarətetmək funksiyaları yox idi_NEG ilklər_NEG həmişə_NEG xalqlara xidmət edib sonradan siyasətçilər axarın qabağın öz ciblərinə və məqsədlərinə yönəltdilər müstəqillik dövründə azərbaycanın ilk özəl bankı bus bank olub birləşmiş universal sənaye bankı ilk bank kartları və bankomatları da kapital banka məxsus olub ölkənin bank sektoruna ən çox yeniliklər gətirmiş bankı texnika bank sonradan bank technigue olub ən çox kredit verilən il &lt;NUM&gt; cu il olub &lt;NUM&gt; milyard manat hazırda ölkəmizdəki bankların hamısı ziyan ilə işləyir banklar tənəzzül dövrün keçir bu da məqsədli şəkildə belə edilir milli bankın adı mərkəzi bank olandan bəri paşa bankın monopoliyası gücləndi əsas kredit və nizamnamə portveli ona keçdi hazırda ölkədə &lt;NUM&gt; əsas bank var kapital beynəlxalq və paşa bank qalanları asılı banklardır ölkə əhalisinin &lt;NUM&gt; hissəsinin əmək haqqı və pensiya kartları kapital banka məxsusdur</t>
+          <t>banklar dünyanın maliyyə və güc mərkəzləridir hətda deyərdim banklara təsir metodu ilə insanlara nəzarət və idarəetmək də ol ilk bank kartları bankomatları və ya banklar peyda olanda indiki kimi siyasət təsir və nəzarətetmək funksiyaları yox idi_NEG ilklər_NEG həmişə_NEG xalqlara xidmət edib sonradan siyasətçilər axarın qabağın öz ciblərinə və məqsədlərinə yönəltdilər müstəqillik dövründə azərbaycanın ilk özəl bankı bus bank olub birləşmiş universal sənaye bankı ilk bank kartları və bankomatları da kapital banka məxsus olub ölkənin bank sektoruna ən çox yeniliklər gətirmiş bankı texnika bank sonradan bank technigue olub ən çox kredit verilən il &lt;NUM&gt; cu il olub &lt;NUM&gt; milyard manat hazırda ölkəmizdəki bankların hamısı ziyan ilə işləyir banklar tənəzzül dövrün keçir bu da məqsədli şəkildə belə edilir milli bankın adı mərkəzi bank olandan bəri paşa bankın monopoliyası gücləndi əsas kredit və nizamnamə portveli ona keçdi hazırda ölkədə &lt;NUM&gt; əsas bank var kapital beynəlxalq və paşa bank qalanları asılı banklardır ölkə əhalisinin &lt;NUM&gt; hissəsinin əmək haqqı və pensiya kartları kapital banka məxsusdur</t>
         </is>
       </c>
       <c r="B3305" t="n">
@@ -33486,7 +33486,7 @@
     <row r="3307">
       <c r="A3307" t="inlineStr">
         <is>
-          <t>vay o güne o momentde bir arı gire ordan tsvr etmey bele pisdi</t>
+          <t>vay o güne o momentde bir arı gire ordan tsvr etmey bele pis</t>
         </is>
       </c>
       <c r="B3307" t="n">
@@ -33506,7 +33506,7 @@
     <row r="3309">
       <c r="A3309" t="inlineStr">
         <is>
-          <t>sənin məndən ötrü qiymətli bir şey olduğunu necə izah etdi</t>
+          <t>sənin məndən ötrü qiymətli bir şey olduğunu necə izah et</t>
         </is>
       </c>
       <c r="B3309" t="n">
@@ -33586,7 +33586,7 @@
     <row r="3317">
       <c r="A3317" t="inlineStr">
         <is>
-          <t>eladir mohtesem bir proqramdir hamiya meslehet gorurem pullar qazanmaq olur inanin ki pesman olmazsiniz</t>
+          <t>eladir mohtesem bir proqramdir hamiya meslehet gorurem pullar qazanmaq ol inanin ki pesman olmazsiniz</t>
         </is>
       </c>
       <c r="B3317" t="n">
@@ -33746,7 +33746,7 @@
     <row r="3333">
       <c r="A3333" t="inlineStr">
         <is>
-          <t>anna andreyevna ona mərhəmətlə baxaraq əlavə etdi</t>
+          <t>anna andreyevna ona mərhəmətlə baxaraq əlavə et</t>
         </is>
       </c>
       <c r="B3333" t="n">
@@ -33806,7 +33806,7 @@
     <row r="3339">
       <c r="A3339" t="inlineStr">
         <is>
-          <t>salam mənim istifadə etdiyim &lt;NUM&gt; telefon nömrəsinə baglıdır indiyə qədər istifadə etmişəm bu axşam balansıma baxmaq uçün daxil olmaq istədim amma məni yenidən qeydiyyatdan keçmək üçün telefon nömrəmi soruşdu &lt;NUM&gt; rəqəmli parol sms lə göndərdi porolu yazarkən fikir verdim ki kodun &lt;NUM&gt; cü rəqəmini qeydə almır və qəbul etmir &lt;NUM&gt; cəhddən &lt;NUM&gt; qəbul edir sonra fotomu çəkir axırda da deyir ki xəta baş verdi yenidən sms dən başlayır &lt;NUM&gt; dəfə çox çətinliklə kodu təsdiqlədib fotoya keçə bilmişəm orda da xəta baş verdi deyir mən işlətdiyim &lt;NUM&gt; da nəyə görə yenidən qeydiyyatdan keçməliyəm ki &lt;NUM&gt; telefonuma bağlıdır daxil olmaq üçün parol yazıb girirəm bu problemi necə həll edə bilərdiz phone bu nömrəyə də səsli mesaj göndərmişəm qeydiyyatda olduğum nömrədən</t>
+          <t>salam mənim istifadə etdiyim &lt;NUM&gt; telefon nömrəsinə baglıdır indiyə qədər istifadə etmişəm bu axşam balansıma baxmaq uçün daxil olmaq istə amma məni yenidən qeydiyyatdan keçmək üçün telefon nömrəmi soruşdu &lt;NUM&gt; rəqəmli parol sms lə göndərdi porolu yazarkən fikir verdim ki kodun &lt;NUM&gt; cü rəqəmini qeydə almır və qəbul etmir &lt;NUM&gt; cəhddən &lt;NUM&gt; qəbul et sonra fotomu çəkir axırda da de ki xəta baş verdi yenidən sms dən başlayır &lt;NUM&gt; dəfə çox çətinliklə kodu təsdiqlədib fotoya keçə bilmişəm orda da xəta baş verdi de mən işlətdiyim &lt;NUM&gt; da nəyə görə yenidən qeydiyyatdan keçməliyəm ki &lt;NUM&gt; telefonuma bağlıdır daxil olmaq üçün parol yazıb girirəm bu problemi necə həll edə bilərdiz phone bu nömrəyə də səsli mesaj göndərmişəm qeydiyyatda olduğum nömrədən</t>
         </is>
       </c>
       <c r="B3339" t="n">
@@ -33856,7 +33856,7 @@
     <row r="3344">
       <c r="A3344" t="inlineStr">
         <is>
-          <t>leş kimi feminizm iyi gəlir bu paylaşımdan</t>
+          <t>leş kimi feminizm iyi gəl bu paylaşımdan</t>
         </is>
       </c>
       <c r="B3344" t="n">
@@ -33896,7 +33896,7 @@
     <row r="3348">
       <c r="A3348" t="inlineStr">
         <is>
-          <t>düz deyir qaqa nepalda mağazada tualet kağızı isdiyirsən çıxardıb aboy verirlər adama</t>
+          <t>düz de qaqa nepalda mağazada tualet kağızı isdiyirsən çıxardıb aboy verirlər adama</t>
         </is>
       </c>
       <c r="B3348" t="n">
@@ -34056,7 +34056,7 @@
     <row r="3364">
       <c r="A3364" t="inlineStr">
         <is>
-          <t>arasdirma neticesi gornen oduki derman sirketlerinin fondlari esasinda arasdrlib neticede olarin xeyrine yazilib eksine insan heyvan menseli qidalar yemesi çox vacib ve zeruridi eks halda fesadlari çox boyuk olur</t>
+          <t>arasdirma neticesi gornen oduki derman sirketlerinin fondlari esasinda arasdrlib neticede olarin xeyrine yazilib eksine insan heyvan menseli qidalar yemesi çox vacib ve zeruridi eks halda fesadlari çox boyuk ol</t>
         </is>
       </c>
       <c r="B3364" t="n">
@@ -34156,7 +34156,7 @@
     <row r="3374">
       <c r="A3374" t="inlineStr">
         <is>
-          <t>niyə bütün yadplanetlilər amerikaya hücum edir niyə ən vacib arxeoloji tapıntılar amerika qitəsində tapılır niyə dünyadakı bütün qeyri adi şeylər hadisələr amerika ətrafında cərəyan edir bizmi öz coğrafiyamızı tədqiq etmirik yoxsa onlarmı uydurur</t>
+          <t>niyə bütün yadplanetlilər amerikaya hücum et niyə ən vacib arxeoloji tapıntılar amerika qitəsində tapılır niyə dünyadakı bütün qeyri adi şeylər hadisələr amerika ətrafında cərəyan et bizmi öz coğrafiyamızı tədqiq etmirik yoxsa onlarmı uydurur</t>
         </is>
       </c>
       <c r="B3374" t="n">
@@ -34206,7 +34206,7 @@
     <row r="3379">
       <c r="A3379" t="inlineStr">
         <is>
-          <t>belə şeyləri görəndə adama ele gəlir ki pulnan ağıl tərs mütənasibdir</t>
+          <t>belə şeyləri görəndə adama ele gəl ki pulnan ağıl tərs mütənasibdir</t>
         </is>
       </c>
       <c r="B3379" t="n">
@@ -34226,7 +34226,7 @@
     <row r="3381">
       <c r="A3381" t="inlineStr">
         <is>
-          <t>camaat bir oyun çıxardır ölkəyə milyardlar gətirir biz ama illərdi yapışmışıq neftdən o da kimin cibinə gedir yaxşı bilirik</t>
+          <t>camaat bir oyun çıxardır ölkəyə milyardlar gətirir biz ama illərdi yapışmışıq neftdən o da kimin cibinə get yaxşı bilirik</t>
         </is>
       </c>
       <c r="B3381" t="n">
@@ -34326,7 +34326,7 @@
     <row r="3391">
       <c r="A3391" t="inlineStr">
         <is>
-          <t>bu filmə ayrı ayrı dövrlərdə cəmi &lt;NUM&gt; dəfə baxmışam hər dəfəsində bu ekran əsərinə heyran qalmışam bu filmnən savayı dünya kinomatoqrafiyasının şah əsəsrləri sırasında olan bir dəfə amerikada pianist şindlerin siyahısı hbo filmin çernobel çöküş həyat gözəldir çağrı və adlı filmlerinə baxmaq kino həvıskarlarına şiddətlə tövsiyyə olunur hər biri real senari əsasında lentə alınıb</t>
+          <t>bu filmə ayrı ayrı dövrlərdə cəmi &lt;NUM&gt; dəfə baxmışam hər dəfəsində bu ekran əsərinə heyran qalmışam bu filmnən savayı dünya kinomatoqrafiyasının şah əsəsrləri sırasında olan bir dəfə amerikada pianist şindlerin siyahısı hbo filmin çernobel çöküş həyat gözəl çağrı və adlı filmlerinə baxmaq kino həvıskarlarına şiddətlə tövsiyyə olunur hər biri real senari əsasında lentə alınıb</t>
         </is>
       </c>
       <c r="B3391" t="n">
@@ -34366,7 +34366,7 @@
     <row r="3395">
       <c r="A3395" t="inlineStr">
         <is>
-          <t>ümumiyyətlə ay və mars barədə olan xəbərlərin &lt;NUM&gt; gop və yalan olur</t>
+          <t>ümumiyyətlə ay və mars barədə olan xəbərlərin &lt;NUM&gt; gop və yalan ol</t>
         </is>
       </c>
       <c r="B3395" t="n">
@@ -34616,7 +34616,7 @@
     <row r="3420">
       <c r="A3420" t="inlineStr">
         <is>
-          <t>bir ara sənlə qucaqlaşmaq istədim yavaş yavas mazaxlaşmaq istedim</t>
+          <t>bir ara sənlə qucaqlaşmaq istə yavaş yavas mazaxlaşmaq istedim</t>
         </is>
       </c>
       <c r="B3420" t="n">
@@ -34716,7 +34716,7 @@
     <row r="3430">
       <c r="A3430" t="inlineStr">
         <is>
-          <t>babam mənə baxdı çox baxdı özü də elə pis halda idi ki mən bərk qorxdum yanımdan ötüb getdi</t>
+          <t>babam mənə baxdı çox baxdı özü də elə pis halda idi ki mən bərk qorxdum yanımdan ötüb get</t>
         </is>
       </c>
       <c r="B3430" t="n">
@@ -34786,7 +34786,7 @@
     <row r="3437">
       <c r="A3437" t="inlineStr">
         <is>
-          <t>mesaj screenini dostuma atmaq əvəzinə mesaj sahibinə atmışdım birdə xidmətdə olduğum ili fevral ayı &lt;NUM&gt; dan oldu</t>
+          <t>mesaj screenini dostuma atmaq əvəzinə mesaj sahibinə atmışdım birdə xidmətdə olduğum ili fevral ayı &lt;NUM&gt; dan ol</t>
         </is>
       </c>
       <c r="B3437" t="n">
@@ -35116,7 +35116,7 @@
     <row r="3470">
       <c r="A3470" t="inlineStr">
         <is>
-          <t>ölkənin başına nə bəlalar gəldisə qonaqpərvərliyimizdən gəldi</t>
+          <t>ölkənin başına nə bəlalar gəldisə qonaqpərvərliyimizdən gəl</t>
         </is>
       </c>
       <c r="B3470" t="n">
@@ -35156,7 +35156,7 @@
     <row r="3474">
       <c r="A3474" t="inlineStr">
         <is>
-          <t>elə indi də nağd alışda &lt;NUM&gt; yox &lt;NUM&gt;_NEG &lt;NUM&gt;_NEG azn_NEG almaq olur</t>
+          <t>elə indi də nağd alışda &lt;NUM&gt; yox &lt;NUM&gt;_NEG &lt;NUM&gt;_NEG azn_NEG almaq ol</t>
         </is>
       </c>
       <c r="B3474" t="n">
@@ -35206,7 +35206,7 @@
     <row r="3479">
       <c r="A3479" t="inlineStr">
         <is>
-          <t>ilk dəfədir telefonla ödenish elədim çox rahat və sadə oldu</t>
+          <t>ilk dəfədir telefonla ödenish elədim çox rahat və sadə ol</t>
         </is>
       </c>
       <c r="B3479" t="n">
@@ -35246,7 +35246,7 @@
     <row r="3483">
       <c r="A3483" t="inlineStr">
         <is>
-          <t>fransada humanite qəzeti aqanbekyandan müsahibə götürəndə deyir ki qarabağı ermənistana birləşdirilsə ermənistan iqtisadı cəhətdən güclənər</t>
+          <t>fransada humanite qəzeti aqanbekyandan müsahibə götürəndə de ki qarabağı ermənistana birləşdirilsə ermənistan iqtisadı cəhətdən güclənər</t>
         </is>
       </c>
       <c r="B3483" t="n">
@@ -35336,7 +35336,7 @@
     <row r="3492">
       <c r="A3492" t="inlineStr">
         <is>
-          <t>diecem bezi insanlar mene beyeni bezileri ise yuxardan asaqi baxacaqlar dunya tekamul etmeye cehd edir biz ise sunne sie ay sen bele namaz qilirsan men bele ay sen saqal saxliyrsan niye biguy qirxmirsan ay nem neter oldu aa mal yigimi dini irqi ayriseckilik edenleredi mal sozu allah buyurub deyb oxu elmin olsun bir gun elm islemek &lt;NUM&gt; gun ibadetden usdundu allaha ibadetini ele elmnle de mesqul ol dunyani gozellesdrmek yonunde bu xeberi men bir il idi bilirdim vede &lt;NUM&gt; ci ile qeder cin tamam ile bu isdiliyi idare ede bilse dunya neftden yox kankret_NEG olaraq_NEG elektrik_NEG enerjisinden asli olacaq ve de cin olkesnden</t>
+          <t>diecem bezi insanlar mene beyeni bezileri ise yuxardan asaqi baxacaqlar dunya tekamul etmeye cehd et biz ise sunne sie ay sen bele namaz qilirsan men bele ay sen saqal saxliyrsan niye biguy qirxmirsan ay nem neter ol aa mal yigimi dini irqi ayriseckilik edenleredi mal sozu allah buyurub deyb oxu elmin olsun bir gun elm islemek &lt;NUM&gt; gun ibadetden usdundu allaha ibadetini ele elmnle de mesqul ol dunyani gozellesdrmek yonunde bu xeberi men bir il idi bilirdim vede &lt;NUM&gt; ci ile qeder cin tamam ile bu isdiliyi idare ede bilse dunya neftden yox kankret_NEG olaraq_NEG elektrik_NEG enerjisinden asli olacaq ve de cin olkesnden</t>
         </is>
       </c>
       <c r="B3492" t="n">
@@ -35376,7 +35376,7 @@
     <row r="3496">
       <c r="A3496" t="inlineStr">
         <is>
-          <t>bew defe sefer edib birinci defedi sekilini gorurem o turkiyeli bir defe gedi day gozderimiz mazol oldu vallah</t>
+          <t>bew defe sefer edib birinci defedi sekilini gorurem o turkiyeli bir defe gedi day gozderimiz mazol ol vallah</t>
         </is>
       </c>
       <c r="B3496" t="n">
@@ -35426,7 +35426,7 @@
     <row r="3501">
       <c r="A3501" t="inlineStr">
         <is>
-          <t>mən &lt;NUM&gt; aydır ki citynet internetini istifadə edirəm &lt;NUM&gt; ay ərzində &lt;NUM&gt; dəfə getmişəm ofisə internet sürəti çox zəifdir və tez tez kəsilir test üçün başqa modem verdilər &lt;NUM&gt; ay istifadə etdik sürəti işləməsi gözəl idi dünən dedilər ki onu götürməliyik təzə modem verdilər bu da texniki problem olmadığı üçün özüm getməli imişəm ofisə getdim ama yenə sürət düşüb quruyur atır öz özünə o qədər zəifdir ki whatsapp mesajı belə &lt;NUM&gt; &lt;NUM&gt; saniyə sonra çatır ünvana &lt;NUM&gt; manat ödəniş edirəm qətiyyən dəymir_NEG o_NEG pula_NEG paylaşımı oxuyanlardan məlumatı olan başı çıxan varsa başqa provayder təklif etsin zəhmət olmazsa minnətdaram öncədən</t>
+          <t>mən &lt;NUM&gt; aydır ki citynet internetini istifadə edirəm &lt;NUM&gt; ay ərzində &lt;NUM&gt; dəfə getmişəm ofisə internet sürəti çox zəifdir və tez tez kəsilir test üçün başqa modem ver &lt;NUM&gt; ay istifadə etdik sürəti işləməsi gözəl idi dünən dedilər ki onu götürməliyik təzə modem ver bu da texniki problem olmadığı üçün özüm getməli imişəm ofisə getdim ama yenə sürət düşüb quruyur atır öz özünə o qədər zəifdir ki whatsapp mesajı belə &lt;NUM&gt; &lt;NUM&gt; saniyə sonra çatır ünvana &lt;NUM&gt; manat ödəniş edirəm qətiyyən dəymir_NEG o_NEG pula_NEG paylaşımı oxuyanlardan məlumatı olan başı çıxan varsa başqa provayder təklif etsin zəhmət olmazsa minnətdaram öncədən</t>
         </is>
       </c>
       <c r="B3501" t="n">
@@ -35466,7 +35466,7 @@
     <row r="3505">
       <c r="A3505" t="inlineStr">
         <is>
-          <t>elvin mammadov burda orucun sağlamlığa faydası və ziyanından deyil onun_NEG mənəvi_NEG dəyərlərindən_NEG danışıldı orucu sağlam insanlar tutur tuta bilməyənlər ehtiyacı olanlara iftar süfrəsi verir ya da maddi dəstək olur məncə siz məntiqi tuta bilmirsiniz</t>
+          <t>elvin mammadov burda orucun sağlamlığa faydası və ziyanından deyil onun_NEG mənəvi_NEG dəyərlərindən_NEG danışıldı orucu sağlam insanlar tutur tuta bilməyənlər ehtiyacı olanlara iftar süfrəsi verir ya da maddi dəstək ol məncə siz məntiqi tuta bilmirsiniz</t>
         </is>
       </c>
       <c r="B3505" t="n">
@@ -35526,7 +35526,7 @@
     <row r="3511">
       <c r="A3511" t="inlineStr">
         <is>
-          <t>allah bilir ərəblər uduzmaqları üçün neçə milyon pul verib</t>
+          <t>allah bil ərəblər uduzmaqları üçün neçə milyon pul verib</t>
         </is>
       </c>
       <c r="B3511" t="n">
@@ -35566,7 +35566,7 @@
     <row r="3515">
       <c r="A3515" t="inlineStr">
         <is>
-          <t>çox sevdiyim bir şirkət istər keyfiyyətli məhsulları istər xidmətləri olsun çox bəyənirəm bu zamana qədər aldığım bütün telefonlar irşaddandır</t>
+          <t>çox sevdiyim bir şirkət istər keyfiyyətli məhsulları istər xidmətləri olsun çox bəyən bu zamana qədər aldığım bütün telefonlar irşaddandır</t>
         </is>
       </c>
       <c r="B3515" t="n">
@@ -35596,7 +35596,7 @@
     <row r="3518">
       <c r="A3518" t="inlineStr">
         <is>
-          <t>bizdə bu tətbiqdən istifadə edirik amma bu gün sifariş gəldi götürmək istədik öz özünə sifarişi atminit elədi ayiş edirəm bu prablemi aradan götürərsiniz</t>
+          <t>bizdə bu tətbiqdən istifadə edirik amma bu gün sifariş gəl götürmək istədik öz özünə sifarişi atminit elədi ayiş edirəm bu prablemi aradan götürərsiniz</t>
         </is>
       </c>
       <c r="B3518" t="n">
@@ -35626,7 +35626,7 @@
     <row r="3521">
       <c r="A3521" t="inlineStr">
         <is>
-          <t>məhsullarım xarici anbara daxil olandan &lt;NUM&gt; gün sonra sistemə əlavə edilir və &lt;NUM&gt; &lt;NUM&gt; günə bakıda olur müştəri xidmətləri də yaxşıdır müraciətləri &lt;NUM&gt; &lt;NUM&gt; dəqiqəyə cavablandırırlar</t>
+          <t>məhsullarım xarici anbara daxil olandan &lt;NUM&gt; gün sonra sistemə əlavə edilir və &lt;NUM&gt; &lt;NUM&gt; günə bakıda ol müştəri xidmətləri də yaxşı müraciətləri &lt;NUM&gt; &lt;NUM&gt; dəqiqəyə cavablandırırlar</t>
         </is>
       </c>
       <c r="B3521" t="n">
@@ -35636,7 +35636,7 @@
     <row r="3522">
       <c r="A3522" t="inlineStr">
         <is>
-          <t>dilim ağzım quruyar bu rekordsmenə nənə desəm unutmaq lazım deyil ki_NEG hər_NEG güclü_NEG nənənin yanında mütləq bir fədakar baba olur</t>
+          <t>dilim ağzım quruyar bu rekordsmenə nənə desəm unutmaq lazım deyil ki_NEG hər_NEG güclü_NEG nənənin yanında mütləq bir fədakar baba ol</t>
         </is>
       </c>
       <c r="B3522" t="n">
@@ -35756,7 +35756,7 @@
     <row r="3534">
       <c r="A3534" t="inlineStr">
         <is>
-          <t>çox suretli ve mesuliyyetli musterilerin her bir zengini vaxtinda cavablandirir ve nese bir desteye ehtiyyac oldugda mudaxile edir ve yardimci olur</t>
+          <t>çox suretli ve mesuliyyetli musterilerin her bir zengini vaxtinda cavablandirir ve nese bir desteye ehtiyyac oldugda mudaxile et ve yardimci ol</t>
         </is>
       </c>
       <c r="B3534" t="n">
@@ -35796,7 +35796,7 @@
     <row r="3538">
       <c r="A3538" t="inlineStr">
         <is>
-          <t>lamborghini ilə taksilik edib ilk müştəriyə maşını hədiyyə etdi</t>
+          <t>lamborghini ilə taksilik edib ilk müştəriyə maşını hədiyyə et</t>
         </is>
       </c>
       <c r="B3538" t="n">
@@ -35906,7 +35906,7 @@
     <row r="3549">
       <c r="A3549" t="inlineStr">
         <is>
-          <t>wolt proqramını tövsiyə edirəm ki istifadə etdim çox bəyəndim və əla proqramdır ona görə hər kəsə məsləhət görürəm</t>
+          <t>wolt proqramını tövsiyə edirəm ki istifadə etdim çox bəyən və əla proqramdır ona görə hər kəsə məsləhət görürəm</t>
         </is>
       </c>
       <c r="B3549" t="n">
@@ -35966,7 +35966,7 @@
     <row r="3555">
       <c r="A3555" t="inlineStr">
         <is>
-          <t>digər paylaşımlara çox etdiyin reklamlara az bəyəni gəlir səbəbi nədir ki</t>
+          <t>digər paylaşımlara çox etdiyin reklamlara az bəyəni gəl səbəbi nədir ki</t>
         </is>
       </c>
       <c r="B3555" t="n">
@@ -36086,7 +36086,7 @@
     <row r="3567">
       <c r="A3567" t="inlineStr">
         <is>
-          <t>oculus quest &lt;NUM&gt; aldim cemi &lt;NUM&gt; ay istifade eledim ps yerini vermir birincisi gozu agridir yorur uzde agirliq yaradir sonra ele oyunlar varki ayaquste oynayasan o vapse yorur yayda ise ter su sel olur</t>
+          <t>oculus quest &lt;NUM&gt; aldim cemi &lt;NUM&gt; ay istifade eledim ps yerini vermir birincisi gozu agridir yorur uzde agirliq yaradir sonra ele oyunlar varki ayaquste oynayasan o vapse yorur yayda ise ter su sel ol</t>
         </is>
       </c>
       <c r="B3567" t="n">
@@ -36246,7 +36246,7 @@
     <row r="3583">
       <c r="A3583" t="inlineStr">
         <is>
-          <t>ona görə it iyisi verirlər onların tərlərindən zatən pis iy gəlir üstə gəl paltarın qoxusu</t>
+          <t>ona görə it iyisi verirlər onların tərlərindən zatən pis iy gəl üstə gəl paltarın qoxusu</t>
         </is>
       </c>
       <c r="B3583" t="n">
@@ -36256,7 +36256,7 @@
     <row r="3584">
       <c r="A3584" t="inlineStr">
         <is>
-          <t>yol getmir insanlar o yolu gedir bizləri kimlər hansı yolla necə aparacaqları məlum deyil qaranlıq_NEG və_NEG ya_NEG işıqlı yol çox böyük sual altındadır gedişimizdəndə məlumdur ki çox təhlükəli və güvənsiz yoldayıq</t>
+          <t>yol getmir insanlar o yolu get bizləri kimlər hansı yolla necə aparacaqları məlum deyil qaranlıq_NEG və_NEG ya_NEG işıqlı yol çox böyük sual altındadır gedişimizdəndə məlumdur ki çox təhlükəli və güvənsiz yoldayıq</t>
         </is>
       </c>
       <c r="B3584" t="n">
@@ -36266,7 +36266,7 @@
     <row r="3585">
       <c r="A3585" t="inlineStr">
         <is>
-          <t>azərbaycanın rifahı düzəlsə belə özümüz qoymarıq xoşbəxt olaq bir gənc dostunun toyunda bir az özü bildiyi kimi rəqs edir deyirik kişi kimi oynamır bir qız toyunda gülür əylənir lağ edirik deyirik ağır deyil elə_NEG ağırlığı_NEG özümüz_NEG yaradırıq burnumuzu onun bunun həyatına soxaraq xoşbəxt olası deyilik milyonlar olsa da</t>
+          <t>azərbaycanın rifahı düzəlsə belə özümüz qoymarıq xoşbəxt olaq bir gənc dostunun toyunda bir az özü bildiyi kimi rəqs et deyirik kişi kimi oynamır bir qız toyunda gülür əylənir lağ edirik deyirik ağır deyil elə_NEG ağırlığı_NEG özümüz_NEG yaradırıq burnumuzu onun bunun həyatına soxaraq xoşbəxt olası deyilik milyonlar olsa da</t>
         </is>
       </c>
       <c r="B3585" t="n">
@@ -36286,7 +36286,7 @@
     <row r="3587">
       <c r="A3587" t="inlineStr">
         <is>
-          <t>&lt;NUM&gt; milyard dollar az pul deyil çinin_NEG ən_NEG yaxşı_NEG mütəxəsissləri bu körpüdə işləyib bu qədər pulun xərclənməyi də körpünün maliyyə və siyasi əhəmiyyətin göstərir bu kimi layihələr ilə ölkəmizdəki layihələri müqayisə edəndə ölkəmizin necə bədbəxt və kiççik olduğun görürük socarın binasına ən azı &lt;NUM&gt; milyard dollar pul xərclənib binanın sadəcə görünüşü var əliyev prospektində hələ mən azərsu neft fondunun binaların demirəm çindəki körpü həm də elastikdir yellənir &lt;NUM&gt; bala kimi zəlzələyə tap gətirir körpüyə alt hissədə hər &lt;NUM&gt; metrdən bir sütunlar qoyulub &lt;NUM&gt; metrə kimi məsafə isə sanki qayıq kimi suyun üzərində dayanıb körpü bir növ ilan kimidir qıvrılır və formasın dəyişə bilir çin bura &lt;NUM&gt; milyard dollar xərcləməklə &lt;NUM&gt; milyard dollarında iqtisadiyyatı dirçəldib çin dünyanın ən azad ticari zonalarından biridir senzura monopoliya və bürokratiya yoxdur bu_NEG həm_NEG hindistanda_NEG və afrika ölkələrində də belədir keçən il hindistanın ooti və kerela kəndləri ümumi hindistanın &lt;NUM&gt; in çay və düyü ilə təmin edib &lt;NUM&gt; kənddə &lt;NUM&gt; milyondan çox insan yaşayır və hindistan hökuməti bu kəndlərə pulsuz dəmiryolu xətti çəkib afrikada anqola adlı ölkə var banan ixracına görə liderdir keçən il &lt;NUM&gt; milyon tona yaxın banan ixrac edərək büdcəyə phone dollar xeyr verib yəni deməyim odur ki bütün çinlilər hindlilər və afrikalılar dayanmadan işləyib rekordlar qırırlar təkcə quba şəhəri ölkəmizi alma və vişnə ilə tam təmin edə biləcək gücdədir amma qubalılar monopoliyadan və pulsuzluqdan əziyyət çəkir ölkəmiz bərbad və baxımsızdır ancaq məmurlar at oynadır</t>
+          <t>&lt;NUM&gt; milyard dollar az pul deyil çinin_NEG ən_NEG yaxşı_NEG mütəxəsissləri bu körpüdə işləyib bu qədər pulun xərclənməyi də körpünün maliyyə və siyasi əhəmiyyətin göstərir bu kimi layihələr ilə ölkəmizdəki layihələri müqayisə edəndə ölkəmizin necə bədbəxt və kiççik olduğun görürük socarın binasına ən azı &lt;NUM&gt; milyard dollar pul xərclənib binanın sadəcə görünüşü var əliyev prospektində hələ mən azərsu neft fondunun binaların demirəm çindəki körpü həm də elastikdir yellənir &lt;NUM&gt; bala kimi zəlzələyə tap gətirir körpüyə alt hissədə hər &lt;NUM&gt; metrdən bir sütunlar qoyulub &lt;NUM&gt; metrə kimi məsafə isə sanki qayıq kimi suyun üzərində dayanıb körpü bir növ ilan kimidir qıvrılır və formasın dəyişə bil çin bura &lt;NUM&gt; milyard dollar xərcləməklə &lt;NUM&gt; milyard dollarında iqtisadiyyatı dirçəldib çin dünyanın ən azad ticari zonalarından biridir senzura monopoliya və bürokratiya yoxdur bu_NEG həm_NEG hindistanda_NEG və afrika ölkələrində də belədir keçən il hindistanın ooti və kerela kəndləri ümumi hindistanın &lt;NUM&gt; in çay və düyü ilə təmin edib &lt;NUM&gt; kənddə &lt;NUM&gt; milyondan çox insan yaşayır və hindistan hökuməti bu kəndlərə pulsuz dəmiryolu xətti çəkib afrikada anqola adlı ölkə var banan ixracına görə liderdir keçən il &lt;NUM&gt; milyon tona yaxın banan ixrac edərək büdcəyə phone dollar xeyr verib yəni deməyim odur ki bütün çinlilər hindlilər və afrikalılar dayanmadan işləyib rekordlar qırırlar təkcə quba şəhəri ölkəmizi alma və vişnə ilə tam təmin edə biləcək gücdədir amma qubalılar monopoliyadan və pulsuzluqdan əziyyət çəkir ölkəmiz bərbad və baxımsızdır ancaq məmurlar at oynadır</t>
         </is>
       </c>
       <c r="B3587" t="n">
@@ -36386,7 +36386,7 @@
     <row r="3597">
       <c r="A3597" t="inlineStr">
         <is>
-          <t>bunlara əcəb olur iki ildə çalışıb vuruşuram düzəməlli öyrənə bilməmişəm bunların dilin</t>
+          <t>bunlara əcəb ol iki ildə çalışıb vuruşuram düzəməlli öyrənə bilməmişəm bunların dilin</t>
         </is>
       </c>
       <c r="B3597" t="n">
@@ -36396,7 +36396,7 @@
     <row r="3598">
       <c r="A3598" t="inlineStr">
         <is>
-          <t>qadını rəsmən pazdadı düz elədi hələ bunun xiyrlıgına bax özüdə çəkib paylaşıb arsız adam bu arada bir qadına kayb ol demək deməkdən pisdi</t>
+          <t>qadını rəsmən pazdadı düz elədi hələ bunun xiyrlıgına bax özüdə çəkib paylaşıb arsız adam bu arada bir qadına kayb ol demək deməkdən pis</t>
         </is>
       </c>
       <c r="B3598" t="n">
@@ -36442,7 +36442,7 @@
     <row r="3603">
       <c r="A3603" t="inlineStr">
         <is>
-          <t>elə buna görə deyiblər abş bizə paxıllıq edir</t>
+          <t>elə buna görə deyiblər abş bizə paxıllıq et</t>
         </is>
       </c>
       <c r="B3603" t="n">
@@ -36552,7 +36552,7 @@
     <row r="3614">
       <c r="A3614" t="inlineStr">
         <is>
-          <t>eyni fələstindeki kimi gözlədi sonra israil hucum etdi</t>
+          <t>eyni fələstindeki kimi gözlədi sonra israil hucum et</t>
         </is>
       </c>
       <c r="B3614" t="n">
@@ -36842,7 +36842,7 @@
     <row r="3643">
       <c r="A3643" t="inlineStr">
         <is>
-          <t>abş ın öz geosiyasəti var lakin onlar anlayırlar ki qüvvələri yalnız ukraynaya kifayət edir</t>
+          <t>abş ın öz geosiyasəti var lakin onlar anlayırlar ki qüvvələri yalnız ukraynaya kifayət et</t>
         </is>
       </c>
       <c r="B3643" t="n">
@@ -36912,7 +36912,7 @@
     <row r="3650">
       <c r="A3650" t="inlineStr">
         <is>
-          <t>her binada &lt;NUM&gt; menzil olsa her binaya &lt;NUM&gt; nefer hesablasaq &lt;NUM&gt; &lt;NUM&gt; nefer edir heqiqeti gizledirler</t>
+          <t>her binada &lt;NUM&gt; menzil olsa her binaya &lt;NUM&gt; nefer hesablasaq &lt;NUM&gt; &lt;NUM&gt; nefer et heqiqeti gizledirler</t>
         </is>
       </c>
       <c r="B3650" t="n">
@@ -37112,7 +37112,7 @@
     <row r="3670">
       <c r="A3670" t="inlineStr">
         <is>
-          <t>pentagon deyir silahsızdı düşün onlar barış üçün göndərdiyi gəmini vurublar ya da onlar da bizim kimi planetlərə göndərdiyi kəşf apartlarından birini vurublar</t>
+          <t>pentagon de silahsızdı düşün onlar barış üçün göndərdiyi gəmini vurublar ya da onlar da bizim kimi planetlərə göndərdiyi kəşf apartlarından birini vurublar</t>
         </is>
       </c>
       <c r="B3670" t="n">
@@ -37282,7 +37282,7 @@
     <row r="3687">
       <c r="A3687" t="inlineStr">
         <is>
-          <t>şirin su söhbət sizdən gedir</t>
+          <t>şirin su söhbət sizdən get</t>
         </is>
       </c>
       <c r="B3687" t="n">
@@ -37472,7 +37472,7 @@
     <row r="3706">
       <c r="A3706" t="inlineStr">
         <is>
-          <t>azda olsa ictimai qinaq tesirini gosterir evvel gunde bir mahni cixardirdi qinagin tesiri youtuberlere de oldu azalma var ıctimai qinagi birazda artirsaq ve sertlesdirsek duzeltmek olur ındi bu cehetden en boyuk problem yerli tv kanallaridi birazda ora koklenmek lazimdir</t>
+          <t>azda olsa ictimai qinaq tesirini gosterir evvel gunde bir mahni cixardirdi qinagin tesiri youtuberlere de ol azalma var ıctimai qinagi birazda artirsaq ve sertlesdirsek duzeltmek ol ındi bu cehetden en boyuk problem yerli tv kanallaridi birazda ora koklenmek lazimdir</t>
         </is>
       </c>
       <c r="B3706" t="n">
@@ -37522,7 +37522,7 @@
     <row r="3711">
       <c r="A3711" t="inlineStr">
         <is>
-          <t>çox rahatdı həm də həddindən artıq çox tez gəlir sizdən çox raziyam nə yaxşı ki varsız həmkarlarınız da hamısı gülər uzluduler</t>
+          <t>çox rahatdı həm də həddindən artıq çox tez gəl sizdən çox raziyam nə yaxşı ki varsız həmkarlarınız da hamısı gülər uzluduler</t>
         </is>
       </c>
       <c r="B3711" t="n">
@@ -37542,7 +37542,7 @@
     <row r="3713">
       <c r="A3713" t="inlineStr">
         <is>
-          <t>ended belə bir pişik var sanki isə gedir abet və axşam yemək baxdı gelir yeməyini isdeyir yeyib gedir</t>
+          <t>ended belə bir pişik var sanki isə get abet və axşam yemək baxdı gelir yeməyini isdeyir yeyib get</t>
         </is>
       </c>
       <c r="B3713" t="n">
@@ -37612,7 +37612,7 @@
     <row r="3720">
       <c r="A3720" t="inlineStr">
         <is>
-          <t>&lt;NUM&gt; &lt;NUM&gt; &lt;NUM&gt; azn edir üstünə də &lt;NUM&gt; azn gəlsək &lt;NUM&gt; azn yupiter qiymətləri özü də &lt;NUM&gt; kvadrata görə cəhənnəm &lt;NUM&gt; kvadrat ola adamı yandırmaz ümumi götürəndə azərbaycanda daşınmaz əmlak qiymətləri çox şişirdilib</t>
+          <t>&lt;NUM&gt; &lt;NUM&gt; &lt;NUM&gt; azn et üstünə də &lt;NUM&gt; azn gəlsək &lt;NUM&gt; azn yupiter qiymətləri özü də &lt;NUM&gt; kvadrata görə cəhənnəm &lt;NUM&gt; kvadrat ola adamı yandırmaz ümumi götürəndə azərbaycanda daşınmaz əmlak qiymətləri çox şişirdilib</t>
         </is>
       </c>
       <c r="B3720" t="n">
@@ -37762,7 +37762,7 @@
     <row r="3735">
       <c r="A3735" t="inlineStr">
         <is>
-          <t>elə bil banka pul qoyublar üstünə faiz gəlir</t>
+          <t>elə bil banka pul qoyublar üstünə faiz gəl</t>
         </is>
       </c>
       <c r="B3735" t="n">
@@ -37892,7 +37892,7 @@
     <row r="3748">
       <c r="A3748" t="inlineStr">
         <is>
-          <t>bon az kamandasına təşəkkür bildirmək istəyirəm trendyol və boynerdən alış veriş edirəm və alışdan cashback qazandırır artıq &lt;NUM&gt; manat qazanmışam düzdür bir başa karta nağdlaşdırma olsa daha rahat olar onu da söz veriblər düzəldəcəklər</t>
+          <t>bon az kamandasına təşəkkür bildirmək istə trendyol və boynerdən alış veriş edirəm və alışdan cashback qazandırır artıq &lt;NUM&gt; manat qazanmışam düzdür bir başa karta nağdlaşdırma olsa daha rahat olar onu da söz veriblər düzəldəcəklər</t>
         </is>
       </c>
       <c r="B3748" t="n">
@@ -37972,7 +37972,7 @@
     <row r="3756">
       <c r="A3756" t="inlineStr">
         <is>
-          <t>onu deyen sehv edir tashkent hal hazirda bakidan bahadi</t>
+          <t>onu deyen sehv et tashkent hal hazirda bakidan bahadi</t>
         </is>
       </c>
       <c r="B3756" t="n">
@@ -38112,7 +38112,7 @@
     <row r="3770">
       <c r="A3770" t="inlineStr">
         <is>
-          <t>fransanın mədəniyyət sahəsində anti azərbaycan fəaliyyətləri unesco nun baş qərargahının fransa ərazisindən çıxarılmasını zəruri edir</t>
+          <t>fransanın mədəniyyət sahəsində anti azərbaycan fəaliyyətləri unesco nun baş qərargahının fransa ərazisindən çıxarılmasını zəruri et</t>
         </is>
       </c>
       <c r="B3770" t="n">
@@ -38132,7 +38132,7 @@
     <row r="3772">
       <c r="A3772" t="inlineStr">
         <is>
-          <t>bəs nevaxtdır professorlar özlərini cırırdılarki zəlzələ olacaq niye qabaqlayıcı tədbirlər görülmədi görəsən hələ dünən naci görür deyirdiki zəlzələ olma ehtimali var hanı bunların tədbiri maraqlıdır yoxsa bu zəlzələlər dünyada insan sayını azaltmaqdan ötrüdür yene erdoğan çıxıb eey benim halkim filan pafoslarla çıxış edəcək nəbilim olan sadə vətəndaşa olur allah rəhmət eləsin acıları acımızdır</t>
+          <t>bəs nevaxtdır professorlar özlərini cırırdılarki zəlzələ olacaq niye qabaqlayıcı tədbirlər görülmədi görəsən hələ dünən naci görür deyirdiki zəlzələ olma ehtimali var hanı bunların tədbiri maraqlıdır yoxsa bu zəlzələlər dünyada insan sayını azaltmaqdan ötrüdür yene erdoğan çıxıb eey benim halkim filan pafoslarla çıxış edəcək nəbilim olan sadə vətəndaşa ol allah rəhmət eləsin acıları acımızdır</t>
         </is>
       </c>
       <c r="B3772" t="n">
@@ -38392,7 +38392,7 @@
     <row r="3798">
       <c r="A3798" t="inlineStr">
         <is>
-          <t>tualet olan zaman qalaya hücüm olur</t>
+          <t>tualet olan zaman qalaya hücüm ol</t>
         </is>
       </c>
       <c r="B3798" t="n">
@@ -38452,7 +38452,7 @@
     <row r="3804">
       <c r="A3804" t="inlineStr">
         <is>
-          <t>her meqsede çatmaq qurban ve eziyyet teleb edir</t>
+          <t>her meqsede çatmaq qurban ve eziyyet teleb et</t>
         </is>
       </c>
       <c r="B3804" t="n">
@@ -38482,7 +38482,7 @@
     <row r="3807">
       <c r="A3807" t="inlineStr">
         <is>
-          <t>gör nə qədər insan elə bilir ki bu həqiqi adamdır orda ama yazıda da yazılıb ki animasiyadir</t>
+          <t>gör nə qədər insan elə bil ki bu həqiqi adamdır orda ama yazıda da yazılıb ki animasiyadir</t>
         </is>
       </c>
       <c r="B3807" t="n">
@@ -38502,7 +38502,7 @@
     <row r="3809">
       <c r="A3809" t="inlineStr">
         <is>
-          <t>ölkəsinin &lt;NUM&gt; faizinin yaşayış səviyyəsi daş dövrü icmasından fərqlənməyən hindistan öz problemləri ilə maraqlanmaqdansa gəlib erm nilərə dəstək olur pul ayırır gic uşağı gic maraqlan gör &lt;NUM&gt; il boyunca manji dağ yarır ona texnika ayırmaq lazımdır</t>
+          <t>ölkəsinin &lt;NUM&gt; faizinin yaşayış səviyyəsi daş dövrü icmasından fərqlənməyən hindistan öz problemləri ilə maraqlanmaqdansa gəlib erm nilərə dəstək ol pul ayırır gic uşağı gic maraqlan gör &lt;NUM&gt; il boyunca manji dağ yarır ona texnika ayırmaq lazımdır</t>
         </is>
       </c>
       <c r="B3809" t="n">
@@ -38702,7 +38702,7 @@
     <row r="3829">
       <c r="A3829" t="inlineStr">
         <is>
-          <t>məlumat üçün deyim ki yerdəki qum dənəciklərin saymaq olar amma kosmosdakı ulduzları saymaq mümkün deyil təxmini_NEG olaraq_NEG &lt;NUM&gt;_NEG kainatda elə &lt;NUM&gt; spektilyon ulduz var bir kainat bitir digər kainat başlayır biz heç vaxt_NEG kainatı_NEG tərk_NEG edə bilməyəcəyik hər bir kainat elə çərçivələnib ki birindın digərinə keçmək münkün deyil onda_NEG bütün_NEG sirrlər_NEG açıla bilər hər bir kainatın sonu qaranlıq sükut vakkum və yox olmadır_NEG qara_NEG dəlikdə_NEG hər şey birləşib nöqtə halına gələ bilər amma kainatların sərhəddində nə varsa yox olur_NEG və_NEG toz_NEG halında kainata qayıdır gözlə görə bildiyimiz kosmosda &lt;NUM&gt; milyard kainat var bir meqakainatda &lt;NUM&gt; milyard kainat olur bir superkainatda isə &lt;NUM&gt; milyard meqakainat olur hər kainatda da &lt;NUM&gt; milyon planetdə həyat var kainatlar bitəndən sonra kosmos da bitir daha sonra növbəti kosmos başlayır təxmini olaraq &lt;NUM&gt; milyon kosmos var sonuncu kosmosdan sonra ağ dumanlı boşluq başlayır burda zaman o qədər sürətlidir ki insan &lt;NUM&gt; saniyəyə qocalır və yox olur_NEG biz_NEG nəinki_NEG kainatı tərk edə biləcəyik heç sonuncu_NEG kosmosun_NEG sərhəddinə_NEG çata bilərik ağ dumanlı işığın sonunda yaradan var və bütün saydıqlarım hamısı onun ovucunun içinə yerləşir yaradan o qədər böyükdür ki &lt;NUM&gt; milyon kosmos onun ovucunun içində bir kiftə kündəsi kimidir o hər şeyi görür və bilir idarə edir güc verir enerji verir onu heç kim_NEG doğmayıb_NEG heç kim_NEG yaratmayıb_NEG o_NEG nə doğmuş nə də doğulmuşdur ey ucadan uca tenqri biz sənə gəldik səndən imdat dilədik və sənə ağız açdıq öz dəryanda olan ruzi və sevgidən bir damla da olsa bizə yetir biz yalnız və yalnız sənə dua edir və yalnız səndən imdat diləyirik</t>
+          <t>məlumat üçün deyim ki yerdəki qum dənəciklərin saymaq olar amma kosmosdakı ulduzları saymaq mümkün deyil təxmini_NEG olaraq_NEG &lt;NUM&gt;_NEG kainatda elə &lt;NUM&gt; spektilyon ulduz var bir kainat bitir digər kainat başlayır biz heç vaxt_NEG kainatı_NEG tərk_NEG edə bilməyəcəyik hər bir kainat elə çərçivələnib ki birindın digərinə keçmək münkün deyil onda_NEG bütün_NEG sirrlər_NEG açıla bilər hər bir kainatın sonu qaranlıq sükut vakkum və yox olmadır_NEG qara_NEG dəlikdə_NEG hər şey birləşib nöqtə halına gələ bilər amma kainatların sərhəddində nə varsa yox ol_NEG və_NEG toz_NEG halında kainata qayıdır gözlə görə bildiyimiz kosmosda &lt;NUM&gt; milyard kainat var bir meqakainatda &lt;NUM&gt; milyard kainat ol bir superkainatda isə &lt;NUM&gt; milyard meqakainat ol hər kainatda da &lt;NUM&gt; milyon planetdə həyat var kainatlar bitəndən sonra kosmos da bitir daha sonra növbəti kosmos başlayır təxmini olaraq &lt;NUM&gt; milyon kosmos var sonuncu kosmosdan sonra ağ dumanlı boşluq başlayır burda zaman o qədər sürətlidir ki insan &lt;NUM&gt; saniyəyə qocalır və yox ol_NEG biz_NEG nəinki_NEG kainatı tərk edə biləcəyik heç sonuncu_NEG kosmosun_NEG sərhəddinə_NEG çata bilərik ağ dumanlı işığın sonunda yaradan var və bütün saydıqlarım hamısı onun ovucunun içinə yerləşir yaradan o qədər böyükdür ki &lt;NUM&gt; milyon kosmos onun ovucunun içində bir kiftə kündəsi kimidir o hər şeyi görür və bil idarə et güc verir enerji verir onu heç kim_NEG doğmayıb_NEG heç kim_NEG yaratmayıb_NEG o_NEG nə doğmuş nə də doğulmuşdur ey ucadan uca tenqri biz sənə gəldik səndən imdat dilədik və sənə ağız açdıq öz dəryanda olan ruzi və sevgidən bir damla da olsa bizə yetir biz yalnız və yalnız sənə dua et və yalnız səndən imdat diləyirik</t>
         </is>
       </c>
       <c r="B3829" t="n">
@@ -38742,7 +38742,7 @@
     <row r="3833">
       <c r="A3833" t="inlineStr">
         <is>
-          <t>bəzən bişintilər köhnə olur qiymət baha bəzi filiallarda isə qiymət yoxdu məhsulun qarşısında satıcıdan soruşmalı oluruq hər dəfə</t>
+          <t>bəzən bişintilər köhnə ol qiymət baha bəzi filiallarda isə qiymət yoxdu məhsulun qarşısında satıcıdan soruşmalı oluruq hər dəfə</t>
         </is>
       </c>
       <c r="B3833" t="n">
@@ -38852,7 +38852,7 @@
     <row r="3844">
       <c r="A3844" t="inlineStr">
         <is>
-          <t>mən çox da elə günahkar deyiləm ona görə ki səni dünyada hamıdan çox sevirəm min dəfə çox sevirəm</t>
+          <t>mən çox da elə günahkar deyiləm ona görə ki səni dünyada hamıdan çox sev min dəfə çox sev</t>
         </is>
       </c>
       <c r="B3844" t="n">
@@ -38952,7 +38952,7 @@
     <row r="3854">
       <c r="A3854" t="inlineStr">
         <is>
-          <t>arada kantaktda reklama getdi</t>
+          <t>arada kantaktda reklama get</t>
         </is>
       </c>
       <c r="B3854" t="n">
@@ -39062,7 +39062,7 @@
     <row r="3865">
       <c r="A3865" t="inlineStr">
         <is>
-          <t>bu nədi güncəlləmədən sonra proqramın zayı çıxdı hər ay güncəlləməlisən güncəlləmədən də girmək olmur hədiyyələr də nə lazım deyilsə o gəlir nntv üçün &lt;NUM&gt; gb interneti neynirəm mən facebook ınstagram işlətmirəm amma həmişə onlar üçün mb gəlir bu nədi belə</t>
+          <t>bu nədi güncəlləmədən sonra proqramın zayı çıxdı hər ay güncəlləməlisən güncəlləmədən də girmək olmur hədiyyələr də nə lazım deyilsə o gəl nntv üçün &lt;NUM&gt; gb interneti neynirəm mən facebook ınstagram işlətmirəm amma həmişə onlar üçün mb gəl bu nədi belə</t>
         </is>
       </c>
       <c r="B3865" t="n">
@@ -39142,7 +39142,7 @@
     <row r="3873">
       <c r="A3873" t="inlineStr">
         <is>
-          <t>düşündürücü olan nədir burda elə də təəccüblə deyir ki &lt;NUM&gt; faizi bilmədi hələ şükür elə ki &lt;NUM&gt; faiz bilib ən təəccüblü və maraqlısı elə budur ki &lt;NUM&gt; faiz bilib sanki yaponiyada soğru aparıblar normaldır da azərbaycan təhsilindən söhbət gedirsə təəccüblü nə ola bilər ki müəllimi yaltaq saxtakar müti eləyiblər indi gəlib təəccüblənirlər bir iki qram ətimiz var onu da söz tökməyin siz allah</t>
+          <t>düşündürücü olan nədir burda elə də təəccüblə de ki &lt;NUM&gt; faizi bilmədi hələ şükür elə ki &lt;NUM&gt; faiz bilib ən təəccüblü və maraqlısı elə budur ki &lt;NUM&gt; faiz bilib sanki yaponiyada soğru aparıblar normaldır da azərbaycan təhsilindən söhbət gedirsə təəccüblü nə ola bilər ki müəllimi yaltaq saxtakar müti eləyiblər indi gəlib təəccüblənirlər bir iki qram ətimiz var onu da söz tökməyin siz allah</t>
         </is>
       </c>
       <c r="B3873" t="n">
@@ -39162,7 +39162,7 @@
     <row r="3875">
       <c r="A3875" t="inlineStr">
         <is>
-          <t>zehlem gedir futboldan dunen kinoya baxdigim yerde tv &lt;NUM&gt; kesib bizim kanal futbol verdi &lt;NUM&gt; xiyar dusub bir topun daliyca lazimdi mene durub onlara baxim kim ayaginda topu nece oynadir hansi yaxşı şut atir elbetde butun olkelerde kanallar futbol gosterse elbetde &lt;NUM&gt; milyarda catar</t>
+          <t>zehlem get futboldan dunen kinoya baxdigim yerde tv &lt;NUM&gt; kesib bizim kanal futbol verdi &lt;NUM&gt; xiyar dusub bir topun daliyca lazimdi mene durub onlara baxim kim ayaginda topu nece oynadir hansi yaxşı şut atir elbetde butun olkelerde kanallar futbol gosterse elbetde &lt;NUM&gt; milyarda catar</t>
         </is>
       </c>
       <c r="B3875" t="n">
@@ -39222,7 +39222,7 @@
     <row r="3881">
       <c r="A3881" t="inlineStr">
         <is>
-          <t>varis dirienin səhra çiçəyi kitabında belə bir hissə var varis qardaşına yenicə çıxmağa başlayan ağacı qırdığı üçün irad bildirir qardaşı da deyir bura səhradı bura yağış yağmır ki onsuz da ağac böyüməyəcək varisin cavabı çox maraqlı gəlmişdi bura yağış yağmır deyə səhra olmayıb səhradır deyə yağış yağmır çünki yağışlar daha çox ağaclı ərazilərə yağır siz ağacları böyüməyə qoymadan qırırsız deyə yağış da yağmır</t>
+          <t>varis dirienin səhra çiçəyi kitabında belə bir hissə var varis qardaşına yenicə çıxmağa başlayan ağacı qırdığı üçün irad bildirir qardaşı da de bura səhradı bura yağış yağmır ki onsuz da ağac böyüməyəcək varisin cavabı çox maraqlı gəlmişdi bura yağış yağmır deyə səhra olmayıb səhradır deyə yağış yağmır çünki yağışlar daha çox ağaclı ərazilərə yağır siz ağacları böyüməyə qoymadan qırırsız deyə yağış da yağmır</t>
         </is>
       </c>
       <c r="B3881" t="n">
@@ -39242,7 +39242,7 @@
     <row r="3883">
       <c r="A3883" t="inlineStr">
         <is>
-          <t>əslində hazırda kasıblar varlılardan daha kök olur çünki bol karbonhidratlı qidalar makaron ucuz xəmir yeməkləri kartof və hamsı əsasən kasıb təbəqənin istehlak etdiyi məhsullardı</t>
+          <t>əslində hazırda kasıblar varlılardan daha kök ol çünki bol karbonhidratlı qidalar makaron ucuz xəmir yeməkləri kartof və hamsı əsasən kasıb təbəqənin istehlak etdiyi məhsullardı</t>
         </is>
       </c>
       <c r="B3883" t="n">
@@ -39292,7 +39292,7 @@
     <row r="3888">
       <c r="A3888" t="inlineStr">
         <is>
-          <t>nataşa özünü şən göstərməyə çalışırdı ancaq hiss olunurdu ki bunu o güclə edir</t>
+          <t>nataşa özünü şən göstərməyə çalışırdı ancaq hiss olunurdu ki bunu o güclə et</t>
         </is>
       </c>
       <c r="B3888" t="n">
@@ -39332,7 +39332,7 @@
     <row r="3892">
       <c r="A3892" t="inlineStr">
         <is>
-          <t>eybi yox nəticə_NEG nə_NEG olur_NEG olsun &lt;NUM&gt; dənə messi kimi cındıra dəyər</t>
+          <t>eybi yox nəticə_NEG nə_NEG ol_NEG olsun &lt;NUM&gt; dənə messi kimi cındıra dəyər</t>
         </is>
       </c>
       <c r="B3892" t="n">
@@ -39372,7 +39372,7 @@
     <row r="3896">
       <c r="A3896" t="inlineStr">
         <is>
-          <t>hər tərəfdən sözün yaxşı mənasında fərqlənən gözəl marketdi hem məhsullar keyfiyyətlidir həm də yaxşı endirimlər edir rahatliqla alış veriş etmək olar</t>
+          <t>hər tərəfdən sözün yaxşı mənasında fərqlənən gözəl marketdi hem məhsullar keyfiyyətlidir həm də yaxşı endirimlər et rahatliqla alış veriş etmək olar</t>
         </is>
       </c>
       <c r="B3896" t="n">
@@ -39452,7 +39452,7 @@
     <row r="3904">
       <c r="A3904" t="inlineStr">
         <is>
-          <t>şəhərin bir çox salonlarında olmuşam amma bu salonda həm professional saç ustaları həm də müştəriyə xoş doğma münasibət çox xoşuma gəlir artıq ikinci ildir saçlarıma qulluğu yalnız bu salona və ustam aybənizə etibar edirəm ayrıca təşəkkür salonun yaradıcısı sənan ustaya bildirmək istəyirəm</t>
+          <t>şəhərin bir çox salonlarında olmuşam amma bu salonda həm professional saç ustaları həm də müştəriyə xoş doğma münasibət çox xoşuma gəl artıq ikinci ildir saçlarıma qulluğu yalnız bu salona və ustam aybənizə etibar edirəm ayrıca təşəkkür salonun yaradıcısı sənan ustaya bildirmək istə</t>
         </is>
       </c>
       <c r="B3904" t="n">
@@ -39642,7 +39642,7 @@
     <row r="3923">
       <c r="A3923" t="inlineStr">
         <is>
-          <t>mən adətən &lt;NUM&gt; dəfə yeyirəm səhər və axşamtərəfi saat &lt;NUM&gt; &lt;NUM&gt; aralığında ana yemək gecəyə doğru isə çay atışdırmalıq çəkim sağlığım imunitetim çox əladır özümü qucaqlayıram</t>
+          <t>mən adətən &lt;NUM&gt; dəfə yeyirəm səhər və axşamtərəfi saat &lt;NUM&gt; &lt;NUM&gt; aralığında ana yemək gecəyə doğru isə çay atışdırmalıq çəkim sağlığım imunitetim çox əla özümü qucaqlayıram</t>
         </is>
       </c>
       <c r="B3923" t="n">
@@ -39792,7 +39792,7 @@
     <row r="3938">
       <c r="A3938" t="inlineStr">
         <is>
-          <t>çoxu oxuya oxuya hele de anlamayib meseleni onların evvelceden evliliye hazırlaşmasına aid sübutlar olmalıdir yeni bunu çox güman ki dell ve sübutlar ile önceden mehkeme tesdiq edir sonra da nigah dairesi eyni zamanda ölenin valideynlerinin razılığı yeni ağlina gelib gedib evlenim ele deyil</t>
+          <t>çoxu oxuya oxuya hele de anlamayib meseleni onların evvelceden evliliye hazırlaşmasına aid sübutlar olmalıdir yeni bunu çox güman ki dell ve sübutlar ile önceden mehkeme tesdiq et sonra da nigah dairesi eyni zamanda ölenin valideynlerinin razılığı yeni ağlina gelib gedib evlenim ele deyil</t>
         </is>
       </c>
       <c r="B3938" t="n">
@@ -39842,7 +39842,7 @@
     <row r="3943">
       <c r="A3943" t="inlineStr">
         <is>
-          <t>mən ceyhun kantakda samsung &lt;NUM&gt; markalı telefon almışdım &lt;NUM&gt; aylig kredinən &lt;NUM&gt; basa gəldi ve üsdelik qizilutra zamənət hal hazırda telefonum ogranib mənim mənə bildirdirdiler ki mağazadan polisdən arayis gətirin ogranmasi barədə və sizə kompensasiya ödəniləcək men arayışı gətirib təqdim etim indi ise cürbəcür bəhanələr arayışda istintaqın gedişi ilə bağlı yazılmalıdır bir söznən hərgün ayri ayri bəhanələr yəni bir söznən məsulu alib cixana kimindir vse siz bəyəm huquq muhafisə orqaninan yaxşı biləcəysən cinayət isi basladi baslamadi onan sizə nə var siz gelin cinayet isini basladin qeribe detski söbət neyse mən ceyhun sizə qalan &lt;NUM&gt; aze olan borcumu ödəmiyəcəm sizdən xayis edirəm ki nənim aylə üzvülərimi odəmədiyim pula görə narahat etmiyəsiniz imza ceyhun</t>
+          <t>mən ceyhun kantakda samsung &lt;NUM&gt; markalı telefon almışdım &lt;NUM&gt; aylig kredinən &lt;NUM&gt; basa gəl ve üsdelik qizilutra zamənət hal hazırda telefonum ogranib mənim mənə bildirdirdiler ki mağazadan polisdən arayis gətirin ogranmasi barədə və sizə kompensasiya ödəniləcək men arayışı gətirib təqdim etim indi ise cürbəcür bəhanələr arayışda istintaqın gedişi ilə bağlı yazılmalıdır bir söznən hərgün ayri ayri bəhanələr yəni bir söznən məsulu alib cixana kimindir vse siz bəyəm huquq muhafisə orqaninan yaxşı biləcəysən cinayət isi basladi baslamadi onan sizə nə var siz gelin cinayet isini basladin qeribe detski söbət neyse mən ceyhun sizə qalan &lt;NUM&gt; aze olan borcumu ödəmiyəcəm sizdən xayis edirəm ki nənim aylə üzvülərimi odəmədiyim pula görə narahat etmiyəsiniz imza ceyhun</t>
         </is>
       </c>
       <c r="B3943" t="n">
@@ -40012,7 +40012,7 @@
     <row r="3960">
       <c r="A3960" t="inlineStr">
         <is>
-          <t>proqramı qoşan kimi telefonda &lt;NUM&gt; mb yer tutdu cəhənnəm heç olmasa_NEG balansı_NEG göstərsəydi_NEG yenə saxlamağa dəyərdi pozuram lazım olmadı google mapda bir ara hardan hara hansı nömrəli avtobus işləyirdi onu görmək olurdu gül kimiydidə onada bna da oturan başıboş xiyarlar mız qoydu ləğv elədilər həmin sistemi burda ancaq kartla işləyən avtobusları bilmək olur camaatın xeyrinə yox öz_NEG ciblərnin_NEG xeyrini_NEG güdüblər bular həmişə ona görədə pozub vızqırd eləyirəm bu zibili telefondan di sağ olun</t>
+          <t>proqramı qoşan kimi telefonda &lt;NUM&gt; mb yer tutdu cəhənnəm heç olmasa_NEG balansı_NEG göstərsəydi_NEG yenə saxlamağa dəyərdi pozuram lazım olmadı google mapda bir ara hardan hara hansı nömrəli avtobus işləyirdi onu görmək olurdu gül kimiydidə onada bna da oturan başıboş xiyarlar mız qoydu ləğv elədilər həmin sistemi burda ancaq kartla işləyən avtobusları bilmək ol camaatın xeyrinə yox öz_NEG ciblərnin_NEG xeyrini_NEG güdüblər bular həmişə ona görədə pozub vızqırd eləyirəm bu zibili telefondan di sağ olun</t>
         </is>
       </c>
       <c r="B3960" t="n">
@@ -40042,7 +40042,7 @@
     <row r="3963">
       <c r="A3963" t="inlineStr">
         <is>
-          <t>scip bəs edir dumqayıtın havasının tərkibini dəyişməyə ama nə təsadüfdürki nəticələr belə görünür</t>
+          <t>scip bəs et dumqayıtın havasının tərkibini dəyişməyə ama nə təsadüfdürki nəticələr belə görünür</t>
         </is>
       </c>
       <c r="B3963" t="n">
@@ -40062,7 +40062,7 @@
     <row r="3965">
       <c r="A3965" t="inlineStr">
         <is>
-          <t>fransız silahları çox keyfiyyətli olur adətən özünü doğrultmayanı yoxdur az_NEG amma_NEG çox_NEG keyfiyyətli istehsal edirlər</t>
+          <t>fransız silahları çox keyfiyyətli ol adətən özünü doğrultmayanı yoxdur az_NEG amma_NEG çox_NEG keyfiyyətli istehsal edirlər</t>
         </is>
       </c>
       <c r="B3965" t="n">
@@ -40102,7 +40102,7 @@
     <row r="3969">
       <c r="A3969" t="inlineStr">
         <is>
-          <t>məhəmməd əmin rəsulzadə qafqaz xatirələri ndə &lt;NUM&gt; ci ilin qışını moskvada cırıq ayaqqabılarda keçirdiyini yazır rəsulzadəni ayaqyalın görən bir rus arvad ona valenka deyilən keçə çəkmə borc veribmiş məhəmməd əmin qar donanda o keçə çəkmələri əriyəndə isə qalın yun corabın üstündən cırıq çüst ayaqqabılarını geyinib gedirmiş rumyansev kitabxanasına azərbaycan haqqında araşdırma aparmağa nəhayət qışın son günlərində abş fəhlələri sovet fəhlələrinə bir gəmi ayaqqabı göndərirlər və rəsulzadə cibində olan sonuncu və dəyərsiz qızıl pulun üstünə bir ədəd iynə bir qom tikiş sapı və bir çimdik duz qoyub o gəmidən bir cüt ayaqqabı ala bilir məhəmməd əmin özünü demokratik artistliyə vursaydı bəlkə də ayaqqabını abş fəhləsindən yox abş_NEG konqresindən_NEG alardı_NEG həm də bir ədəd iynə bir qom tikiş sapı və bir çimdik duz ödəmədən əslində elə indi də xalis demokratik düşüncə daşıyıcıları cırıq ayaqqabı ilə dolaşırlar öz məmləkətlərində bunun əsl səbəbi isə yüz il keçməsinə baxmayaraq azərbaycan insanın bu gün də xalqı təmsil etməsidir demokratiya isə xalqı millətə çevirən ağır intellektual prosesin nəticəsidir xalq özünün millət mərhələsinə yəni məsələn adət ənənədən qanuna şifahi ədəbiyyatdan yazılı ədəbiyyata zahiri təmtəraqdan daxili kübarlığa qəhrəmanlıqdan peşəkarlığa və keçməyibsə onun demokratiyası meymunun kostyum geyinməsi kimi bir şey olacaq bu gün azərbaycanda söz və fikir azadlığı filosofu söymək üçün pusqudadır insan haqları azərbaycanda imtiyaz mandat qarın davası aparır və niyə çünki biz hələ də xalqıq millət deyilik intellektual zəhmət tələb edən o möhtəşəm millətləşmə mərhələsini keçməmişik millət olanda bugünkü demokratik davranışlarımıza baxıb xəcalət çəkəcəyik necə ki mən indi yüz il əvvəl yanlış olaraq millət olmağı yuxusunda belə görməyən xalqa tezbazar demokratiya verib özü ayaqyalın qalan məhəmməd əminin cırıq ayaqqabılarına baxıb xəcalət çəkirəm</t>
+          <t>məhəmməd əmin rəsulzadə qafqaz xatirələri ndə &lt;NUM&gt; ci ilin qışını moskvada cırıq ayaqqabılarda keçirdiyini yazır rəsulzadəni ayaqyalın görən bir rus arvad ona valenka deyilən keçə çəkmə borc veribmiş məhəmməd əmin qar donanda o keçə çəkmələri əriyəndə isə qalın yun corabın üstündən cırıq çüst ayaqqabılarını geyinib gedirmiş rumyansev kitabxanasına azərbaycan haqqında araşdırma aparmağa nəhayət qışın son günlərində abş fəhlələri sovet fəhlələrinə bir gəmi ayaqqabı göndərirlər və rəsulzadə cibində olan sonuncu və dəyərsiz qızıl pulun üstünə bir ədəd iynə bir qom tikiş sapı və bir çimdik duz qoyub o gəmidən bir cüt ayaqqabı ala bil məhəmməd əmin özünü demokratik artistliyə vursaydı bəlkə də ayaqqabını abş fəhləsindən yox abş_NEG konqresindən_NEG alardı_NEG həm də bir ədəd iynə bir qom tikiş sapı və bir çimdik duz ödəmədən əslində elə indi də xalis demokratik düşüncə daşıyıcıları cırıq ayaqqabı ilə dolaşırlar öz məmləkətlərində bunun əsl səbəbi isə yüz il keçməsinə baxmayaraq azərbaycan insanın bu gün də xalqı təmsil etməsidir demokratiya isə xalqı millətə çevirən ağır intellektual prosesin nəticəsidir xalq özünün millət mərhələsinə yəni məsələn adət ənənədən qanuna şifahi ədəbiyyatdan yazılı ədəbiyyata zahiri təmtəraqdan daxili kübarlığa qəhrəmanlıqdan peşəkarlığa və keçməyibsə onun demokratiyası meymunun kostyum geyinməsi kimi bir şey olacaq bu gün azərbaycanda söz və fikir azadlığı filosofu söymək üçün pusqudadır insan haqları azərbaycanda imtiyaz mandat qarın davası aparır və niyə çünki biz hələ də xalqıq millət deyilik intellektual zəhmət tələb edən o möhtəşəm millətləşmə mərhələsini keçməmişik millət olanda bugünkü demokratik davranışlarımıza baxıb xəcalət çəkəcəyik necə ki mən indi yüz il əvvəl yanlış olaraq millət olmağı yuxusunda belə görməyən xalqa tezbazar demokratiya verib özü ayaqyalın qalan məhəmməd əminin cırıq ayaqqabılarına baxıb xəcalət çəkirəm</t>
         </is>
       </c>
       <c r="B3969" t="n">
@@ -40172,7 +40172,7 @@
     <row r="3976">
       <c r="A3976" t="inlineStr">
         <is>
-          <t>salam hörmətli admin bu tip paylaşımlarınız əlbətdə ki əladır amma nəzərə alaq ki bizim ölkənin heç də_NEG ideya_NEG baxımnan_NEG geri qalmayan şagirdləri var ki onları da işıqlandırsanız hər kəsə çox böyük stimul olar ölkəmizdə şagirdlərin hazırladıqları prototiplər ideyalar proyektlər hal hazırda dünya yarışlarında ön sıralarda sözünü deyir bunları necə nə cür araçdırıb tapmaq olar deyə sualınız olsa sizə kömək edə bilərəm uğurlar məncə bu foto nümunəsi nəsə deyər</t>
+          <t>salam hörmətli admin bu tip paylaşımlarınız əlbətdə ki əla amma nəzərə alaq ki bizim ölkənin heç də_NEG ideya_NEG baxımnan_NEG geri qalmayan şagirdləri var ki onları da işıqlandırsanız hər kəsə çox böyük stimul olar ölkəmizdə şagirdlərin hazırladıqları prototiplər ideyalar proyektlər hal hazırda dünya yarışlarında ön sıralarda sözünü de bunları necə nə cür araçdırıb tapmaq olar deyə sualınız olsa sizə kömək edə bilərəm uğurlar məncə bu foto nümunəsi nəsə deyər</t>
         </is>
       </c>
       <c r="B3976" t="n">
@@ -40212,7 +40212,7 @@
     <row r="3980">
       <c r="A3980" t="inlineStr">
         <is>
-          <t>ukrayna avropanın suriyası oldu qərb amerika tərəfindən ümumi götürəndə döyüş kimin ərazisində gedirsə məğlub odur &lt;NUM&gt; &lt;NUM&gt; il arxaya düşdü ukrayna milyonlarla qaçqın kaş olmayaydı belə bir müharibə heyf çox gözəl yer idi ukrayna</t>
+          <t>ukrayna avropanın suriyası ol qərb amerika tərəfindən ümumi götürəndə döyüş kimin ərazisində gedirsə məğlub odur &lt;NUM&gt; &lt;NUM&gt; il arxaya düşdü ukrayna milyonlarla qaçqın kaş olmayaydı belə bir müharibə heyf çox gözəl yer idi ukrayna</t>
         </is>
       </c>
       <c r="B3980" t="n">
@@ -40382,7 +40382,7 @@
     <row r="3997">
       <c r="A3997" t="inlineStr">
         <is>
-          <t>əməllı silkələnmə oldu hələ həyət evində bu cur oldusa çoxmərtəbəli binalarda təsəvvür edirəm necə hiss olunub inşallah ki başqa heç nə_NEG olmaz_NEG pis_NEG bir şeylər baş verməz yazıqdır millətimiz xalqımız allah bizim əhalini camaatımizı hər cür fəlakətdən qada bəladan pis insanlarin pisliklərindən qorusun</t>
+          <t>əməllı silkələnmə ol hələ həyət evində bu cur oldusa çoxmərtəbəli binalarda təsəvvür edirəm necə hiss olunub inşallah ki başqa heç nə_NEG olmaz_NEG pis_NEG bir şeylər baş verməz yazıqdır millətimiz xalqımız allah bizim əhalini camaatımizı hər cür fəlakətdən qada bəladan pis insanlarin pisliklərindən qorusun</t>
         </is>
       </c>
       <c r="B3997" t="n">
@@ -40412,7 +40412,7 @@
     <row r="4000">
       <c r="A4000" t="inlineStr">
         <is>
-          <t>araz supermarket bir dəfəsində endirimli olan məhsulu endirim kartı olmadı deyə öz qiymətinə verdilər ən azından endirim bannerinin üzərində kartsız endirim olunmur deyə söz yazın</t>
+          <t>araz supermarket bir dəfəsində endirimli olan məhsulu endirim kartı olmadı deyə öz qiymətinə ver ən azından endirim bannerinin üzərində kartsız endirim olunmur deyə söz yazın</t>
         </is>
       </c>
       <c r="B4000" t="n">
@@ -40442,7 +40442,7 @@
     <row r="4003">
       <c r="A4003" t="inlineStr">
         <is>
-          <t>arif isə əgər rənadan ayrı düşərsə ölə biləcəyini deyir</t>
+          <t>arif isə əgər rənadan ayrı düşərsə ölə biləcəyini de</t>
         </is>
       </c>
       <c r="B4003" t="n">
@@ -40622,7 +40622,7 @@
     <row r="4021">
       <c r="A4021" t="inlineStr">
         <is>
-          <t>wolt marketdən cheesecake sifariş verdim amma faktiki olaraq cheesecake görünüşündə kremli tort gəldi yaxından və uzaqdan əlaqəsi yoxdur cheesecake_NEG ilə_NEG insanları_NEG axmaq yerinə qoymayın</t>
+          <t>wolt marketdən cheesecake sifariş verdim amma faktiki olaraq cheesecake görünüşündə kremli tort gəl yaxından və uzaqdan əlaqəsi yoxdur cheesecake_NEG ilə_NEG insanları_NEG axmaq yerinə qoymayın</t>
         </is>
       </c>
       <c r="B4021" t="n">
@@ -40712,7 +40712,7 @@
     <row r="4030">
       <c r="A4030" t="inlineStr">
         <is>
-          <t>məlumat üçün demircargo rəhbərliyinə bildirirəmki mən cəlilov məhəmməd mübariz oğlu türkiyyədən gələn məhsulum kuriyerə verildikdən &lt;NUM&gt; iş gününə qədər çatdırırlmamışdır &lt;NUM&gt; çağrı mərkəzinə zəng edərək &lt;NUM&gt; &lt;NUM&gt; &lt;NUM&gt; cü il və &lt;NUM&gt; &lt;NUM&gt; &lt;NUM&gt; cü ildə məlumat verilmiş və adımnan sorğu yaradılmışdır lakin kuryerlə bağlı məhsulumun hansı kuryerinizdə olduğunu soruşduqda bilmədiyini nə zaman çatacağını məlumatda bilmədiklərini bildirdilər sualımda məhsulum itibmi çatacaqmı bildirərək müraciət etdim bilmədikərini söylədi sözüm şirkətin rəhbər şəxslərinədir işçiləriniz zamanında məhsulu çatdırmır buna səbəb şirkətiniz məhsul göndərərkən kuryerin maşınında demey olarki ayrı ayrılıqda &lt;NUM&gt; &lt;NUM&gt; məhsul olur bunu əlbbətdəki çatdırmaq reallığıa uyğun deyil məlumat_NEG mərkəzinə_NEG zəng_NEG olunur işçiləriniz məlumat vermir sadəcə başa düşürük çatdırırlacaqdır deyirlər &lt;NUM&gt; əgər məhsul mənim adımdadısa məhsulumun harada olduğu kuryerlə əlaqə vasitəsi qurmağa məhsulumu hansı kuryer çatdıracağı barədə bilməyə hər bir vətandaşın haqqı vardır &lt;NUM&gt; çatdırılmanı gecikdirdiyinizə görə hətta zəng olunub məlumat verilməli ya kuryer yada məlumat mərkəzi tərəfindən məlumat verilmədi bu barədə zəng etməsəydim vətandaş olaraq məlumat verilməyəcəkdi məhsulum zamanında çatdırılmadığı üçün daxili və ya inzibati tədbir görməyinizi sizdən xahiş edirəm &lt;NUM&gt; sadaladığlarıma əsasən daşıyıcı şirkət öz fəaliyyətini azərbaycan respublikasının tərtib etdiyi məcəlləyə və digər qanunvericilik aktlarına uyğun olaraq həyata keçirməlidir</t>
+          <t>məlumat üçün demircargo rəhbərliyinə bildirirəmki mən cəlilov məhəmməd mübariz oğlu türkiyyədən gələn məhsulum kuriyerə verildikdən &lt;NUM&gt; iş gününə qədər çatdırırlmamışdır &lt;NUM&gt; çağrı mərkəzinə zəng edərək &lt;NUM&gt; &lt;NUM&gt; &lt;NUM&gt; cü il və &lt;NUM&gt; &lt;NUM&gt; &lt;NUM&gt; cü ildə məlumat verilmiş və adımnan sorğu yaradılmışdır lakin kuryerlə bağlı məhsulumun hansı kuryerinizdə olduğunu soruşduqda bilmədiyini nə zaman çatacağını məlumatda bilmədiklərini bildirdilər sualımda məhsulum itibmi çatacaqmı bildirərək müraciət etdim bilmədikərini söylədi sözüm şirkətin rəhbər şəxslərinədir işçiləriniz zamanında məhsulu çatdırmır buna səbəb şirkətiniz məhsul göndərərkən kuryerin maşınında demey olarki ayrı ayrılıqda &lt;NUM&gt; &lt;NUM&gt; məhsul ol bunu əlbbətdəki çatdırmaq reallığıa uyğun deyil məlumat_NEG mərkəzinə_NEG zəng_NEG olunur işçiləriniz məlumat vermir sadəcə başa düşürük çatdırırlacaqdır deyirlər &lt;NUM&gt; əgər məhsul mənim adımdadısa məhsulumun harada olduğu kuryerlə əlaqə vasitəsi qurmağa məhsulumu hansı kuryer çatdıracağı barədə bilməyə hər bir vətandaşın haqqı vardır &lt;NUM&gt; çatdırılmanı gecikdirdiyinizə görə hətta zəng olunub məlumat verilməli ya kuryer yada məlumat mərkəzi tərəfindən məlumat verilmədi bu barədə zəng etməsəydim vətandaş olaraq məlumat verilməyəcəkdi məhsulum zamanında çatdırılmadığı üçün daxili və ya inzibati tədbir görməyinizi sizdən xahiş edirəm &lt;NUM&gt; sadaladığlarıma əsasən daşıyıcı şirkət öz fəaliyyətini azərbaycan respublikasının tərtib etdiyi məcəlləyə və digər qanunvericilik aktlarına uyğun olaraq həyata keçirməlidir</t>
         </is>
       </c>
       <c r="B4030" t="n">
@@ -40772,7 +40772,7 @@
     <row r="4036">
       <c r="A4036" t="inlineStr">
         <is>
-          <t>təpənə kül dalınca bir yes deyir bu pox dili bilmirsən danışma</t>
+          <t>təpənə kül dalınca bir yes de bu pox dili bilmirsən danışma</t>
         </is>
       </c>
       <c r="B4036" t="n">
@@ -40842,7 +40842,7 @@
     <row r="4043">
       <c r="A4043" t="inlineStr">
         <is>
-          <t>allah bəlalarını versin artıq &lt;NUM&gt; aydı su sızqa gəlir təzə təzə bismillah eliyib sevinirdik ki motorsuz pitiminutka işləyir yenə məcbur pitiminutka qoşaq gərək</t>
+          <t>allah bəlalarını versin artıq &lt;NUM&gt; aydı su sızqa gəl təzə təzə bismillah eliyib sevinirdik ki motorsuz pitiminutka işləyir yenə məcbur pitiminutka qoşaq gərək</t>
         </is>
       </c>
       <c r="B4043" t="n">
@@ -40922,7 +40922,7 @@
     <row r="4051">
       <c r="A4051" t="inlineStr">
         <is>
-          <t>manca tarazlik olur avropada doqum azalir cinsi azliklar coxalir dunya asiya xalqlarinin hesabina artir</t>
+          <t>manca tarazlik ol avropada doqum azalir cinsi azliklar coxalir dunya asiya xalqlarinin hesabina artir</t>
         </is>
       </c>
       <c r="B4051" t="n">
@@ -40942,7 +40942,7 @@
     <row r="4053">
       <c r="A4053" t="inlineStr">
         <is>
-          <t>ziraat onsuzda &lt;NUM&gt; dövlətindi mərkəzi bankın heç olmasa_NEG &lt;NUM&gt;_NEG i_NEG filan özəl olur dövlət dövlət fonduna camaatın pulun bağış atır bilən adam izah eləsə şad olaram çünki çox məntiqsiz gəlir</t>
+          <t>ziraat onsuzda &lt;NUM&gt; dövlətindi mərkəzi bankın heç olmasa_NEG &lt;NUM&gt;_NEG i_NEG filan özəl ol dövlət dövlət fonduna camaatın pulun bağış atır bilən adam izah eləsə şad olaram çünki çox məntiqsiz gəl</t>
         </is>
       </c>
       <c r="B4053" t="n">
@@ -41022,7 +41022,7 @@
     <row r="4061">
       <c r="A4061" t="inlineStr">
         <is>
-          <t>əvvəl torpaqlarımızı işğaldan azad etdiyimiz üçün bizə qarşı sanksiya tələb edir indi isə sözünü dəyişir bunu necə prezident seçiblər</t>
+          <t>əvvəl torpaqlarımızı işğaldan azad etdiyimiz üçün bizə qarşı sanksiya tələb et indi isə sözünü dəyişir bunu necə prezident seçiblər</t>
         </is>
       </c>
       <c r="B4061" t="n">
@@ -41042,7 +41042,7 @@
     <row r="4063">
       <c r="A4063" t="inlineStr">
         <is>
-          <t>tanışım bu xəstəliklə mübarizə aparır dərman qəbul edir indi tutması demək olar ki olmur şərhlərdə yazılanları oxuyuram şoka düşürəm özüm o insanı bir neçə dəfə görmüşəm o halda qaşıq barmaq salmaq lazım deyil yazığın_NEG ön_NEG dişlərini_NEG sındırmışdılar gedib onların düzəldilməsi üçün də pul xərcləmişdi burada yazılanlara əməl etmək lazımdır və insan özünə gəlir bu qədər sadə</t>
+          <t>tanışım bu xəstəliklə mübarizə aparır dərman qəbul et indi tutması demək olar ki olmur şərhlərdə yazılanları oxuyuram şoka düşürəm özüm o insanı bir neçə dəfə görmüşəm o halda qaşıq barmaq salmaq lazım deyil yazığın_NEG ön_NEG dişlərini_NEG sındırmışdılar gedib onların düzəldilməsi üçün də pul xərcləmişdi burada yazılanlara əməl etmək lazımdır və insan özünə gəl bu qədər sadə</t>
         </is>
       </c>
       <c r="B4063" t="n">
@@ -41112,7 +41112,7 @@
     <row r="4070">
       <c r="A4070" t="inlineStr">
         <is>
-          <t>çox gözəldir amma &lt;NUM&gt; gb olsa daha yaxşı olar</t>
+          <t>çox gözəl amma &lt;NUM&gt; gb olsa daha yaxşı olar</t>
         </is>
       </c>
       <c r="B4070" t="n">
@@ -41152,7 +41152,7 @@
     <row r="4074">
       <c r="A4074" t="inlineStr">
         <is>
-          <t>əgər o məni həqiqətən sevmiş olsaydı necə ki mən onu sevirəm onda yəqin ki öz həzzini mənə fəda etmiş olardı</t>
+          <t>əgər o məni həqiqətən sevmiş olsaydı necə ki mən onu sev onda yəqin ki öz həzzini mənə fəda etmiş olardı</t>
         </is>
       </c>
       <c r="B4074" t="n">
@@ -41402,7 +41402,7 @@
     <row r="4099">
       <c r="A4099" t="inlineStr">
         <is>
-          <t>sözüne düz kargo şirkəti xarici anbara çatmış bağlamanı sabahsı təhvil almaq olur çəkisi az olan baglamalarin qrama qram hesablanması çox çox serfelidir</t>
+          <t>sözüne düz kargo şirkəti xarici anbara çatmış bağlamanı sabahsı təhvil almaq ol çəkisi az olan baglamalarin qrama qram hesablanması çox çox serfelidir</t>
         </is>
       </c>
       <c r="B4099" t="n">
@@ -41502,7 +41502,7 @@
     <row r="4109">
       <c r="A4109" t="inlineStr">
         <is>
-          <t>citynet internet provayderdi haqqımda yazıram modem interneti çox zəif ötürdüyü üçün texniki şöbə ilə əlaqə saxladım heç yaxınlaşıb_NEG baxmadılar_NEG telefonda_NEG əməkdaşları dedi ki &lt;NUM&gt; manata &lt;NUM&gt; antenası olan modem var satışda onu almağı tövsiyyə edirəm dedim ki aylıq &lt;NUM&gt; manat ödəniş edirəm sizə gəlin modemi təmir edin və ya yenisi ilə əvəz edin əməkdaşları dedi ki bizdə elə bir xidmət yoxdu təbii olaraq &lt;NUM&gt; manata təklif etdikləri modemi almaqdansa provayderi dəyişməyi qərar verdim zəng edib deyirəm citynet əməkdaşına ki sizin xidmətdən imtina edirəm məlumatınız olsun deyir mütləq bizim ofisə yaxınlaşmalısız müqaviləyə xitam vermək üçün anlatmaq istədim ki &lt;NUM&gt; ci əsrdi niyə yaxınlaşım ofisə qoşulma edəndə müqavilə bağlanda heç ofisə_NEG yaxınlaşmaq_NEG lazım_NEG olmamışdı bir zənglə gəlmişdilər indi deyir mütləq yaxınlaşmalısız üstəgəl qoşulma zamanı demişdilər ki bir il istifadə etdikdən sonra model sizin özünüzə qalır indi isə deyir ki modemi təhvil verməlisiniz çoxlarının bəyənmədiyi bakinternet dən belə müqaviləyə xitam zamanı idarəmizə mütləq yaxınlaşmalısız sözünü deməmişdilər demişdilər sadəcə olaraq ödəniş etməyin internetinizi kəsəcəyik düşünürəm ki citynet şirkəti müştəri məmnuniyyəti mövzusunda bir qədər inkişaf etməlidir</t>
+          <t>citynet internet provayderdi haqqımda yazıram modem interneti çox zəif ötürdüyü üçün texniki şöbə ilə əlaqə saxladım heç yaxınlaşıb_NEG baxmadılar_NEG telefonda_NEG əməkdaşları dedi ki &lt;NUM&gt; manata &lt;NUM&gt; antenası olan modem var satışda onu almağı tövsiyyə edirəm dedim ki aylıq &lt;NUM&gt; manat ödəniş edirəm sizə gəlin modemi təmir edin və ya yenisi ilə əvəz edin əməkdaşları dedi ki bizdə elə bir xidmət yoxdu təbii olaraq &lt;NUM&gt; manata təklif etdikləri modemi almaqdansa provayderi dəyişməyi qərar verdim zəng edib deyirəm citynet əməkdaşına ki sizin xidmətdən imtina edirəm məlumatınız olsun de mütləq bizim ofisə yaxınlaşmalısız müqaviləyə xitam vermək üçün anlatmaq istə ki &lt;NUM&gt; ci əsrdi niyə yaxınlaşım ofisə qoşulma edəndə müqavilə bağlanda heç ofisə_NEG yaxınlaşmaq_NEG lazım_NEG olmamışdı bir zənglə gəlmişdilər indi de mütləq yaxınlaşmalısız üstəgəl qoşulma zamanı demişdilər ki bir il istifadə etdikdən sonra model sizin özünüzə qalır indi isə de ki modemi təhvil verməlisiniz çoxlarının bəyənmədiyi bakinternet dən belə müqaviləyə xitam zamanı idarəmizə mütləq yaxınlaşmalısız sözünü deməmişdilər demişdilər sadəcə olaraq ödəniş etməyin internetinizi kəsəcəyik düşünürəm ki citynet şirkəti müştəri məmnuniyyəti mövzusunda bir qədər inkişaf etməlidir</t>
         </is>
       </c>
       <c r="B4109" t="n">
@@ -41512,7 +41512,7 @@
     <row r="4110">
       <c r="A4110" t="inlineStr">
         <is>
-          <t>ahahaha vururmuş kimi edib vurmur millətdə elə bilir ağrısızdı</t>
+          <t>ahahaha vururmuş kimi edib vurmur millətdə elə bil ağrısızdı</t>
         </is>
       </c>
       <c r="B4110" t="n">
@@ -41522,7 +41522,7 @@
     <row r="4111">
       <c r="A4111" t="inlineStr">
         <is>
-          <t>cənab prezidentin ömrü uzun olsun dedi və etdi prezidentin ünvanı dəyişməli şahənşah olmalı və müddətsiz olmalı bugünləri bizə yaşadan allaha sonsuz şükürlər olsun</t>
+          <t>cənab prezidentin ömrü uzun olsun dedi və et prezidentin ünvanı dəyişməli şahənşah olmalı və müddətsiz olmalı bugünləri bizə yaşadan allaha sonsuz şükürlər olsun</t>
         </is>
       </c>
       <c r="B4111" t="n">
@@ -41632,7 +41632,7 @@
     <row r="4122">
       <c r="A4122" t="inlineStr">
         <is>
-          <t>ay səni xoş gəlmədin səfa gətirmədin bəs demişdin ki qarabağdan ancaq ayaqların irəli çıxacaqsan nə oldu araik</t>
+          <t>ay səni xoş gəlmədin səfa gətirmədin bəs demişdin ki qarabağdan ancaq ayaqların irəli çıxacaqsan nə ol araik</t>
         </is>
       </c>
       <c r="B4122" t="n">
@@ -41982,7 +41982,7 @@
     <row r="4157">
       <c r="A4157" t="inlineStr">
         <is>
-          <t>həftə sonu paketinə update etməyinizi istəyirəm çox biabır vəziyyətdədi bu surətlə heçnə etmək olmur</t>
+          <t>həftə sonu paketinə update etməyinizi istə çox biabır vəziyyətdədi bu surətlə heçnə etmək olmur</t>
         </is>
       </c>
       <c r="B4157" t="n">
@@ -41992,7 +41992,7 @@
     <row r="4158">
       <c r="A4158" t="inlineStr">
         <is>
-          <t>ülvi abdullayev məncə oxşayır fizik effektlərinə fikir vermədin saçların necə hərəkət etməsi işıqlanma npc lərin hərəkətləri çoxluğu və ən əsası dediklərinə görə oyundakı &lt;NUM&gt; bina sadəcə model deyil binalara_NEG daxil_NEG ola_NEG biləcəyik hələ oturub bir bir sayası olsaq adi bir trailerdə o qədər detal o qədər incəliklər görmək olur ki insan düşünür bu oyunu sistemlər necə işlədə biləcək necə optimizasiya edəcəklər bu qədər şeyi vallah zarafat deyil amma_NEG mən_NEG inanıram_NEG oyunun gözləntiləri doğruldacağına rockstar games oyun dünyasının ən böyük ən güclü oyun firmasıdır</t>
+          <t>ülvi abdullayev məncə oxşayır fizik effektlərinə fikir vermədin saçların necə hərəkət etməsi işıqlanma npc lərin hərəkətləri çoxluğu və ən əsası dediklərinə görə oyundakı &lt;NUM&gt; bina sadəcə model deyil binalara_NEG daxil_NEG ola_NEG biləcəyik hələ oturub bir bir sayası olsaq adi bir trailerdə o qədər detal o qədər incəliklər görmək ol ki insan düşünür bu oyunu sistemlər necə işlədə biləcək necə optimizasiya edəcəklər bu qədər şeyi vallah zarafat deyil amma_NEG mən_NEG inanıram_NEG oyunun gözləntiləri doğruldacağına rockstar games oyun dünyasının ən böyük ən güclü oyun firmasıdır</t>
         </is>
       </c>
       <c r="B4158" t="n">
@@ -42028,7 +42028,7 @@
     <row r="4162">
       <c r="A4162" t="inlineStr">
         <is>
-          <t>demək hardasa &lt;NUM&gt; &lt;NUM&gt; il qabaq türkiyədə küçə müsahibələrində belə bir sual verirdilər sarı mikrafon kanalı idi səhv etmirəmsə türkiyənin qonşuları hansı ölkələrdir sayırdılar suriya yunanıstan iraq iran və cavbaların &lt;NUM&gt; da ya azərbaycan adı deyilmirdi yada naxçıvan deyirdilər indi videonu gördüm o yadıma düşdü hardan hara gəlmişik uşaqlar demək olar saniyə keçməmiş azərbaycan dilində sözün qarşılığını deyirlər halal olsun</t>
+          <t>demək hardasa &lt;NUM&gt; &lt;NUM&gt; il qabaq türkiyədə küçə müsahibələrində belə bir sual verirdilər sarı mikrafon kanalı idi səhv etmirəmsə türkiyənin qonşuları hansı ölkələrdir sayırdılar suriya yunanıstan iraq iran və cavbaların &lt;NUM&gt; da ya azərbaycan adı deyilmirdi yada naxçıvan deyirdilər indi videonu gör o yadıma düşdü hardan hara gəlmişik uşaqlar demək olar saniyə keçməmiş azərbaycan dilində sözün qarşılığını deyirlər halal olsun</t>
         </is>
       </c>
       <c r="B4162" t="n">
@@ -42058,7 +42058,7 @@
     <row r="4165">
       <c r="A4165" t="inlineStr">
         <is>
-          <t>məhsulun necə bəyan edilməsi və ya sifariş edilməsi barədə istiqamətləndirici yoxdur və_NEG hər_NEG daxil_NEG olduqda qiymətləndirmə səhifəsinin açılması narazılığa səbəb olur</t>
+          <t>məhsulun necə bəyan edilməsi və ya sifariş edilməsi barədə istiqamətləndirici yoxdur və_NEG hər_NEG daxil_NEG olduqda qiymətləndirmə səhifəsinin açılması narazılığa səbəb ol</t>
         </is>
       </c>
       <c r="B4165" t="n">
@@ -42138,7 +42138,7 @@
     <row r="4173">
       <c r="A4173" t="inlineStr">
         <is>
-          <t>duzdu menim iş yoldaşimda dil kursuna qeder getdi oyrendi o qeder hazirlaşdi ama helede bir xeber yoxdu</t>
+          <t>duzdu menim iş yoldaşimda dil kursuna qeder get oyrendi o qeder hazirlaşdi ama helede bir xeber yoxdu</t>
         </is>
       </c>
       <c r="B4173" t="n">
@@ -42178,7 +42178,7 @@
     <row r="4177">
       <c r="A4177" t="inlineStr">
         <is>
-          <t>azerbaycan musiqisi uzeyirle hacibeyovla doguldu uzeyirle mehv oldu</t>
+          <t>azerbaycan musiqisi uzeyirle hacibeyovla doguldu uzeyirle mehv ol</t>
         </is>
       </c>
       <c r="B4177" t="n">
@@ -42208,7 +42208,7 @@
     <row r="4180">
       <c r="A4180" t="inlineStr">
         <is>
-          <t>mənə elə gəlir ki bu ağsaqqal biraz pülüyür allah uzun ömür versin yenədə maraqlı söhbət edir dinləməyə deyer</t>
+          <t>mənə elə gəl ki bu ağsaqqal biraz pülüyür allah uzun ömür versin yenədə maraqlı söhbət et dinləməyə deyer</t>
         </is>
       </c>
       <c r="B4180" t="n">
@@ -42298,7 +42298,7 @@
     <row r="4189">
       <c r="A4189" t="inlineStr">
         <is>
-          <t>çox əladı xoşum gəldi yeni güncələmədə kabinetdən kontur atmaq gəlsin</t>
+          <t>çox əladı xoşum gəl yeni güncələmədə kabinetdən kontur atmaq gəlsin</t>
         </is>
       </c>
       <c r="B4189" t="n">
@@ -42348,7 +42348,7 @@
     <row r="4194">
       <c r="A4194" t="inlineStr">
         <is>
-          <t>məni də dəhşət aldı mən gördüm ki tutduğu işin bütün dəhşətini o ancaq indi tamamilə hiss etmişdi</t>
+          <t>məni də dəhşət aldı mən gör ki tutduğu işin bütün dəhşətini o ancaq indi tamamilə hiss etmişdi</t>
         </is>
       </c>
       <c r="B4194" t="n">
